--- a/results.xlsx
+++ b/results.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
+    <sheet name="Consistent Error Baseline" sheetId="2" r:id="rId2"/>
+    <sheet name="Consistent Error XAI" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -97,22 +99,199 @@
     <t>Female</t>
   </si>
   <si>
-    <t>25-34</t>
-  </si>
-  <si>
-    <t>10-15 years</t>
+    <t>18-24</t>
+  </si>
+  <si>
+    <t>&lt;5 years</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <t>ll</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>test@bla.de</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>18,10,11,12,13,14,15,16,17,28,20,21,22,23,24,25,26,27</t>
+  </si>
+  <si>
+    <t>marc.aubreville@thi.de</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>10,11,12,13,14,15,16,17,18,20,21,22,23,24,25,26,27,28</t>
+  </si>
+  <si>
+    <t>Prefer not to say</t>
+  </si>
+  <si>
+    <t>&gt;55</t>
+  </si>
+  <si>
+    <t>&gt;15 years</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>jony.ive@apple.com</t>
+  </si>
+  <si>
+    <t>11,12,13,14,15,16,17,18,10,21,22,23,24,25,26,27,28,20</t>
+  </si>
+  <si>
+    <t>slide1</t>
+  </si>
+  <si>
+    <t>slide2</t>
+  </si>
+  <si>
+    <t>slide3</t>
+  </si>
+  <si>
+    <t>slide4</t>
+  </si>
+  <si>
+    <t>slide5</t>
+  </si>
+  <si>
+    <t>slide6</t>
+  </si>
+  <si>
+    <t>slide7</t>
+  </si>
+  <si>
+    <t>slide8</t>
+  </si>
+  <si>
+    <t>slide9</t>
+  </si>
+  <si>
+    <t>slide10</t>
+  </si>
+  <si>
+    <t>slide11</t>
+  </si>
+  <si>
+    <t>slide12</t>
+  </si>
+  <si>
+    <t>slide13</t>
+  </si>
+  <si>
+    <t>slide14</t>
+  </si>
+  <si>
+    <t>slide15</t>
+  </si>
+  <si>
+    <t>slide16</t>
+  </si>
+  <si>
+    <t>slide17</t>
+  </si>
+  <si>
+    <t>slide18</t>
+  </si>
+  <si>
+    <t>consistent error</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>completed</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>3232</t>
+  </si>
+  <si>
+    <t>qw</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
   <si>
     <t>33</t>
@@ -121,25 +300,10 @@
     <t>44</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>test@bla.de</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>18,10,11,12,13,14,15,16,17,28,20,21,22,23,24,25,26,27</t>
+    <t>66</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
 </sst>
 </file>
@@ -471,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,46 +773,46 @@
         <v>30</v>
       </c>
       <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="U3" t="s">
         <v>36</v>
       </c>
-      <c r="P3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>37</v>
-      </c>
-      <c r="V3" t="s">
-        <v>33</v>
       </c>
       <c r="W3" t="s">
         <v>38</v>
@@ -663,6 +827,374 @@
       </c>
       <c r="C4" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -10,13 +10,19 @@
     <sheet name="General data" sheetId="1" r:id="rId1"/>
     <sheet name="Consistent Error Baseline" sheetId="2" r:id="rId2"/>
     <sheet name="Consistent Error XAI" sheetId="3" r:id="rId3"/>
+    <sheet name="Consistent Error Baseline-NoTP" sheetId="4" r:id="rId4"/>
+    <sheet name="Consistent Error Baseline-TP" sheetId="5" r:id="rId5"/>
+    <sheet name="Consistent Error XAI-NoTP" sheetId="6" r:id="rId6"/>
+    <sheet name="Consistent Error XAI-TP" sheetId="7" r:id="rId7"/>
+    <sheet name="JAS" sheetId="8" r:id="rId8"/>
+    <sheet name="Consistent Error AI" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -105,36 +111,39 @@
     <t>&lt;5 years</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>kk</t>
-  </si>
-  <si>
-    <t>ll</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>55</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>test@bla.de</t>
   </si>
   <si>
@@ -153,25 +162,43 @@
     <t>10,11,12,13,14,15,16,17,18,20,21,22,23,24,25,26,27,28</t>
   </si>
   <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>&gt;15 years</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>jony.ive@apple.com</t>
+  </si>
+  <si>
+    <t>11,12,13,14,15,16,17,18,10,21,22,23,24,25,26,27,28,20</t>
+  </si>
+  <si>
     <t>Prefer not to say</t>
   </si>
   <si>
     <t>&gt;55</t>
   </si>
   <si>
-    <t>&gt;15 years</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>jony.ive@apple.com</t>
-  </si>
-  <si>
-    <t>11,12,13,14,15,16,17,18,10,21,22,23,24,25,26,27,28,20</t>
+    <t>33</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>54</t>
   </si>
   <si>
     <t>slide1</t>
@@ -234,76 +261,142 @@
     <t>label</t>
   </si>
   <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>overestimation</t>
+  </si>
+  <si>
+    <t>no tendency</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>underestimation</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>78</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
-    <t>3232</t>
-  </si>
-  <si>
-    <t>qw</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>59</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>74</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>2A</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>50</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>AI-underestimation</t>
+  </si>
+  <si>
+    <t>AI-no-deviation</t>
+  </si>
+  <si>
+    <t>AI-overestimation</t>
   </si>
 </sst>
 </file>
@@ -785,13 +878,13 @@
         <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -800,82 +893,247 @@
         <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="V3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W3" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="X3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L5" t="s">
         <v>49</v>
       </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" t="s">
+        <v>58</v>
+      </c>
+      <c r="W6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -896,64 +1154,64 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="N1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="O1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="S1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -961,103 +1219,205 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="Q2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="R2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="S2" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="T2">
+        <v>11.77777777777778</v>
+      </c>
+      <c r="U2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4" t="s">
+        <v>94</v>
+      </c>
+      <c r="S4" t="s">
         <v>87</v>
       </c>
-      <c r="H4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" t="s">
-        <v>91</v>
+      <c r="T4">
+        <v>-8.166666666666666</v>
+      </c>
+      <c r="U4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R5" t="s">
+        <v>101</v>
+      </c>
+      <c r="S5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T5">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="U5" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1078,64 +1438,64 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="N1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="O1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="S1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1143,58 +1503,1033 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" t="s">
         <v>94</v>
       </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" t="s">
-        <v>92</v>
+      <c r="R2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2">
+        <v>22.5</v>
+      </c>
+      <c r="U2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4" t="s">
+        <v>94</v>
+      </c>
+      <c r="S4" t="s">
+        <v>104</v>
+      </c>
+      <c r="T4">
+        <v>-11.88888888888889</v>
+      </c>
+      <c r="U4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
         <v>50</v>
       </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O5" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>118</v>
+      </c>
+      <c r="R5" t="s">
+        <v>120</v>
+      </c>
+      <c r="S5" t="s">
+        <v>121</v>
+      </c>
+      <c r="T5">
+        <v>6.555555555555555</v>
+      </c>
+      <c r="U5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2">
+        <v>14.55555555555556</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4">
+        <v>-5.777777777777778</v>
+      </c>
+      <c r="L4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
       <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="L5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4">
+        <v>-10.55555555555556</v>
+      </c>
+      <c r="L4" t="s">
         <v>95</v>
       </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>26.22222222222222</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4">
+        <v>-10.66666666666667</v>
+      </c>
+      <c r="L4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="L5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>18.77777777777778</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4">
+        <v>-13.11111111111111</v>
+      </c>
+      <c r="L4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5">
+        <v>7.444444444444445</v>
+      </c>
+      <c r="L5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>0.2062648602826659</v>
+      </c>
+      <c r="C2">
+        <v>0.3421811079011891</v>
+      </c>
+      <c r="D2">
+        <v>0.4515158771624289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>0.4895634275500794</v>
+      </c>
+      <c r="C4">
+        <v>0.06481481481481481</v>
+      </c>
+      <c r="D4">
+        <v>0.01472962066182405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>0.9081529581529582</v>
+      </c>
+      <c r="C5">
+        <v>0.8650793650793651</v>
+      </c>
+      <c r="D5">
+        <v>0.926440329218107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>15.33333333333333</v>
+      </c>
+      <c r="C2">
+        <v>19.83333333333333</v>
+      </c>
+      <c r="D2">
+        <v>32.33333333333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>-18.5</v>
+      </c>
+      <c r="C4">
+        <v>-11.66666666666667</v>
+      </c>
+      <c r="D4">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>-16.33333333333333</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="133">
   <si>
     <t>ID</t>
   </si>
@@ -105,286 +105,310 @@
     <t>Female</t>
   </si>
   <si>
-    <t>18-24</t>
-  </si>
-  <si>
-    <t>&lt;5 years</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>10-15 years</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>completed</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>test@bla.de</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>18,10,11,12,13,14,15,16,17,28,20,21,22,23,24,25,26,27</t>
+  </si>
+  <si>
+    <t>marc.aubreville@thi.de</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>10,11,12,13,14,15,16,17,18,20,21,22,23,24,25,26,27,28</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>&gt;15 years</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>jony.ive@apple.com</t>
+  </si>
+  <si>
+    <t>11,12,13,14,15,16,17,18,10,21,22,23,24,25,26,27,28,20</t>
+  </si>
+  <si>
+    <t>Prefer not to say</t>
+  </si>
+  <si>
+    <t>&gt;55</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>slide1</t>
+  </si>
+  <si>
+    <t>slide2</t>
+  </si>
+  <si>
+    <t>slide3</t>
+  </si>
+  <si>
+    <t>slide4</t>
+  </si>
+  <si>
+    <t>slide5</t>
+  </si>
+  <si>
+    <t>slide6</t>
+  </si>
+  <si>
+    <t>slide7</t>
+  </si>
+  <si>
+    <t>slide8</t>
+  </si>
+  <si>
+    <t>slide9</t>
+  </si>
+  <si>
+    <t>slide10</t>
+  </si>
+  <si>
+    <t>slide11</t>
+  </si>
+  <si>
+    <t>slide12</t>
+  </si>
+  <si>
+    <t>slide13</t>
+  </si>
+  <si>
+    <t>slide14</t>
+  </si>
+  <si>
+    <t>slide15</t>
+  </si>
+  <si>
+    <t>slide16</t>
+  </si>
+  <si>
+    <t>slide17</t>
+  </si>
+  <si>
+    <t>slide18</t>
+  </si>
+  <si>
+    <t>consistent error</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>overestimation</t>
+  </si>
+  <si>
+    <t>no tendency</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>test@bla.de</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>18,10,11,12,13,14,15,16,17,28,20,21,22,23,24,25,26,27</t>
-  </si>
-  <si>
-    <t>marc.aubreville@thi.de</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>10,11,12,13,14,15,16,17,18,20,21,22,23,24,25,26,27,28</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>35-44</t>
-  </si>
-  <si>
-    <t>&gt;15 years</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>jony.ive@apple.com</t>
-  </si>
-  <si>
-    <t>11,12,13,14,15,16,17,18,10,21,22,23,24,25,26,27,28,20</t>
-  </si>
-  <si>
-    <t>Prefer not to say</t>
-  </si>
-  <si>
-    <t>&gt;55</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>slide1</t>
-  </si>
-  <si>
-    <t>slide2</t>
-  </si>
-  <si>
-    <t>slide3</t>
-  </si>
-  <si>
-    <t>slide4</t>
-  </si>
-  <si>
-    <t>slide5</t>
-  </si>
-  <si>
-    <t>slide6</t>
-  </si>
-  <si>
-    <t>slide7</t>
-  </si>
-  <si>
-    <t>slide8</t>
-  </si>
-  <si>
-    <t>slide9</t>
-  </si>
-  <si>
-    <t>slide10</t>
-  </si>
-  <si>
-    <t>slide11</t>
-  </si>
-  <si>
-    <t>slide12</t>
-  </si>
-  <si>
-    <t>slide13</t>
-  </si>
-  <si>
-    <t>slide14</t>
-  </si>
-  <si>
-    <t>slide15</t>
-  </si>
-  <si>
-    <t>slide16</t>
-  </si>
-  <si>
-    <t>slide17</t>
-  </si>
-  <si>
-    <t>slide18</t>
-  </si>
-  <si>
-    <t>consistent error</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>70</t>
+    <t>66</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>underestimation</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>95</t>
   </si>
   <si>
     <t>92</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>overestimation</t>
-  </si>
-  <si>
-    <t>no tendency</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>underestimation</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>100</t>
+    <t>51</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
   <si>
     <t>76</t>
   </si>
   <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
     <t>88</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>56</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>71</t>
   </si>
   <si>
     <t>27</t>
@@ -863,277 +887,277 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="V3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" t="s">
         <v>34</v>
       </c>
-      <c r="N3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="Z3" t="s">
         <v>29</v>
       </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="AA3" t="s">
         <v>34</v>
       </c>
-      <c r="U3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>30</v>
-      </c>
       <c r="AB3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AD3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>45</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>46</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>47</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
         <v>48</v>
       </c>
-      <c r="G5" t="s">
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
+      <c r="R5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="V5" t="s">
         <v>49</v>
       </c>
-      <c r="L5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" t="s">
-        <v>31</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>50</v>
       </c>
-      <c r="W5" t="s">
-        <v>51</v>
-      </c>
       <c r="X5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AE5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
         <v>53</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
         <v>55</v>
       </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" t="s">
         <v>35</v>
       </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="T6" t="s">
         <v>57</v>
       </c>
-      <c r="M6" t="s">
+      <c r="U6" t="s">
         <v>30</v>
-      </c>
-      <c r="N6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" t="s">
-        <v>37</v>
-      </c>
-      <c r="U6" t="s">
-        <v>31</v>
       </c>
       <c r="V6" t="s">
         <v>58</v>
       </c>
       <c r="W6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="X6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA6" t="s">
         <v>34</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AB6" t="s">
         <v>35</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AC6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD6" t="s">
         <v>36</v>
       </c>
-      <c r="AA6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>38</v>
-      </c>
       <c r="AE6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1225,199 +1249,199 @@
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" t="s">
         <v>85</v>
       </c>
-      <c r="K2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" t="s">
-        <v>87</v>
-      </c>
-      <c r="P2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>83</v>
-      </c>
       <c r="R2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="S2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="T2">
-        <v>11.77777777777778</v>
+        <v>7.944444444444445</v>
       </c>
       <c r="U2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="Q4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="R4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="S4" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="T4">
         <v>-8.166666666666666</v>
       </c>
       <c r="U4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" t="s">
         <v>94</v>
       </c>
-      <c r="C5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N5" t="s">
         <v>100</v>
       </c>
-      <c r="I5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" t="s">
-        <v>103</v>
-      </c>
-      <c r="L5" t="s">
-        <v>104</v>
-      </c>
-      <c r="M5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N5" t="s">
-        <v>92</v>
-      </c>
       <c r="O5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="Q5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="R5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="S5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T5">
         <v>0.3888888888888889</v>
       </c>
       <c r="U5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1503,205 +1527,205 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" t="s">
         <v>84</v>
       </c>
-      <c r="K2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" t="s">
-        <v>104</v>
-      </c>
-      <c r="N2" t="s">
-        <v>111</v>
-      </c>
-      <c r="O2" t="s">
-        <v>109</v>
-      </c>
       <c r="P2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q2" t="s">
+        <v>123</v>
+      </c>
+      <c r="R2" t="s">
         <v>94</v>
       </c>
-      <c r="R2" t="s">
-        <v>50</v>
-      </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="T2">
-        <v>22.5</v>
+        <v>16.61111111111111</v>
       </c>
       <c r="U2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s">
         <v>83</v>
       </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S4" t="s">
         <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O4" t="s">
-        <v>91</v>
-      </c>
-      <c r="P4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>93</v>
-      </c>
-      <c r="R4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S4" t="s">
-        <v>104</v>
       </c>
       <c r="T4">
         <v>-11.88888888888889</v>
       </c>
       <c r="U4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="L5" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M5" t="s">
         <v>118</v>
       </c>
       <c r="N5" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="O5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q5" t="s">
         <v>118</v>
       </c>
       <c r="R5" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="S5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="T5">
         <v>6.555555555555555</v>
       </c>
       <c r="U5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1760,118 +1784,118 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K2">
-        <v>14.55555555555556</v>
+        <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="K4">
         <v>-5.777777777777778</v>
       </c>
       <c r="L4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K5">
         <v>0.4444444444444444</v>
       </c>
       <c r="L5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1936,112 +1960,112 @@
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K2">
-        <v>9</v>
+        <v>4.888888888888889</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K4">
         <v>-10.55555555555556</v>
       </c>
       <c r="L4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" t="s">
         <v>94</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" t="s">
-        <v>102</v>
       </c>
       <c r="K5">
         <v>0.3333333333333333</v>
       </c>
       <c r="L5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2100,118 +2124,118 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="K2">
-        <v>26.22222222222222</v>
+        <v>16.88888888888889</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J4" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>-10.66666666666667</v>
       </c>
       <c r="L4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
         <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
         <v>118</v>
       </c>
       <c r="I5" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="K5">
         <v>5.666666666666667</v>
       </c>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2270,118 +2294,118 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" t="s">
         <v>94</v>
       </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
       <c r="K2">
-        <v>18.77777777777778</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s">
         <v>83</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" t="s">
-        <v>79</v>
       </c>
       <c r="K4">
         <v>-13.11111111111111</v>
       </c>
       <c r="L4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="K5">
         <v>7.444444444444445</v>
       </c>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2402,13 +2426,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2416,23 +2440,23 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>0.2062648602826659</v>
+        <v>0.1603935280405868</v>
       </c>
       <c r="C2">
-        <v>0.3421811079011891</v>
+        <v>0.3027950310559006</v>
       </c>
       <c r="D2">
-        <v>0.4515158771624289</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>0.4895634275500794</v>
@@ -2446,7 +2470,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>0.9081529581529582</v>
@@ -2476,13 +2500,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2490,23 +2514,23 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>15.33333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="C2">
-        <v>19.83333333333333</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="D2">
-        <v>32.33333333333334</v>
+        <v>34.83333333333334</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>-18.5</v>
@@ -2520,7 +2544,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>-16.33333333333333</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="142">
   <si>
     <t>ID</t>
   </si>
@@ -201,6 +201,27 @@
     <t>54</t>
   </si>
   <si>
+    <t>joluga@web.de</t>
+  </si>
+  <si>
+    <t>12,13,14,15,16,17,18,10,11,22,23,24,25,26,27,28,20,21</t>
+  </si>
+  <si>
+    <t>5-10 years</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>slide1</t>
   </si>
   <si>
@@ -279,9 +300,6 @@
     <t>75</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
@@ -321,9 +339,6 @@
     <t>66</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -369,6 +384,18 @@
     <t>57</t>
   </si>
   <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
     <t>69</t>
   </si>
   <si>
@@ -396,9 +423,6 @@
     <t>64</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
@@ -412,6 +436,9 @@
   </si>
   <si>
     <t>27</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>AI-underestimation</t>
@@ -752,7 +779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1160,6 +1187,101 @@
         <v>36</v>
       </c>
     </row>
+    <row r="7" spans="1:31">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" t="s">
+        <v>64</v>
+      </c>
+      <c r="W7" t="s">
+        <v>65</v>
+      </c>
+      <c r="X7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1167,7 +1289,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1178,64 +1300,64 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="L1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="N1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="O1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="P1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Q1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="R1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="S1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="T1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="U1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1243,64 +1365,64 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="N2" t="s">
         <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Q2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="R2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="S2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="T2">
         <v>7.944444444444445</v>
       </c>
       <c r="U2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1311,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1319,34 +1441,34 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L4" t="s">
         <v>49</v>
@@ -1355,19 +1477,19 @@
         <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s">
         <v>57</v>
       </c>
       <c r="Q4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="R4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S4" t="s">
         <v>38</v>
@@ -1376,7 +1498,7 @@
         <v>-8.166666666666666</v>
       </c>
       <c r="U4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1384,64 +1506,129 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L5" t="s">
         <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="N5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q5" t="s">
+        <v>119</v>
+      </c>
+      <c r="R5" t="s">
         <v>114</v>
       </c>
-      <c r="R5" t="s">
-        <v>109</v>
-      </c>
       <c r="S5" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="T5">
         <v>0.3888888888888889</v>
       </c>
       <c r="U5" t="s">
-        <v>96</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" t="s">
+        <v>112</v>
+      </c>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>112</v>
+      </c>
+      <c r="R6" t="s">
+        <v>123</v>
+      </c>
+      <c r="S6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T6">
+        <v>-12.38888888888889</v>
+      </c>
+      <c r="U6" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1451,7 +1638,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1462,64 +1649,64 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="L1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="N1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="O1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="P1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Q1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="R1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="S1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="T1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="U1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1527,64 +1714,64 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L2" t="s">
         <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="N2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S2" t="s">
         <v>122</v>
-      </c>
-      <c r="O2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>123</v>
-      </c>
-      <c r="R2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S2" t="s">
-        <v>124</v>
       </c>
       <c r="T2">
         <v>16.61111111111111</v>
       </c>
       <c r="U2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1595,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1603,55 +1790,55 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s">
         <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
       </c>
       <c r="Q4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="R4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S4" t="s">
         <v>37</v>
@@ -1660,7 +1847,7 @@
         <v>-11.88888888888889</v>
       </c>
       <c r="U4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1668,64 +1855,105 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s">
         <v>49</v>
       </c>
       <c r="I5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M5" t="s">
         <v>127</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R5" t="s">
         <v>97</v>
       </c>
-      <c r="K5" t="s">
-        <v>124</v>
-      </c>
-      <c r="L5" t="s">
-        <v>128</v>
-      </c>
-      <c r="M5" t="s">
-        <v>118</v>
-      </c>
-      <c r="N5" t="s">
-        <v>89</v>
-      </c>
-      <c r="O5" t="s">
-        <v>113</v>
-      </c>
-      <c r="P5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>118</v>
-      </c>
-      <c r="R5" t="s">
-        <v>91</v>
-      </c>
       <c r="S5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="T5">
         <v>6.555555555555555</v>
       </c>
       <c r="U5" t="s">
-        <v>95</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>106</v>
+      </c>
+      <c r="T6">
+        <v>-14.66666666666667</v>
+      </c>
+      <c r="U6" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1963,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1746,37 +1974,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1784,37 +2012,37 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1827,7 +2055,7 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
@@ -1836,19 +2064,19 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J4" t="s">
         <v>38</v>
@@ -1857,7 +2085,7 @@
         <v>-5.777777777777778</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1865,37 +2093,75 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" t="s">
         <v>114</v>
       </c>
-      <c r="I5" t="s">
-        <v>109</v>
-      </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K5">
         <v>0.4444444444444444</v>
       </c>
       <c r="L5" t="s">
-        <v>96</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6">
+        <v>-20.22222222222222</v>
+      </c>
+      <c r="L6" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1905,7 +2171,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1916,37 +2182,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1954,37 +2220,37 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K2">
         <v>4.888888888888889</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1997,37 +2263,37 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K4">
         <v>-10.55555555555556</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2035,37 +2301,75 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K5">
         <v>0.3333333333333333</v>
       </c>
       <c r="L5" t="s">
-        <v>96</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6">
+        <v>-4.555555555555555</v>
+      </c>
+      <c r="L6" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2075,7 +2379,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2086,37 +2390,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2124,37 +2428,37 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K2">
         <v>16.88888888888889</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2167,28 +2471,28 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J4" t="s">
         <v>37</v>
@@ -2197,7 +2501,7 @@
         <v>-10.66666666666667</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2205,37 +2509,45 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
         <v>118</v>
       </c>
-      <c r="E5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" t="s">
-        <v>113</v>
-      </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K5">
         <v>5.666666666666667</v>
       </c>
       <c r="L5" t="s">
-        <v>95</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2245,7 +2557,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2256,37 +2568,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2294,37 +2606,37 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <v>16.33333333333333</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2337,37 +2649,37 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K4">
         <v>-13.11111111111111</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2375,37 +2687,45 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s">
         <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K5">
         <v>7.444444444444445</v>
       </c>
       <c r="L5" t="s">
-        <v>95</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2735,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2426,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2480,6 +2800,11 @@
       </c>
       <c r="D5">
         <v>0.926440329218107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2489,7 +2814,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2500,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2554,6 +2879,11 @@
       </c>
       <c r="D5">
         <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="144">
   <si>
     <t>ID</t>
   </si>
@@ -117,237 +117,255 @@
     <t>completed</t>
   </si>
   <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>test@bla.de</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>18,10,11,12,13,14,15,16,17,28,20,21,22,23,24,25,26,27</t>
+  </si>
+  <si>
+    <t>marc.aubreville@thi.de</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>10,11,12,13,14,15,16,17,18,20,21,22,23,24,25,26,27,28</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>&gt;15 years</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>jony.ive@apple.com</t>
+  </si>
+  <si>
+    <t>11,12,13,14,15,16,17,18,10,21,22,23,24,25,26,27,28,20</t>
+  </si>
+  <si>
+    <t>Prefer not to say</t>
+  </si>
+  <si>
+    <t>&gt;55</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>55</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>joluga@web.de</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>13,14,15,16,17,18,10,11,12,23,24,25,26,27,28,20,21,22</t>
+  </si>
+  <si>
+    <t>5-10 years</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>slide1</t>
+  </si>
+  <si>
+    <t>slide2</t>
+  </si>
+  <si>
+    <t>slide3</t>
+  </si>
+  <si>
+    <t>slide4</t>
+  </si>
+  <si>
+    <t>slide5</t>
+  </si>
+  <si>
+    <t>slide6</t>
+  </si>
+  <si>
+    <t>slide7</t>
+  </si>
+  <si>
+    <t>slide8</t>
+  </si>
+  <si>
+    <t>slide9</t>
+  </si>
+  <si>
+    <t>slide10</t>
+  </si>
+  <si>
+    <t>slide11</t>
+  </si>
+  <si>
+    <t>slide12</t>
+  </si>
+  <si>
+    <t>slide13</t>
+  </si>
+  <si>
+    <t>slide14</t>
+  </si>
+  <si>
+    <t>slide15</t>
+  </si>
+  <si>
+    <t>slide16</t>
+  </si>
+  <si>
+    <t>slide17</t>
+  </si>
+  <si>
+    <t>slide18</t>
+  </si>
+  <si>
+    <t>consistent error</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>overestimation</t>
+  </si>
+  <si>
+    <t>no tendency</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>80</t>
   </si>
   <si>
-    <t>test@bla.de</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>18,10,11,12,13,14,15,16,17,28,20,21,22,23,24,25,26,27</t>
-  </si>
-  <si>
-    <t>marc.aubreville@thi.de</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>10,11,12,13,14,15,16,17,18,20,21,22,23,24,25,26,27,28</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>35-44</t>
-  </si>
-  <si>
-    <t>&gt;15 years</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>jony.ive@apple.com</t>
-  </si>
-  <si>
-    <t>11,12,13,14,15,16,17,18,10,21,22,23,24,25,26,27,28,20</t>
-  </si>
-  <si>
-    <t>Prefer not to say</t>
-  </si>
-  <si>
-    <t>&gt;55</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>joluga@web.de</t>
-  </si>
-  <si>
-    <t>12,13,14,15,16,17,18,10,11,22,23,24,25,26,27,28,20,21</t>
-  </si>
-  <si>
-    <t>5-10 years</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>slide1</t>
-  </si>
-  <si>
-    <t>slide2</t>
-  </si>
-  <si>
-    <t>slide3</t>
-  </si>
-  <si>
-    <t>slide4</t>
-  </si>
-  <si>
-    <t>slide5</t>
-  </si>
-  <si>
-    <t>slide6</t>
-  </si>
-  <si>
-    <t>slide7</t>
-  </si>
-  <si>
-    <t>slide8</t>
-  </si>
-  <si>
-    <t>slide9</t>
-  </si>
-  <si>
-    <t>slide10</t>
-  </si>
-  <si>
-    <t>slide11</t>
-  </si>
-  <si>
-    <t>slide12</t>
-  </si>
-  <si>
-    <t>slide13</t>
-  </si>
-  <si>
-    <t>slide14</t>
-  </si>
-  <si>
-    <t>slide15</t>
-  </si>
-  <si>
-    <t>slide16</t>
-  </si>
-  <si>
-    <t>slide17</t>
-  </si>
-  <si>
-    <t>slide18</t>
-  </si>
-  <si>
-    <t>consistent error</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>overestimation</t>
-  </si>
-  <si>
-    <t>no tendency</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>underestimation</t>
   </si>
   <si>
@@ -360,9 +378,6 @@
     <t>15</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>59</t>
   </si>
   <si>
@@ -384,61 +399,52 @@
     <t>57</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>44</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>76</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
     <t>56</t>
   </si>
   <si>
     <t>27</t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
   <si>
     <t>AI-underestimation</t>
@@ -926,125 +932,125 @@
         <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U3" t="s">
         <v>30</v>
       </c>
       <c r="V3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s">
         <v>29</v>
       </c>
       <c r="Y3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z3" t="s">
         <v>29</v>
       </c>
       <c r="AA3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB3" t="s">
         <v>29</v>
       </c>
       <c r="AC3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD3" t="s">
         <v>29</v>
       </c>
       <c r="AE3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
         <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
@@ -1062,28 +1068,28 @@
         <v>30</v>
       </c>
       <c r="V5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="s">
         <v>33</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AB5" t="s">
         <v>33</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AC5" t="s">
         <v>33</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>32</v>
       </c>
       <c r="AD5" t="s">
         <v>29</v>
@@ -1094,147 +1100,147 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
         <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
         <v>30</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W6" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="X6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6" t="s">
         <v>33</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>32</v>
       </c>
       <c r="Z6" t="s">
         <v>29</v>
       </c>
       <c r="AA6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
         <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q7" t="s">
         <v>35</v>
@@ -1243,43 +1249,19 @@
         <v>35</v>
       </c>
       <c r="S7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" t="s">
+        <v>67</v>
+      </c>
+      <c r="V7" t="s">
         <v>57</v>
       </c>
-      <c r="T7" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" t="s">
-        <v>30</v>
-      </c>
-      <c r="V7" t="s">
-        <v>64</v>
-      </c>
       <c r="W7" t="s">
-        <v>65</v>
-      </c>
-      <c r="X7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1300,64 +1282,64 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="U1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1365,270 +1347,270 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" t="s">
         <v>94</v>
       </c>
-      <c r="L2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>97</v>
-      </c>
-      <c r="P2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>65</v>
-      </c>
       <c r="R2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="S2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="T2">
         <v>7.944444444444445</v>
       </c>
       <c r="U2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
         <v>103</v>
       </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="P4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="R4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="S4" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="T4">
         <v>-8.166666666666666</v>
       </c>
       <c r="U4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" t="s">
         <v>110</v>
       </c>
-      <c r="E5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" t="s">
-        <v>114</v>
-      </c>
-      <c r="J5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" t="s">
-        <v>115</v>
-      </c>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" t="s">
-        <v>116</v>
-      </c>
-      <c r="N5" t="s">
-        <v>105</v>
-      </c>
       <c r="O5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q5" t="s">
+        <v>124</v>
+      </c>
+      <c r="R5" t="s">
         <v>119</v>
       </c>
-      <c r="R5" t="s">
-        <v>114</v>
-      </c>
       <c r="S5" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="T5">
         <v>0.3888888888888889</v>
       </c>
       <c r="U5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N6" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6">
+        <v>-22.27777777777778</v>
+      </c>
+      <c r="U6" t="s">
         <v>114</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J6" t="s">
-        <v>121</v>
-      </c>
-      <c r="K6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N6" t="s">
-        <v>112</v>
-      </c>
-      <c r="O6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>112</v>
-      </c>
-      <c r="R6" t="s">
-        <v>123</v>
-      </c>
-      <c r="S6" t="s">
-        <v>62</v>
-      </c>
-      <c r="T6">
-        <v>-12.38888888888889</v>
-      </c>
-      <c r="U6" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1649,64 +1631,64 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="U1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1714,246 +1696,222 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="S2" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="T2">
-        <v>16.61111111111111</v>
+        <v>18.61111111111111</v>
       </c>
       <c r="U2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" t="s">
+        <v>109</v>
+      </c>
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" t="s">
         <v>111</v>
       </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>106</v>
-      </c>
       <c r="R4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="S4" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="T4">
         <v>-11.88888888888889</v>
       </c>
       <c r="U4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" t="s">
         <v>130</v>
       </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" t="s">
-        <v>135</v>
-      </c>
-      <c r="J5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" t="s">
-        <v>136</v>
-      </c>
-      <c r="M5" t="s">
-        <v>127</v>
-      </c>
       <c r="N5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="Q5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="R5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="S5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="T5">
         <v>6.555555555555555</v>
       </c>
       <c r="U5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="T6">
-        <v>-14.66666666666667</v>
+        <v>1.722222222222222</v>
       </c>
       <c r="U6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1974,37 +1932,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2012,156 +1970,156 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" t="s">
         <v>94</v>
       </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K2">
         <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="K4">
         <v>-5.777777777777778</v>
       </c>
       <c r="L4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" t="s">
         <v>119</v>
       </c>
-      <c r="I5" t="s">
-        <v>114</v>
-      </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="K5">
         <v>0.4444444444444444</v>
       </c>
       <c r="L5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6">
+        <v>-24.55555555555556</v>
+      </c>
+      <c r="L6" t="s">
         <v>114</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J6" t="s">
-        <v>121</v>
-      </c>
-      <c r="K6">
-        <v>-20.22222222222222</v>
-      </c>
-      <c r="L6" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2182,37 +2140,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2220,156 +2178,156 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K2">
         <v>4.888888888888889</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
         <v>103</v>
       </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4">
         <v>-10.55555555555556</v>
       </c>
       <c r="L4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K5">
         <v>0.3333333333333333</v>
       </c>
       <c r="L5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="C6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>56</v>
       </c>
-      <c r="G6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J6" t="s">
-        <v>62</v>
-      </c>
       <c r="K6">
-        <v>-4.555555555555555</v>
+        <v>-20</v>
       </c>
       <c r="L6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2390,37 +2348,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2428,126 +2386,123 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="K2">
-        <v>16.88888888888889</v>
+        <v>20.88888888888889</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="K4">
         <v>-10.66666666666667</v>
       </c>
       <c r="L4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K5">
         <v>5.666666666666667</v>
       </c>
       <c r="L5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2568,37 +2523,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2606,126 +2561,123 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K2">
         <v>16.33333333333333</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
         <v>109</v>
       </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4">
         <v>-13.11111111111111</v>
       </c>
       <c r="L4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K5">
         <v>7.444444444444445</v>
       </c>
       <c r="L5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2746,13 +2698,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2766,17 +2718,17 @@
         <v>0.3027950310559006</v>
       </c>
       <c r="D2">
-        <v>0.9166666666666666</v>
+        <v>0.8702380952380953</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0.4895634275500794</v>
@@ -2790,7 +2742,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>0.9081529581529582</v>
@@ -2804,7 +2756,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2825,13 +2777,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2845,17 +2797,17 @@
         <v>8.833333333333334</v>
       </c>
       <c r="D2">
-        <v>34.83333333333334</v>
+        <v>40.83333333333334</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>-18.5</v>
@@ -2869,7 +2821,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>-16.33333333333333</v>
@@ -2883,7 +2835,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="149">
   <si>
     <t>ID</t>
   </si>
@@ -153,6 +153,18 @@
     <t>18,10,11,12,13,14,15,16,17,28,20,21,22,23,24,25,26,27</t>
   </si>
   <si>
+    <t>&lt;5 years</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>marc.aubreville@thi.de</t>
   </si>
   <si>
@@ -195,9 +207,6 @@
     <t>33</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -222,10 +231,19 @@
     <t>22</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>chloe.puget@fu-berlin.de</t>
+  </si>
+  <si>
+    <t>14,15,16,17,18,10,11,12,13,24,25,26,27,28,20,21,22,23</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>65</t>
   </si>
   <si>
     <t>slide1</t>
@@ -288,18 +306,12 @@
     <t>label</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>90</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>70</t>
   </si>
   <si>
@@ -342,69 +354,72 @@
     <t>overestimation</t>
   </si>
   <si>
+    <t>underestimation</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
     <t>no tendency</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>underestimation</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
     <t>69</t>
   </si>
   <si>
@@ -417,9 +432,6 @@
     <t>61</t>
   </si>
   <si>
-    <t>95</t>
-  </si>
-  <si>
     <t>92</t>
   </si>
   <si>
@@ -445,6 +457,9 @@
   </si>
   <si>
     <t>27</t>
+  </si>
+  <si>
+    <t>85</t>
   </si>
   <si>
     <t>AI-underestimation</t>
@@ -785,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1002,25 +1017,52 @@
       <c r="C4" t="s">
         <v>42</v>
       </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
         <v>36</v>
@@ -1035,10 +1077,10 @@
         <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
         <v>33</v>
@@ -1068,10 +1110,10 @@
         <v>30</v>
       </c>
       <c r="V5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="W5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X5" t="s">
         <v>34</v>
@@ -1100,22 +1142,22 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -1130,10 +1172,10 @@
         <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s">
         <v>35</v>
@@ -1157,16 +1199,16 @@
         <v>36</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U6" t="s">
         <v>30</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="X6" t="s">
         <v>34</v>
@@ -1184,7 +1226,7 @@
         <v>36</v>
       </c>
       <c r="AC6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AD6" t="s">
         <v>37</v>
@@ -1195,22 +1237,22 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -1225,10 +1267,10 @@
         <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="M7" t="s">
         <v>35</v>
@@ -1255,13 +1297,108 @@
         <v>35</v>
       </c>
       <c r="U7" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="V7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W7" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" t="s">
+        <v>73</v>
+      </c>
+      <c r="W8" t="s">
+        <v>73</v>
+      </c>
+      <c r="X8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1271,7 +1408,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1282,64 +1419,64 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="N1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Q1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="R1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="S1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="T1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="U1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1347,270 +1484,338 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2" t="s">
         <v>98</v>
       </c>
-      <c r="M2" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O2" t="s">
-        <v>101</v>
-      </c>
-      <c r="P2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>94</v>
-      </c>
       <c r="R2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="S2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="T2">
         <v>7.944444444444445</v>
       </c>
       <c r="U2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>40</v>
       </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
       <c r="T3">
-        <v>0</v>
+        <v>-4.833333333333333</v>
       </c>
       <c r="U3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
         <v>107</v>
       </c>
-      <c r="C4" t="s">
-        <v>103</v>
-      </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="R4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="S4" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="T4">
         <v>-8.166666666666666</v>
       </c>
       <c r="U4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" t="s">
         <v>104</v>
       </c>
-      <c r="K5" t="s">
-        <v>120</v>
-      </c>
-      <c r="L5" t="s">
-        <v>100</v>
-      </c>
       <c r="M5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>126</v>
+      </c>
+      <c r="R5" t="s">
         <v>121</v>
       </c>
-      <c r="N5" t="s">
-        <v>110</v>
-      </c>
-      <c r="O5" t="s">
-        <v>122</v>
-      </c>
-      <c r="P5" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>124</v>
-      </c>
-      <c r="R5" t="s">
-        <v>119</v>
-      </c>
       <c r="S5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="T5">
         <v>0.3888888888888889</v>
       </c>
       <c r="U5" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="T6">
         <v>-22.27777777777778</v>
       </c>
       <c r="U6" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>97</v>
+      </c>
+      <c r="R7" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7" t="s">
+        <v>94</v>
+      </c>
+      <c r="T7">
+        <v>3.944444444444445</v>
+      </c>
+      <c r="U7" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1620,7 +1825,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1631,64 +1836,64 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="N1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Q1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="R1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="S1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="T1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="U1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1696,64 +1901,64 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
         <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="O2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="R2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="S2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="T2">
         <v>18.61111111111111</v>
       </c>
       <c r="U2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1764,145 +1969,145 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
         <v>117</v>
       </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" t="s">
-        <v>115</v>
-      </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P4" t="s">
         <v>37</v>
       </c>
       <c r="Q4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="R4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="S4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="T4">
         <v>-11.88888888888889</v>
       </c>
       <c r="U4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
         <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="N5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P5" t="s">
         <v>98</v>
       </c>
-      <c r="O5" t="s">
-        <v>123</v>
-      </c>
-      <c r="P5" t="s">
-        <v>94</v>
-      </c>
       <c r="Q5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="R5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="S5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="T5">
         <v>6.555555555555555</v>
       </c>
       <c r="U5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
         <v>131</v>
@@ -1911,7 +2116,72 @@
         <v>1.722222222222222</v>
       </c>
       <c r="U6" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" t="s">
+        <v>73</v>
+      </c>
+      <c r="S7" t="s">
+        <v>145</v>
+      </c>
+      <c r="T7">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="U7" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1921,7 +2191,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1932,37 +2202,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1970,37 +2240,37 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" t="s">
         <v>98</v>
       </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" t="s">
-        <v>94</v>
-      </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K2">
         <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2010,116 +2280,154 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="K4">
         <v>-5.777777777777778</v>
       </c>
       <c r="L4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" t="s">
         <v>121</v>
       </c>
-      <c r="E5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" t="s">
-        <v>119</v>
-      </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K5">
         <v>0.4444444444444444</v>
       </c>
       <c r="L5" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K6">
         <v>-24.55555555555556</v>
       </c>
       <c r="L6" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7">
+        <v>7.222222222222222</v>
+      </c>
+      <c r="L7" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2129,7 +2437,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2140,37 +2448,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2178,37 +2486,37 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <v>4.888888888888889</v>
       </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2218,116 +2526,154 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
         <v>107</v>
       </c>
-      <c r="C4" t="s">
-        <v>103</v>
-      </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K4">
         <v>-10.55555555555556</v>
       </c>
       <c r="L4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K5">
         <v>0.3333333333333333</v>
       </c>
       <c r="L5" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K6">
         <v>-20</v>
       </c>
       <c r="L6" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L7" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2337,7 +2683,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2348,37 +2694,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2386,37 +2732,37 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H2" t="s">
         <v>131</v>
       </c>
       <c r="I2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="K2">
         <v>20.88888888888889</v>
       </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2426,83 +2772,121 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K4">
         <v>-10.66666666666667</v>
       </c>
       <c r="L4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" t="s">
         <v>98</v>
       </c>
-      <c r="F5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" t="s">
-        <v>94</v>
-      </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K5">
         <v>5.666666666666667</v>
       </c>
       <c r="L5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7">
+        <v>8.333333333333334</v>
+      </c>
+      <c r="L7" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2512,7 +2896,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2523,37 +2907,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2561,37 +2945,37 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K2">
         <v>16.33333333333333</v>
       </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2601,83 +2985,121 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
         <v>117</v>
       </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" t="s">
-        <v>115</v>
-      </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K4">
         <v>-13.11111111111111</v>
       </c>
       <c r="L4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
         <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K5">
         <v>7.444444444444445</v>
       </c>
       <c r="L5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2687,7 +3109,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2698,13 +3120,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2728,7 +3150,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>0.4895634275500794</v>
@@ -2742,7 +3164,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>0.9081529581529582</v>
@@ -2756,7 +3178,21 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>0.4004352851930788</v>
+      </c>
+      <c r="C7">
+        <v>0.5538234172387491</v>
+      </c>
+      <c r="D7">
+        <v>0.609436274509804</v>
       </c>
     </row>
   </sheetData>
@@ -2766,7 +3202,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2777,13 +3213,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2807,7 +3243,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>-18.5</v>
@@ -2821,7 +3257,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>-16.33333333333333</v>
@@ -2835,7 +3271,21 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>-7.666666666666667</v>
+      </c>
+      <c r="C7">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="D7">
+        <v>19.83333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="149">
   <si>
     <t>ID</t>
   </si>
@@ -66,6 +66,9 @@
     <t>t1-est</t>
   </si>
   <si>
+    <t>t2-est</t>
+  </si>
+  <si>
     <t>item1</t>
   </si>
   <si>
@@ -123,325 +126,322 @@
     <t>99</t>
   </si>
   <si>
+    <t>test@bla.de</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>18,10,11,12,13,14,15,16,17,28,20,21,22,23,24,25,26,27</t>
+  </si>
+  <si>
+    <t>&lt;5 years</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>marc.aubreville@thi.de</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>10,11,12,13,14,15,16,17,18,20,21,22,23,24,25,26,27,28</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>&gt;15 years</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>jony.ive@apple.com</t>
+  </si>
+  <si>
+    <t>11,12,13,14,15,16,17,18,10,21,22,23,24,25,26,27,28,20</t>
+  </si>
+  <si>
+    <t>Prefer not to say</t>
+  </si>
+  <si>
+    <t>&gt;55</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>joluga@web.de</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>13,14,15,16,17,18,10,11,12,23,24,25,26,27,28,20,21,22</t>
+  </si>
+  <si>
+    <t>5-10 years</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>chloe.puget@fu-berlin.de</t>
+  </si>
+  <si>
+    <t>14,15,16,17,18,10,11,12,13,24,25,26,27,28,20,21,22,23</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>e.reinsberg@web.de</t>
+  </si>
+  <si>
+    <t>15,16,17,18,10,11,12,13,14,25,26,27,28,20,21,22,23,24</t>
+  </si>
+  <si>
+    <t>18-24</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>slide1</t>
+  </si>
+  <si>
+    <t>slide2</t>
+  </si>
+  <si>
+    <t>slide3</t>
+  </si>
+  <si>
+    <t>slide4</t>
+  </si>
+  <si>
+    <t>slide5</t>
+  </si>
+  <si>
+    <t>slide6</t>
+  </si>
+  <si>
+    <t>slide7</t>
+  </si>
+  <si>
+    <t>slide8</t>
+  </si>
+  <si>
+    <t>slide9</t>
+  </si>
+  <si>
+    <t>slide10</t>
+  </si>
+  <si>
+    <t>slide11</t>
+  </si>
+  <si>
+    <t>slide12</t>
+  </si>
+  <si>
+    <t>slide13</t>
+  </si>
+  <si>
+    <t>slide14</t>
+  </si>
+  <si>
+    <t>slide15</t>
+  </si>
+  <si>
+    <t>slide16</t>
+  </si>
+  <si>
+    <t>slide17</t>
+  </si>
+  <si>
+    <t>slide18</t>
+  </si>
+  <si>
+    <t>consistent error</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>overestimation</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>underestimation</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>no tendency</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>64</t>
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>test@bla.de</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>18,10,11,12,13,14,15,16,17,28,20,21,22,23,24,25,26,27</t>
-  </si>
-  <si>
-    <t>&lt;5 years</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>marc.aubreville@thi.de</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>10,11,12,13,14,15,16,17,18,20,21,22,23,24,25,26,27,28</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>35-44</t>
-  </si>
-  <si>
-    <t>&gt;15 years</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>jony.ive@apple.com</t>
-  </si>
-  <si>
-    <t>11,12,13,14,15,16,17,18,10,21,22,23,24,25,26,27,28,20</t>
-  </si>
-  <si>
-    <t>Prefer not to say</t>
-  </si>
-  <si>
-    <t>&gt;55</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>joluga@web.de</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>13,14,15,16,17,18,10,11,12,23,24,25,26,27,28,20,21,22</t>
-  </si>
-  <si>
-    <t>5-10 years</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>chloe.puget@fu-berlin.de</t>
-  </si>
-  <si>
-    <t>14,15,16,17,18,10,11,12,13,24,25,26,27,28,20,21,22,23</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>slide1</t>
-  </si>
-  <si>
-    <t>slide2</t>
-  </si>
-  <si>
-    <t>slide3</t>
-  </si>
-  <si>
-    <t>slide4</t>
-  </si>
-  <si>
-    <t>slide5</t>
-  </si>
-  <si>
-    <t>slide6</t>
-  </si>
-  <si>
-    <t>slide7</t>
-  </si>
-  <si>
-    <t>slide8</t>
-  </si>
-  <si>
-    <t>slide9</t>
-  </si>
-  <si>
-    <t>slide10</t>
-  </si>
-  <si>
-    <t>slide11</t>
-  </si>
-  <si>
-    <t>slide12</t>
-  </si>
-  <si>
-    <t>slide13</t>
-  </si>
-  <si>
-    <t>slide14</t>
-  </si>
-  <si>
-    <t>slide15</t>
-  </si>
-  <si>
-    <t>slide16</t>
-  </si>
-  <si>
-    <t>slide17</t>
-  </si>
-  <si>
-    <t>slide18</t>
-  </si>
-  <si>
-    <t>consistent error</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>overestimation</t>
-  </si>
-  <si>
-    <t>underestimation</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>no tendency</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>64</t>
   </si>
   <si>
     <t>42</t>
@@ -800,13 +800,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -822,11 +822,11 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="D2" t="s">
         <v>4</v>
       </c>
@@ -879,16 +879,16 @@
         <v>21</v>
       </c>
       <c r="U2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" t="s">
         <v>11</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>12</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>13</v>
-      </c>
-      <c r="X2" t="s">
-        <v>14</v>
       </c>
       <c r="Y2" t="s">
         <v>15</v>
@@ -911,494 +911,310 @@
       <c r="AE2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:31">
+      <c r="AF2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
         <v>30</v>
       </c>
-      <c r="K3" t="s">
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
         <v>31</v>
       </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
         <v>37</v>
       </c>
-      <c r="U3" t="s">
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="V3" t="s">
+      <c r="I9" t="s">
         <v>38</v>
       </c>
-      <c r="W3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
         <v>50</v>
       </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" t="s">
-        <v>29</v>
-      </c>
-      <c r="U5" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" t="s">
-        <v>54</v>
-      </c>
-      <c r="W5" t="s">
-        <v>55</v>
-      </c>
-      <c r="X5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" t="s">
-        <v>61</v>
-      </c>
-      <c r="U6" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" t="s">
-        <v>62</v>
-      </c>
-      <c r="W6" t="s">
-        <v>63</v>
-      </c>
-      <c r="X6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" t="s">
-        <v>35</v>
-      </c>
-      <c r="U7" t="s">
-        <v>44</v>
-      </c>
-      <c r="V7" t="s">
-        <v>46</v>
-      </c>
-      <c r="W7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L9" t="s">
         <v>71</v>
-      </c>
-      <c r="L8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R8" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" t="s">
-        <v>35</v>
-      </c>
-      <c r="T8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U8" t="s">
-        <v>30</v>
-      </c>
-      <c r="V8" t="s">
-        <v>73</v>
-      </c>
-      <c r="W8" t="s">
-        <v>73</v>
-      </c>
-      <c r="X8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1408,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1419,193 +1235,244 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>81</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>83</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>84</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>85</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>86</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>87</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>89</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>90</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>91</v>
-      </c>
-      <c r="T1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
         <v>95</v>
       </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>96</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>97</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>98</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>99</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>100</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>101</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>102</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
         <v>103</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>104</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" t="s">
         <v>105</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>106</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>98</v>
-      </c>
-      <c r="R2" t="s">
-        <v>107</v>
-      </c>
-      <c r="S2" t="s">
-        <v>108</v>
       </c>
       <c r="T2">
         <v>7.944444444444445</v>
       </c>
       <c r="U2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" t="s">
+        <v>62</v>
       </c>
       <c r="T3">
-        <v>-4.833333333333333</v>
+        <v>-15.38888888888889</v>
       </c>
       <c r="U3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
         <v>111</v>
       </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
         <v>112</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" t="s">
         <v>113</v>
       </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" t="s">
         <v>114</v>
-      </c>
-      <c r="I4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O4" t="s">
-        <v>113</v>
-      </c>
-      <c r="P4" t="s">
-        <v>61</v>
       </c>
       <c r="Q4" t="s">
         <v>115</v>
@@ -1614,18 +1481,18 @@
         <v>116</v>
       </c>
       <c r="S4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="T4">
         <v>-8.166666666666666</v>
       </c>
       <c r="U4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>116</v>
@@ -1643,7 +1510,7 @@
         <v>119</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
         <v>120</v>
@@ -1652,19 +1519,19 @@
         <v>121</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K5" t="s">
         <v>122</v>
       </c>
       <c r="L5" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
         <v>123</v>
       </c>
       <c r="N5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O5" t="s">
         <v>124</v>
@@ -1679,7 +1546,7 @@
         <v>121</v>
       </c>
       <c r="S5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T5">
         <v>0.3888888888888889</v>
@@ -1690,131 +1557,196 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
         <v>128</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
         <v>128</v>
       </c>
       <c r="N6" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="Q6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="R6" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="S6" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="T6">
         <v>-22.27777777777778</v>
       </c>
       <c r="U6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
         <v>130</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" t="s">
-        <v>131</v>
       </c>
       <c r="K7" t="s">
         <v>119</v>
       </c>
       <c r="L7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Q7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="S7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T7">
         <v>3.944444444444445</v>
       </c>
       <c r="U7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" t="s">
+        <v>111</v>
+      </c>
+      <c r="O8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>71</v>
+      </c>
+      <c r="R8" t="s">
+        <v>113</v>
+      </c>
+      <c r="S8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T8">
+        <v>-25.61111111111111</v>
+      </c>
+      <c r="U8" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1825,7 +1757,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1836,190 +1768,199 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>81</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>83</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>84</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>85</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>86</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>87</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>89</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>90</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>91</v>
-      </c>
-      <c r="T1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
         <v>132</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>133</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>134</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
         <v>135</v>
       </c>
-      <c r="G2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R2" t="s">
         <v>106</v>
       </c>
-      <c r="I2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" t="s">
-        <v>136</v>
-      </c>
-      <c r="L2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" t="s">
-        <v>137</v>
-      </c>
-      <c r="N2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O2" t="s">
-        <v>97</v>
-      </c>
-      <c r="P2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R2" t="s">
-        <v>108</v>
-      </c>
       <c r="S2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="T2">
         <v>18.61111111111111</v>
       </c>
       <c r="U2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="U3" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
         <v>117</v>
       </c>
       <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" t="s">
         <v>113</v>
       </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
         <v>111</v>
       </c>
-      <c r="L4" t="s">
-        <v>103</v>
-      </c>
-      <c r="M4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" t="s">
-        <v>113</v>
-      </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="Q4" t="s">
         <v>115</v>
@@ -2028,21 +1969,21 @@
         <v>116</v>
       </c>
       <c r="S4" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="T4">
         <v>-11.88888888888889</v>
       </c>
       <c r="U4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
         <v>140</v>
@@ -2051,22 +1992,22 @@
         <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
         <v>142</v>
@@ -2075,22 +2016,22 @@
         <v>143</v>
       </c>
       <c r="M5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O5" t="s">
         <v>125</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S5" t="s">
         <v>144</v>
@@ -2099,80 +2040,80 @@
         <v>6.555555555555555</v>
       </c>
       <c r="U5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T6">
         <v>1.722222222222222</v>
       </c>
       <c r="U6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="Q7" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="R7" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="S7" t="s">
         <v>145</v>
@@ -2181,6 +2122,71 @@
         <v>6.166666666666667</v>
       </c>
       <c r="U7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L8" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" t="s">
+        <v>66</v>
+      </c>
+      <c r="T8">
+        <v>-4.111111111111111</v>
+      </c>
+      <c r="U8" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2191,7 +2197,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2202,103 +2208,136 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" t="s">
-        <v>82</v>
-      </c>
       <c r="K1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>102</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>103</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>104</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" t="s">
         <v>105</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>106</v>
-      </c>
-      <c r="H2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" t="s">
-        <v>108</v>
       </c>
       <c r="K2">
         <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3">
+        <v>-12.77777777777778</v>
+      </c>
+      <c r="L3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" t="s">
         <v>111</v>
       </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" t="s">
-        <v>113</v>
-      </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="H4" t="s">
         <v>115</v>
@@ -2307,30 +2346,30 @@
         <v>116</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K4">
         <v>-5.777777777777778</v>
       </c>
       <c r="L4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
         <v>124</v>
@@ -2345,7 +2384,7 @@
         <v>121</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K5">
         <v>0.4444444444444444</v>
@@ -2356,77 +2395,115 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
         <v>128</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="K6">
         <v>-24.55555555555556</v>
       </c>
       <c r="L6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K7">
         <v>7.222222222222222</v>
       </c>
       <c r="L7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8">
+        <v>-28.55555555555556</v>
+      </c>
+      <c r="L8" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2437,7 +2514,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2448,123 +2525,156 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" t="s">
-        <v>82</v>
-      </c>
       <c r="K1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
         <v>95</v>
       </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>96</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>97</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>98</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>99</v>
-      </c>
-      <c r="J2" t="s">
-        <v>100</v>
       </c>
       <c r="K2">
         <v>4.888888888888889</v>
       </c>
       <c r="L2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3">
+        <v>-18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
         <v>111</v>
       </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
         <v>112</v>
       </c>
-      <c r="F4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>114</v>
-      </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K4">
         <v>-10.55555555555556</v>
       </c>
       <c r="L4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>116</v>
@@ -2582,7 +2692,7 @@
         <v>119</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
         <v>120</v>
@@ -2591,7 +2701,7 @@
         <v>121</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K5">
         <v>0.3333333333333333</v>
@@ -2602,78 +2712,116 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
         <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="K6">
         <v>-20</v>
       </c>
       <c r="L6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
         <v>130</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" t="s">
-        <v>131</v>
       </c>
       <c r="K7">
         <v>0.6666666666666666</v>
       </c>
       <c r="L7" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8">
+        <v>-22.66666666666667</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2683,7 +2831,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2694,103 +2842,103 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" t="s">
-        <v>82</v>
-      </c>
       <c r="K1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
         <v>132</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>133</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>134</v>
       </c>
-      <c r="E2" t="s">
-        <v>135</v>
-      </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="K2">
         <v>20.88888888888889</v>
       </c>
       <c r="L2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
         <v>111</v>
       </c>
-      <c r="C4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>113</v>
-      </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="H4" t="s">
         <v>115</v>
@@ -2799,18 +2947,18 @@
         <v>116</v>
       </c>
       <c r="J4" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="K4">
         <v>-10.66666666666667</v>
       </c>
       <c r="L4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>142</v>
@@ -2819,22 +2967,22 @@
         <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
         <v>125</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J5" t="s">
         <v>144</v>
@@ -2843,41 +2991,41 @@
         <v>5.666666666666667</v>
       </c>
       <c r="L5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
         <v>145</v>
@@ -2886,6 +3034,44 @@
         <v>8.333333333333334</v>
       </c>
       <c r="L7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8">
+        <v>-1.666666666666667</v>
+      </c>
+      <c r="L8" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2896,7 +3082,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2907,126 +3093,126 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" t="s">
-        <v>82</v>
-      </c>
       <c r="K1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>137</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
         <v>138</v>
       </c>
-      <c r="G2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" t="s">
-        <v>139</v>
-      </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K2">
         <v>16.33333333333333</v>
       </c>
       <c r="L2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
         <v>117</v>
       </c>
       <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" t="s">
         <v>113</v>
       </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K4">
         <v>-13.11111111111111</v>
       </c>
       <c r="L4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
         <v>140</v>
@@ -3035,70 +3221,108 @@
         <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="K5">
         <v>7.444444444444445</v>
       </c>
       <c r="L5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K7">
         <v>4</v>
       </c>
       <c r="L7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8">
+        <v>-6.555555555555555</v>
+      </c>
+      <c r="L8" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3109,7 +3333,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3131,7 +3355,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>0.1603935280405868</v>
@@ -3145,12 +3369,12 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>0.4895634275500794</v>
@@ -3164,7 +3388,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>0.9081529581529582</v>
@@ -3178,12 +3402,12 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>0.4004352851930788</v>
@@ -3193,6 +3417,20 @@
       </c>
       <c r="D7">
         <v>0.609436274509804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8">
+        <v>0.5410374362310615</v>
+      </c>
+      <c r="C8">
+        <v>0.6498015873015873</v>
+      </c>
+      <c r="D8">
+        <v>0.7129503552833563</v>
       </c>
     </row>
   </sheetData>
@@ -3202,7 +3440,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3224,7 +3462,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>6.166666666666667</v>
@@ -3238,12 +3476,12 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>-18.5</v>
@@ -3257,7 +3495,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>-16.33333333333333</v>
@@ -3271,12 +3509,12 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>-7.666666666666667</v>
@@ -3286,6 +3524,20 @@
       </c>
       <c r="D7">
         <v>19.83333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8">
+        <v>-24.33333333333333</v>
+      </c>
+      <c r="C8">
+        <v>-9.5</v>
+      </c>
+      <c r="D8">
+        <v>21.5</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="156">
   <si>
     <t>ID</t>
   </si>
@@ -96,6 +96,24 @@
     <t>XAI</t>
   </si>
   <si>
+    <t>question1</t>
+  </si>
+  <si>
+    <t>question2</t>
+  </si>
+  <si>
+    <t>question3</t>
+  </si>
+  <si>
+    <t>question4</t>
+  </si>
+  <si>
+    <t>question5</t>
+  </si>
+  <si>
+    <t>question6</t>
+  </si>
+  <si>
     <t>emelyrosbach@web.de</t>
   </si>
   <si>
@@ -141,216 +159,222 @@
     <t>2</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>marc.aubreville@thi.de</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>10,11,12,13,14,15,16,17,18,20,21,22,23,24,25,26,27,28</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>&gt;15 years</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>jony.ive@apple.com</t>
+  </si>
+  <si>
+    <t>11,12,13,14,15,16,17,18,10,21,22,23,24,25,26,27,28,20</t>
+  </si>
+  <si>
+    <t>Prefer not to say</t>
+  </si>
+  <si>
+    <t>&gt;55</t>
+  </si>
+  <si>
     <t>33</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>joluga@web.de</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>13,14,15,16,17,18,10,11,12,23,24,25,26,27,28,20,21,22</t>
+  </si>
+  <si>
+    <t>5-10 years</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>chloe.puget@fu-berlin.de</t>
+  </si>
+  <si>
+    <t>14,15,16,17,18,10,11,12,13,24,25,26,27,28,20,21,22,23</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>e.reinsberg@web.de</t>
+  </si>
+  <si>
+    <t>15,16,17,18,10,11,12,13,14,25,26,27,28,20,21,22,23,24</t>
+  </si>
+  <si>
+    <t>18-24</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>slide1</t>
+  </si>
+  <si>
+    <t>slide2</t>
+  </si>
+  <si>
+    <t>slide3</t>
+  </si>
+  <si>
+    <t>slide4</t>
+  </si>
+  <si>
+    <t>slide5</t>
+  </si>
+  <si>
+    <t>slide6</t>
+  </si>
+  <si>
+    <t>slide7</t>
+  </si>
+  <si>
+    <t>slide8</t>
+  </si>
+  <si>
+    <t>slide9</t>
+  </si>
+  <si>
+    <t>slide10</t>
+  </si>
+  <si>
+    <t>slide11</t>
+  </si>
+  <si>
+    <t>slide12</t>
+  </si>
+  <si>
+    <t>slide13</t>
+  </si>
+  <si>
+    <t>slide14</t>
+  </si>
+  <si>
+    <t>slide15</t>
+  </si>
+  <si>
+    <t>slide16</t>
+  </si>
+  <si>
+    <t>slide17</t>
+  </si>
+  <si>
+    <t>slide18</t>
+  </si>
+  <si>
+    <t>consistent error</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>overestimation</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
   <si>
     <t>55</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>marc.aubreville@thi.de</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>10,11,12,13,14,15,16,17,18,20,21,22,23,24,25,26,27,28</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>35-44</t>
-  </si>
-  <si>
-    <t>&gt;15 years</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>jony.ive@apple.com</t>
-  </si>
-  <si>
-    <t>11,12,13,14,15,16,17,18,10,21,22,23,24,25,26,27,28,20</t>
-  </si>
-  <si>
-    <t>Prefer not to say</t>
-  </si>
-  <si>
-    <t>&gt;55</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>joluga@web.de</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>13,14,15,16,17,18,10,11,12,23,24,25,26,27,28,20,21,22</t>
-  </si>
-  <si>
-    <t>5-10 years</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>chloe.puget@fu-berlin.de</t>
-  </si>
-  <si>
-    <t>14,15,16,17,18,10,11,12,13,24,25,26,27,28,20,21,22,23</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>e.reinsberg@web.de</t>
-  </si>
-  <si>
-    <t>15,16,17,18,10,11,12,13,14,25,26,27,28,20,21,22,23,24</t>
-  </si>
-  <si>
-    <t>18-24</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>slide1</t>
-  </si>
-  <si>
-    <t>slide2</t>
-  </si>
-  <si>
-    <t>slide3</t>
-  </si>
-  <si>
-    <t>slide4</t>
-  </si>
-  <si>
-    <t>slide5</t>
-  </si>
-  <si>
-    <t>slide6</t>
-  </si>
-  <si>
-    <t>slide7</t>
-  </si>
-  <si>
-    <t>slide8</t>
-  </si>
-  <si>
-    <t>slide9</t>
-  </si>
-  <si>
-    <t>slide10</t>
-  </si>
-  <si>
-    <t>slide11</t>
-  </si>
-  <si>
-    <t>slide12</t>
-  </si>
-  <si>
-    <t>slide13</t>
-  </si>
-  <si>
-    <t>slide14</t>
-  </si>
-  <si>
-    <t>slide15</t>
-  </si>
-  <si>
-    <t>slide16</t>
-  </si>
-  <si>
-    <t>slide17</t>
-  </si>
-  <si>
-    <t>slide18</t>
-  </si>
-  <si>
-    <t>consistent error</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>overestimation</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>underestimation</t>
   </si>
   <si>
@@ -406,9 +430,6 @@
   </si>
   <si>
     <t>no tendency</t>
-  </si>
-  <si>
-    <t>44</t>
   </si>
   <si>
     <t>0</t>
@@ -800,13 +821,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:AM9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:39">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -826,7 +847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:39">
       <c r="D2" t="s">
         <v>4</v>
       </c>
@@ -914,307 +935,370 @@
       <c r="AF2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AG2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:32">
-      <c r="A4" t="s">
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
         <v>37</v>
       </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="K4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" t="s">
-        <v>40</v>
-      </c>
-      <c r="U4" t="s">
-        <v>40</v>
-      </c>
-      <c r="V4" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4" t="s">
-        <v>42</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:32">
-      <c r="A5" t="s">
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
         <v>48</v>
       </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" t="s">
-        <v>50</v>
-      </c>
       <c r="L9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1235,519 +1319,519 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Q1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="R1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="S1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="T1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="U1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="O2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q2" t="s">
         <v>103</v>
       </c>
-      <c r="P2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>97</v>
-      </c>
       <c r="R2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="S2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="T2">
         <v>7.944444444444445</v>
       </c>
       <c r="U2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
         <v>62</v>
       </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="N3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="O3" t="s">
-        <v>39</v>
-      </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="Q3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="R3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="S3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="T3">
         <v>-15.38888888888889</v>
       </c>
       <c r="U3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="N4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="P4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Q4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T4">
         <v>-8.166666666666666</v>
       </c>
       <c r="U4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" t="s">
         <v>120</v>
       </c>
-      <c r="I5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N5" t="s">
-        <v>112</v>
-      </c>
       <c r="O5" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Q5" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="R5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="S5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="T5">
         <v>0.3888888888888889</v>
       </c>
       <c r="U5" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" t="s">
+        <v>115</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" t="s">
-        <v>128</v>
-      </c>
-      <c r="N6" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>57</v>
-      </c>
-      <c r="R6" t="s">
-        <v>39</v>
-      </c>
       <c r="S6" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="T6">
         <v>-22.27777777777778</v>
       </c>
       <c r="U6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" t="s">
         <v>119</v>
       </c>
-      <c r="L7" t="s">
-        <v>111</v>
-      </c>
       <c r="M7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="Q7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="R7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="T7">
         <v>3.944444444444445</v>
       </c>
       <c r="U7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" t="s">
         <v>119</v>
       </c>
-      <c r="E8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" t="s">
-        <v>111</v>
-      </c>
       <c r="O8" t="s">
+        <v>127</v>
+      </c>
+      <c r="P8" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" t="s">
+        <v>121</v>
+      </c>
+      <c r="S8" t="s">
         <v>119</v>
-      </c>
-      <c r="P8" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>71</v>
-      </c>
-      <c r="R8" t="s">
-        <v>113</v>
-      </c>
-      <c r="S8" t="s">
-        <v>111</v>
       </c>
       <c r="T8">
         <v>-25.61111111111111</v>
       </c>
       <c r="U8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1768,426 +1852,426 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Q1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="R1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="S1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="T1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="U1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="L2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>145</v>
+      </c>
+      <c r="R2" t="s">
         <v>113</v>
       </c>
-      <c r="M2" t="s">
-        <v>136</v>
-      </c>
-      <c r="N2" t="s">
-        <v>137</v>
-      </c>
-      <c r="O2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>138</v>
-      </c>
-      <c r="R2" t="s">
-        <v>106</v>
-      </c>
       <c r="S2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="T2">
         <v>18.61111111111111</v>
       </c>
       <c r="U2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="T3">
         <v>3.166666666666667</v>
       </c>
       <c r="U3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" t="s">
         <v>119</v>
       </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" t="s">
-        <v>111</v>
-      </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="P4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Q4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S4" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="T4">
         <v>-11.88888888888889</v>
       </c>
       <c r="U4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L5" t="s">
+        <v>150</v>
+      </c>
+      <c r="M5" t="s">
         <v>141</v>
       </c>
-      <c r="E5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M5" t="s">
-        <v>134</v>
-      </c>
       <c r="N5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Q5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="R5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="S5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="T5">
         <v>6.555555555555555</v>
       </c>
       <c r="U5" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="T6">
         <v>1.722222222222222</v>
       </c>
       <c r="U6" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Q7" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="R7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="S7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="T7">
         <v>6.166666666666667</v>
       </c>
       <c r="U7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Q8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="R8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T8">
         <v>-4.111111111111111</v>
       </c>
       <c r="U8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2208,303 +2292,303 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" t="s">
         <v>103</v>
       </c>
-      <c r="G2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" t="s">
-        <v>97</v>
-      </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K2">
         <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
         <v>62</v>
       </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="K3">
         <v>-12.77777777777778</v>
       </c>
       <c r="L3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K4">
         <v>-5.777777777777778</v>
       </c>
       <c r="L4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="I5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K5">
         <v>0.4444444444444444</v>
       </c>
       <c r="L5" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K6">
         <v>-24.55555555555556</v>
       </c>
       <c r="L6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
         <v>119</v>
       </c>
-      <c r="C7" t="s">
-        <v>111</v>
-      </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7">
         <v>7.222222222222222</v>
       </c>
       <c r="L7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" t="s">
         <v>119</v>
-      </c>
-      <c r="G8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" t="s">
-        <v>111</v>
       </c>
       <c r="K8">
         <v>-28.55555555555556</v>
       </c>
       <c r="L8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2525,303 +2609,303 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K2">
         <v>4.888888888888889</v>
       </c>
       <c r="L2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
         <v>62</v>
       </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K3">
         <v>-18</v>
       </c>
       <c r="L3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K4">
         <v>-10.55555555555556</v>
       </c>
       <c r="L4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="I5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K5">
         <v>0.3333333333333333</v>
       </c>
       <c r="L5" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="K6">
         <v>-20</v>
       </c>
       <c r="L6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K7">
         <v>0.6666666666666666</v>
       </c>
       <c r="L7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="K8">
         <v>-22.66666666666667</v>
       </c>
       <c r="L8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2842,237 +2926,237 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K2">
         <v>20.88888888888889</v>
       </c>
       <c r="L2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="K4">
         <v>-10.66666666666667</v>
       </c>
       <c r="L4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K5">
         <v>5.666666666666667</v>
       </c>
       <c r="L5" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K7">
         <v>8.333333333333334</v>
       </c>
       <c r="L7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K8">
         <v>-1.666666666666667</v>
       </c>
       <c r="L8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3093,237 +3177,237 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" t="s">
         <v>113</v>
-      </c>
-      <c r="E2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" t="s">
-        <v>106</v>
       </c>
       <c r="K2">
         <v>16.33333333333333</v>
       </c>
       <c r="L2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" t="s">
         <v>119</v>
       </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" t="s">
-        <v>111</v>
-      </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K4">
         <v>-13.11111111111111</v>
       </c>
       <c r="L4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K5">
         <v>7.444444444444445</v>
       </c>
       <c r="L5" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7">
         <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K8">
         <v>-6.555555555555555</v>
       </c>
       <c r="L8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3344,18 +3428,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>0.1603935280405868</v>
@@ -3369,12 +3453,12 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>0.4895634275500794</v>
@@ -3388,7 +3472,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>0.9081529581529582</v>
@@ -3402,12 +3486,12 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>0.4004352851930788</v>
@@ -3421,7 +3505,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>0.5410374362310615</v>
@@ -3451,18 +3535,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>6.166666666666667</v>
@@ -3476,12 +3560,12 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>-18.5</v>
@@ -3495,7 +3579,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>-16.33333333333333</v>
@@ -3509,12 +3593,12 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>-7.666666666666667</v>
@@ -3528,7 +3612,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>-24.33333333333333</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="164">
   <si>
     <t>ID</t>
   </si>
@@ -159,279 +159,300 @@
     <t>2</t>
   </si>
   <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>marc.aubreville@thi.de</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>10,11,12,13,14,15,16,17,18,20,21,22,23,24,25,26,27,28</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>&gt;15 years</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>jony.ive@apple.com</t>
+  </si>
+  <si>
+    <t>11,12,13,14,15,16,17,18,10,21,22,23,24,25,26,27,28,20</t>
+  </si>
+  <si>
+    <t>Prefer not to say</t>
+  </si>
+  <si>
+    <t>&gt;55</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>joluga@web.de</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>13,14,15,16,17,18,10,11,12,23,24,25,26,27,28,20,21,22</t>
+  </si>
+  <si>
+    <t>5-10 years</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>chloe.puget@fu-berlin.de</t>
+  </si>
+  <si>
+    <t>14,15,16,17,18,10,11,12,13,24,25,26,27,28,20,21,22,23</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>e.reinsberg@web.de</t>
+  </si>
+  <si>
+    <t>15,16,17,18,10,11,12,13,14,25,26,27,28,20,21,22,23,24</t>
+  </si>
+  <si>
+    <t>18-24</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>christof.bertram@vetmeduni.ac.at</t>
+  </si>
+  <si>
+    <t>16,17,18,10,11,12,13,14,15,26,27,28,20,21,22,23,24,25</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>test@gmx.de</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>slide1</t>
+  </si>
+  <si>
+    <t>slide2</t>
+  </si>
+  <si>
+    <t>slide3</t>
+  </si>
+  <si>
+    <t>slide4</t>
+  </si>
+  <si>
+    <t>slide5</t>
+  </si>
+  <si>
+    <t>slide6</t>
+  </si>
+  <si>
+    <t>slide7</t>
+  </si>
+  <si>
+    <t>slide8</t>
+  </si>
+  <si>
+    <t>slide9</t>
+  </si>
+  <si>
+    <t>slide10</t>
+  </si>
+  <si>
+    <t>slide11</t>
+  </si>
+  <si>
+    <t>slide12</t>
+  </si>
+  <si>
+    <t>slide13</t>
+  </si>
+  <si>
+    <t>slide14</t>
+  </si>
+  <si>
+    <t>slide15</t>
+  </si>
+  <si>
+    <t>slide16</t>
+  </si>
+  <si>
+    <t>slide17</t>
+  </si>
+  <si>
+    <t>slide18</t>
+  </si>
+  <si>
+    <t>consistent error</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>overestimation</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>underestimation</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>no tendency</t>
+  </si>
+  <si>
     <t>44</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>marc.aubreville@thi.de</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>10,11,12,13,14,15,16,17,18,20,21,22,23,24,25,26,27,28</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>35-44</t>
-  </si>
-  <si>
-    <t>&gt;15 years</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>jony.ive@apple.com</t>
-  </si>
-  <si>
-    <t>11,12,13,14,15,16,17,18,10,21,22,23,24,25,26,27,28,20</t>
-  </si>
-  <si>
-    <t>Prefer not to say</t>
-  </si>
-  <si>
-    <t>&gt;55</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>joluga@web.de</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>13,14,15,16,17,18,10,11,12,23,24,25,26,27,28,20,21,22</t>
-  </si>
-  <si>
-    <t>5-10 years</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>chloe.puget@fu-berlin.de</t>
-  </si>
-  <si>
-    <t>14,15,16,17,18,10,11,12,13,24,25,26,27,28,20,21,22,23</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>e.reinsberg@web.de</t>
-  </si>
-  <si>
-    <t>15,16,17,18,10,11,12,13,14,25,26,27,28,20,21,22,23,24</t>
-  </si>
-  <si>
-    <t>18-24</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>slide1</t>
-  </si>
-  <si>
-    <t>slide2</t>
-  </si>
-  <si>
-    <t>slide3</t>
-  </si>
-  <si>
-    <t>slide4</t>
-  </si>
-  <si>
-    <t>slide5</t>
-  </si>
-  <si>
-    <t>slide6</t>
-  </si>
-  <si>
-    <t>slide7</t>
-  </si>
-  <si>
-    <t>slide8</t>
-  </si>
-  <si>
-    <t>slide9</t>
-  </si>
-  <si>
-    <t>slide10</t>
-  </si>
-  <si>
-    <t>slide11</t>
-  </si>
-  <si>
-    <t>slide12</t>
-  </si>
-  <si>
-    <t>slide13</t>
-  </si>
-  <si>
-    <t>slide14</t>
-  </si>
-  <si>
-    <t>slide15</t>
-  </si>
-  <si>
-    <t>slide16</t>
-  </si>
-  <si>
-    <t>slide17</t>
-  </si>
-  <si>
-    <t>slide18</t>
-  </si>
-  <si>
-    <t>consistent error</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>overestimation</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>underestimation</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>no tendency</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -462,7 +483,7 @@
     <t>64</t>
   </si>
   <si>
-    <t>7</t>
+    <t>9</t>
   </si>
   <si>
     <t>42</t>
@@ -474,13 +495,16 @@
     <t>29</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
     <t>85</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>AI-underestimation</t>
@@ -821,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM9"/>
+  <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1057,116 +1081,74 @@
         <v>46</v>
       </c>
       <c r="V4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="X4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Y4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI4" t="s">
         <v>48</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>55</v>
       </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
         <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
         <v>59</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>60</v>
       </c>
-      <c r="E6" t="s">
-        <v>61</v>
-      </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
@@ -1175,7 +1157,7 @@
         <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
         <v>37</v>
@@ -1198,7 +1180,7 @@
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
@@ -1207,13 +1189,13 @@
         <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
         <v>37</v>
@@ -1230,7 +1212,7 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>71</v>
@@ -1245,13 +1227,13 @@
         <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
         <v>37</v>
@@ -1283,7 +1265,7 @@
         <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
         <v>36</v>
@@ -1295,10 +1277,170 @@
         <v>37</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" t="s">
+        <v>61</v>
+      </c>
+      <c r="U10" t="s">
+        <v>82</v>
+      </c>
+      <c r="V10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" t="s">
+        <v>83</v>
+      </c>
+      <c r="X10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1308,7 +1450,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1319,64 +1461,64 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="L1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="N1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="O1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="P1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="Q1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="R1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="S1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="T1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="U1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1384,64 +1526,64 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
         <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Q2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="R2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="S2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="T2">
         <v>7.944444444444445</v>
       </c>
       <c r="U2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1455,13 +1597,13 @@
         <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
         <v>62</v>
@@ -1506,63 +1648,63 @@
         <v>-15.38888888888889</v>
       </c>
       <c r="U3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
         <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>73</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s">
         <v>77</v>
       </c>
       <c r="L4" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="M4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="N4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="O4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="R4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="S4" t="s">
         <v>72</v>
@@ -1571,72 +1713,72 @@
         <v>-8.166666666666666</v>
       </c>
       <c r="U4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="O5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="R5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="T5">
         <v>0.3888888888888889</v>
       </c>
       <c r="U5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1650,16 +1792,16 @@
         <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
         <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="H6" t="s">
         <v>63</v>
@@ -1671,16 +1813,16 @@
         <v>63</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
         <v>63</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="N6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O6" t="s">
         <v>63</v>
@@ -1701,7 +1843,7 @@
         <v>-22.27777777777778</v>
       </c>
       <c r="U6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1712,19 +1854,19 @@
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H7" t="s">
         <v>72</v>
@@ -1733,40 +1875,40 @@
         <v>72</v>
       </c>
       <c r="J7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="K7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L7" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s">
         <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="P7" t="s">
         <v>73</v>
       </c>
       <c r="Q7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="R7" t="s">
         <v>73</v>
       </c>
       <c r="S7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="T7">
         <v>3.944444444444445</v>
       </c>
       <c r="U7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1774,64 +1916,173 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E8" t="s">
         <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J8" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
         <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N8" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Q8" t="s">
         <v>77</v>
       </c>
       <c r="R8" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="T8">
         <v>-25.61111111111111</v>
       </c>
       <c r="U8" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J9" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" t="s">
+        <v>121</v>
+      </c>
+      <c r="P9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" t="s">
+        <v>121</v>
+      </c>
+      <c r="S9" t="s">
+        <v>121</v>
+      </c>
+      <c r="T9">
+        <v>-6.055555555555555</v>
+      </c>
+      <c r="U9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" t="s">
+        <v>88</v>
+      </c>
+      <c r="T10">
+        <v>-25.27777777777778</v>
+      </c>
+      <c r="U10" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1841,7 +2092,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1852,64 +2103,64 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="L1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="N1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="O1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="P1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="Q1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="R1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="S1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="T1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="U1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1917,64 +2168,64 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="J2" t="s">
         <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="L2" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="N2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="O2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="Q2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="R2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="S2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="T2">
         <v>18.61111111111111</v>
       </c>
       <c r="U2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1982,110 +2233,143 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>142</v>
+      </c>
+      <c r="E3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" t="s">
+        <v>55</v>
       </c>
       <c r="T3">
-        <v>3.166666666666667</v>
+        <v>-23.05555555555556</v>
       </c>
       <c r="U3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" t="s">
         <v>127</v>
       </c>
-      <c r="C4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" t="s">
-        <v>120</v>
-      </c>
       <c r="I4" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s">
         <v>77</v>
       </c>
       <c r="L4" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="N4" t="s">
         <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="Q4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="R4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="S4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="T4">
         <v>-11.88888888888889</v>
       </c>
       <c r="U4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H5" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
         <v>38</v>
@@ -2094,37 +2378,37 @@
         <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L5" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="M5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="N5" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="Q5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="R5" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="S5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="T5">
         <v>6.555555555555555</v>
       </c>
       <c r="U5" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2135,13 +2419,13 @@
         <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="T6">
         <v>1.722222222222222</v>
       </c>
       <c r="U6" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -2149,64 +2433,64 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
         <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
         <v>73</v>
       </c>
       <c r="I7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" t="s">
         <v>109</v>
       </c>
-      <c r="J7" t="s">
-        <v>99</v>
-      </c>
       <c r="K7" t="s">
         <v>73</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="N7" t="s">
         <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="Q7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="R7" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="T7">
         <v>6.166666666666667</v>
       </c>
       <c r="U7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -2214,10 +2498,10 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
         <v>121</v>
-      </c>
-      <c r="C8" t="s">
-        <v>112</v>
       </c>
       <c r="D8" t="s">
         <v>77</v>
@@ -2232,19 +2516,19 @@
         <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J8" t="s">
         <v>73</v>
       </c>
       <c r="K8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M8" t="s">
         <v>73</v>
@@ -2253,10 +2537,10 @@
         <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="Q8" t="s">
         <v>73</v>
@@ -2271,7 +2555,137 @@
         <v>-4.111111111111111</v>
       </c>
       <c r="U8" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L9" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>133</v>
+      </c>
+      <c r="R9" t="s">
+        <v>56</v>
+      </c>
+      <c r="S9" t="s">
+        <v>122</v>
+      </c>
+      <c r="T9">
+        <v>3.555555555555555</v>
+      </c>
+      <c r="U9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>133</v>
+      </c>
+      <c r="R10" t="s">
+        <v>56</v>
+      </c>
+      <c r="S10" t="s">
+        <v>122</v>
+      </c>
+      <c r="T10">
+        <v>3.555555555555555</v>
+      </c>
+      <c r="U10" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2281,7 +2695,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2292,37 +2706,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="L1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2330,37 +2744,37 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K2">
         <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2374,13 +2788,13 @@
         <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
         <v>62</v>
@@ -2398,36 +2812,36 @@
         <v>-12.77777777777778</v>
       </c>
       <c r="L3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J4" t="s">
         <v>72</v>
@@ -2436,45 +2850,45 @@
         <v>-5.777777777777778</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="I5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K5">
         <v>0.4444444444444444</v>
       </c>
       <c r="L5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2488,16 +2902,16 @@
         <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
         <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="H6" t="s">
         <v>63</v>
@@ -2512,7 +2926,7 @@
         <v>-24.55555555555556</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2520,37 +2934,37 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
         <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
         <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I7" t="s">
         <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K7">
         <v>7.222222222222222</v>
       </c>
       <c r="L7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2558,37 +2972,86 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H8" t="s">
         <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="K8">
         <v>-28.55555555555556</v>
       </c>
       <c r="L8" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J9" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9">
+        <v>-4.888888888888889</v>
+      </c>
+      <c r="L9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +3061,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2609,37 +3072,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="L1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2647,37 +3110,37 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
         <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K2">
         <v>4.888888888888889</v>
       </c>
       <c r="L2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2715,83 +3178,83 @@
         <v>-18</v>
       </c>
       <c r="L3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
         <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>73</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="K4">
         <v>-10.55555555555556</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K5">
         <v>0.3333333333333333</v>
       </c>
       <c r="L5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2799,16 +3262,16 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
         <v>63</v>
@@ -2829,7 +3292,7 @@
         <v>-20</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2840,19 +3303,19 @@
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H7" t="s">
         <v>72</v>
@@ -2861,13 +3324,13 @@
         <v>72</v>
       </c>
       <c r="J7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="K7">
         <v>0.6666666666666666</v>
       </c>
       <c r="L7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2875,37 +3338,86 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E8" t="s">
         <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J8" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K8">
         <v>-22.66666666666667</v>
       </c>
       <c r="L8" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9">
+        <v>-7.222222222222222</v>
+      </c>
+      <c r="L9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2915,7 +3427,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2926,37 +3438,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="L1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2964,118 +3476,124 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I2" t="s">
         <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K2">
         <v>20.88888888888889</v>
       </c>
       <c r="L2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>40</v>
       </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
         <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K4">
         <v>-10.66666666666667</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="I5" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K5">
         <v>5.666666666666667</v>
       </c>
       <c r="L5" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3091,34 +3609,34 @@
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
         <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K7">
         <v>8.333333333333334</v>
       </c>
       <c r="L7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3126,10 +3644,10 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
         <v>73</v>
@@ -3138,10 +3656,10 @@
         <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G8" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
         <v>73</v>
@@ -3156,7 +3674,83 @@
         <v>-1.666666666666667</v>
       </c>
       <c r="L8" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9">
+        <v>5.222222222222222</v>
+      </c>
+      <c r="L9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10">
+        <v>5.222222222222222</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3166,7 +3760,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3177,37 +3771,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="L1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3215,106 +3809,112 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K2">
         <v>16.33333333333333</v>
       </c>
       <c r="L2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>40</v>
       </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" t="s">
         <v>127</v>
       </c>
-      <c r="C4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" t="s">
-        <v>120</v>
-      </c>
       <c r="I4" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="K4">
         <v>-13.11111111111111</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H5" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
         <v>38</v>
@@ -3326,7 +3926,7 @@
         <v>7.444444444444445</v>
       </c>
       <c r="L5" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3339,37 +3939,37 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
         <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
         <v>73</v>
       </c>
       <c r="I7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" t="s">
         <v>109</v>
-      </c>
-      <c r="J7" t="s">
-        <v>99</v>
       </c>
       <c r="K7">
         <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3377,10 +3977,10 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
         <v>121</v>
-      </c>
-      <c r="C8" t="s">
-        <v>112</v>
       </c>
       <c r="D8" t="s">
         <v>77</v>
@@ -3395,10 +3995,10 @@
         <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J8" t="s">
         <v>73</v>
@@ -3407,7 +4007,83 @@
         <v>-6.555555555555555</v>
       </c>
       <c r="L8" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9">
+        <v>1.888888888888889</v>
+      </c>
+      <c r="L9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10">
+        <v>1.888888888888889</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3417,7 +4093,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3428,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3458,7 +4134,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>0.4895634275500794</v>
@@ -3472,7 +4148,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>0.9081529581529582</v>
@@ -3515,6 +4191,25 @@
       </c>
       <c r="D8">
         <v>0.7129503552833563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9">
+        <v>0.3821337168181873</v>
+      </c>
+      <c r="C9">
+        <v>0.5621290904728146</v>
+      </c>
+      <c r="D9">
+        <v>0.4058938955452391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3524,7 +4219,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3535,13 +4230,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3565,7 +4260,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>-18.5</v>
@@ -3579,7 +4274,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>-16.33333333333333</v>
@@ -3622,6 +4317,25 @@
       </c>
       <c r="D8">
         <v>21.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9">
+        <v>-4.666666666666667</v>
+      </c>
+      <c r="C9">
+        <v>-10.33333333333333</v>
+      </c>
+      <c r="D9">
+        <v>25.66666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -138,21 +138,30 @@
     <t>completed</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
     <t>66</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>90</t>
   </si>
   <si>
@@ -237,70 +246,67 @@
     <t>8</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>underestimation</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>41</t>
   </si>
   <si>
     <t>22</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>underestimation</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>33</t>
   </si>
   <si>
     <t>80</t>
@@ -818,88 +824,88 @@
         <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" t="s">
         <v>41</v>
       </c>
-      <c r="S3" t="s">
-        <v>39</v>
-      </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s">
         <v>37</v>
       </c>
       <c r="W3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="X3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="Y3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" t="s">
         <v>43</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI3" t="s">
         <v>41</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AJ3" t="s">
         <v>41</v>
       </c>
-      <c r="AB3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>39</v>
-      </c>
       <c r="AK3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AL3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AM3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -920,70 +926,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="S1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="T1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="V1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="W1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -991,28 +997,28 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
       </c>
       <c r="J2" t="s">
         <v>36</v>
@@ -1021,40 +1027,40 @@
         <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O2" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="T2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V2">
-        <v>-39.85</v>
+        <v>-40.5</v>
       </c>
       <c r="W2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1075,70 +1081,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="S1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="T1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="V1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="W1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -1146,70 +1152,70 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s">
         <v>89</v>
       </c>
-      <c r="L2" t="s">
+      <c r="S2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" t="s">
         <v>90</v>
       </c>
-      <c r="M2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" t="s">
-        <v>87</v>
-      </c>
-      <c r="S2" t="s">
-        <v>90</v>
-      </c>
-      <c r="T2" t="s">
-        <v>88</v>
-      </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V2">
-        <v>15.2</v>
+        <v>14.65</v>
       </c>
       <c r="W2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1230,40 +1236,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1271,40 +1277,40 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
         <v>73</v>
       </c>
-      <c r="I2" t="s">
-        <v>70</v>
-      </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L2">
-        <v>-51</v>
+        <v>-51.2</v>
       </c>
       <c r="M2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1325,40 +1331,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1369,37 +1375,37 @@
         <v>74</v>
       </c>
       <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
         <v>83</v>
       </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
         <v>81</v>
       </c>
-      <c r="G2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" t="s">
-        <v>79</v>
-      </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="L2">
-        <v>-28.7</v>
+        <v>-29.8</v>
       </c>
       <c r="M2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1420,40 +1426,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1461,40 +1467,40 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" t="s">
-        <v>92</v>
-      </c>
       <c r="L2">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1515,40 +1521,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1556,40 +1562,40 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
         <v>90</v>
       </c>
-      <c r="J2" t="s">
-        <v>88</v>
-      </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L2">
         <v>23.3</v>
       </c>
       <c r="M2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1610,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1627,7 +1633,7 @@
         <v>0.7161634512960114</v>
       </c>
       <c r="C2">
-        <v>0.3965150049986664</v>
+        <v>0.3816920501757116</v>
       </c>
       <c r="D2">
         <v>0.7016727739193959</v>
@@ -1651,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1668,7 +1674,7 @@
         <v>4.2</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>-0.9</v>
       </c>
       <c r="D2">
         <v>43.8</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="167">
   <si>
     <t>ID</t>
   </si>
@@ -123,55 +123,205 @@
     <t>18,19,17,10,16,11,15,12,14,13,28,29,27,20,26,21,25,22,24,23</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>18-24</t>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>5-10 years</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>n.stathonikos-2@umcutrecht.nl</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>21,22,20,23,29,24,28,25,27,26,11,12,10,13,19,14,18,15,17,16</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>marc.aubreville@thi.de</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>22,23,21,24,20,25,29,26,28,27,12,13,11,14,10,15,19,16,18,17</t>
+  </si>
+  <si>
+    <t>&lt;5 years</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>chloe.puget@fu-berlin.de</t>
+  </si>
+  <si>
+    <t>12,13,11,14,10,15,19,16,18,17,22,23,21,24,20,25,29,26,28,27</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>pbolfa@rossvet.edu.kn</t>
   </si>
   <si>
     <t>&gt;15 years</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>35</t>
+    <t>53</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>maximilian.koeller@meduniwien.ac.at</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>13,14,12,15,11,16,10,17,19,18,23,24,22,25,21,26,20,27,29,28</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>andrea.klang@vetmeduni.ac.at</t>
+  </si>
+  <si>
+    <t>23,24,22,25,21,26,20,27,29,28,13,14,12,15,11,16,10,17,19,18</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>vk.ca@gmail.com</t>
+  </si>
+  <si>
+    <t>bdcrq6@gmail.com</t>
+  </si>
+  <si>
+    <t>14,15,13,16,12,17,11,18,10,19,24,25,23,26,22,27,21,28,20,29</t>
+  </si>
+  <si>
+    <t>Prefer not to say</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>h</t>
+    <t>marco.tecilla@gmail.com</t>
+  </si>
+  <si>
+    <t>24,25,23,26,22,27,21,28,20,29,14,15,13,16,12,17,11,18,10,19</t>
+  </si>
+  <si>
+    <t>paraschoug@hotmail.com</t>
+  </si>
+  <si>
+    <t>mvalentine2@rossvet.edu.kn</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>ddenk@miral.ae</t>
+  </si>
+  <si>
+    <t>15,16,14,17,13,18,12,19,11,10,25,26,24,27,23,28,22,29,21,20</t>
+  </si>
+  <si>
+    <t>10-15 years</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>slide1</t>
@@ -240,82 +390,130 @@
     <t>label</t>
   </si>
   <si>
-    <t>6</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>underestimation</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>no tendency</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>81</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>underestimation</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>overestimation</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>78</t>
   </si>
   <si>
     <t>56</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>overestimation</t>
   </si>
   <si>
     <t>AI-underestimation</t>
@@ -656,7 +854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:AM15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -812,100 +1010,832 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" t="s">
+      <c r="AJ3" t="s">
         <v>36</v>
       </c>
-      <c r="J3" t="s">
+      <c r="AK3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" t="s">
         <v>37</v>
       </c>
-      <c r="K3" t="s">
+      <c r="R5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
         <v>38</v>
       </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" t="s">
+        <v>69</v>
+      </c>
+      <c r="T7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" t="s">
+        <v>69</v>
+      </c>
+      <c r="V7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" t="s">
+        <v>68</v>
+      </c>
+      <c r="S9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T9" t="s">
+        <v>68</v>
+      </c>
+      <c r="U9" t="s">
+        <v>68</v>
+      </c>
+      <c r="V9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" t="s">
         <v>42</v>
       </c>
-      <c r="R3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="L11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" t="s">
         <v>37</v>
       </c>
-      <c r="W3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM3" t="s">
+      <c r="T11" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" t="s">
+        <v>68</v>
+      </c>
+      <c r="V12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>68</v>
+      </c>
+      <c r="R13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" t="s">
+        <v>68</v>
+      </c>
+      <c r="T13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
         <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>69</v>
+      </c>
+      <c r="R14" t="s">
+        <v>36</v>
+      </c>
+      <c r="S14" t="s">
+        <v>69</v>
+      </c>
+      <c r="T14" t="s">
+        <v>68</v>
+      </c>
+      <c r="U14" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15" t="s">
+        <v>90</v>
+      </c>
+      <c r="N15" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>68</v>
+      </c>
+      <c r="R15" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -915,7 +1845,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -926,70 +1856,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="I1" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="K1" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="L1" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="M1" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="N1" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="O1" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="P1" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="Q1" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="S1" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="T1" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="U1" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="V1" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="W1" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -997,70 +1927,850 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" t="s">
+        <v>127</v>
+      </c>
+      <c r="U2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2">
+        <v>-38.35</v>
+      </c>
+      <c r="W2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>129</v>
+      </c>
+      <c r="R3" t="s">
+        <v>130</v>
+      </c>
+      <c r="S3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3">
+        <v>-3.8</v>
+      </c>
+      <c r="W3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>129</v>
+      </c>
+      <c r="R4" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" t="s">
+        <v>129</v>
+      </c>
+      <c r="T4" t="s">
+        <v>66</v>
+      </c>
+      <c r="U4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V4">
+        <v>-8.35</v>
+      </c>
+      <c r="W4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="N5" t="s">
+        <v>130</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" t="s">
+        <v>67</v>
+      </c>
+      <c r="U5" t="s">
+        <v>90</v>
+      </c>
+      <c r="V5">
+        <v>0.7</v>
+      </c>
+      <c r="W5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6" t="s">
+        <v>142</v>
+      </c>
+      <c r="N6" t="s">
+        <v>143</v>
+      </c>
+      <c r="O6" t="s">
+        <v>144</v>
+      </c>
+      <c r="P6" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>146</v>
+      </c>
+      <c r="R6" t="s">
+        <v>139</v>
+      </c>
+      <c r="S6" t="s">
+        <v>66</v>
+      </c>
+      <c r="T6" t="s">
+        <v>147</v>
+      </c>
+      <c r="U6" t="s">
+        <v>148</v>
+      </c>
+      <c r="V6">
+        <v>0.3</v>
+      </c>
+      <c r="W6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>78</v>
+      </c>
+      <c r="V7">
+        <v>-5.15</v>
+      </c>
+      <c r="W7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" t="s">
+        <v>67</v>
+      </c>
+      <c r="U8" t="s">
+        <v>67</v>
+      </c>
+      <c r="V8">
+        <v>0.65</v>
+      </c>
+      <c r="W8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" t="s">
+        <v>67</v>
+      </c>
+      <c r="T10" t="s">
+        <v>149</v>
+      </c>
+      <c r="U10" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10">
+        <v>-16.75</v>
+      </c>
+      <c r="W10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" t="s">
+        <v>152</v>
+      </c>
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" t="s">
+        <v>130</v>
+      </c>
+      <c r="P11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>44</v>
+      </c>
+      <c r="R11" t="s">
+        <v>153</v>
+      </c>
+      <c r="S11" t="s">
+        <v>154</v>
+      </c>
+      <c r="T11" t="s">
+        <v>95</v>
+      </c>
+      <c r="U11" t="s">
+        <v>44</v>
+      </c>
+      <c r="V11">
+        <v>10.05</v>
+      </c>
+      <c r="W11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" t="s">
+        <v>154</v>
+      </c>
+      <c r="J12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" t="s">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="L12" t="s">
+        <v>146</v>
+      </c>
+      <c r="M12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" t="s">
+        <v>159</v>
+      </c>
+      <c r="O12" t="s">
+        <v>151</v>
+      </c>
+      <c r="P12" t="s">
         <v>74</v>
       </c>
-      <c r="G2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="Q12" t="s">
+        <v>156</v>
+      </c>
+      <c r="R12" t="s">
+        <v>145</v>
+      </c>
+      <c r="S12" t="s">
+        <v>137</v>
+      </c>
+      <c r="T12" t="s">
+        <v>160</v>
+      </c>
+      <c r="U12" t="s">
+        <v>161</v>
+      </c>
+      <c r="V12">
+        <v>-6.1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" t="s">
+        <v>162</v>
+      </c>
+      <c r="O13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R13" t="s">
+        <v>95</v>
+      </c>
+      <c r="S13" t="s">
+        <v>80</v>
+      </c>
+      <c r="T13" t="s">
+        <v>99</v>
+      </c>
+      <c r="U13" t="s">
+        <v>66</v>
+      </c>
+      <c r="V13">
+        <v>11.8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
         <v>78</v>
       </c>
-      <c r="N2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U2" t="s">
-        <v>85</v>
-      </c>
-      <c r="V2">
-        <v>-40.5</v>
-      </c>
-      <c r="W2" t="s">
-        <v>86</v>
+      <c r="I14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>154</v>
+      </c>
+      <c r="R14" t="s">
+        <v>60</v>
+      </c>
+      <c r="S14" t="s">
+        <v>53</v>
+      </c>
+      <c r="T14" t="s">
+        <v>130</v>
+      </c>
+      <c r="U14" t="s">
+        <v>158</v>
+      </c>
+      <c r="V14">
+        <v>-11.9</v>
+      </c>
+      <c r="W14" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +2780,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1081,70 +2791,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="I1" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="K1" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="L1" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="M1" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="N1" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="O1" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="P1" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="Q1" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="S1" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="T1" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="U1" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="V1" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="W1" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -1152,70 +2862,202 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="L2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="M2" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="O2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="P2" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="Q2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="S2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="T2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V2">
         <v>14.65</v>
       </c>
       <c r="W2" t="s">
-        <v>97</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1225,7 +3067,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1236,40 +3078,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="I1" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="K1" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1277,40 +3119,478 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2">
+        <v>-43.3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3">
+        <v>2.7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4">
+        <v>-15.8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5">
+        <v>-2.3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
         <v>84</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6">
+        <v>-2.9</v>
+      </c>
+      <c r="M6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8">
+        <v>3.7</v>
+      </c>
+      <c r="M8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10">
+        <v>-14.7</v>
+      </c>
+      <c r="M10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" t="s">
+        <v>154</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11">
+        <v>12.5</v>
+      </c>
+      <c r="M11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" t="s">
+        <v>154</v>
+      </c>
+      <c r="J12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" t="s">
         <v>72</v>
       </c>
-      <c r="H2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2">
-        <v>-51.2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>86</v>
+      <c r="L12">
+        <v>-7.3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13">
+        <v>23.6</v>
+      </c>
+      <c r="M13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14">
+        <v>-6</v>
+      </c>
+      <c r="M14" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +3600,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1331,40 +3611,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="I1" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="K1" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1372,40 +3652,478 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2">
+        <v>-33.4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3">
+        <v>-10.3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4">
+        <v>-0.9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" t="s">
         <v>78</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5">
+        <v>3.7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K6" t="s">
+        <v>148</v>
+      </c>
+      <c r="L6">
+        <v>3.5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
         <v>81</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
         <v>79</v>
       </c>
-      <c r="J2" t="s">
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8">
+        <v>-2.4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10">
+        <v>-18.8</v>
+      </c>
+      <c r="M10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11">
+        <v>7.6</v>
+      </c>
+      <c r="M11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K12" t="s">
+        <v>161</v>
+      </c>
+      <c r="L12">
+        <v>-4.9</v>
+      </c>
+      <c r="M12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" t="s">
         <v>80</v>
       </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2">
-        <v>-29.8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>86</v>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14">
+        <v>-17.8</v>
+      </c>
+      <c r="M14" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1415,7 +4133,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1426,40 +4144,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="I1" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="K1" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1467,40 +4185,100 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="L2">
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1510,7 +4288,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1521,40 +4299,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="I1" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="K1" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1562,40 +4340,100 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L2">
         <v>23.3</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1605,7 +4443,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1616,13 +4454,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1630,13 +4468,73 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>0.7161634512960114</v>
+        <v>0.7554001554001554</v>
       </c>
       <c r="C2">
-        <v>0.3816920501757116</v>
+        <v>0.3918450730452153</v>
       </c>
       <c r="D2">
-        <v>0.7016727739193959</v>
+        <v>0.7467845964390863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1646,7 +4544,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1657,13 +4555,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1678,6 +4576,66 @@
       </c>
       <c r="D2">
         <v>43.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="191">
   <si>
     <t>ID</t>
   </si>
@@ -324,6 +324,60 @@
     <t>30</t>
   </si>
   <si>
+    <t>ethan.biswell@biosphere.work</t>
+  </si>
+  <si>
+    <t>25,26,24,27,23,28,22,29,21,20,15,16,14,17,13,18,12,19,11,10</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>m.c.e.polderdijk@umcutrecht.nl</t>
+  </si>
+  <si>
+    <t>drmhardcastle@hotmail.com</t>
+  </si>
+  <si>
+    <t>andrea.fuchs@vetmeduni.ac.at</t>
+  </si>
+  <si>
+    <t>16,17,15,18,14,19,13,10,12,11,26,27,25,28,24,29,23,20,22,21</t>
+  </si>
+  <si>
+    <t>&gt;55</t>
+  </si>
+  <si>
+    <t>christof.bertram@vetmeduni.ac.at</t>
+  </si>
+  <si>
+    <t>26,27,25,28,24,29,23,20,22,21,16,17,15,18,14,19,13,10,12,11</t>
+  </si>
+  <si>
+    <t>munkeong75@gmail.com</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>p.j.vandiest@umcutrecht.nl</t>
+  </si>
+  <si>
+    <t>alexander.haake@fu-berlin.de</t>
+  </si>
+  <si>
+    <t>17,18,16,19,15,10,14,11,13,12,27,28,26,29,25,20,24,21,23,22</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>slide1</t>
   </si>
   <si>
@@ -414,9 +468,6 @@
     <t>15</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>99</t>
   </si>
   <si>
@@ -462,9 +513,6 @@
     <t>42</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>84</t>
   </si>
   <si>
@@ -477,9 +525,6 @@
     <t>34</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>89</t>
   </si>
   <si>
@@ -504,13 +549,40 @@
     <t>73</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>63</t>
   </si>
   <si>
     <t>78</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>68</t>
   </si>
   <si>
     <t>56</t>
@@ -854,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM15"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1838,6 +1910,493 @@
         <v>55</v>
       </c>
     </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" t="s">
+        <v>102</v>
+      </c>
+      <c r="L16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" t="s">
+        <v>102</v>
+      </c>
+      <c r="N16" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>69</v>
+      </c>
+      <c r="R18" t="s">
+        <v>41</v>
+      </c>
+      <c r="S18" t="s">
+        <v>68</v>
+      </c>
+      <c r="T18" t="s">
+        <v>41</v>
+      </c>
+      <c r="U18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>69</v>
+      </c>
+      <c r="R19" t="s">
+        <v>68</v>
+      </c>
+      <c r="S19" t="s">
+        <v>69</v>
+      </c>
+      <c r="T19" t="s">
+        <v>69</v>
+      </c>
+      <c r="U19" t="s">
+        <v>68</v>
+      </c>
+      <c r="V19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>41</v>
+      </c>
+      <c r="R20" t="s">
+        <v>41</v>
+      </c>
+      <c r="S20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T20" t="s">
+        <v>41</v>
+      </c>
+      <c r="U20" t="s">
+        <v>41</v>
+      </c>
+      <c r="V20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" t="s">
+        <v>111</v>
+      </c>
+      <c r="N21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>36</v>
+      </c>
+      <c r="R21" t="s">
+        <v>36</v>
+      </c>
+      <c r="S21" t="s">
+        <v>68</v>
+      </c>
+      <c r="T21" t="s">
+        <v>68</v>
+      </c>
+      <c r="U21" t="s">
+        <v>68</v>
+      </c>
+      <c r="V21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" t="s">
+        <v>99</v>
+      </c>
+      <c r="M22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" t="s">
+        <v>36</v>
+      </c>
+      <c r="P22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>68</v>
+      </c>
+      <c r="R22" t="s">
+        <v>68</v>
+      </c>
+      <c r="S22" t="s">
+        <v>68</v>
+      </c>
+      <c r="T22" t="s">
+        <v>41</v>
+      </c>
+      <c r="U22" t="s">
+        <v>41</v>
+      </c>
+      <c r="V22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" t="s">
+        <v>115</v>
+      </c>
+      <c r="L23" t="s">
+        <v>116</v>
+      </c>
+      <c r="M23" t="s">
+        <v>117</v>
+      </c>
+      <c r="N23" t="s">
+        <v>69</v>
+      </c>
+      <c r="O23" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>69</v>
+      </c>
+      <c r="R23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V23" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1845,7 +2404,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1856,70 +2415,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="H1" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="K1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="L1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="M1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="N1" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="O1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="P1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="Q1" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="R1" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="S1" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="T1" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="U1" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="V1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="W1" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -1927,10 +2486,10 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
@@ -1951,16 +2510,16 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="K2" t="s">
         <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="M2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N2" t="s">
         <v>74</v>
@@ -1969,19 +2528,19 @@
         <v>74</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="Q2" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="R2" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="S2" t="s">
         <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="U2" t="s">
         <v>62</v>
@@ -1990,7 +2549,7 @@
         <v>-38.35</v>
       </c>
       <c r="W2" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2043,10 +2602,10 @@
         <v>61</v>
       </c>
       <c r="Q3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="R3" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="S3" t="s">
         <v>45</v>
@@ -2061,7 +2620,7 @@
         <v>-3.8</v>
       </c>
       <c r="W3" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -2069,13 +2628,13 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
         <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>61</v>
@@ -2093,7 +2652,7 @@
         <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="K4" t="s">
         <v>60</v>
@@ -2111,16 +2670,16 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="Q4" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="R4" t="s">
         <v>53</v>
       </c>
       <c r="S4" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="T4" t="s">
         <v>66</v>
@@ -2132,7 +2691,7 @@
         <v>-8.35</v>
       </c>
       <c r="W4" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -2176,7 +2735,7 @@
         <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="O5" t="s">
         <v>78</v>
@@ -2203,7 +2762,7 @@
         <v>0.7</v>
       </c>
       <c r="W5" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -2211,70 +2770,70 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="I6" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="J6" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="K6" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="L6" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="M6" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="N6" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="O6" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="P6" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="Q6" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="R6" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="S6" t="s">
         <v>66</v>
       </c>
       <c r="T6" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="U6" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="V6">
         <v>0.3</v>
       </c>
       <c r="W6" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -2288,7 +2847,7 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
         <v>53</v>
@@ -2312,7 +2871,7 @@
         <v>66</v>
       </c>
       <c r="L7" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="M7" t="s">
         <v>79</v>
@@ -2333,7 +2892,7 @@
         <v>-5.15</v>
       </c>
       <c r="W7" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2359,7 +2918,7 @@
         <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -2368,7 +2927,7 @@
         <v>61</v>
       </c>
       <c r="K8" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -2383,7 +2942,7 @@
         <v>99</v>
       </c>
       <c r="P8" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="Q8" t="s">
         <v>78</v>
@@ -2404,7 +2963,7 @@
         <v>0.65</v>
       </c>
       <c r="W8" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2415,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2426,13 +2985,13 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
         <v>78</v>
@@ -2456,7 +3015,7 @@
         <v>45</v>
       </c>
       <c r="M10" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="N10" t="s">
         <v>60</v>
@@ -2477,7 +3036,7 @@
         <v>67</v>
       </c>
       <c r="T10" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="U10" t="s">
         <v>61</v>
@@ -2486,7 +3045,7 @@
         <v>-16.75</v>
       </c>
       <c r="W10" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2500,7 +3059,7 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E11" t="s">
         <v>67</v>
@@ -2509,7 +3068,7 @@
         <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
@@ -2518,7 +3077,7 @@
         <v>79</v>
       </c>
       <c r="J11" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -2527,13 +3086,13 @@
         <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="N11" t="s">
         <v>67</v>
       </c>
       <c r="O11" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="P11" t="s">
         <v>54</v>
@@ -2542,10 +3101,10 @@
         <v>44</v>
       </c>
       <c r="R11" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="S11" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="T11" t="s">
         <v>95</v>
@@ -2557,7 +3116,7 @@
         <v>10.05</v>
       </c>
       <c r="W11" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2568,25 +3127,25 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="H12" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="I12" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="J12" t="s">
         <v>74</v>
@@ -2595,40 +3154,40 @@
         <v>72</v>
       </c>
       <c r="L12" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s">
         <v>68</v>
       </c>
       <c r="N12" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="O12" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="P12" t="s">
         <v>74</v>
       </c>
       <c r="Q12" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="R12" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="S12" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="T12" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="U12" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="V12">
         <v>-6.1</v>
       </c>
       <c r="W12" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2651,7 +3210,7 @@
         <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="H13" t="s">
         <v>44</v>
@@ -2660,10 +3219,10 @@
         <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
         <v>99</v>
@@ -2672,7 +3231,7 @@
         <v>90</v>
       </c>
       <c r="N13" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="O13" t="s">
         <v>90</v>
@@ -2699,7 +3258,7 @@
         <v>11.8</v>
       </c>
       <c r="W13" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2710,7 +3269,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
         <v>79</v>
@@ -2734,7 +3293,7 @@
         <v>60</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s">
         <v>45</v>
@@ -2752,7 +3311,7 @@
         <v>95</v>
       </c>
       <c r="Q14" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="R14" t="s">
         <v>60</v>
@@ -2761,16 +3320,524 @@
         <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="U14" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="V14">
         <v>-11.9</v>
       </c>
       <c r="W14" t="s">
-        <v>128</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" t="s">
+        <v>102</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>148</v>
+      </c>
+      <c r="R15" t="s">
+        <v>53</v>
+      </c>
+      <c r="S15" t="s">
+        <v>66</v>
+      </c>
+      <c r="T15" t="s">
+        <v>99</v>
+      </c>
+      <c r="U15" t="s">
+        <v>99</v>
+      </c>
+      <c r="V15">
+        <v>-2.15</v>
+      </c>
+      <c r="W15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" t="s">
+        <v>102</v>
+      </c>
+      <c r="O17" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" t="s">
+        <v>54</v>
+      </c>
+      <c r="S17" t="s">
+        <v>61</v>
+      </c>
+      <c r="T17" t="s">
+        <v>54</v>
+      </c>
+      <c r="U17" t="s">
+        <v>79</v>
+      </c>
+      <c r="V17">
+        <v>-3.05</v>
+      </c>
+      <c r="W17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" t="s">
+        <v>99</v>
+      </c>
+      <c r="O18" t="s">
+        <v>169</v>
+      </c>
+      <c r="P18" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>61</v>
+      </c>
+      <c r="R18" t="s">
+        <v>53</v>
+      </c>
+      <c r="S18" t="s">
+        <v>99</v>
+      </c>
+      <c r="T18" t="s">
+        <v>53</v>
+      </c>
+      <c r="U18" t="s">
+        <v>54</v>
+      </c>
+      <c r="V18">
+        <v>2.7</v>
+      </c>
+      <c r="W18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>44</v>
+      </c>
+      <c r="R19" t="s">
+        <v>84</v>
+      </c>
+      <c r="S19" t="s">
+        <v>60</v>
+      </c>
+      <c r="T19" t="s">
+        <v>78</v>
+      </c>
+      <c r="U19" t="s">
+        <v>78</v>
+      </c>
+      <c r="V19">
+        <v>-1.05</v>
+      </c>
+      <c r="W19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I20" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" t="s">
+        <v>147</v>
+      </c>
+      <c r="N20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O20" t="s">
+        <v>169</v>
+      </c>
+      <c r="P20" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>80</v>
+      </c>
+      <c r="R20" t="s">
+        <v>95</v>
+      </c>
+      <c r="S20" t="s">
+        <v>147</v>
+      </c>
+      <c r="T20" t="s">
+        <v>53</v>
+      </c>
+      <c r="U20" t="s">
+        <v>90</v>
+      </c>
+      <c r="V20">
+        <v>-2.55</v>
+      </c>
+      <c r="W20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21" t="s">
+        <v>102</v>
+      </c>
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" t="s">
+        <v>79</v>
+      </c>
+      <c r="O21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>169</v>
+      </c>
+      <c r="R21" t="s">
+        <v>61</v>
+      </c>
+      <c r="S21" t="s">
+        <v>102</v>
+      </c>
+      <c r="T21" t="s">
+        <v>54</v>
+      </c>
+      <c r="U21" t="s">
+        <v>61</v>
+      </c>
+      <c r="V21">
+        <v>-0.05</v>
+      </c>
+      <c r="W21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" t="s">
+        <v>180</v>
+      </c>
+      <c r="H22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22" t="s">
+        <v>117</v>
+      </c>
+      <c r="M22" t="s">
+        <v>183</v>
+      </c>
+      <c r="N22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>184</v>
+      </c>
+      <c r="R22" t="s">
+        <v>155</v>
+      </c>
+      <c r="S22" t="s">
+        <v>73</v>
+      </c>
+      <c r="T22" t="s">
+        <v>185</v>
+      </c>
+      <c r="U22" t="s">
+        <v>186</v>
+      </c>
+      <c r="V22">
+        <v>5.85</v>
+      </c>
+      <c r="W22" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2780,7 +3847,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2791,70 +3858,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="H1" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="K1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="L1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="M1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="N1" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="O1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="P1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="Q1" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="R1" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="S1" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="T1" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="U1" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="V1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="W1" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -2877,13 +3944,13 @@
         <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="J2" t="s">
         <v>80</v>
@@ -2895,22 +3962,22 @@
         <v>66</v>
       </c>
       <c r="M2" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="N2" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="O2" t="s">
         <v>61</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="s">
         <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="S2" t="s">
         <v>66</v>
@@ -2925,7 +3992,7 @@
         <v>14.65</v>
       </c>
       <c r="W2" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2936,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -2947,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -2958,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -2969,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -2980,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2991,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -3002,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -3013,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -3024,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -3035,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -3046,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -3057,7 +4124,95 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>132</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3067,7 +4222,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3078,40 +4233,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="H1" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="K1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="L1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="M1" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3119,16 +4274,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -3152,7 +4307,7 @@
         <v>-43.3</v>
       </c>
       <c r="M2" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3193,7 +4348,7 @@
         <v>2.7</v>
       </c>
       <c r="M3" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3213,16 +4368,16 @@
         <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="H4" t="s">
         <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="J4" t="s">
         <v>66</v>
@@ -3234,7 +4389,7 @@
         <v>-15.8</v>
       </c>
       <c r="M4" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3275,7 +4430,7 @@
         <v>-2.3</v>
       </c>
       <c r="M5" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3283,40 +4438,40 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="I6" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="J6" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="K6" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="L6">
         <v>-2.9</v>
       </c>
       <c r="M6" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3324,7 +4479,7 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -3359,7 +4514,7 @@
         <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
         <v>78</v>
@@ -3380,7 +4535,7 @@
         <v>3.7</v>
       </c>
       <c r="M8" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3396,7 +4551,7 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D10" t="s">
         <v>60</v>
@@ -3417,7 +4572,7 @@
         <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K10" t="s">
         <v>61</v>
@@ -3426,7 +4581,7 @@
         <v>-14.7</v>
       </c>
       <c r="M10" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3437,13 +4592,13 @@
         <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
         <v>54</v>
@@ -3452,10 +4607,10 @@
         <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="I11" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="J11" t="s">
         <v>95</v>
@@ -3467,7 +4622,7 @@
         <v>12.5</v>
       </c>
       <c r="M11" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3478,25 +4633,25 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="H12" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="I12" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="J12" t="s">
         <v>74</v>
@@ -3508,7 +4663,7 @@
         <v>-7.3</v>
       </c>
       <c r="M12" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3531,7 +4686,7 @@
         <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="H13" t="s">
         <v>44</v>
@@ -3540,16 +4695,16 @@
         <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="L13">
         <v>23.6</v>
       </c>
       <c r="M13" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3572,7 +4727,7 @@
         <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="H14" t="s">
         <v>60</v>
@@ -3581,16 +4736,308 @@
         <v>53</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="L14">
         <v>-6</v>
       </c>
       <c r="M14" t="s">
-        <v>128</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15">
+        <v>-2.9</v>
+      </c>
+      <c r="M15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17">
+        <v>-2.3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18">
+        <v>2.2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19">
+        <v>-0.3</v>
+      </c>
+      <c r="M19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I20" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20">
+        <v>-3</v>
+      </c>
+      <c r="M20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21">
+        <v>-4.8</v>
+      </c>
+      <c r="M21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" t="s">
+        <v>184</v>
+      </c>
+      <c r="H22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" t="s">
+        <v>186</v>
+      </c>
+      <c r="L22">
+        <v>6.4</v>
+      </c>
+      <c r="M22" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3600,7 +5047,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3611,40 +5058,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="H1" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="K1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="L1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="M1" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3661,22 +5108,22 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="I2" t="s">
         <v>74</v>
       </c>
       <c r="J2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="K2" t="s">
         <v>74</v>
@@ -3685,7 +5132,7 @@
         <v>-33.4</v>
       </c>
       <c r="M2" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3708,10 +5155,10 @@
         <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
@@ -3726,7 +5173,7 @@
         <v>-10.3</v>
       </c>
       <c r="M3" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3734,13 +5181,13 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
         <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>61</v>
@@ -3758,7 +5205,7 @@
         <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="K4" t="s">
         <v>60</v>
@@ -3767,7 +5214,7 @@
         <v>-0.9</v>
       </c>
       <c r="M4" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3781,7 +5228,7 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
         <v>78</v>
@@ -3808,7 +5255,7 @@
         <v>3.7</v>
       </c>
       <c r="M5" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3816,40 +5263,40 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="H6" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="I6" t="s">
         <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="K6" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="L6">
         <v>3.5</v>
       </c>
       <c r="M6" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3863,7 +5310,7 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
         <v>53</v>
@@ -3898,7 +5345,7 @@
         <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -3907,13 +5354,13 @@
         <v>61</v>
       </c>
       <c r="K8" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="L8">
         <v>-2.4</v>
       </c>
       <c r="M8" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3929,13 +5376,13 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
         <v>78</v>
@@ -3959,7 +5406,7 @@
         <v>-18.8</v>
       </c>
       <c r="M10" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3973,7 +5420,7 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E11" t="s">
         <v>67</v>
@@ -3982,7 +5429,7 @@
         <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
@@ -3991,7 +5438,7 @@
         <v>79</v>
       </c>
       <c r="J11" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -4000,7 +5447,7 @@
         <v>7.6</v>
       </c>
       <c r="M11" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4008,40 +5455,40 @@
         <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="H12" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="L12">
         <v>-4.9</v>
       </c>
       <c r="M12" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4055,7 +5502,7 @@
         <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E13" t="s">
         <v>90</v>
@@ -4082,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4093,7 +5540,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
         <v>79</v>
@@ -4117,13 +5564,305 @@
         <v>60</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="L14">
         <v>-17.8</v>
       </c>
       <c r="M14" t="s">
-        <v>128</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15">
+        <v>-1.4</v>
+      </c>
+      <c r="M15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17">
+        <v>-3.8</v>
+      </c>
+      <c r="M17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18">
+        <v>3.2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19">
+        <v>-1.8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20">
+        <v>-2.1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s">
+        <v>169</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21">
+        <v>4.7</v>
+      </c>
+      <c r="M21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" t="s">
+        <v>180</v>
+      </c>
+      <c r="H22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22">
+        <v>5.3</v>
+      </c>
+      <c r="M22" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4133,7 +5872,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4144,40 +5883,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="H1" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="K1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="L1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="M1" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4188,7 +5927,7 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -4197,7 +5936,7 @@
         <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
         <v>66</v>
@@ -4206,19 +5945,19 @@
         <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
       </c>
       <c r="K2" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="L2">
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4279,6 +6018,46 @@
     <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4288,7 +6067,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4299,40 +6078,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="H1" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="K1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="L1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="M1" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4349,13 +6128,13 @@
         <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
@@ -4373,7 +6152,7 @@
         <v>23.3</v>
       </c>
       <c r="M2" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4434,6 +6213,46 @@
     <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4443,7 +6262,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4454,13 +6273,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4535,6 +6354,46 @@
     <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4544,7 +6403,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4555,13 +6414,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4636,6 +6495,46 @@
     <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="203">
   <si>
     <t>ID</t>
   </si>
@@ -378,6 +378,39 @@
     <t>24</t>
   </si>
   <si>
+    <t>Barbara.Richter@vetmeduni.ac.at</t>
+  </si>
+  <si>
+    <t>27,28,26,29,25,20,24,21,23,22,17,18,16,19,15,10,14,11,13,12</t>
+  </si>
+  <si>
+    <t>t.q.nguyen@umcutrecht.nl</t>
+  </si>
+  <si>
+    <t>a.nama@umcutrecht.nl</t>
+  </si>
+  <si>
+    <t>R.R.deKrijger-2@prinsesmaximacentrum.nl</t>
+  </si>
+  <si>
+    <t>monali.bera@avd.asia</t>
+  </si>
+  <si>
+    <t>28,29,27,20,26,21,25,22,24,23,18,19,17,10,16,11,15,12,14,13</t>
+  </si>
+  <si>
+    <t>a.f.p.sonnen-3@umcutrecht.nl</t>
+  </si>
+  <si>
+    <t>ori.brenner@weizmann.ac.il</t>
+  </si>
+  <si>
+    <t>tanitkasantikul@gmail.com</t>
+  </si>
+  <si>
+    <t>19,10,18,11,17,12,16,13,15,14,29,20,28,21,27,22,26,23,25,24</t>
+  </si>
+  <si>
     <t>slide1</t>
   </si>
   <si>
@@ -583,6 +616,9 @@
   </si>
   <si>
     <t>68</t>
+  </si>
+  <si>
+    <t>97</t>
   </si>
   <si>
     <t>56</t>
@@ -926,7 +962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2397,6 +2433,550 @@
         <v>55</v>
       </c>
     </row>
+    <row r="24" spans="1:22">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" t="s">
+        <v>99</v>
+      </c>
+      <c r="M24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O24" t="s">
+        <v>69</v>
+      </c>
+      <c r="P24" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>69</v>
+      </c>
+      <c r="R24" t="s">
+        <v>68</v>
+      </c>
+      <c r="S24" t="s">
+        <v>68</v>
+      </c>
+      <c r="T24" t="s">
+        <v>69</v>
+      </c>
+      <c r="U24" t="s">
+        <v>68</v>
+      </c>
+      <c r="V24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" t="s">
+        <v>102</v>
+      </c>
+      <c r="M25" t="s">
+        <v>61</v>
+      </c>
+      <c r="N25" t="s">
+        <v>41</v>
+      </c>
+      <c r="O25" t="s">
+        <v>41</v>
+      </c>
+      <c r="P25" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>41</v>
+      </c>
+      <c r="R25" t="s">
+        <v>41</v>
+      </c>
+      <c r="S25" t="s">
+        <v>41</v>
+      </c>
+      <c r="T25" t="s">
+        <v>41</v>
+      </c>
+      <c r="U25" t="s">
+        <v>41</v>
+      </c>
+      <c r="V25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" t="s">
+        <v>102</v>
+      </c>
+      <c r="L26" t="s">
+        <v>99</v>
+      </c>
+      <c r="M26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26" t="s">
+        <v>69</v>
+      </c>
+      <c r="O26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>69</v>
+      </c>
+      <c r="R26" t="s">
+        <v>69</v>
+      </c>
+      <c r="S26" t="s">
+        <v>69</v>
+      </c>
+      <c r="T26" t="s">
+        <v>69</v>
+      </c>
+      <c r="U26" t="s">
+        <v>68</v>
+      </c>
+      <c r="V26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" t="s">
+        <v>99</v>
+      </c>
+      <c r="M27" t="s">
+        <v>66</v>
+      </c>
+      <c r="N27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>68</v>
+      </c>
+      <c r="R27" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" t="s">
+        <v>36</v>
+      </c>
+      <c r="T27" t="s">
+        <v>36</v>
+      </c>
+      <c r="U27" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28" t="s">
+        <v>102</v>
+      </c>
+      <c r="M28" t="s">
+        <v>90</v>
+      </c>
+      <c r="N28" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" t="s">
+        <v>37</v>
+      </c>
+      <c r="P28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>37</v>
+      </c>
+      <c r="R28" t="s">
+        <v>37</v>
+      </c>
+      <c r="S28" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" t="s">
+        <v>68</v>
+      </c>
+      <c r="U28" t="s">
+        <v>36</v>
+      </c>
+      <c r="V28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" t="s">
+        <v>60</v>
+      </c>
+      <c r="M29" t="s">
+        <v>99</v>
+      </c>
+      <c r="N29" t="s">
+        <v>68</v>
+      </c>
+      <c r="O29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P29" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>68</v>
+      </c>
+      <c r="R29" t="s">
+        <v>68</v>
+      </c>
+      <c r="S29" t="s">
+        <v>68</v>
+      </c>
+      <c r="T29" t="s">
+        <v>68</v>
+      </c>
+      <c r="U29" t="s">
+        <v>36</v>
+      </c>
+      <c r="V29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M30" t="s">
+        <v>102</v>
+      </c>
+      <c r="N30" t="s">
+        <v>41</v>
+      </c>
+      <c r="O30" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>41</v>
+      </c>
+      <c r="R30" t="s">
+        <v>37</v>
+      </c>
+      <c r="S30" t="s">
+        <v>41</v>
+      </c>
+      <c r="T30" t="s">
+        <v>41</v>
+      </c>
+      <c r="U30" t="s">
+        <v>41</v>
+      </c>
+      <c r="V30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" t="s">
+        <v>84</v>
+      </c>
+      <c r="L31" t="s">
+        <v>53</v>
+      </c>
+      <c r="M31" t="s">
+        <v>80</v>
+      </c>
+      <c r="N31" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>37</v>
+      </c>
+      <c r="R31" t="s">
+        <v>41</v>
+      </c>
+      <c r="S31" t="s">
+        <v>36</v>
+      </c>
+      <c r="T31" t="s">
+        <v>36</v>
+      </c>
+      <c r="U31" t="s">
+        <v>36</v>
+      </c>
+      <c r="V31" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2404,7 +2984,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2415,70 +2995,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="N1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Q1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="R1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="S1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="T1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="U1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="V1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="W1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -2486,10 +3066,10 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
@@ -2510,16 +3090,16 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="K2" t="s">
         <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="M2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="N2" t="s">
         <v>74</v>
@@ -2528,19 +3108,19 @@
         <v>74</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Q2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="R2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="S2" t="s">
         <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="U2" t="s">
         <v>62</v>
@@ -2549,7 +3129,7 @@
         <v>-38.35</v>
       </c>
       <c r="W2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2602,7 +3182,7 @@
         <v>61</v>
       </c>
       <c r="Q3" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="R3" t="s">
         <v>102</v>
@@ -2620,7 +3200,7 @@
         <v>-3.8</v>
       </c>
       <c r="W3" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -2652,7 +3232,7 @@
         <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>60</v>
@@ -2673,13 +3253,13 @@
         <v>102</v>
       </c>
       <c r="Q4" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="R4" t="s">
         <v>53</v>
       </c>
       <c r="S4" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="T4" t="s">
         <v>66</v>
@@ -2691,7 +3271,7 @@
         <v>-8.35</v>
       </c>
       <c r="W4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -2762,7 +3342,7 @@
         <v>0.7</v>
       </c>
       <c r="W5" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -2770,70 +3350,70 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="I6" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="J6" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="K6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="L6" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="M6" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="N6" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="O6" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="P6" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="Q6" t="s">
         <v>117</v>
       </c>
       <c r="R6" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="S6" t="s">
         <v>66</v>
       </c>
       <c r="T6" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="U6" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="V6">
         <v>0.3</v>
       </c>
       <c r="W6" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -2892,7 +3472,7 @@
         <v>-5.15</v>
       </c>
       <c r="W7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2918,7 +3498,7 @@
         <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -2927,7 +3507,7 @@
         <v>61</v>
       </c>
       <c r="K8" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -2963,7 +3543,7 @@
         <v>0.65</v>
       </c>
       <c r="W8" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2974,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2985,13 +3565,13 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
         <v>78</v>
@@ -3015,7 +3595,7 @@
         <v>45</v>
       </c>
       <c r="M10" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="N10" t="s">
         <v>60</v>
@@ -3036,7 +3616,7 @@
         <v>67</v>
       </c>
       <c r="T10" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="U10" t="s">
         <v>61</v>
@@ -3045,7 +3625,7 @@
         <v>-16.75</v>
       </c>
       <c r="W10" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -3059,7 +3639,7 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E11" t="s">
         <v>67</v>
@@ -3068,7 +3648,7 @@
         <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
@@ -3086,7 +3666,7 @@
         <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="N11" t="s">
         <v>67</v>
@@ -3101,10 +3681,10 @@
         <v>44</v>
       </c>
       <c r="R11" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="S11" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="T11" t="s">
         <v>95</v>
@@ -3116,7 +3696,7 @@
         <v>10.05</v>
       </c>
       <c r="W11" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -3127,25 +3707,25 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s">
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H12" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="I12" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="J12" t="s">
         <v>74</v>
@@ -3160,7 +3740,7 @@
         <v>68</v>
       </c>
       <c r="N12" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="O12" t="s">
         <v>115</v>
@@ -3169,25 +3749,25 @@
         <v>74</v>
       </c>
       <c r="Q12" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="R12" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="S12" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="T12" t="s">
         <v>116</v>
       </c>
       <c r="U12" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="V12">
         <v>-6.1</v>
       </c>
       <c r="W12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -3210,7 +3790,7 @@
         <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="H13" t="s">
         <v>44</v>
@@ -3219,10 +3799,10 @@
         <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
         <v>99</v>
@@ -3231,7 +3811,7 @@
         <v>90</v>
       </c>
       <c r="N13" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="O13" t="s">
         <v>90</v>
@@ -3258,7 +3838,7 @@
         <v>11.8</v>
       </c>
       <c r="W13" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -3269,7 +3849,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s">
         <v>79</v>
@@ -3311,7 +3891,7 @@
         <v>95</v>
       </c>
       <c r="Q14" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="R14" t="s">
         <v>60</v>
@@ -3323,13 +3903,13 @@
         <v>102</v>
       </c>
       <c r="U14" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="V14">
         <v>-11.9</v>
       </c>
       <c r="W14" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -3346,13 +3926,13 @@
         <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F15" t="s">
         <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H15" t="s">
         <v>54</v>
@@ -3373,7 +3953,7 @@
         <v>102</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
         <v>66</v>
@@ -3382,7 +3962,7 @@
         <v>67</v>
       </c>
       <c r="Q15" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="R15" t="s">
         <v>53</v>
@@ -3400,7 +3980,7 @@
         <v>-2.15</v>
       </c>
       <c r="W15" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -3411,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -3428,7 +4008,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F17" t="s">
         <v>66</v>
@@ -3482,7 +4062,7 @@
         <v>-3.05</v>
       </c>
       <c r="W17" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -3529,7 +4109,7 @@
         <v>99</v>
       </c>
       <c r="O18" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="P18" t="s">
         <v>79</v>
@@ -3553,7 +4133,7 @@
         <v>2.7</v>
       </c>
       <c r="W18" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -3564,7 +4144,7 @@
         <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
         <v>79</v>
@@ -3573,7 +4153,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
@@ -3624,7 +4204,7 @@
         <v>-1.05</v>
       </c>
       <c r="W19" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -3644,16 +4224,16 @@
         <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="H20" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="I20" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="J20" t="s">
         <v>102</v>
@@ -3665,16 +4245,16 @@
         <v>42</v>
       </c>
       <c r="M20" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="N20" t="s">
         <v>99</v>
       </c>
       <c r="O20" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="P20" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Q20" t="s">
         <v>80</v>
@@ -3683,7 +4263,7 @@
         <v>95</v>
       </c>
       <c r="S20" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="T20" t="s">
         <v>53</v>
@@ -3695,7 +4275,7 @@
         <v>-2.55</v>
       </c>
       <c r="W20" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -3712,7 +4292,7 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F21" t="s">
         <v>36</v>
@@ -3748,7 +4328,7 @@
         <v>79</v>
       </c>
       <c r="Q21" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="R21" t="s">
         <v>61</v>
@@ -3766,7 +4346,7 @@
         <v>-0.05</v>
       </c>
       <c r="W21" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -3780,25 +4360,25 @@
         <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E22" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H22" t="s">
         <v>73</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="J22" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s">
         <v>115</v>
@@ -3807,37 +4387,605 @@
         <v>117</v>
       </c>
       <c r="M22" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="N22" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="O22" t="s">
         <v>67</v>
       </c>
       <c r="P22" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="Q22" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="R22" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="S22" t="s">
         <v>73</v>
       </c>
       <c r="T22" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="U22" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="V22">
         <v>5.85</v>
       </c>
       <c r="W22" t="s">
-        <v>170</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" t="s">
+        <v>102</v>
+      </c>
+      <c r="O23" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>99</v>
+      </c>
+      <c r="R23" t="s">
+        <v>79</v>
+      </c>
+      <c r="S23" t="s">
+        <v>53</v>
+      </c>
+      <c r="T23" t="s">
+        <v>61</v>
+      </c>
+      <c r="U23" t="s">
+        <v>66</v>
+      </c>
+      <c r="V23">
+        <v>6.95</v>
+      </c>
+      <c r="W23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" t="s">
+        <v>61</v>
+      </c>
+      <c r="N24" t="s">
+        <v>99</v>
+      </c>
+      <c r="O24" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>45</v>
+      </c>
+      <c r="R24" t="s">
+        <v>158</v>
+      </c>
+      <c r="S24" t="s">
+        <v>102</v>
+      </c>
+      <c r="T24" t="s">
+        <v>54</v>
+      </c>
+      <c r="U24" t="s">
+        <v>60</v>
+      </c>
+      <c r="V24">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="W24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" t="s">
+        <v>61</v>
+      </c>
+      <c r="L25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" t="s">
+        <v>99</v>
+      </c>
+      <c r="O25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>102</v>
+      </c>
+      <c r="R25" t="s">
+        <v>90</v>
+      </c>
+      <c r="S25" t="s">
+        <v>102</v>
+      </c>
+      <c r="T25" t="s">
+        <v>84</v>
+      </c>
+      <c r="U25" t="s">
+        <v>61</v>
+      </c>
+      <c r="V25">
+        <v>3.7</v>
+      </c>
+      <c r="W25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N26" t="s">
+        <v>45</v>
+      </c>
+      <c r="O26" t="s">
+        <v>45</v>
+      </c>
+      <c r="P26" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>53</v>
+      </c>
+      <c r="R26" t="s">
+        <v>36</v>
+      </c>
+      <c r="S26" t="s">
+        <v>102</v>
+      </c>
+      <c r="T26" t="s">
+        <v>36</v>
+      </c>
+      <c r="U26" t="s">
+        <v>66</v>
+      </c>
+      <c r="V26">
+        <v>-6.05</v>
+      </c>
+      <c r="W26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" t="s">
+        <v>84</v>
+      </c>
+      <c r="M27" t="s">
+        <v>61</v>
+      </c>
+      <c r="N27" t="s">
+        <v>102</v>
+      </c>
+      <c r="O27" t="s">
+        <v>158</v>
+      </c>
+      <c r="P27" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>78</v>
+      </c>
+      <c r="R27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S27" t="s">
+        <v>95</v>
+      </c>
+      <c r="T27" t="s">
+        <v>102</v>
+      </c>
+      <c r="U27" t="s">
+        <v>80</v>
+      </c>
+      <c r="V27">
+        <v>-7.05</v>
+      </c>
+      <c r="W27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" t="s">
+        <v>84</v>
+      </c>
+      <c r="L28" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" t="s">
+        <v>180</v>
+      </c>
+      <c r="N28" t="s">
+        <v>158</v>
+      </c>
+      <c r="O28" t="s">
+        <v>90</v>
+      </c>
+      <c r="P28" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>53</v>
+      </c>
+      <c r="R28" t="s">
+        <v>45</v>
+      </c>
+      <c r="S28" t="s">
+        <v>84</v>
+      </c>
+      <c r="T28" t="s">
+        <v>53</v>
+      </c>
+      <c r="U28" t="s">
+        <v>67</v>
+      </c>
+      <c r="V28">
+        <v>6.95</v>
+      </c>
+      <c r="W28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29" t="s">
+        <v>61</v>
+      </c>
+      <c r="N29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O29" t="s">
+        <v>102</v>
+      </c>
+      <c r="P29" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>53</v>
+      </c>
+      <c r="R29" t="s">
+        <v>54</v>
+      </c>
+      <c r="S29" t="s">
+        <v>54</v>
+      </c>
+      <c r="T29" t="s">
+        <v>90</v>
+      </c>
+      <c r="U29" t="s">
+        <v>67</v>
+      </c>
+      <c r="V29">
+        <v>2.65</v>
+      </c>
+      <c r="W29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" t="s">
+        <v>102</v>
+      </c>
+      <c r="L30" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30" t="s">
+        <v>80</v>
+      </c>
+      <c r="N30" t="s">
+        <v>80</v>
+      </c>
+      <c r="O30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>84</v>
+      </c>
+      <c r="R30" t="s">
+        <v>84</v>
+      </c>
+      <c r="S30" t="s">
+        <v>61</v>
+      </c>
+      <c r="T30" t="s">
+        <v>60</v>
+      </c>
+      <c r="U30" t="s">
+        <v>111</v>
+      </c>
+      <c r="V30">
+        <v>22.2</v>
+      </c>
+      <c r="W30" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3847,7 +4995,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3858,70 +5006,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="N1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Q1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="R1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="S1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="T1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="U1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="V1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="W1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -3944,13 +5092,13 @@
         <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="J2" t="s">
         <v>80</v>
@@ -3962,22 +5110,22 @@
         <v>66</v>
       </c>
       <c r="M2" t="s">
+        <v>166</v>
+      </c>
+      <c r="N2" t="s">
         <v>155</v>
-      </c>
-      <c r="N2" t="s">
-        <v>144</v>
       </c>
       <c r="O2" t="s">
         <v>61</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Q2" t="s">
         <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="S2" t="s">
         <v>66</v>
@@ -3992,7 +5140,7 @@
         <v>14.65</v>
       </c>
       <c r="W2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -4003,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -4014,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -4025,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -4036,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -4047,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -4058,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -4069,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -4080,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -4091,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -4102,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -4113,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -4124,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -4135,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -4146,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -4157,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -4168,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -4179,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -4190,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -4201,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -4212,7 +5360,95 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>149</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4222,7 +5458,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4233,40 +5469,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4274,16 +5510,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -4307,7 +5543,7 @@
         <v>-43.3</v>
       </c>
       <c r="M2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4348,7 +5584,7 @@
         <v>2.7</v>
       </c>
       <c r="M3" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4371,13 +5607,13 @@
         <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="H4" t="s">
         <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="J4" t="s">
         <v>66</v>
@@ -4389,7 +5625,7 @@
         <v>-15.8</v>
       </c>
       <c r="M4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4430,7 +5666,7 @@
         <v>-2.3</v>
       </c>
       <c r="M5" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4438,40 +5674,40 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="I6" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="J6" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="K6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="L6">
         <v>-2.9</v>
       </c>
       <c r="M6" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4535,7 +5771,7 @@
         <v>3.7</v>
       </c>
       <c r="M8" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4551,7 +5787,7 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D10" t="s">
         <v>60</v>
@@ -4572,7 +5808,7 @@
         <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="K10" t="s">
         <v>61</v>
@@ -4581,7 +5817,7 @@
         <v>-14.7</v>
       </c>
       <c r="M10" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4592,7 +5828,7 @@
         <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D11" t="s">
         <v>67</v>
@@ -4607,10 +5843,10 @@
         <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="I11" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="J11" t="s">
         <v>95</v>
@@ -4622,7 +5858,7 @@
         <v>12.5</v>
       </c>
       <c r="M11" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4633,25 +5869,25 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s">
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H12" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="I12" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="J12" t="s">
         <v>74</v>
@@ -4663,7 +5899,7 @@
         <v>-7.3</v>
       </c>
       <c r="M12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4686,7 +5922,7 @@
         <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="H13" t="s">
         <v>44</v>
@@ -4695,16 +5931,16 @@
         <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="L13">
         <v>23.6</v>
       </c>
       <c r="M13" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4727,7 +5963,7 @@
         <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="H14" t="s">
         <v>60</v>
@@ -4739,13 +5975,13 @@
         <v>102</v>
       </c>
       <c r="K14" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="L14">
         <v>-6</v>
       </c>
       <c r="M14" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -4759,7 +5995,7 @@
         <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
         <v>66</v>
@@ -4768,7 +6004,7 @@
         <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H15" t="s">
         <v>53</v>
@@ -4786,7 +6022,7 @@
         <v>-2.9</v>
       </c>
       <c r="M15" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -4808,7 +6044,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F17" t="s">
         <v>66</v>
@@ -4832,7 +6068,7 @@
         <v>-2.3</v>
       </c>
       <c r="M17" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -4849,7 +6085,7 @@
         <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F18" t="s">
         <v>79</v>
@@ -4873,7 +6109,7 @@
         <v>2.2</v>
       </c>
       <c r="M18" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -4914,7 +6150,7 @@
         <v>-0.3</v>
       </c>
       <c r="M19" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -4934,16 +6170,16 @@
         <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="H20" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="I20" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="J20" t="s">
         <v>102</v>
@@ -4955,7 +6191,7 @@
         <v>-3</v>
       </c>
       <c r="M20" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -4972,7 +6208,7 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F21" t="s">
         <v>36</v>
@@ -4996,7 +6232,7 @@
         <v>-4.8</v>
       </c>
       <c r="M21" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -5007,37 +6243,365 @@
         <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E22" t="s">
         <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="G22" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H22" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="I22" t="s">
         <v>73</v>
       </c>
       <c r="J22" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="L22">
         <v>6.4</v>
       </c>
       <c r="M22" t="s">
-        <v>170</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23">
+        <v>3.2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24">
+        <v>-6.8</v>
+      </c>
+      <c r="M24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" t="s">
+        <v>61</v>
+      </c>
+      <c r="L25">
+        <v>5.2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26">
+        <v>-7.3</v>
+      </c>
+      <c r="M26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" t="s">
+        <v>102</v>
+      </c>
+      <c r="K27" t="s">
+        <v>80</v>
+      </c>
+      <c r="L27">
+        <v>-2.8</v>
+      </c>
+      <c r="M27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" t="s">
+        <v>84</v>
+      </c>
+      <c r="L28">
+        <v>6.7</v>
+      </c>
+      <c r="M28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29">
+        <v>4.1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" t="s">
+        <v>111</v>
+      </c>
+      <c r="L30">
+        <v>17.2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5047,7 +6611,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5058,40 +6622,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5108,22 +6672,22 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I2" t="s">
         <v>74</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="K2" t="s">
         <v>74</v>
@@ -5132,7 +6696,7 @@
         <v>-33.4</v>
       </c>
       <c r="M2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -5155,7 +6719,7 @@
         <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="H3" t="s">
         <v>102</v>
@@ -5173,7 +6737,7 @@
         <v>-10.3</v>
       </c>
       <c r="M3" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5205,7 +6769,7 @@
         <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>60</v>
@@ -5214,7 +6778,7 @@
         <v>-0.9</v>
       </c>
       <c r="M4" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5255,7 +6819,7 @@
         <v>3.7</v>
       </c>
       <c r="M5" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5263,40 +6827,40 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F6" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="G6" t="s">
         <v>117</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="I6" t="s">
         <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="K6" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="L6">
         <v>3.5</v>
       </c>
       <c r="M6" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5345,7 +6909,7 @@
         <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -5354,13 +6918,13 @@
         <v>61</v>
       </c>
       <c r="K8" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="L8">
         <v>-2.4</v>
       </c>
       <c r="M8" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -5376,13 +6940,13 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
         <v>78</v>
@@ -5406,7 +6970,7 @@
         <v>-18.8</v>
       </c>
       <c r="M10" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5420,7 +6984,7 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E11" t="s">
         <v>67</v>
@@ -5429,7 +6993,7 @@
         <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
@@ -5447,7 +7011,7 @@
         <v>7.6</v>
       </c>
       <c r="M11" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -5461,7 +7025,7 @@
         <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E12" t="s">
         <v>115</v>
@@ -5470,25 +7034,25 @@
         <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H12" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="I12" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J12" t="s">
         <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="L12">
         <v>-4.9</v>
       </c>
       <c r="M12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -5502,7 +7066,7 @@
         <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E13" t="s">
         <v>90</v>
@@ -5529,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -5540,7 +7104,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s">
         <v>79</v>
@@ -5570,7 +7134,7 @@
         <v>-17.8</v>
       </c>
       <c r="M14" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -5587,13 +7151,13 @@
         <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F15" t="s">
         <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H15" t="s">
         <v>54</v>
@@ -5611,7 +7175,7 @@
         <v>-1.4</v>
       </c>
       <c r="M15" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -5657,7 +7221,7 @@
         <v>-3.8</v>
       </c>
       <c r="M17" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -5698,7 +7262,7 @@
         <v>3.2</v>
       </c>
       <c r="M18" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -5709,7 +7273,7 @@
         <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
         <v>79</v>
@@ -5718,7 +7282,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
@@ -5739,7 +7303,7 @@
         <v>-1.8</v>
       </c>
       <c r="M19" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -5750,16 +7314,16 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D20" t="s">
         <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G20" t="s">
         <v>80</v>
@@ -5768,7 +7332,7 @@
         <v>95</v>
       </c>
       <c r="I20" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -5780,7 +7344,7 @@
         <v>-2.1</v>
       </c>
       <c r="M20" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -5803,7 +7367,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="H21" t="s">
         <v>61</v>
@@ -5821,7 +7385,7 @@
         <v>4.7</v>
       </c>
       <c r="M21" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -5835,25 +7399,25 @@
         <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E22" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H22" t="s">
         <v>73</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="J22" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s">
         <v>115</v>
@@ -5862,7 +7426,335 @@
         <v>5.3</v>
       </c>
       <c r="M22" t="s">
-        <v>170</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L23">
+        <v>10.7</v>
+      </c>
+      <c r="M23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>158</v>
+      </c>
+      <c r="I24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="M24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25" t="s">
+        <v>61</v>
+      </c>
+      <c r="L25">
+        <v>2.2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26">
+        <v>-4.8</v>
+      </c>
+      <c r="M26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27">
+        <v>-11.3</v>
+      </c>
+      <c r="M27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28">
+        <v>7.2</v>
+      </c>
+      <c r="M28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" t="s">
+        <v>90</v>
+      </c>
+      <c r="K29" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29">
+        <v>1.2</v>
+      </c>
+      <c r="M29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" t="s">
+        <v>102</v>
+      </c>
+      <c r="L30">
+        <v>27.2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5872,7 +7764,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5883,40 +7775,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5927,7 +7819,7 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -5936,7 +7828,7 @@
         <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
         <v>66</v>
@@ -5945,19 +7837,19 @@
         <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
       </c>
       <c r="K2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="L2">
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -6058,6 +7950,46 @@
     <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -6067,7 +7999,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6078,40 +8010,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -6128,13 +8060,13 @@
         <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
@@ -6152,7 +8084,7 @@
         <v>23.3</v>
       </c>
       <c r="M2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -6253,6 +8185,46 @@
     <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -6262,7 +8234,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6273,13 +8245,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6394,6 +8366,46 @@
     <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -6403,7 +8415,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6414,13 +8426,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6535,6 +8547,46 @@
     <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="206">
   <si>
     <t>ID</t>
   </si>
@@ -258,60 +258,63 @@
     <t>13,14,12,15,11,16,10,17,19,18,23,24,22,25,21,26,20,27,29,28</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>andrea.klang@vetmeduni.ac.at</t>
+  </si>
+  <si>
+    <t>23,24,22,25,21,26,20,27,29,28,13,14,12,15,11,16,10,17,19,18</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
     <t>45</t>
   </si>
   <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>vk.ca@gmail.com</t>
+  </si>
+  <si>
+    <t>bdcrq6@gmail.com</t>
+  </si>
+  <si>
+    <t>14,15,13,16,12,17,11,18,10,19,24,25,23,26,22,27,21,28,20,29</t>
+  </si>
+  <si>
+    <t>Prefer not to say</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
+    <t>marco.tecilla@gmail.com</t>
+  </si>
+  <si>
+    <t>24,25,23,26,22,27,21,28,20,29,14,15,13,16,12,17,11,18,10,19</t>
+  </si>
+  <si>
+    <t>paraschoug@hotmail.com</t>
+  </si>
+  <si>
+    <t>mvalentine2@rossvet.edu.kn</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
-    <t>andrea.klang@vetmeduni.ac.at</t>
-  </si>
-  <si>
-    <t>23,24,22,25,21,26,20,27,29,28,13,14,12,15,11,16,10,17,19,18</t>
-  </si>
-  <si>
-    <t>45-54</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>vk.ca@gmail.com</t>
-  </si>
-  <si>
-    <t>bdcrq6@gmail.com</t>
-  </si>
-  <si>
-    <t>14,15,13,16,12,17,11,18,10,19,24,25,23,26,22,27,21,28,20,29</t>
-  </si>
-  <si>
-    <t>Prefer not to say</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>marco.tecilla@gmail.com</t>
-  </si>
-  <si>
-    <t>24,25,23,26,22,27,21,28,20,29,14,15,13,16,12,17,11,18,10,19</t>
-  </si>
-  <si>
-    <t>paraschoug@hotmail.com</t>
-  </si>
-  <si>
-    <t>mvalentine2@rossvet.edu.kn</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>ddenk@miral.ae</t>
   </si>
   <si>
@@ -411,6 +414,15 @@
     <t>19,10,18,11,17,12,16,13,15,14,29,20,28,21,27,22,26,23,25,24</t>
   </si>
   <si>
+    <t>dorresteingm@noivbd.nl</t>
+  </si>
+  <si>
+    <t>29,20,28,21,27,22,26,23,25,24,19,10,18,11,17,12,16,13,15,14</t>
+  </si>
+  <si>
+    <t>jmagnussonwulcan@ucdavis.edu</t>
+  </si>
+  <si>
     <t>slide1</t>
   </si>
   <si>
@@ -562,9 +574,6 @@
   </si>
   <si>
     <t>54</t>
-  </si>
-  <si>
-    <t>95</t>
   </si>
   <si>
     <t>overestimation</t>
@@ -962,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM31"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1515,33 +1524,60 @@
         <v>41</v>
       </c>
       <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>69</v>
+      </c>
+      <c r="R8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" t="s">
         <v>55</v>
-      </c>
-      <c r="K8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -1559,13 +1595,13 @@
         <v>38</v>
       </c>
       <c r="K9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" t="s">
         <v>84</v>
-      </c>
-      <c r="L9" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" t="s">
-        <v>85</v>
       </c>
       <c r="N9" t="s">
         <v>36</v>
@@ -1597,27 +1633,27 @@
     </row>
     <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
       </c>
       <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
         <v>88</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
@@ -1641,10 +1677,10 @@
         <v>42</v>
       </c>
       <c r="L11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" t="s">
         <v>90</v>
-      </c>
-      <c r="M11" t="s">
-        <v>79</v>
       </c>
       <c r="N11" t="s">
         <v>41</v>
@@ -1709,10 +1745,10 @@
         <v>66</v>
       </c>
       <c r="L12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M12" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="N12" t="s">
         <v>68</v>
@@ -1750,7 +1786,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -1777,7 +1813,7 @@
         <v>54</v>
       </c>
       <c r="L13" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M13" t="s">
         <v>73</v>
@@ -1824,7 +1860,7 @@
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
         <v>71</v>
@@ -1845,7 +1881,7 @@
         <v>95</v>
       </c>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="M14" t="s">
         <v>53</v>
@@ -1880,13 +1916,13 @@
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
         <v>65</v>
@@ -1895,7 +1931,7 @@
         <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
         <v>41</v>
@@ -1913,10 +1949,10 @@
         <v>42</v>
       </c>
       <c r="L15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N15" t="s">
         <v>68</v>
@@ -1948,13 +1984,13 @@
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -1978,13 +2014,13 @@
         <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s">
         <v>53</v>
       </c>
       <c r="M16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N16" t="s">
         <v>68</v>
@@ -2016,33 +2052,33 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G18" t="s">
         <v>41</v>
@@ -2063,7 +2099,7 @@
         <v>54</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="N18" t="s">
         <v>68</v>
@@ -2095,19 +2131,19 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
         <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
         <v>71</v>
@@ -2128,7 +2164,7 @@
         <v>53</v>
       </c>
       <c r="L19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M19" t="s">
         <v>61</v>
@@ -2163,13 +2199,13 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
@@ -2196,7 +2232,7 @@
         <v>42</v>
       </c>
       <c r="L20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M20" t="s">
         <v>44</v>
@@ -2231,13 +2267,13 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
@@ -2267,7 +2303,7 @@
         <v>54</v>
       </c>
       <c r="M21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N21" t="s">
         <v>36</v>
@@ -2299,19 +2335,19 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
         <v>71</v>
@@ -2332,7 +2368,7 @@
         <v>53</v>
       </c>
       <c r="L22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M22" t="s">
         <v>44</v>
@@ -2367,13 +2403,13 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
         <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -2397,13 +2433,13 @@
         <v>38</v>
       </c>
       <c r="K23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N23" t="s">
         <v>69</v>
@@ -2435,19 +2471,19 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
         <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
         <v>71</v>
@@ -2468,7 +2504,7 @@
         <v>66</v>
       </c>
       <c r="L24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M24" t="s">
         <v>44</v>
@@ -2503,19 +2539,19 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
         <v>71</v>
@@ -2533,10 +2569,10 @@
         <v>38</v>
       </c>
       <c r="K25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M25" t="s">
         <v>61</v>
@@ -2571,13 +2607,13 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
         <v>65</v>
@@ -2601,13 +2637,13 @@
         <v>38</v>
       </c>
       <c r="K26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M26" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="N26" t="s">
         <v>69</v>
@@ -2639,7 +2675,7 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
         <v>76</v>
@@ -2651,7 +2687,7 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F27" t="s">
         <v>71</v>
@@ -2672,7 +2708,7 @@
         <v>53</v>
       </c>
       <c r="L27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M27" t="s">
         <v>66</v>
@@ -2707,13 +2743,13 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
         <v>65</v>
@@ -2737,13 +2773,13 @@
         <v>38</v>
       </c>
       <c r="K28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N28" t="s">
         <v>52</v>
@@ -2775,7 +2811,7 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
@@ -2811,7 +2847,7 @@
         <v>60</v>
       </c>
       <c r="M29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N29" t="s">
         <v>68</v>
@@ -2843,19 +2879,19 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s">
         <v>71</v>
@@ -2879,7 +2915,7 @@
         <v>54</v>
       </c>
       <c r="M30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N30" t="s">
         <v>41</v>
@@ -2911,13 +2947,13 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
         <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
@@ -2926,7 +2962,7 @@
         <v>51</v>
       </c>
       <c r="F31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G31" t="s">
         <v>41</v>
@@ -2941,13 +2977,13 @@
         <v>38</v>
       </c>
       <c r="K31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L31" t="s">
         <v>53</v>
       </c>
       <c r="M31" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="N31" t="s">
         <v>41</v>
@@ -2974,6 +3010,142 @@
         <v>36</v>
       </c>
       <c r="V31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32" t="s">
+        <v>41</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>37</v>
+      </c>
+      <c r="R32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S32" t="s">
+        <v>36</v>
+      </c>
+      <c r="T32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U32" t="s">
+        <v>41</v>
+      </c>
+      <c r="V32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" t="s">
+        <v>100</v>
+      </c>
+      <c r="L33" t="s">
+        <v>90</v>
+      </c>
+      <c r="M33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" t="s">
+        <v>69</v>
+      </c>
+      <c r="O33" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>69</v>
+      </c>
+      <c r="R33" t="s">
+        <v>69</v>
+      </c>
+      <c r="S33" t="s">
+        <v>69</v>
+      </c>
+      <c r="T33" t="s">
+        <v>69</v>
+      </c>
+      <c r="U33" t="s">
+        <v>69</v>
+      </c>
+      <c r="V33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2984,7 +3156,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2995,70 +3167,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="O1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="R1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="S1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="T1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="U1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="V1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="W1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -3066,10 +3238,10 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
@@ -3090,16 +3262,16 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K2" t="s">
         <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="N2" t="s">
         <v>74</v>
@@ -3108,19 +3280,19 @@
         <v>74</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="R2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="S2" t="s">
         <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="U2" t="s">
         <v>62</v>
@@ -3129,7 +3301,7 @@
         <v>-38.35</v>
       </c>
       <c r="W2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -3152,19 +3324,19 @@
         <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
         <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J3" t="s">
         <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3173,7 +3345,7 @@
         <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="O3" t="s">
         <v>67</v>
@@ -3182,16 +3354,16 @@
         <v>61</v>
       </c>
       <c r="Q3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="R3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S3" t="s">
         <v>45</v>
       </c>
       <c r="T3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U3" t="s">
         <v>60</v>
@@ -3200,7 +3372,7 @@
         <v>-3.8</v>
       </c>
       <c r="W3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -3208,19 +3380,19 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
         <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
         <v>44</v>
@@ -3229,10 +3401,10 @@
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K4" t="s">
         <v>60</v>
@@ -3247,31 +3419,31 @@
         <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="R4" t="s">
         <v>53</v>
       </c>
       <c r="S4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="T4" t="s">
         <v>66</v>
       </c>
       <c r="U4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V4">
         <v>-8.35</v>
       </c>
       <c r="W4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -3288,19 +3460,19 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
         <v>90</v>
-      </c>
-      <c r="F5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" t="s">
-        <v>79</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
         <v>67</v>
@@ -3315,16 +3487,16 @@
         <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="R5" t="s">
         <v>44</v>
@@ -3336,13 +3508,13 @@
         <v>67</v>
       </c>
       <c r="U5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V5">
         <v>0.7</v>
       </c>
       <c r="W5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -3350,70 +3522,70 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="N6" t="s">
+        <v>175</v>
+      </c>
+      <c r="O6" t="s">
+        <v>176</v>
+      </c>
+      <c r="P6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>118</v>
+      </c>
+      <c r="R6" t="s">
         <v>171</v>
-      </c>
-      <c r="O6" t="s">
-        <v>172</v>
-      </c>
-      <c r="P6" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>117</v>
-      </c>
-      <c r="R6" t="s">
-        <v>167</v>
       </c>
       <c r="S6" t="s">
         <v>66</v>
       </c>
       <c r="T6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="U6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="V6">
         <v>0.3</v>
       </c>
       <c r="W6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -3421,66 +3593,78 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" t="s">
         <v>90</v>
       </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="Q7" t="s">
+        <v>90</v>
+      </c>
+      <c r="R7" t="s">
+        <v>90</v>
+      </c>
+      <c r="S7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" t="s">
+        <v>78</v>
+      </c>
+      <c r="U7" t="s">
         <v>44</v>
       </c>
-      <c r="J7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" t="s">
-        <v>79</v>
-      </c>
-      <c r="N7" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>78</v>
-      </c>
       <c r="V7">
-        <v>-5.15</v>
+        <v>-6.3</v>
       </c>
       <c r="W7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
@@ -3489,16 +3673,16 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
         <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -3507,7 +3691,7 @@
         <v>61</v>
       </c>
       <c r="K8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -3519,19 +3703,19 @@
         <v>67</v>
       </c>
       <c r="O8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="R8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="S8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T8" t="s">
         <v>67</v>
@@ -3543,44 +3727,44 @@
         <v>0.65</v>
       </c>
       <c r="W8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
         <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
         <v>95</v>
@@ -3589,22 +3773,22 @@
         <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s">
         <v>45</v>
       </c>
       <c r="M10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N10" t="s">
         <v>60</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Q10" t="s">
         <v>45</v>
@@ -3616,7 +3800,7 @@
         <v>67</v>
       </c>
       <c r="T10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="U10" t="s">
         <v>61</v>
@@ -3625,7 +3809,7 @@
         <v>-16.75</v>
       </c>
       <c r="W10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -3639,40 +3823,40 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E11" t="s">
         <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="N11" t="s">
         <v>67</v>
       </c>
       <c r="O11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P11" t="s">
         <v>54</v>
@@ -3681,10 +3865,10 @@
         <v>44</v>
       </c>
       <c r="R11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="S11" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s">
         <v>95</v>
@@ -3696,7 +3880,7 @@
         <v>10.05</v>
       </c>
       <c r="W11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -3707,25 +3891,25 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s">
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I12" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s">
         <v>74</v>
@@ -3734,40 +3918,40 @@
         <v>72</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M12" t="s">
         <v>68</v>
       </c>
       <c r="N12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P12" t="s">
         <v>74</v>
       </c>
       <c r="Q12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="R12" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="S12" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="T12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="V12">
         <v>-6.1</v>
       </c>
       <c r="W12" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -3775,13 +3959,13 @@
         <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
         <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
         <v>53</v>
@@ -3790,7 +3974,7 @@
         <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
         <v>44</v>
@@ -3799,22 +3983,22 @@
         <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P13" t="s">
         <v>67</v>
@@ -3826,10 +4010,10 @@
         <v>95</v>
       </c>
       <c r="S13" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="T13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U13" t="s">
         <v>66</v>
@@ -3838,24 +4022,24 @@
         <v>11.8</v>
       </c>
       <c r="W13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -3864,16 +4048,16 @@
         <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s">
         <v>60</v>
       </c>
       <c r="K14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L14" t="s">
         <v>45</v>
@@ -3882,16 +4066,16 @@
         <v>60</v>
       </c>
       <c r="N14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P14" t="s">
         <v>95</v>
       </c>
       <c r="Q14" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s">
         <v>60</v>
@@ -3900,39 +4084,39 @@
         <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="V14">
         <v>-11.9</v>
       </c>
       <c r="W14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F15" t="s">
         <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H15" t="s">
         <v>54</v>
@@ -3944,16 +4128,16 @@
         <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" t="s">
         <v>53</v>
       </c>
       <c r="M15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s">
         <v>66</v>
@@ -3962,7 +4146,7 @@
         <v>67</v>
       </c>
       <c r="Q15" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="R15" t="s">
         <v>53</v>
@@ -3971,32 +4155,32 @@
         <v>66</v>
       </c>
       <c r="T15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V15">
         <v>-2.15</v>
       </c>
       <c r="W15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -4008,7 +4192,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F17" t="s">
         <v>66</v>
@@ -4026,16 +4210,16 @@
         <v>53</v>
       </c>
       <c r="K17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="N17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O17" t="s">
         <v>54</v>
@@ -4056,33 +4240,33 @@
         <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="V17">
         <v>-3.05</v>
       </c>
       <c r="W17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G18" t="s">
         <v>44</v>
@@ -4091,7 +4275,7 @@
         <v>61</v>
       </c>
       <c r="I18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J18" t="s">
         <v>53</v>
@@ -4103,16 +4287,16 @@
         <v>54</v>
       </c>
       <c r="M18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O18" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="P18" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="Q18" t="s">
         <v>61</v>
@@ -4121,7 +4305,7 @@
         <v>53</v>
       </c>
       <c r="S18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="T18" t="s">
         <v>53</v>
@@ -4133,42 +4317,42 @@
         <v>2.7</v>
       </c>
       <c r="W18" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" t="s">
         <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
       </c>
       <c r="E19" t="s">
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s">
         <v>66</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L19" t="s">
         <v>60</v>
@@ -4180,107 +4364,107 @@
         <v>54</v>
       </c>
       <c r="O19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q19" t="s">
         <v>44</v>
       </c>
       <c r="R19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S19" t="s">
         <v>60</v>
       </c>
       <c r="T19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="U19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="V19">
         <v>-1.05</v>
       </c>
       <c r="W19" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
         <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H20" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L20" t="s">
         <v>42</v>
       </c>
       <c r="M20" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q20" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="R20" t="s">
         <v>95</v>
       </c>
       <c r="S20" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="T20" t="s">
         <v>53</v>
       </c>
       <c r="U20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V20">
         <v>-2.55</v>
       </c>
       <c r="W20" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -4292,7 +4476,7 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
         <v>36</v>
@@ -4310,31 +4494,31 @@
         <v>53</v>
       </c>
       <c r="K21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M21" t="s">
         <v>44</v>
       </c>
       <c r="N21" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="O21" t="s">
         <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="Q21" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="R21" t="s">
         <v>61</v>
       </c>
       <c r="S21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T21" t="s">
         <v>54</v>
@@ -4346,104 +4530,104 @@
         <v>-0.05</v>
       </c>
       <c r="W21" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
         <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E22" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H22" t="s">
         <v>73</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J22" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M22" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N22" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="O22" t="s">
         <v>67</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q22" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="R22" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="S22" t="s">
         <v>73</v>
       </c>
       <c r="T22" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="U22" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="V22">
         <v>5.85</v>
       </c>
       <c r="W22" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
         <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s">
         <v>61</v>
       </c>
       <c r="H23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I23" t="s">
         <v>66</v>
@@ -4452,7 +4636,7 @@
         <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L23" t="s">
         <v>66</v>
@@ -4461,7 +4645,7 @@
         <v>61</v>
       </c>
       <c r="N23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
@@ -4470,10 +4654,10 @@
         <v>66</v>
       </c>
       <c r="Q23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R23" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="S23" t="s">
         <v>53</v>
@@ -4488,12 +4672,12 @@
         <v>6.95</v>
       </c>
       <c r="W23" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
@@ -4502,7 +4686,7 @@
         <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
         <v>67</v>
@@ -4511,13 +4695,13 @@
         <v>66</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J24" t="s">
         <v>54</v>
@@ -4532,22 +4716,22 @@
         <v>61</v>
       </c>
       <c r="N24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q24" t="s">
         <v>45</v>
       </c>
       <c r="R24" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="S24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T24" t="s">
         <v>54</v>
@@ -4559,15 +4743,15 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="W24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
         <v>53</v>
@@ -4579,13 +4763,13 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s">
         <v>53</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s">
         <v>54</v>
@@ -4603,25 +4787,25 @@
         <v>44</v>
       </c>
       <c r="N25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O25" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U25" t="s">
         <v>61</v>
@@ -4630,12 +4814,12 @@
         <v>3.7</v>
       </c>
       <c r="W25" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
         <v>66</v>
@@ -4647,10 +4831,10 @@
         <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
         <v>53</v>
@@ -4659,7 +4843,7 @@
         <v>54</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J26" t="s">
         <v>45</v>
@@ -4689,7 +4873,7 @@
         <v>36</v>
       </c>
       <c r="S26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T26" t="s">
         <v>36</v>
@@ -4701,18 +4885,18 @@
         <v>-6.05</v>
       </c>
       <c r="W26" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
         <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
         <v>54</v>
@@ -4721,7 +4905,7 @@
         <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s">
         <v>42</v>
@@ -4730,7 +4914,7 @@
         <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J27" t="s">
         <v>45</v>
@@ -4739,22 +4923,22 @@
         <v>66</v>
       </c>
       <c r="L27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M27" t="s">
         <v>61</v>
       </c>
       <c r="N27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O27" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P27" t="s">
         <v>66</v>
       </c>
       <c r="Q27" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="R27" t="s">
         <v>45</v>
@@ -4763,21 +4947,21 @@
         <v>95</v>
       </c>
       <c r="T27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U27" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="V27">
         <v>-7.05</v>
       </c>
       <c r="W27" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
         <v>67</v>
@@ -4792,34 +4976,34 @@
         <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G28" t="s">
         <v>53</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s">
         <v>95</v>
       </c>
       <c r="J28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s">
         <v>44</v>
       </c>
       <c r="M28" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="N28" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P28" t="s">
         <v>54</v>
@@ -4831,7 +5015,7 @@
         <v>45</v>
       </c>
       <c r="S28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T28" t="s">
         <v>53</v>
@@ -4843,24 +5027,24 @@
         <v>6.95</v>
       </c>
       <c r="W28" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F29" t="s">
         <v>54</v>
@@ -4875,13 +5059,13 @@
         <v>54</v>
       </c>
       <c r="J29" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s">
         <v>66</v>
       </c>
       <c r="L29" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="M29" t="s">
         <v>61</v>
@@ -4890,10 +5074,10 @@
         <v>54</v>
       </c>
       <c r="O29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="Q29" t="s">
         <v>53</v>
@@ -4905,7 +5089,7 @@
         <v>54</v>
       </c>
       <c r="T29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U29" t="s">
         <v>67</v>
@@ -4914,51 +5098,51 @@
         <v>2.65</v>
       </c>
       <c r="W29" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="H30" t="s">
         <v>53</v>
       </c>
       <c r="I30" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="J30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M30" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="N30" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="O30" t="s">
         <v>61</v>
@@ -4967,10 +5151,10 @@
         <v>60</v>
       </c>
       <c r="Q30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S30" t="s">
         <v>61</v>
@@ -4979,13 +5163,155 @@
         <v>60</v>
       </c>
       <c r="U30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="V30">
         <v>22.2</v>
       </c>
       <c r="W30" t="s">
-        <v>181</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" t="s">
+        <v>162</v>
+      </c>
+      <c r="K31" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31" t="s">
+        <v>61</v>
+      </c>
+      <c r="M31" t="s">
+        <v>45</v>
+      </c>
+      <c r="N31" t="s">
+        <v>61</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>42</v>
+      </c>
+      <c r="R31" t="s">
+        <v>103</v>
+      </c>
+      <c r="S31" t="s">
+        <v>67</v>
+      </c>
+      <c r="T31" t="s">
+        <v>89</v>
+      </c>
+      <c r="U31" t="s">
+        <v>162</v>
+      </c>
+      <c r="V31">
+        <v>2.95</v>
+      </c>
+      <c r="W31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" t="s">
+        <v>95</v>
+      </c>
+      <c r="M32" t="s">
+        <v>162</v>
+      </c>
+      <c r="N32" t="s">
+        <v>67</v>
+      </c>
+      <c r="O32" t="s">
+        <v>162</v>
+      </c>
+      <c r="P32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>162</v>
+      </c>
+      <c r="R32" t="s">
+        <v>90</v>
+      </c>
+      <c r="S32" t="s">
+        <v>53</v>
+      </c>
+      <c r="T32" t="s">
+        <v>37</v>
+      </c>
+      <c r="U32" t="s">
+        <v>52</v>
+      </c>
+      <c r="V32">
+        <v>-18.65</v>
+      </c>
+      <c r="W32" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4995,7 +5321,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5006,70 +5332,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="O1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="R1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="S1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="T1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="U1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="V1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="W1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -5083,7 +5409,7 @@
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -5092,46 +5418,46 @@
         <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
         <v>66</v>
       </c>
       <c r="M2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O2" t="s">
         <v>61</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q2" t="s">
         <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S2" t="s">
         <v>66</v>
       </c>
       <c r="T2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="U2" t="s">
         <v>44</v>
@@ -5140,7 +5466,7 @@
         <v>14.65</v>
       </c>
       <c r="W2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -5151,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -5162,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -5173,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -5184,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -5195,40 +5521,40 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -5239,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -5250,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -5261,194 +5587,216 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>160</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5458,7 +5806,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5469,40 +5817,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5510,16 +5858,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" t="s">
         <v>156</v>
-      </c>
-      <c r="D2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" t="s">
-        <v>152</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -5543,7 +5891,7 @@
         <v>-43.3</v>
       </c>
       <c r="M2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -5566,25 +5914,25 @@
         <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
         <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J3" t="s">
         <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L3">
         <v>2.7</v>
       </c>
       <c r="M3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5601,31 +5949,31 @@
         <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H4" t="s">
         <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J4" t="s">
         <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L4">
         <v>-15.8</v>
       </c>
       <c r="M4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5642,19 +5990,19 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
         <v>90</v>
-      </c>
-      <c r="F5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" t="s">
-        <v>79</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
         <v>67</v>
@@ -5666,7 +6014,7 @@
         <v>-2.3</v>
       </c>
       <c r="M5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5674,40 +6022,40 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L6">
         <v>-2.9</v>
       </c>
       <c r="M6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5715,27 +6063,45 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
         <v>78</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="M7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
@@ -5747,19 +6113,19 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
         <v>67</v>
@@ -5771,32 +6137,32 @@
         <v>3.7</v>
       </c>
       <c r="M8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
         <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -5808,7 +6174,7 @@
         <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K10" t="s">
         <v>61</v>
@@ -5817,7 +6183,7 @@
         <v>-14.7</v>
       </c>
       <c r="M10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5825,16 +6191,16 @@
         <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
         <v>54</v>
@@ -5843,10 +6209,10 @@
         <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I11" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
         <v>95</v>
@@ -5858,7 +6224,7 @@
         <v>12.5</v>
       </c>
       <c r="M11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -5869,25 +6235,25 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s">
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I12" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s">
         <v>74</v>
@@ -5899,7 +6265,7 @@
         <v>-7.3</v>
       </c>
       <c r="M12" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -5907,13 +6273,13 @@
         <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
         <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
         <v>53</v>
@@ -5922,7 +6288,7 @@
         <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
         <v>44</v>
@@ -5931,21 +6297,21 @@
         <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L13">
         <v>23.6</v>
       </c>
       <c r="M13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
@@ -5954,16 +6320,16 @@
         <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
         <v>60</v>
@@ -5972,30 +6338,30 @@
         <v>53</v>
       </c>
       <c r="J14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L14">
         <v>-6</v>
       </c>
       <c r="M14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E15" t="s">
         <v>66</v>
@@ -6004,7 +6370,7 @@
         <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H15" t="s">
         <v>53</v>
@@ -6013,26 +6379,26 @@
         <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15">
         <v>-2.9</v>
       </c>
       <c r="M15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -6044,7 +6410,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F17" t="s">
         <v>66</v>
@@ -6062,33 +6428,33 @@
         <v>53</v>
       </c>
       <c r="K17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17">
         <v>-2.3</v>
       </c>
       <c r="M17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
         <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
         <v>61</v>
@@ -6097,7 +6463,7 @@
         <v>53</v>
       </c>
       <c r="I18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J18" t="s">
         <v>53</v>
@@ -6109,12 +6475,12 @@
         <v>2.2</v>
       </c>
       <c r="M18" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -6126,77 +6492,77 @@
         <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
         <v>60</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L19">
         <v>-0.3</v>
       </c>
       <c r="M19" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
         <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H20" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L20">
         <v>-3</v>
       </c>
       <c r="M20" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -6208,7 +6574,7 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
         <v>36</v>
@@ -6226,59 +6592,59 @@
         <v>53</v>
       </c>
       <c r="K21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L21">
         <v>-4.8</v>
       </c>
       <c r="M21" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E22" t="s">
         <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G22" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H22" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I22" t="s">
         <v>73</v>
       </c>
       <c r="J22" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L22">
         <v>6.4</v>
       </c>
       <c r="M22" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
         <v>66</v>
@@ -6287,7 +6653,7 @@
         <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E23" t="s">
         <v>44</v>
@@ -6296,10 +6662,10 @@
         <v>66</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I23" t="s">
         <v>53</v>
@@ -6314,12 +6680,12 @@
         <v>3.2</v>
       </c>
       <c r="M23" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
@@ -6328,7 +6694,7 @@
         <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
         <v>67</v>
@@ -6337,13 +6703,13 @@
         <v>66</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J24" t="s">
         <v>54</v>
@@ -6355,15 +6721,15 @@
         <v>-6.8</v>
       </c>
       <c r="M24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
         <v>53</v>
@@ -6375,13 +6741,13 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s">
         <v>53</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s">
         <v>54</v>
@@ -6396,12 +6762,12 @@
         <v>5.2</v>
       </c>
       <c r="M25" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
@@ -6425,7 +6791,7 @@
         <v>36</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J26" t="s">
         <v>36</v>
@@ -6437,30 +6803,30 @@
         <v>-7.3</v>
       </c>
       <c r="M26" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
         <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F27" t="s">
         <v>66</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s">
         <v>45</v>
@@ -6469,21 +6835,21 @@
         <v>95</v>
       </c>
       <c r="J27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K27" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="L27">
         <v>-2.8</v>
       </c>
       <c r="M27" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
         <v>67</v>
@@ -6498,45 +6864,45 @@
         <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G28" t="s">
         <v>53</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s">
         <v>95</v>
       </c>
       <c r="J28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L28">
         <v>6.7</v>
       </c>
       <c r="M28" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F29" t="s">
         <v>54</v>
@@ -6551,7 +6917,7 @@
         <v>54</v>
       </c>
       <c r="J29" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s">
         <v>66</v>
@@ -6560,21 +6926,21 @@
         <v>4.1</v>
       </c>
       <c r="M29" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
         <v>61</v>
@@ -6583,10 +6949,10 @@
         <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I30" t="s">
         <v>61</v>
@@ -6595,13 +6961,95 @@
         <v>60</v>
       </c>
       <c r="K30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L30">
         <v>17.2</v>
       </c>
       <c r="M30" t="s">
-        <v>181</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" t="s">
+        <v>162</v>
+      </c>
+      <c r="L31">
+        <v>-5.3</v>
+      </c>
+      <c r="M31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32">
+        <v>-16.3</v>
+      </c>
+      <c r="M32" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6611,7 +7059,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6622,40 +7070,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -6672,22 +7120,22 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I2" t="s">
         <v>74</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K2" t="s">
         <v>74</v>
@@ -6696,7 +7144,7 @@
         <v>-33.4</v>
       </c>
       <c r="M2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -6710,7 +7158,7 @@
         <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
         <v>67</v>
@@ -6719,16 +7167,16 @@
         <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s">
         <v>60</v>
@@ -6737,7 +7185,7 @@
         <v>-10.3</v>
       </c>
       <c r="M3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -6745,19 +7193,19 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
         <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
         <v>44</v>
@@ -6766,10 +7214,10 @@
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K4" t="s">
         <v>60</v>
@@ -6778,7 +7226,7 @@
         <v>-0.9</v>
       </c>
       <c r="M4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -6792,16 +7240,16 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
@@ -6813,13 +7261,13 @@
         <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L5">
         <v>3.7</v>
       </c>
       <c r="M5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -6827,40 +7275,40 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" t="s">
         <v>171</v>
-      </c>
-      <c r="E6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" t="s">
-        <v>167</v>
       </c>
       <c r="I6" t="s">
         <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L6">
         <v>3.5</v>
       </c>
       <c r="M6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -6868,30 +7316,48 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>162</v>
+      </c>
+      <c r="H7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7">
+        <v>-3.3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
@@ -6900,16 +7366,16 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
         <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -6918,44 +7384,44 @@
         <v>61</v>
       </c>
       <c r="K8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L8">
         <v>-2.4</v>
       </c>
       <c r="M8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
         <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
         <v>95</v>
@@ -6964,13 +7430,13 @@
         <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L10">
         <v>-18.8</v>
       </c>
       <c r="M10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -6984,25 +7450,25 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E11" t="s">
         <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -7011,7 +7477,7 @@
         <v>7.6</v>
       </c>
       <c r="M11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -7019,40 +7485,40 @@
         <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H12" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I12" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L12">
         <v>-4.9</v>
       </c>
       <c r="M12" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -7060,16 +7526,16 @@
         <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>
@@ -7081,10 +7547,10 @@
         <v>95</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="J13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s">
         <v>66</v>
@@ -7093,24 +7559,24 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -7119,45 +7585,45 @@
         <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s">
         <v>60</v>
       </c>
       <c r="K14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L14">
         <v>-17.8</v>
       </c>
       <c r="M14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F15" t="s">
         <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H15" t="s">
         <v>54</v>
@@ -7169,32 +7635,32 @@
         <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15">
         <v>-1.4</v>
       </c>
       <c r="M15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
         <v>54</v>
@@ -7215,33 +7681,33 @@
         <v>54</v>
       </c>
       <c r="K17" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="L17">
         <v>-3.8</v>
       </c>
       <c r="M17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G18" t="s">
         <v>44</v>
@@ -7250,7 +7716,7 @@
         <v>61</v>
       </c>
       <c r="I18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J18" t="s">
         <v>53</v>
@@ -7262,118 +7728,118 @@
         <v>3.2</v>
       </c>
       <c r="M18" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" t="s">
         <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
       </c>
       <c r="E19" t="s">
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s">
         <v>66</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L19">
         <v>-1.8</v>
       </c>
       <c r="M19" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="H20" t="s">
         <v>95</v>
       </c>
       <c r="I20" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
       </c>
       <c r="K20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L20">
         <v>-2.1</v>
       </c>
       <c r="M20" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
         <v>61</v>
       </c>
       <c r="I21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J21" t="s">
         <v>54</v>
@@ -7385,74 +7851,74 @@
         <v>4.7</v>
       </c>
       <c r="M21" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
         <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E22" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H22" t="s">
         <v>73</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J22" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L22">
         <v>5.3</v>
       </c>
       <c r="M22" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
         <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s">
         <v>61</v>
       </c>
       <c r="H23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I23" t="s">
         <v>66</v>
@@ -7461,18 +7927,18 @@
         <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L23">
         <v>10.7</v>
       </c>
       <c r="M23" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
@@ -7481,22 +7947,22 @@
         <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J24" t="s">
         <v>54</v>
@@ -7508,12 +7974,12 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="M24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
         <v>66</v>
@@ -7522,25 +7988,25 @@
         <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K25" t="s">
         <v>61</v>
@@ -7549,12 +8015,12 @@
         <v>2.2</v>
       </c>
       <c r="M25" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
         <v>66</v>
@@ -7566,10 +8032,10 @@
         <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
         <v>53</v>
@@ -7578,7 +8044,7 @@
         <v>54</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J26" t="s">
         <v>45</v>
@@ -7590,18 +8056,18 @@
         <v>-4.8</v>
       </c>
       <c r="M26" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
         <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
         <v>54</v>
@@ -7610,7 +8076,7 @@
         <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s">
         <v>42</v>
@@ -7619,7 +8085,7 @@
         <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J27" t="s">
         <v>45</v>
@@ -7631,24 +8097,24 @@
         <v>-11.3</v>
       </c>
       <c r="M27" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s">
         <v>54</v>
@@ -7660,7 +8126,7 @@
         <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s">
         <v>53</v>
@@ -7672,15 +8138,15 @@
         <v>7.2</v>
       </c>
       <c r="M28" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
@@ -7689,10 +8155,10 @@
         <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s">
         <v>53</v>
@@ -7704,7 +8170,7 @@
         <v>54</v>
       </c>
       <c r="J29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s">
         <v>67</v>
@@ -7713,48 +8179,130 @@
         <v>1.2</v>
       </c>
       <c r="M29" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="H30" t="s">
         <v>53</v>
       </c>
       <c r="I30" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="J30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L30">
         <v>27.2</v>
       </c>
       <c r="M30" t="s">
-        <v>181</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" t="s">
+        <v>162</v>
+      </c>
+      <c r="K31" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31">
+        <v>11.2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+      <c r="J32" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32">
+        <v>-21</v>
+      </c>
+      <c r="M32" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -7764,7 +8312,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7775,40 +8323,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -7816,19 +8364,19 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
         <v>66</v>
@@ -7837,19 +8385,19 @@
         <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
       </c>
       <c r="K2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L2">
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -7879,17 +8427,17 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -7909,87 +8457,97 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -7999,7 +8557,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8010,40 +8568,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -8057,16 +8615,16 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
@@ -8075,7 +8633,7 @@
         <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="K2" t="s">
         <v>44</v>
@@ -8084,7 +8642,7 @@
         <v>23.3</v>
       </c>
       <c r="M2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -8114,17 +8672,17 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -8144,87 +8702,97 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -8234,7 +8802,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8245,13 +8813,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8295,17 +8863,17 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8325,87 +8893,97 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -8415,7 +8993,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8426,13 +9004,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8476,17 +9054,17 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8506,87 +9084,97 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3873" uniqueCount="249">
   <si>
     <t>ID</t>
   </si>
@@ -477,6 +477,12 @@
     <t>R.R.deKrijger-2@prinsesmaximacentrum.nl</t>
   </si>
   <si>
+    <t>There were a few samples where the AI tool was wrong according to me</t>
+  </si>
+  <si>
+    <t>Further training with difficult cases might further improve functionality</t>
+  </si>
+  <si>
     <t>monali.bera@avd.asia</t>
   </si>
   <si>
@@ -498,6 +504,12 @@
     <t>19,10,18,11,17,12,16,13,15,14,29,20,28,21,27,22,26,23,25,24</t>
   </si>
   <si>
+    <t>Only one small field at high magnification to examine may not lead to accurate result</t>
+  </si>
+  <si>
+    <t>should have multiple photographs to look at and overall percentage of neoplastic cell per case should be evaluated under low magnification.</t>
+  </si>
+  <si>
     <t>dorresteingm@noivbd.nl</t>
   </si>
   <si>
@@ -507,6 +519,9 @@
     <t>jmagnussonwulcan@ucdavis.edu</t>
   </si>
   <si>
+    <t>For some cases it overestimates the percentage of tumor cells in my opinion</t>
+  </si>
+  <si>
     <t>Taryn.donovan@amcny.org</t>
   </si>
   <si>
@@ -532,6 +547,12 @@
   </si>
   <si>
     <t>mccowan@unimelb.edu.au</t>
+  </si>
+  <si>
+    <t>imatise.vh@gmail.com</t>
+  </si>
+  <si>
+    <t>11,12,10,13,19,14,18,15,17,16,21,22,20,23,29,24,28,25,27,26</t>
   </si>
   <si>
     <t>slide1</t>
@@ -1079,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM38"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3560,18 +3581,69 @@
         <v>41</v>
       </c>
       <c r="V27" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="W27" t="s">
+        <v>53</v>
+      </c>
+      <c r="X27" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D28" t="s">
         <v>72</v>
@@ -3676,7 +3748,7 @@
         <v>36</v>
       </c>
       <c r="AL28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AM28" t="s">
         <v>120</v>
@@ -3684,7 +3756,7 @@
     </row>
     <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
@@ -3752,13 +3824,13 @@
     </row>
     <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B30" t="s">
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D30" t="s">
         <v>33</v>
@@ -3820,13 +3892,13 @@
     </row>
     <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B31" t="s">
         <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
@@ -3883,18 +3955,69 @@
         <v>36</v>
       </c>
       <c r="V31" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="W31" t="s">
+        <v>54</v>
+      </c>
+      <c r="X31" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
@@ -3956,13 +4079,13 @@
     </row>
     <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D33" t="s">
         <v>72</v>
@@ -4019,18 +4142,69 @@
         <v>58</v>
       </c>
       <c r="V33" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="W33" t="s">
+        <v>53</v>
+      </c>
+      <c r="X33" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s">
         <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D34" t="s">
         <v>72</v>
@@ -4135,21 +4309,21 @@
         <v>97</v>
       </c>
       <c r="AL34" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AM34" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B35" t="s">
         <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D35" t="s">
         <v>33</v>
@@ -4211,24 +4385,24 @@
     </row>
     <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B36" t="s">
         <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D37" t="s">
         <v>33</v>
@@ -4290,13 +4464,13 @@
     </row>
     <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B38" t="s">
         <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
         <v>72</v>
@@ -4327,6 +4501,74 @@
       </c>
       <c r="M38" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39">
+      <c r="A39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" t="s">
+        <v>119</v>
+      </c>
+      <c r="L39" t="s">
+        <v>73</v>
+      </c>
+      <c r="M39" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" t="s">
+        <v>41</v>
+      </c>
+      <c r="O39" t="s">
+        <v>41</v>
+      </c>
+      <c r="P39" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>37</v>
+      </c>
+      <c r="R39" t="s">
+        <v>36</v>
+      </c>
+      <c r="S39" t="s">
+        <v>57</v>
+      </c>
+      <c r="T39" t="s">
+        <v>57</v>
+      </c>
+      <c r="U39" t="s">
+        <v>36</v>
+      </c>
+      <c r="V39" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4336,7 +4578,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4347,70 +4589,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="I1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="J1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="N1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="O1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="P1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="R1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="S1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="T1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="U1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="V1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="W1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -4418,10 +4660,10 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
@@ -4442,16 +4684,16 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="K2" t="s">
         <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N2" t="s">
         <v>78</v>
@@ -4460,19 +4702,19 @@
         <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="R2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="S2" t="s">
         <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="U2" t="s">
         <v>68</v>
@@ -4481,7 +4723,7 @@
         <v>-38.35</v>
       </c>
       <c r="W2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -4534,7 +4776,7 @@
         <v>67</v>
       </c>
       <c r="Q3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="R3" t="s">
         <v>119</v>
@@ -4552,7 +4794,7 @@
         <v>-3.8</v>
       </c>
       <c r="W3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -4584,7 +4826,7 @@
         <v>118</v>
       </c>
       <c r="J4" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K4" t="s">
         <v>66</v>
@@ -4605,13 +4847,13 @@
         <v>119</v>
       </c>
       <c r="Q4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="R4" t="s">
         <v>53</v>
       </c>
       <c r="S4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="T4" t="s">
         <v>73</v>
@@ -4623,7 +4865,7 @@
         <v>-8.35</v>
       </c>
       <c r="W4" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -4694,7 +4936,7 @@
         <v>0.7</v>
       </c>
       <c r="W5" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -4702,19 +4944,19 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -4723,25 +4965,25 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="J6" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K6" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="L6" t="s">
         <v>108</v>
       </c>
       <c r="M6" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="N6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="O6" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="P6" t="s">
         <v>109</v>
@@ -4750,22 +4992,22 @@
         <v>143</v>
       </c>
       <c r="R6" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="S6" t="s">
         <v>73</v>
       </c>
       <c r="T6" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="U6" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="V6">
         <v>0.3</v>
       </c>
       <c r="W6" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -4788,10 +5030,10 @@
         <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="I7" t="s">
         <v>87</v>
@@ -4836,7 +5078,7 @@
         <v>-6.3</v>
       </c>
       <c r="W7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -4862,7 +5104,7 @@
         <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -4871,7 +5113,7 @@
         <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L8" t="s">
         <v>67</v>
@@ -4907,7 +5149,7 @@
         <v>0.65</v>
       </c>
       <c r="W8" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -4918,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -4929,13 +5171,13 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -4989,7 +5231,7 @@
         <v>-16.75</v>
       </c>
       <c r="W10" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -5003,7 +5245,7 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
@@ -5012,7 +5254,7 @@
         <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
@@ -5060,7 +5302,7 @@
         <v>10.05</v>
       </c>
       <c r="W11" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -5071,22 +5313,22 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D12" t="s">
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H12" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="I12" t="s">
         <v>87</v>
@@ -5104,7 +5346,7 @@
         <v>57</v>
       </c>
       <c r="N12" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="O12" t="s">
         <v>141</v>
@@ -5113,7 +5355,7 @@
         <v>78</v>
       </c>
       <c r="Q12" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="R12" t="s">
         <v>109</v>
@@ -5125,13 +5367,13 @@
         <v>142</v>
       </c>
       <c r="U12" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="V12">
         <v>-6.1</v>
       </c>
       <c r="W12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -5166,7 +5408,7 @@
         <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L13" t="s">
         <v>118</v>
@@ -5175,7 +5417,7 @@
         <v>103</v>
       </c>
       <c r="N13" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="O13" t="s">
         <v>103</v>
@@ -5202,7 +5444,7 @@
         <v>11.8</v>
       </c>
       <c r="W13" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -5213,7 +5455,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D14" t="s">
         <v>104</v>
@@ -5267,13 +5509,13 @@
         <v>119</v>
       </c>
       <c r="U14" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="V14">
         <v>-11.9</v>
       </c>
       <c r="W14" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -5290,13 +5532,13 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F15" t="s">
         <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H15" t="s">
         <v>54</v>
@@ -5317,7 +5559,7 @@
         <v>119</v>
       </c>
       <c r="N15" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="O15" t="s">
         <v>73</v>
@@ -5326,7 +5568,7 @@
         <v>74</v>
       </c>
       <c r="Q15" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="R15" t="s">
         <v>53</v>
@@ -5344,7 +5586,7 @@
         <v>-2.15</v>
       </c>
       <c r="W15" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -5355,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -5372,7 +5614,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F17" t="s">
         <v>73</v>
@@ -5426,7 +5668,7 @@
         <v>-3.05</v>
       </c>
       <c r="W17" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -5497,7 +5739,7 @@
         <v>2.7</v>
       </c>
       <c r="W18" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -5508,7 +5750,7 @@
         <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D19" t="s">
         <v>104</v>
@@ -5517,7 +5759,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
@@ -5568,7 +5810,7 @@
         <v>-1.05</v>
       </c>
       <c r="W19" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -5588,16 +5830,16 @@
         <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G20" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="H20" t="s">
         <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
         <v>119</v>
@@ -5609,7 +5851,7 @@
         <v>42</v>
       </c>
       <c r="M20" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="N20" t="s">
         <v>118</v>
@@ -5618,7 +5860,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q20" t="s">
         <v>113</v>
@@ -5627,7 +5869,7 @@
         <v>112</v>
       </c>
       <c r="S20" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="T20" t="s">
         <v>53</v>
@@ -5639,7 +5881,7 @@
         <v>-2.55</v>
       </c>
       <c r="W20" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -5710,7 +5952,7 @@
         <v>-0.05</v>
       </c>
       <c r="W21" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -5724,25 +5966,25 @@
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E22" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F22" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="G22" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="H22" t="s">
         <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="J22" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="K22" t="s">
         <v>141</v>
@@ -5751,37 +5993,37 @@
         <v>143</v>
       </c>
       <c r="M22" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="O22" t="s">
         <v>74</v>
       </c>
       <c r="P22" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q22" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="R22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="S22" t="s">
         <v>77</v>
       </c>
       <c r="T22" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="U22" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="V22">
         <v>5.85</v>
       </c>
       <c r="W22" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -5852,7 +6094,7 @@
         <v>6.95</v>
       </c>
       <c r="W23" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -5902,13 +6144,13 @@
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q24" t="s">
         <v>45</v>
       </c>
       <c r="R24" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="S24" t="s">
         <v>119</v>
@@ -5923,7 +6165,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="W24" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -5994,7 +6236,7 @@
         <v>3.7</v>
       </c>
       <c r="W25" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -6065,12 +6307,12 @@
         <v>-6.05</v>
       </c>
       <c r="W26" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B27" t="s">
         <v>73</v>
@@ -6112,7 +6354,7 @@
         <v>119</v>
       </c>
       <c r="O27" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="P27" t="s">
         <v>73</v>
@@ -6136,12 +6378,12 @@
         <v>-7.05</v>
       </c>
       <c r="W27" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s">
         <v>74</v>
@@ -6180,7 +6422,7 @@
         <v>87</v>
       </c>
       <c r="N28" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="O28" t="s">
         <v>103</v>
@@ -6207,15 +6449,15 @@
         <v>6.95</v>
       </c>
       <c r="W28" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B29" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C29" t="s">
         <v>113</v>
@@ -6278,12 +6520,12 @@
         <v>2.65</v>
       </c>
       <c r="W29" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s">
         <v>113</v>
@@ -6349,12 +6591,12 @@
         <v>22.2</v>
       </c>
       <c r="W30" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -6381,7 +6623,7 @@
         <v>67</v>
       </c>
       <c r="J31" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="K31" t="s">
         <v>104</v>
@@ -6414,24 +6656,24 @@
         <v>103</v>
       </c>
       <c r="U31" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="V31">
         <v>2.95</v>
       </c>
       <c r="W31" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B32" t="s">
         <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>
@@ -6461,19 +6703,19 @@
         <v>112</v>
       </c>
       <c r="M32" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="N32" t="s">
         <v>74</v>
       </c>
       <c r="O32" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="P32" t="s">
         <v>37</v>
       </c>
       <c r="Q32" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="R32" t="s">
         <v>104</v>
@@ -6491,12 +6733,12 @@
         <v>-18.65</v>
       </c>
       <c r="W32" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s">
         <v>74</v>
@@ -6526,7 +6768,7 @@
         <v>104</v>
       </c>
       <c r="K33" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L33" t="s">
         <v>95</v>
@@ -6562,12 +6804,12 @@
         <v>3.7</v>
       </c>
       <c r="W33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B34" t="s">
         <v>104</v>
@@ -6612,7 +6854,7 @@
         <v>73</v>
       </c>
       <c r="P34" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q34" t="s">
         <v>67</v>
@@ -6621,7 +6863,7 @@
         <v>103</v>
       </c>
       <c r="S34" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="T34" t="s">
         <v>104</v>
@@ -6633,26 +6875,26 @@
         <v>1.5</v>
       </c>
       <c r="W34" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B36" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C36" t="s">
         <v>66</v>
@@ -6673,7 +6915,7 @@
         <v>66</v>
       </c>
       <c r="I36" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="J36" t="s">
         <v>104</v>
@@ -6700,10 +6942,10 @@
         <v>73</v>
       </c>
       <c r="R36" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="S36" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="T36" t="s">
         <v>88</v>
@@ -6715,12 +6957,12 @@
         <v>-14.05</v>
       </c>
       <c r="W36" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -6786,7 +7028,78 @@
         <v>-10.8</v>
       </c>
       <c r="W37" t="s">
-        <v>198</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>235</v>
+      </c>
+      <c r="G38" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38" t="s">
+        <v>118</v>
+      </c>
+      <c r="L38" t="s">
+        <v>67</v>
+      </c>
+      <c r="M38" t="s">
+        <v>54</v>
+      </c>
+      <c r="N38" t="s">
+        <v>53</v>
+      </c>
+      <c r="O38" t="s">
+        <v>74</v>
+      </c>
+      <c r="P38" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>104</v>
+      </c>
+      <c r="R38" t="s">
+        <v>87</v>
+      </c>
+      <c r="S38" t="s">
+        <v>36</v>
+      </c>
+      <c r="T38" t="s">
+        <v>53</v>
+      </c>
+      <c r="U38" t="s">
+        <v>119</v>
+      </c>
+      <c r="V38">
+        <v>8.1</v>
+      </c>
+      <c r="W38" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -6796,7 +7109,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6807,70 +7120,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="I1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="J1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="N1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="O1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="P1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="R1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="S1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="T1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="U1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="V1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="W1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -6899,7 +7212,7 @@
         <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="J2" t="s">
         <v>113</v>
@@ -6911,10 +7224,10 @@
         <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="N2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="O2" t="s">
         <v>67</v>
@@ -6926,7 +7239,7 @@
         <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="S2" t="s">
         <v>73</v>
@@ -6941,7 +7254,7 @@
         <v>14.65</v>
       </c>
       <c r="W2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -6970,7 +7283,7 @@
         <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="J3" t="s">
         <v>103</v>
@@ -6991,7 +7304,7 @@
         <v>96</v>
       </c>
       <c r="P3" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q3" t="s">
         <v>42</v>
@@ -7012,7 +7325,7 @@
         <v>5.05</v>
       </c>
       <c r="W3" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -7023,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -7034,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -7042,61 +7355,61 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" t="s">
+        <v>240</v>
+      </c>
+      <c r="I6" t="s">
+        <v>241</v>
+      </c>
+      <c r="J6" t="s">
         <v>229</v>
       </c>
-      <c r="F6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G6" t="s">
-        <v>236</v>
-      </c>
-      <c r="H6" t="s">
-        <v>233</v>
-      </c>
-      <c r="I6" t="s">
-        <v>234</v>
-      </c>
-      <c r="J6" t="s">
-        <v>222</v>
-      </c>
       <c r="K6" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L6" t="s">
         <v>89</v>
       </c>
       <c r="M6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="N6" t="s">
         <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="P6" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q6" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="R6" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="S6" t="s">
         <v>141</v>
       </c>
       <c r="T6" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="U6" t="s">
         <v>44</v>
@@ -7105,7 +7418,7 @@
         <v>1.6</v>
       </c>
       <c r="W6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -7122,7 +7435,7 @@
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -7131,13 +7444,13 @@
         <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="I7" t="s">
         <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K7" t="s">
         <v>44</v>
@@ -7146,7 +7459,7 @@
         <v>95</v>
       </c>
       <c r="M7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="N7" t="s">
         <v>54</v>
@@ -7176,7 +7489,7 @@
         <v>0.5</v>
       </c>
       <c r="W7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -7211,7 +7524,7 @@
         <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L8" t="s">
         <v>67</v>
@@ -7247,7 +7560,7 @@
         <v>1.15</v>
       </c>
       <c r="W8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -7258,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -7269,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -7280,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -7300,7 +7613,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
@@ -7321,10 +7634,10 @@
         <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="N12" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="O12" t="s">
         <v>42</v>
@@ -7342,7 +7655,7 @@
         <v>44</v>
       </c>
       <c r="T12" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="U12" t="s">
         <v>74</v>
@@ -7351,7 +7664,7 @@
         <v>6</v>
       </c>
       <c r="W12" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -7362,7 +7675,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -7371,7 +7684,7 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G13" t="s">
         <v>103</v>
@@ -7380,7 +7693,7 @@
         <v>119</v>
       </c>
       <c r="I13" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="J13" t="s">
         <v>119</v>
@@ -7410,7 +7723,7 @@
         <v>53</v>
       </c>
       <c r="S13" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="T13" t="s">
         <v>118</v>
@@ -7422,7 +7735,7 @@
         <v>5.25</v>
       </c>
       <c r="W13" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -7493,7 +7806,7 @@
         <v>-1.3</v>
       </c>
       <c r="W14" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -7564,7 +7877,7 @@
         <v>7.7</v>
       </c>
       <c r="W15" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -7575,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -7646,7 +7959,7 @@
         <v>-2.3</v>
       </c>
       <c r="W17" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -7717,7 +8030,7 @@
         <v>3.7</v>
       </c>
       <c r="W18" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -7728,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -7757,7 +8070,7 @@
         <v>74</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -7775,7 +8088,7 @@
         <v>104</v>
       </c>
       <c r="O20" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="P20" t="s">
         <v>104</v>
@@ -7799,7 +8112,7 @@
         <v>-3.4</v>
       </c>
       <c r="W20" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -7870,7 +8183,7 @@
         <v>-1.55</v>
       </c>
       <c r="W21" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -7881,7 +8194,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -7952,7 +8265,7 @@
         <v>2.45</v>
       </c>
       <c r="W23" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -8023,7 +8336,7 @@
         <v>-0.3</v>
       </c>
       <c r="W24" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -8034,29 +8347,89 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>150</v>
       </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" t="s">
+        <v>118</v>
+      </c>
+      <c r="O26" t="s">
+        <v>119</v>
+      </c>
+      <c r="P26" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>119</v>
+      </c>
+      <c r="R26" t="s">
+        <v>206</v>
+      </c>
+      <c r="S26" t="s">
+        <v>119</v>
+      </c>
+      <c r="T26" t="s">
+        <v>206</v>
+      </c>
+      <c r="U26" t="s">
+        <v>54</v>
+      </c>
       <c r="V26">
-        <v>0</v>
+        <v>-2.55</v>
       </c>
       <c r="W26" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B27" t="s">
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D27" t="s">
         <v>118</v>
@@ -8071,7 +8444,7 @@
         <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="I27" t="s">
         <v>88</v>
@@ -8080,7 +8453,7 @@
         <v>66</v>
       </c>
       <c r="K27" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s">
         <v>95</v>
@@ -8098,7 +8471,7 @@
         <v>118</v>
       </c>
       <c r="Q27" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="R27" t="s">
         <v>66</v>
@@ -8116,67 +8489,187 @@
         <v>3.4</v>
       </c>
       <c r="W27" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" t="s">
+        <v>113</v>
+      </c>
+      <c r="M30" t="s">
+        <v>119</v>
+      </c>
+      <c r="N30" t="s">
+        <v>87</v>
+      </c>
+      <c r="O30" t="s">
+        <v>119</v>
+      </c>
+      <c r="P30" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>95</v>
+      </c>
+      <c r="R30" t="s">
+        <v>73</v>
+      </c>
+      <c r="S30" t="s">
+        <v>67</v>
+      </c>
+      <c r="T30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U30" t="s">
+        <v>104</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>5.45</v>
       </c>
       <c r="W30" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>164</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" t="s">
+        <v>103</v>
+      </c>
+      <c r="L32" t="s">
+        <v>44</v>
+      </c>
+      <c r="M32" t="s">
+        <v>103</v>
+      </c>
+      <c r="N32" t="s">
+        <v>44</v>
+      </c>
+      <c r="O32" t="s">
+        <v>104</v>
+      </c>
+      <c r="P32" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>54</v>
+      </c>
+      <c r="R32" t="s">
+        <v>53</v>
+      </c>
+      <c r="S32" t="s">
+        <v>112</v>
+      </c>
+      <c r="T32" t="s">
+        <v>206</v>
+      </c>
+      <c r="U32" t="s">
+        <v>206</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>-1.55</v>
       </c>
       <c r="W32" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
@@ -8242,51 +8735,62 @@
         <v>4.35</v>
       </c>
       <c r="W33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="V37">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>201</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" t="s">
+        <v>175</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -8296,7 +8800,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8307,40 +8811,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="I1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="J1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -8348,16 +8852,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -8381,7 +8885,7 @@
         <v>-43.3</v>
       </c>
       <c r="M2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -8422,7 +8926,7 @@
         <v>2.7</v>
       </c>
       <c r="M3" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -8445,13 +8949,13 @@
         <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H4" t="s">
         <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="J4" t="s">
         <v>73</v>
@@ -8463,7 +8967,7 @@
         <v>-15.8</v>
       </c>
       <c r="M4" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -8504,7 +9008,7 @@
         <v>-2.3</v>
       </c>
       <c r="M5" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -8512,19 +9016,19 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -8533,19 +9037,19 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="J6" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K6" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="L6">
         <v>-2.9</v>
       </c>
       <c r="M6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -8586,7 +9090,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="M7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -8627,7 +9131,7 @@
         <v>3.7</v>
       </c>
       <c r="M8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -8673,7 +9177,7 @@
         <v>-14.7</v>
       </c>
       <c r="M10" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -8714,7 +9218,7 @@
         <v>12.5</v>
       </c>
       <c r="M11" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -8725,22 +9229,22 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D12" t="s">
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H12" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="I12" t="s">
         <v>87</v>
@@ -8755,7 +9259,7 @@
         <v>-7.3</v>
       </c>
       <c r="M12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -8790,13 +9294,13 @@
         <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L13">
         <v>23.6</v>
       </c>
       <c r="M13" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -8831,13 +9335,13 @@
         <v>119</v>
       </c>
       <c r="K14" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="L14">
         <v>-6</v>
       </c>
       <c r="M14" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -8851,7 +9355,7 @@
         <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E15" t="s">
         <v>73</v>
@@ -8860,7 +9364,7 @@
         <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H15" t="s">
         <v>53</v>
@@ -8878,7 +9382,7 @@
         <v>-2.9</v>
       </c>
       <c r="M15" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -8900,7 +9404,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F17" t="s">
         <v>73</v>
@@ -8924,7 +9428,7 @@
         <v>-2.3</v>
       </c>
       <c r="M17" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -8965,7 +9469,7 @@
         <v>2.2</v>
       </c>
       <c r="M18" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -9006,7 +9510,7 @@
         <v>-0.3</v>
       </c>
       <c r="M19" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -9026,16 +9530,16 @@
         <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G20" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="H20" t="s">
         <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
         <v>119</v>
@@ -9047,7 +9551,7 @@
         <v>-3</v>
       </c>
       <c r="M20" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -9088,7 +9592,7 @@
         <v>-4.8</v>
       </c>
       <c r="M21" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -9099,37 +9603,37 @@
         <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D22" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E22" t="s">
         <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I22" t="s">
         <v>77</v>
       </c>
       <c r="J22" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="K22" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L22">
         <v>6.4</v>
       </c>
       <c r="M22" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -9170,7 +9674,7 @@
         <v>3.2</v>
       </c>
       <c r="M23" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -9211,7 +9715,7 @@
         <v>-6.8</v>
       </c>
       <c r="M24" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -9252,7 +9756,7 @@
         <v>5.2</v>
       </c>
       <c r="M25" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -9293,12 +9797,12 @@
         <v>-7.3</v>
       </c>
       <c r="M26" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B27" t="s">
         <v>95</v>
@@ -9310,7 +9814,7 @@
         <v>119</v>
       </c>
       <c r="E27" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F27" t="s">
         <v>73</v>
@@ -9334,12 +9838,12 @@
         <v>-2.8</v>
       </c>
       <c r="M27" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s">
         <v>74</v>
@@ -9375,15 +9879,15 @@
         <v>6.7</v>
       </c>
       <c r="M28" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B29" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C29" t="s">
         <v>113</v>
@@ -9416,12 +9920,12 @@
         <v>4.1</v>
       </c>
       <c r="M29" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s">
         <v>95</v>
@@ -9457,12 +9961,12 @@
         <v>17.2</v>
       </c>
       <c r="M30" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -9492,24 +9996,24 @@
         <v>103</v>
       </c>
       <c r="K31" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L31">
         <v>-5.3</v>
       </c>
       <c r="M31" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B32" t="s">
         <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>
@@ -9539,12 +10043,12 @@
         <v>-16.3</v>
       </c>
       <c r="M32" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s">
         <v>74</v>
@@ -9574,18 +10078,18 @@
         <v>104</v>
       </c>
       <c r="K33" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L33">
         <v>3.2</v>
       </c>
       <c r="M33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B34" t="s">
         <v>104</v>
@@ -9600,7 +10104,7 @@
         <v>73</v>
       </c>
       <c r="F34" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G34" t="s">
         <v>67</v>
@@ -9609,7 +10113,7 @@
         <v>103</v>
       </c>
       <c r="I34" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="J34" t="s">
         <v>104</v>
@@ -9621,20 +10125,20 @@
         <v>0.8</v>
       </c>
       <c r="M34" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B36" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C36" t="s">
         <v>66</v>
@@ -9655,7 +10159,7 @@
         <v>66</v>
       </c>
       <c r="I36" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="J36" t="s">
         <v>104</v>
@@ -9667,12 +10171,12 @@
         <v>-14.8</v>
       </c>
       <c r="M36" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -9708,7 +10212,48 @@
         <v>-11.8</v>
       </c>
       <c r="M37" t="s">
-        <v>198</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" t="s">
+        <v>87</v>
+      </c>
+      <c r="I38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38" t="s">
+        <v>119</v>
+      </c>
+      <c r="L38">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M38" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -9718,7 +10263,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9729,40 +10274,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="I1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="J1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -9779,22 +10324,22 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="I2" t="s">
         <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="K2" t="s">
         <v>78</v>
@@ -9803,7 +10348,7 @@
         <v>-33.4</v>
       </c>
       <c r="M2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -9826,7 +10371,7 @@
         <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H3" t="s">
         <v>119</v>
@@ -9844,7 +10389,7 @@
         <v>-10.3</v>
       </c>
       <c r="M3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9876,7 +10421,7 @@
         <v>118</v>
       </c>
       <c r="J4" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K4" t="s">
         <v>66</v>
@@ -9885,7 +10430,7 @@
         <v>-0.9</v>
       </c>
       <c r="M4" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -9926,7 +10471,7 @@
         <v>3.7</v>
       </c>
       <c r="M5" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -9937,13 +10482,13 @@
         <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F6" t="s">
         <v>109</v>
@@ -9952,22 +10497,22 @@
         <v>143</v>
       </c>
       <c r="H6" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="I6" t="s">
         <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="K6" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="L6">
         <v>3.5</v>
       </c>
       <c r="M6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -9990,10 +10535,10 @@
         <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="I7" t="s">
         <v>87</v>
@@ -10008,7 +10553,7 @@
         <v>-3.3</v>
       </c>
       <c r="M7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -10034,7 +10579,7 @@
         <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -10043,13 +10588,13 @@
         <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L8">
         <v>-2.4</v>
       </c>
       <c r="M8" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -10065,13 +10610,13 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -10095,7 +10640,7 @@
         <v>-18.8</v>
       </c>
       <c r="M10" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -10109,7 +10654,7 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
@@ -10118,7 +10663,7 @@
         <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
@@ -10136,7 +10681,7 @@
         <v>7.6</v>
       </c>
       <c r="M11" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -10150,7 +10695,7 @@
         <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E12" t="s">
         <v>141</v>
@@ -10159,7 +10704,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H12" t="s">
         <v>109</v>
@@ -10171,13 +10716,13 @@
         <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="L12">
         <v>-4.9</v>
       </c>
       <c r="M12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -10191,7 +10736,7 @@
         <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E13" t="s">
         <v>103</v>
@@ -10218,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -10229,7 +10774,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D14" t="s">
         <v>104</v>
@@ -10259,7 +10804,7 @@
         <v>-17.8</v>
       </c>
       <c r="M14" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -10276,13 +10821,13 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F15" t="s">
         <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H15" t="s">
         <v>54</v>
@@ -10300,7 +10845,7 @@
         <v>-1.4</v>
       </c>
       <c r="M15" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -10346,7 +10891,7 @@
         <v>-3.8</v>
       </c>
       <c r="M17" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -10387,7 +10932,7 @@
         <v>3.2</v>
       </c>
       <c r="M18" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -10398,7 +10943,7 @@
         <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D19" t="s">
         <v>104</v>
@@ -10407,7 +10952,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
@@ -10428,7 +10973,7 @@
         <v>-1.8</v>
       </c>
       <c r="M19" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -10439,7 +10984,7 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D20" t="s">
         <v>118</v>
@@ -10448,7 +10993,7 @@
         <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="G20" t="s">
         <v>113</v>
@@ -10457,7 +11002,7 @@
         <v>112</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -10469,7 +11014,7 @@
         <v>-2.1</v>
       </c>
       <c r="M20" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -10510,7 +11055,7 @@
         <v>4.7</v>
       </c>
       <c r="M21" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -10524,25 +11069,25 @@
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E22" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F22" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="G22" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="H22" t="s">
         <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="J22" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="K22" t="s">
         <v>141</v>
@@ -10551,7 +11096,7 @@
         <v>5.3</v>
       </c>
       <c r="M22" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -10592,7 +11137,7 @@
         <v>10.7</v>
       </c>
       <c r="M23" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -10612,13 +11157,13 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="I24" t="s">
         <v>119</v>
@@ -10633,7 +11178,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="M24" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -10674,7 +11219,7 @@
         <v>2.2</v>
       </c>
       <c r="M25" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -10715,12 +11260,12 @@
         <v>-4.8</v>
       </c>
       <c r="M26" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B27" t="s">
         <v>73</v>
@@ -10756,12 +11301,12 @@
         <v>-11.3</v>
       </c>
       <c r="M27" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
@@ -10770,7 +11315,7 @@
         <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E28" t="s">
         <v>103</v>
@@ -10797,12 +11342,12 @@
         <v>7.2</v>
       </c>
       <c r="M28" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B29" t="s">
         <v>113</v>
@@ -10838,12 +11383,12 @@
         <v>1.2</v>
       </c>
       <c r="M29" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s">
         <v>113</v>
@@ -10879,12 +11424,12 @@
         <v>27.2</v>
       </c>
       <c r="M30" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -10911,7 +11456,7 @@
         <v>67</v>
       </c>
       <c r="J31" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="K31" t="s">
         <v>104</v>
@@ -10920,30 +11465,30 @@
         <v>11.2</v>
       </c>
       <c r="M31" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B32" t="s">
         <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D32" t="s">
         <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F32" t="s">
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H32" t="s">
         <v>104</v>
@@ -10961,12 +11506,12 @@
         <v>-21</v>
       </c>
       <c r="M32" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s">
         <v>95</v>
@@ -11002,12 +11547,12 @@
         <v>4.2</v>
       </c>
       <c r="M33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B34" t="s">
         <v>104</v>
@@ -11043,17 +11588,17 @@
         <v>2.2</v>
       </c>
       <c r="M34" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B36" t="s">
         <v>104</v>
@@ -11074,10 +11619,10 @@
         <v>73</v>
       </c>
       <c r="H36" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="I36" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="J36" t="s">
         <v>88</v>
@@ -11089,12 +11634,12 @@
         <v>-13.3</v>
       </c>
       <c r="M36" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s">
         <v>104</v>
@@ -11130,7 +11675,48 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="M37" t="s">
-        <v>198</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>235</v>
+      </c>
+      <c r="G38" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38" t="s">
+        <v>118</v>
+      </c>
+      <c r="L38">
+        <v>6.5</v>
+      </c>
+      <c r="M38" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -11140,7 +11726,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11151,40 +11737,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="I1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="J1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -11213,19 +11799,19 @@
         <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="J2" t="s">
         <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="L2">
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -11254,7 +11840,7 @@
         <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="J3" t="s">
         <v>103</v>
@@ -11266,7 +11852,7 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -11284,40 +11870,40 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" t="s">
+        <v>240</v>
+      </c>
+      <c r="I6" t="s">
+        <v>241</v>
+      </c>
+      <c r="J6" t="s">
         <v>229</v>
       </c>
-      <c r="F6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G6" t="s">
-        <v>236</v>
-      </c>
-      <c r="H6" t="s">
-        <v>233</v>
-      </c>
-      <c r="I6" t="s">
-        <v>234</v>
-      </c>
-      <c r="J6" t="s">
-        <v>222</v>
-      </c>
       <c r="K6" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L6">
         <v>4.1</v>
       </c>
       <c r="M6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -11328,7 +11914,7 @@
         <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
@@ -11358,7 +11944,7 @@
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -11399,7 +11985,7 @@
         <v>3.2</v>
       </c>
       <c r="M8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -11434,7 +12020,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
@@ -11455,7 +12041,7 @@
         <v>4.7</v>
       </c>
       <c r="M12" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -11466,7 +12052,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -11475,7 +12061,7 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G13" t="s">
         <v>103</v>
@@ -11484,7 +12070,7 @@
         <v>119</v>
       </c>
       <c r="I13" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="J13" t="s">
         <v>119</v>
@@ -11496,7 +12082,7 @@
         <v>5.9</v>
       </c>
       <c r="M13" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -11537,7 +12123,7 @@
         <v>-1.3</v>
       </c>
       <c r="M14" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -11578,7 +12164,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="M15" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -11624,7 +12210,7 @@
         <v>-3.8</v>
       </c>
       <c r="M17" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -11665,7 +12251,7 @@
         <v>3.7</v>
       </c>
       <c r="M18" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -11699,7 +12285,7 @@
         <v>74</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -11711,7 +12297,7 @@
         <v>-4.1</v>
       </c>
       <c r="M20" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -11752,7 +12338,7 @@
         <v>-2.8</v>
       </c>
       <c r="M21" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -11798,7 +12384,7 @@
         <v>0.7</v>
       </c>
       <c r="M23" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -11839,7 +12425,7 @@
         <v>-0.8</v>
       </c>
       <c r="M24" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -11851,10 +12437,46 @@
       <c r="A26" t="s">
         <v>150</v>
       </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" t="s">
+        <v>206</v>
+      </c>
+      <c r="I26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" t="s">
+        <v>206</v>
+      </c>
+      <c r="K26" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26">
+        <v>-2.3</v>
+      </c>
+      <c r="M26" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B27" t="s">
         <v>95</v>
@@ -11872,7 +12494,7 @@
         <v>118</v>
       </c>
       <c r="G27" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H27" t="s">
         <v>66</v>
@@ -11890,37 +12512,109 @@
         <v>6.5</v>
       </c>
       <c r="M27" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" t="s">
+        <v>104</v>
+      </c>
+      <c r="L30">
+        <v>7.2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>164</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" t="s">
+        <v>103</v>
+      </c>
+      <c r="L32">
+        <v>0.2</v>
+      </c>
+      <c r="M32" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
@@ -11956,27 +12650,32 @@
         <v>2.7</v>
       </c>
       <c r="M33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -11986,7 +12685,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11997,40 +12696,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="I1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="J1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -12047,13 +12746,13 @@
         <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
@@ -12071,7 +12770,7 @@
         <v>23.3</v>
       </c>
       <c r="M2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -12091,7 +12790,7 @@
         <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
@@ -12112,7 +12811,7 @@
         <v>4.6</v>
       </c>
       <c r="M3" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -12133,28 +12832,28 @@
         <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F6" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G6" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H6" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="I6" t="s">
         <v>141</v>
       </c>
       <c r="J6" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="K6" t="s">
         <v>44</v>
@@ -12163,7 +12862,7 @@
         <v>-0.9</v>
       </c>
       <c r="M6" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -12180,7 +12879,7 @@
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -12189,13 +12888,13 @@
         <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="I7" t="s">
         <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K7" t="s">
         <v>44</v>
@@ -12204,7 +12903,7 @@
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -12239,13 +12938,13 @@
         <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L8">
         <v>-0.9</v>
       </c>
       <c r="M8" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -12271,10 +12970,10 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E12" t="s">
         <v>42</v>
@@ -12292,7 +12991,7 @@
         <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="K12" t="s">
         <v>74</v>
@@ -12301,7 +13000,7 @@
         <v>7.3</v>
       </c>
       <c r="M12" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -12330,7 +13029,7 @@
         <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="J13" t="s">
         <v>118</v>
@@ -12342,7 +13041,7 @@
         <v>4.6</v>
       </c>
       <c r="M13" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -12383,7 +13082,7 @@
         <v>-1.3</v>
       </c>
       <c r="M14" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -12424,7 +13123,7 @@
         <v>7.2</v>
       </c>
       <c r="M15" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -12470,7 +13169,7 @@
         <v>-0.8</v>
       </c>
       <c r="M17" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -12511,7 +13210,7 @@
         <v>3.7</v>
       </c>
       <c r="M18" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -12533,7 +13232,7 @@
         <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F20" t="s">
         <v>104</v>
@@ -12557,7 +13256,7 @@
         <v>-2.7</v>
       </c>
       <c r="M20" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -12598,7 +13297,7 @@
         <v>-0.3</v>
       </c>
       <c r="M21" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -12644,7 +13343,7 @@
         <v>4.2</v>
       </c>
       <c r="M23" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -12685,7 +13384,7 @@
         <v>0.2</v>
       </c>
       <c r="M24" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -12697,16 +13396,52 @@
       <c r="A26" t="s">
         <v>150</v>
       </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26">
+        <v>-2.8</v>
+      </c>
+      <c r="M26" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B27" t="s">
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D27" t="s">
         <v>118</v>
@@ -12721,7 +13456,7 @@
         <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="I27" t="s">
         <v>88</v>
@@ -12730,43 +13465,115 @@
         <v>66</v>
       </c>
       <c r="K27" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L27">
         <v>0.3</v>
       </c>
       <c r="M27" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30">
+        <v>3.7</v>
+      </c>
+      <c r="M30" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>164</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" t="s">
+        <v>206</v>
+      </c>
+      <c r="K32" t="s">
+        <v>206</v>
+      </c>
+      <c r="L32">
+        <v>-3.3</v>
+      </c>
+      <c r="M32" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
@@ -12802,27 +13609,32 @@
         <v>6</v>
       </c>
       <c r="M33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -12832,7 +13644,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12843,13 +13655,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -13111,10 +13923,19 @@
       <c r="A26" t="s">
         <v>150</v>
       </c>
+      <c r="B26">
+        <v>0.5286195286195287</v>
+      </c>
+      <c r="C26">
+        <v>0.1909090909090909</v>
+      </c>
+      <c r="D26">
+        <v>0.4222222222222222</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B27">
         <v>0.4158040050370579</v>
@@ -13128,32 +13949,50 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="B30">
+        <v>0.5411457911457911</v>
+      </c>
+      <c r="C30">
+        <v>0.2033333333333333</v>
+      </c>
+      <c r="D30">
+        <v>0.4965008675534991</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>164</v>
+      </c>
+      <c r="B32">
+        <v>0.6107855107855109</v>
+      </c>
+      <c r="C32">
+        <v>0.3802955665024631</v>
+      </c>
+      <c r="D32">
+        <v>0.5104440011460885</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B33">
         <v>0.4871273291925465</v>
@@ -13167,22 +14006,27 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -13192,7 +14036,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13203,13 +14047,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -13471,10 +14315,19 @@
       <c r="A26" t="s">
         <v>150</v>
       </c>
+      <c r="B26">
+        <v>-18.8</v>
+      </c>
+      <c r="C26">
+        <v>-1</v>
+      </c>
+      <c r="D26">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B27">
         <v>-3.4</v>
@@ -13488,32 +14341,50 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="B30">
+        <v>-8.800000000000001</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>164</v>
+      </c>
+      <c r="B32">
+        <v>-20.8</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>12.8</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B33">
         <v>-9.199999999999999</v>
@@ -13527,22 +14398,27 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3873" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4109" uniqueCount="258">
   <si>
     <t>ID</t>
   </si>
@@ -345,6 +345,12 @@
     <t>24,25,23,26,22,27,21,28,20,29,14,15,13,16,12,17,11,18,10,19</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>I think in the definitive tool would be cool to have a images where you can zoom in and out. Also would be nice to have 'hotspot' seldctions that can be navigare and visulised also with heatmap</t>
+  </si>
+  <si>
     <t>paraschoug@hotmail.com</t>
   </si>
   <si>
@@ -354,9 +360,6 @@
     <t>42</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>mvalentine2@rossvet.edu.kn</t>
   </si>
   <si>
@@ -456,6 +459,18 @@
     <t>24</t>
   </si>
   <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>The AI tool seems not to count all cells.</t>
+  </si>
+  <si>
+    <t>not really</t>
+  </si>
+  <si>
     <t>Barbara.Richter@vetmeduni.ac.at</t>
   </si>
   <si>
@@ -495,6 +510,12 @@
     <t>a.f.p.sonnen-3@umcutrecht.nl</t>
   </si>
   <si>
+    <t>;k</t>
+  </si>
+  <si>
+    <t>ljj</t>
+  </si>
+  <si>
     <t>ori.brenner@weizmann.ac.il</t>
   </si>
   <si>
@@ -516,6 +537,12 @@
     <t>29,20,28,21,27,22,26,23,25,24,19,10,18,11,17,12,16,13,15,14</t>
   </si>
   <si>
+    <t>The selection AI makes is not so clear. It gives an indication, but when I use the slider I get confused by it's selection</t>
+  </si>
+  <si>
+    <t>It is a good tool, but needs "learning" by correcting on the conventinal way</t>
+  </si>
+  <si>
     <t>jmagnussonwulcan@ucdavis.edu</t>
   </si>
   <si>
@@ -666,18 +693,12 @@
     <t>41</t>
   </si>
   <si>
-    <t>92</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
     <t>67</t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
@@ -760,6 +781,12 @@
   </si>
   <si>
     <t>69</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>57</t>
   </si>
   <si>
     <t>AI-underestimation</t>
@@ -2108,12 +2135,63 @@
         <v>57</v>
       </c>
       <c r="V12" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="W12" t="s">
+        <v>88</v>
+      </c>
+      <c r="X12" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -2182,10 +2260,10 @@
         <v>53</v>
       </c>
       <c r="X13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Z13" t="s">
         <v>57</v>
@@ -2224,15 +2302,15 @@
         <v>58</v>
       </c>
       <c r="AL13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AM13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
@@ -2262,10 +2340,10 @@
         <v>38</v>
       </c>
       <c r="K14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M14" t="s">
         <v>53</v>
@@ -2343,21 +2421,21 @@
         <v>57</v>
       </c>
       <c r="AL14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
         <v>72</v>
@@ -2366,7 +2444,7 @@
         <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
         <v>41</v>
@@ -2384,7 +2462,7 @@
         <v>42</v>
       </c>
       <c r="L15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M15" t="s">
         <v>103</v>
@@ -2420,7 +2498,7 @@
         <v>42</v>
       </c>
       <c r="X15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y15" t="s">
         <v>66</v>
@@ -2462,21 +2540,21 @@
         <v>36</v>
       </c>
       <c r="AL15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AM15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -2500,13 +2578,13 @@
         <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L16" t="s">
         <v>53</v>
       </c>
       <c r="M16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N16" t="s">
         <v>57</v>
@@ -2581,32 +2659,32 @@
         <v>41</v>
       </c>
       <c r="AL16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -2615,7 +2693,7 @@
         <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G18" t="s">
         <v>41</v>
@@ -2711,27 +2789,27 @@
         <v>37</v>
       </c>
       <c r="AL18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
         <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" t="s">
         <v>76</v>
@@ -2752,7 +2830,7 @@
         <v>53</v>
       </c>
       <c r="L19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M19" t="s">
         <v>67</v>
@@ -2838,13 +2916,13 @@
     </row>
     <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
         <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
@@ -2871,7 +2949,7 @@
         <v>42</v>
       </c>
       <c r="L20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M20" t="s">
         <v>44</v>
@@ -2906,13 +2984,13 @@
     </row>
     <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
@@ -2942,7 +3020,7 @@
         <v>54</v>
       </c>
       <c r="M21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N21" t="s">
         <v>36</v>
@@ -3017,27 +3095,27 @@
         <v>57</v>
       </c>
       <c r="AL21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AM21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s">
         <v>76</v>
@@ -3058,7 +3136,7 @@
         <v>53</v>
       </c>
       <c r="L22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M22" t="s">
         <v>44</v>
@@ -3091,7 +3169,7 @@
         <v>38</v>
       </c>
       <c r="W22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X22" t="s">
         <v>88</v>
@@ -3136,21 +3214,21 @@
         <v>57</v>
       </c>
       <c r="AL22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -3174,13 +3252,13 @@
         <v>38</v>
       </c>
       <c r="K23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N23" t="s">
         <v>58</v>
@@ -3207,18 +3285,69 @@
         <v>36</v>
       </c>
       <c r="V23" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="W23" t="s">
+        <v>145</v>
+      </c>
+      <c r="X23" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B24" t="s">
         <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D24" t="s">
         <v>72</v>
@@ -3245,7 +3374,7 @@
         <v>73</v>
       </c>
       <c r="L24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M24" t="s">
         <v>44</v>
@@ -3323,21 +3452,21 @@
         <v>41</v>
       </c>
       <c r="AL24" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="AM24" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
@@ -3361,10 +3490,10 @@
         <v>38</v>
       </c>
       <c r="K25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M25" t="s">
         <v>67</v>
@@ -3442,21 +3571,21 @@
         <v>57</v>
       </c>
       <c r="AL25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AM25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D26" t="s">
         <v>72</v>
@@ -3480,10 +3609,10 @@
         <v>38</v>
       </c>
       <c r="K26" t="s">
+        <v>120</v>
+      </c>
+      <c r="L26" t="s">
         <v>119</v>
-      </c>
-      <c r="L26" t="s">
-        <v>118</v>
       </c>
       <c r="M26" t="s">
         <v>104</v>
@@ -3518,7 +3647,7 @@
     </row>
     <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B27" t="s">
         <v>85</v>
@@ -3530,7 +3659,7 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F27" t="s">
         <v>76</v>
@@ -3551,7 +3680,7 @@
         <v>53</v>
       </c>
       <c r="L27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M27" t="s">
         <v>73</v>
@@ -3587,7 +3716,7 @@
         <v>53</v>
       </c>
       <c r="X27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y27" t="s">
         <v>67</v>
@@ -3629,21 +3758,21 @@
         <v>97</v>
       </c>
       <c r="AL27" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AM27" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D28" t="s">
         <v>72</v>
@@ -3670,7 +3799,7 @@
         <v>103</v>
       </c>
       <c r="L28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M28" t="s">
         <v>103</v>
@@ -3748,15 +3877,15 @@
         <v>36</v>
       </c>
       <c r="AL28" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AM28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
@@ -3792,7 +3921,7 @@
         <v>66</v>
       </c>
       <c r="M29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N29" t="s">
         <v>57</v>
@@ -3819,24 +3948,75 @@
         <v>36</v>
       </c>
       <c r="V29" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="W29" t="s">
+        <v>54</v>
+      </c>
+      <c r="X29" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B30" t="s">
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s">
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F30" t="s">
         <v>76</v>
@@ -3860,7 +4040,7 @@
         <v>54</v>
       </c>
       <c r="M30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N30" t="s">
         <v>41</v>
@@ -3892,13 +4072,13 @@
     </row>
     <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B31" t="s">
         <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
@@ -3907,7 +4087,7 @@
         <v>51</v>
       </c>
       <c r="F31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G31" t="s">
         <v>41</v>
@@ -3928,7 +4108,7 @@
         <v>53</v>
       </c>
       <c r="M31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N31" t="s">
         <v>41</v>
@@ -3964,7 +4144,7 @@
         <v>53</v>
       </c>
       <c r="Y31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z31" t="s">
         <v>41</v>
@@ -4003,27 +4183,27 @@
         <v>36</v>
       </c>
       <c r="AL31" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AM31" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F32" t="s">
         <v>76</v>
@@ -4074,18 +4254,69 @@
         <v>41</v>
       </c>
       <c r="V32" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="W32" t="s">
+        <v>53</v>
+      </c>
+      <c r="X32" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D33" t="s">
         <v>72</v>
@@ -4109,7 +4340,7 @@
         <v>38</v>
       </c>
       <c r="K33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L33" t="s">
         <v>104</v>
@@ -4190,21 +4421,21 @@
         <v>57</v>
       </c>
       <c r="AL33" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AM33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B34" t="s">
         <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D34" t="s">
         <v>72</v>
@@ -4231,10 +4462,10 @@
         <v>88</v>
       </c>
       <c r="L34" t="s">
+        <v>120</v>
+      </c>
+      <c r="M34" t="s">
         <v>119</v>
-      </c>
-      <c r="M34" t="s">
-        <v>118</v>
       </c>
       <c r="N34" t="s">
         <v>57</v>
@@ -4309,21 +4540,21 @@
         <v>97</v>
       </c>
       <c r="AL34" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="AM34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B35" t="s">
         <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D35" t="s">
         <v>33</v>
@@ -4350,10 +4581,10 @@
         <v>53</v>
       </c>
       <c r="L35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N35" t="s">
         <v>36</v>
@@ -4385,30 +4616,30 @@
     </row>
     <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B36" t="s">
         <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D37" t="s">
         <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F37" t="s">
         <v>76</v>
@@ -4464,22 +4695,22 @@
     </row>
     <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B38" t="s">
         <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D38" t="s">
         <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G38" t="s">
         <v>37</v>
@@ -4494,7 +4725,7 @@
         <v>69</v>
       </c>
       <c r="K38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L38" t="s">
         <v>104</v>
@@ -4505,13 +4736,13 @@
     </row>
     <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B39" t="s">
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D39" t="s">
         <v>72</v>
@@ -4535,7 +4766,7 @@
         <v>38</v>
       </c>
       <c r="K39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L39" t="s">
         <v>73</v>
@@ -4589,70 +4820,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="G1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="H1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="I1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="J1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="K1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="L1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="N1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="O1" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="P1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Q1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="R1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="S1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="T1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="U1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="V1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="W1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -4660,10 +4891,10 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
@@ -4684,16 +4915,16 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="K2" t="s">
         <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="N2" t="s">
         <v>78</v>
@@ -4702,19 +4933,19 @@
         <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="Q2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="R2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="S2" t="s">
         <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="U2" t="s">
         <v>68</v>
@@ -4723,7 +4954,7 @@
         <v>-38.35</v>
       </c>
       <c r="W2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -4776,10 +5007,10 @@
         <v>67</v>
       </c>
       <c r="Q3" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="R3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S3" t="s">
         <v>45</v>
@@ -4794,7 +5025,7 @@
         <v>-3.8</v>
       </c>
       <c r="W3" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -4802,13 +5033,13 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
         <v>119</v>
       </c>
-      <c r="C4" t="s">
-        <v>118</v>
-      </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
         <v>67</v>
@@ -4823,10 +5054,10 @@
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J4" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="K4" t="s">
         <v>66</v>
@@ -4844,16 +5075,16 @@
         <v>104</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q4" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="R4" t="s">
         <v>53</v>
       </c>
       <c r="S4" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="T4" t="s">
         <v>73</v>
@@ -4865,7 +5096,7 @@
         <v>-8.35</v>
       </c>
       <c r="W4" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -4885,7 +5116,7 @@
         <v>103</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G5" t="s">
         <v>104</v>
@@ -4909,13 +5140,13 @@
         <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O5" t="s">
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q5" t="s">
         <v>104</v>
@@ -4936,7 +5167,7 @@
         <v>0.7</v>
       </c>
       <c r="W5" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -4944,19 +5175,19 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -4965,49 +5196,49 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="J6" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="L6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="N6" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="O6" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="P6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R6" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="S6" t="s">
         <v>73</v>
       </c>
       <c r="T6" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="U6" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="V6">
         <v>0.3</v>
       </c>
       <c r="W6" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -5021,19 +5252,19 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
         <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="H7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I7" t="s">
         <v>87</v>
@@ -5078,7 +5309,7 @@
         <v>-6.3</v>
       </c>
       <c r="W7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -5104,7 +5335,7 @@
         <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -5113,7 +5344,7 @@
         <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="L8" t="s">
         <v>67</v>
@@ -5125,10 +5356,10 @@
         <v>74</v>
       </c>
       <c r="O8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q8" t="s">
         <v>88</v>
@@ -5149,7 +5380,7 @@
         <v>0.65</v>
       </c>
       <c r="W8" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -5160,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -5171,13 +5402,13 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -5186,10 +5417,10 @@
         <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
         <v>45</v>
@@ -5231,7 +5462,7 @@
         <v>-16.75</v>
       </c>
       <c r="W10" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -5245,7 +5476,7 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
@@ -5254,7 +5485,7 @@
         <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
@@ -5263,7 +5494,7 @@
         <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -5278,7 +5509,7 @@
         <v>74</v>
       </c>
       <c r="O11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P11" t="s">
         <v>54</v>
@@ -5293,7 +5524,7 @@
         <v>87</v>
       </c>
       <c r="T11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U11" t="s">
         <v>44</v>
@@ -5302,33 +5533,33 @@
         <v>10.05</v>
       </c>
       <c r="W11" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D12" t="s">
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="H12" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="I12" t="s">
         <v>87</v>
@@ -5340,54 +5571,54 @@
         <v>55</v>
       </c>
       <c r="L12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M12" t="s">
         <v>57</v>
       </c>
       <c r="N12" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="O12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P12" t="s">
         <v>78</v>
       </c>
       <c r="Q12" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="R12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="S12" t="s">
         <v>56</v>
       </c>
       <c r="T12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U12" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="V12">
         <v>-6.1</v>
       </c>
       <c r="W12" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
         <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
         <v>53</v>
@@ -5408,16 +5639,16 @@
         <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M13" t="s">
         <v>103</v>
       </c>
       <c r="N13" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="O13" t="s">
         <v>103</v>
@@ -5429,13 +5660,13 @@
         <v>54</v>
       </c>
       <c r="R13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="T13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U13" t="s">
         <v>73</v>
@@ -5444,18 +5675,18 @@
         <v>11.8</v>
       </c>
       <c r="W13" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D14" t="s">
         <v>104</v>
@@ -5464,7 +5695,7 @@
         <v>103</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G14" t="s">
         <v>44</v>
@@ -5479,7 +5710,7 @@
         <v>66</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L14" t="s">
         <v>45</v>
@@ -5491,10 +5722,10 @@
         <v>103</v>
       </c>
       <c r="O14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q14" t="s">
         <v>87</v>
@@ -5506,39 +5737,39 @@
         <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U14" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="V14">
         <v>-11.9</v>
       </c>
       <c r="W14" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F15" t="s">
         <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="H15" t="s">
         <v>54</v>
@@ -5550,16 +5781,16 @@
         <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L15" t="s">
         <v>53</v>
       </c>
       <c r="M15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N15" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="O15" t="s">
         <v>73</v>
@@ -5568,7 +5799,7 @@
         <v>74</v>
       </c>
       <c r="Q15" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="R15" t="s">
         <v>53</v>
@@ -5577,32 +5808,32 @@
         <v>73</v>
       </c>
       <c r="T15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V15">
         <v>-2.15</v>
       </c>
       <c r="W15" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -5614,7 +5845,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F17" t="s">
         <v>73</v>
@@ -5632,7 +5863,7 @@
         <v>53</v>
       </c>
       <c r="K17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" t="s">
         <v>104</v>
@@ -5641,7 +5872,7 @@
         <v>104</v>
       </c>
       <c r="N17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O17" t="s">
         <v>54</v>
@@ -5668,27 +5899,27 @@
         <v>-3.05</v>
       </c>
       <c r="W17" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
         <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G18" t="s">
         <v>44</v>
@@ -5697,7 +5928,7 @@
         <v>67</v>
       </c>
       <c r="I18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J18" t="s">
         <v>53</v>
@@ -5709,10 +5940,10 @@
         <v>54</v>
       </c>
       <c r="M18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O18" t="s">
         <v>87</v>
@@ -5727,7 +5958,7 @@
         <v>53</v>
       </c>
       <c r="S18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="T18" t="s">
         <v>53</v>
@@ -5739,18 +5970,18 @@
         <v>2.7</v>
       </c>
       <c r="W18" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
         <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D19" t="s">
         <v>104</v>
@@ -5759,7 +5990,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
@@ -5810,66 +6041,66 @@
         <v>-1.05</v>
       </c>
       <c r="W19" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E20" t="s">
         <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="G20" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H20" t="s">
         <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" t="s">
         <v>42</v>
       </c>
       <c r="M20" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="N20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O20" t="s">
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="Q20" t="s">
+        <v>114</v>
+      </c>
+      <c r="R20" t="s">
         <v>113</v>
       </c>
-      <c r="R20" t="s">
-        <v>112</v>
-      </c>
       <c r="S20" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="T20" t="s">
         <v>53</v>
@@ -5881,12 +6112,12 @@
         <v>-2.55</v>
       </c>
       <c r="W20" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -5916,10 +6147,10 @@
         <v>53</v>
       </c>
       <c r="K21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M21" t="s">
         <v>44</v>
@@ -5940,7 +6171,7 @@
         <v>67</v>
       </c>
       <c r="S21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T21" t="s">
         <v>54</v>
@@ -5952,12 +6183,12 @@
         <v>-0.05</v>
       </c>
       <c r="W21" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
         <v>95</v>
@@ -5966,69 +6197,69 @@
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="E22" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G22" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H22" t="s">
         <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J22" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="K22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M22" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="N22" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="O22" t="s">
         <v>74</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Q22" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="R22" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="S22" t="s">
         <v>77</v>
       </c>
       <c r="T22" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="U22" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="V22">
         <v>5.85</v>
       </c>
       <c r="W22" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
         <v>104</v>
@@ -6049,7 +6280,7 @@
         <v>67</v>
       </c>
       <c r="H23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I23" t="s">
         <v>73</v>
@@ -6058,7 +6289,7 @@
         <v>67</v>
       </c>
       <c r="K23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L23" t="s">
         <v>73</v>
@@ -6067,7 +6298,7 @@
         <v>67</v>
       </c>
       <c r="N23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
@@ -6076,7 +6307,7 @@
         <v>73</v>
       </c>
       <c r="Q23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R23" t="s">
         <v>104</v>
@@ -6094,12 +6325,12 @@
         <v>6.95</v>
       </c>
       <c r="W23" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -6123,7 +6354,7 @@
         <v>104</v>
       </c>
       <c r="I24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J24" t="s">
         <v>54</v>
@@ -6138,22 +6369,22 @@
         <v>67</v>
       </c>
       <c r="N24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="Q24" t="s">
         <v>45</v>
       </c>
       <c r="R24" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="S24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T24" t="s">
         <v>54</v>
@@ -6165,15 +6396,15 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="W24" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
         <v>53</v>
@@ -6209,22 +6440,22 @@
         <v>44</v>
       </c>
       <c r="N25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R25" t="s">
         <v>103</v>
       </c>
       <c r="S25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T25" t="s">
         <v>95</v>
@@ -6236,12 +6467,12 @@
         <v>3.7</v>
       </c>
       <c r="W25" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
@@ -6253,10 +6484,10 @@
         <v>73</v>
       </c>
       <c r="E26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" t="s">
         <v>119</v>
-      </c>
-      <c r="F26" t="s">
-        <v>118</v>
       </c>
       <c r="G26" t="s">
         <v>53</v>
@@ -6265,7 +6496,7 @@
         <v>54</v>
       </c>
       <c r="I26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J26" t="s">
         <v>45</v>
@@ -6295,7 +6526,7 @@
         <v>36</v>
       </c>
       <c r="S26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T26" t="s">
         <v>36</v>
@@ -6307,12 +6538,12 @@
         <v>-6.05</v>
       </c>
       <c r="W26" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
         <v>73</v>
@@ -6351,10 +6582,10 @@
         <v>67</v>
       </c>
       <c r="N27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O27" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P27" t="s">
         <v>73</v>
@@ -6366,24 +6597,24 @@
         <v>45</v>
       </c>
       <c r="S27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="V27">
         <v>-7.05</v>
       </c>
       <c r="W27" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B28" t="s">
         <v>74</v>
@@ -6398,7 +6629,7 @@
         <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G28" t="s">
         <v>53</v>
@@ -6407,7 +6638,7 @@
         <v>95</v>
       </c>
       <c r="I28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J28" t="s">
         <v>103</v>
@@ -6422,7 +6653,7 @@
         <v>87</v>
       </c>
       <c r="N28" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="O28" t="s">
         <v>103</v>
@@ -6449,18 +6680,18 @@
         <v>6.95</v>
       </c>
       <c r="W28" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B29" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
         <v>103</v>
@@ -6487,7 +6718,7 @@
         <v>73</v>
       </c>
       <c r="L29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M29" t="s">
         <v>67</v>
@@ -6496,7 +6727,7 @@
         <v>54</v>
       </c>
       <c r="O29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P29" t="s">
         <v>104</v>
@@ -6520,51 +6751,51 @@
         <v>2.65</v>
       </c>
       <c r="W29" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
         <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H30" t="s">
         <v>53</v>
       </c>
       <c r="I30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J30" t="s">
         <v>95</v>
       </c>
       <c r="K30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L30" t="s">
         <v>95</v>
       </c>
       <c r="M30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O30" t="s">
         <v>67</v>
@@ -6585,18 +6816,18 @@
         <v>66</v>
       </c>
       <c r="U30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="V30">
         <v>22.2</v>
       </c>
       <c r="W30" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -6608,7 +6839,7 @@
         <v>74</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s">
         <v>73</v>
@@ -6623,7 +6854,7 @@
         <v>67</v>
       </c>
       <c r="J31" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="K31" t="s">
         <v>104</v>
@@ -6647,7 +6878,7 @@
         <v>42</v>
       </c>
       <c r="R31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S31" t="s">
         <v>74</v>
@@ -6656,24 +6887,24 @@
         <v>103</v>
       </c>
       <c r="U31" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="V31">
         <v>2.95</v>
       </c>
       <c r="W31" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s">
         <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>
@@ -6682,10 +6913,10 @@
         <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H32" t="s">
         <v>45</v>
@@ -6700,22 +6931,22 @@
         <v>36</v>
       </c>
       <c r="L32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M32" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="N32" t="s">
         <v>74</v>
       </c>
       <c r="O32" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P32" t="s">
         <v>37</v>
       </c>
       <c r="Q32" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="R32" t="s">
         <v>104</v>
@@ -6733,18 +6964,18 @@
         <v>-18.65</v>
       </c>
       <c r="W32" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B33" t="s">
         <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
         <v>87</v>
@@ -6759,7 +6990,7 @@
         <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I33" t="s">
         <v>67</v>
@@ -6768,7 +6999,7 @@
         <v>104</v>
       </c>
       <c r="K33" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="L33" t="s">
         <v>95</v>
@@ -6786,10 +7017,10 @@
         <v>73</v>
       </c>
       <c r="Q33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="S33" t="s">
         <v>44</v>
@@ -6798,18 +7029,18 @@
         <v>73</v>
       </c>
       <c r="U33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V33">
         <v>3.7</v>
       </c>
       <c r="W33" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s">
         <v>104</v>
@@ -6839,7 +7070,7 @@
         <v>104</v>
       </c>
       <c r="K34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L34" t="s">
         <v>104</v>
@@ -6854,7 +7085,7 @@
         <v>73</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q34" t="s">
         <v>67</v>
@@ -6863,7 +7094,7 @@
         <v>103</v>
       </c>
       <c r="S34" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="T34" t="s">
         <v>104</v>
@@ -6875,26 +7106,26 @@
         <v>1.5</v>
       </c>
       <c r="W34" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B36" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C36" t="s">
         <v>66</v>
@@ -6915,7 +7146,7 @@
         <v>66</v>
       </c>
       <c r="I36" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="J36" t="s">
         <v>104</v>
@@ -6942,10 +7173,10 @@
         <v>73</v>
       </c>
       <c r="R36" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="S36" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="T36" t="s">
         <v>88</v>
@@ -6957,12 +7188,12 @@
         <v>-14.05</v>
       </c>
       <c r="W36" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -6971,10 +7202,10 @@
         <v>104</v>
       </c>
       <c r="D37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" t="s">
         <v>119</v>
-      </c>
-      <c r="E37" t="s">
-        <v>118</v>
       </c>
       <c r="F37" t="s">
         <v>44</v>
@@ -6986,7 +7217,7 @@
         <v>104</v>
       </c>
       <c r="I37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J37" t="s">
         <v>53</v>
@@ -6998,7 +7229,7 @@
         <v>104</v>
       </c>
       <c r="M37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N37" t="s">
         <v>54</v>
@@ -7022,18 +7253,18 @@
         <v>104</v>
       </c>
       <c r="U37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="V37">
         <v>-10.8</v>
       </c>
       <c r="W37" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -7048,7 +7279,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="G38" t="s">
         <v>104</v>
@@ -7063,7 +7294,7 @@
         <v>74</v>
       </c>
       <c r="K38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L38" t="s">
         <v>67</v>
@@ -7093,13 +7324,13 @@
         <v>53</v>
       </c>
       <c r="U38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="V38">
         <v>8.1</v>
       </c>
       <c r="W38" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -7120,70 +7351,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="G1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="H1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="I1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="J1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="K1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="L1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="N1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="O1" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="P1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Q1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="R1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="S1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="T1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="U1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="V1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="W1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -7212,22 +7443,22 @@
         <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L2" t="s">
         <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="N2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="O2" t="s">
         <v>67</v>
@@ -7239,13 +7470,13 @@
         <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="S2" t="s">
         <v>73</v>
       </c>
       <c r="T2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U2" t="s">
         <v>44</v>
@@ -7254,7 +7485,7 @@
         <v>14.65</v>
       </c>
       <c r="W2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -7268,10 +7499,10 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -7283,7 +7514,7 @@
         <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="J3" t="s">
         <v>103</v>
@@ -7304,7 +7535,7 @@
         <v>96</v>
       </c>
       <c r="P3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q3" t="s">
         <v>42</v>
@@ -7325,7 +7556,7 @@
         <v>5.05</v>
       </c>
       <c r="W3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -7336,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -7347,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -7355,61 +7586,61 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" t="s">
+        <v>250</v>
+      </c>
+      <c r="H6" t="s">
+        <v>247</v>
+      </c>
+      <c r="I6" t="s">
+        <v>248</v>
+      </c>
+      <c r="J6" t="s">
         <v>236</v>
       </c>
-      <c r="F6" t="s">
-        <v>242</v>
-      </c>
-      <c r="G6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H6" t="s">
-        <v>240</v>
-      </c>
-      <c r="I6" t="s">
-        <v>241</v>
-      </c>
-      <c r="J6" t="s">
-        <v>229</v>
-      </c>
       <c r="K6" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="L6" t="s">
         <v>89</v>
       </c>
       <c r="M6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="N6" t="s">
         <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="P6" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="Q6" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="R6" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="S6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="T6" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="U6" t="s">
         <v>44</v>
@@ -7418,7 +7649,7 @@
         <v>1.6</v>
       </c>
       <c r="W6" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -7435,7 +7666,7 @@
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -7444,13 +7675,13 @@
         <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="I7" t="s">
         <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K7" t="s">
         <v>44</v>
@@ -7459,7 +7690,7 @@
         <v>95</v>
       </c>
       <c r="M7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="N7" t="s">
         <v>54</v>
@@ -7468,16 +7699,16 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R7" t="s">
         <v>78</v>
       </c>
       <c r="S7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="T7" t="s">
         <v>74</v>
@@ -7489,7 +7720,7 @@
         <v>0.5</v>
       </c>
       <c r="W7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -7497,7 +7728,7 @@
         <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -7524,7 +7755,7 @@
         <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="L8" t="s">
         <v>67</v>
@@ -7536,7 +7767,7 @@
         <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P8" t="s">
         <v>88</v>
@@ -7560,7 +7791,7 @@
         <v>1.15</v>
       </c>
       <c r="W8" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -7571,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -7582,29 +7813,89 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>105</v>
       </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>44</v>
+      </c>
+      <c r="R11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" t="s">
+        <v>246</v>
+      </c>
+      <c r="T11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U11" t="s">
+        <v>44</v>
+      </c>
       <c r="V11">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="W11" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
         <v>67</v>
@@ -7613,7 +7904,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
@@ -7634,10 +7925,10 @@
         <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="N12" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="O12" t="s">
         <v>42</v>
@@ -7646,16 +7937,16 @@
         <v>42</v>
       </c>
       <c r="Q12" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12" t="s">
         <v>119</v>
       </c>
-      <c r="R12" t="s">
-        <v>118</v>
-      </c>
       <c r="S12" t="s">
         <v>44</v>
       </c>
       <c r="T12" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="U12" t="s">
         <v>74</v>
@@ -7664,18 +7955,18 @@
         <v>6</v>
       </c>
       <c r="W12" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -7684,28 +7975,28 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G13" t="s">
         <v>103</v>
       </c>
       <c r="H13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I13" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
         <v>87</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N13" t="s">
         <v>67</v>
@@ -7723,10 +8014,10 @@
         <v>53</v>
       </c>
       <c r="S13" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="T13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U13" t="s">
         <v>87</v>
@@ -7735,18 +8026,18 @@
         <v>5.25</v>
       </c>
       <c r="W13" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
@@ -7770,7 +8061,7 @@
         <v>53</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L14" t="s">
         <v>45</v>
@@ -7779,7 +8070,7 @@
         <v>42</v>
       </c>
       <c r="N14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O14" t="s">
         <v>66</v>
@@ -7791,27 +8082,27 @@
         <v>44</v>
       </c>
       <c r="R14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S14" t="s">
         <v>73</v>
       </c>
       <c r="T14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="V14">
         <v>-1.3</v>
       </c>
       <c r="W14" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
@@ -7838,7 +8129,7 @@
         <v>87</v>
       </c>
       <c r="J15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K15" t="s">
         <v>66</v>
@@ -7850,7 +8141,7 @@
         <v>53</v>
       </c>
       <c r="N15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
         <v>87</v>
@@ -7877,23 +8168,23 @@
         <v>7.7</v>
       </c>
       <c r="W15" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
@@ -7929,10 +8220,10 @@
         <v>53</v>
       </c>
       <c r="M17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O17" t="s">
         <v>67</v>
@@ -7950,7 +8241,7 @@
         <v>44</v>
       </c>
       <c r="T17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U17" t="s">
         <v>104</v>
@@ -7959,15 +8250,15 @@
         <v>-2.3</v>
       </c>
       <c r="W17" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
         <v>67</v>
@@ -7979,7 +8270,7 @@
         <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
         <v>44</v>
@@ -7988,7 +8279,7 @@
         <v>54</v>
       </c>
       <c r="I18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J18" t="s">
         <v>53</v>
@@ -8009,7 +8300,7 @@
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q18" t="s">
         <v>67</v>
@@ -8018,7 +8309,7 @@
         <v>53</v>
       </c>
       <c r="S18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T18" t="s">
         <v>73</v>
@@ -8030,26 +8321,26 @@
         <v>3.7</v>
       </c>
       <c r="W18" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
         <v>87</v>
@@ -8070,7 +8361,7 @@
         <v>74</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -8088,13 +8379,13 @@
         <v>104</v>
       </c>
       <c r="O20" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="P20" t="s">
         <v>104</v>
       </c>
       <c r="Q20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R20" t="s">
         <v>54</v>
@@ -8106,18 +8397,18 @@
         <v>53</v>
       </c>
       <c r="U20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V20">
         <v>-3.4</v>
       </c>
       <c r="W20" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
@@ -8132,7 +8423,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G21" t="s">
         <v>44</v>
@@ -8147,10 +8438,10 @@
         <v>53</v>
       </c>
       <c r="K21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M21" t="s">
         <v>67</v>
@@ -8162,7 +8453,7 @@
         <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q21" t="s">
         <v>87</v>
@@ -8171,7 +8462,7 @@
         <v>73</v>
       </c>
       <c r="S21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="T21" t="s">
         <v>53</v>
@@ -8183,23 +8474,83 @@
         <v>-1.55</v>
       </c>
       <c r="W21" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>253</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s">
+        <v>218</v>
+      </c>
+      <c r="J22" t="s">
+        <v>226</v>
+      </c>
+      <c r="K22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" t="s">
+        <v>242</v>
+      </c>
+      <c r="N22" t="s">
+        <v>254</v>
+      </c>
+      <c r="O22" t="s">
+        <v>238</v>
+      </c>
+      <c r="P22" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>78</v>
+      </c>
+      <c r="R22" t="s">
+        <v>247</v>
+      </c>
+      <c r="S22" t="s">
+        <v>66</v>
+      </c>
+      <c r="T22" t="s">
+        <v>224</v>
+      </c>
+      <c r="U22" t="s">
+        <v>145</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="W22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
         <v>104</v>
@@ -8208,19 +8559,19 @@
         <v>87</v>
       </c>
       <c r="D23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" t="s">
         <v>119</v>
       </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" t="s">
-        <v>118</v>
-      </c>
       <c r="H23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I23" t="s">
         <v>73</v>
@@ -8229,7 +8580,7 @@
         <v>67</v>
       </c>
       <c r="K23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L23" t="s">
         <v>95</v>
@@ -8247,13 +8598,13 @@
         <v>73</v>
       </c>
       <c r="Q23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R23" t="s">
         <v>104</v>
       </c>
       <c r="S23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T23" t="s">
         <v>67</v>
@@ -8265,12 +8616,12 @@
         <v>2.45</v>
       </c>
       <c r="W23" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
         <v>74</v>
@@ -8279,7 +8630,7 @@
         <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E24" t="s">
         <v>44</v>
@@ -8291,7 +8642,7 @@
         <v>103</v>
       </c>
       <c r="H24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I24" t="s">
         <v>53</v>
@@ -8300,7 +8651,7 @@
         <v>73</v>
       </c>
       <c r="K24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L24" t="s">
         <v>103</v>
@@ -8321,10 +8672,10 @@
         <v>103</v>
       </c>
       <c r="R24" t="s">
+        <v>120</v>
+      </c>
+      <c r="S24" t="s">
         <v>119</v>
-      </c>
-      <c r="S24" t="s">
-        <v>118</v>
       </c>
       <c r="T24" t="s">
         <v>54</v>
@@ -8336,23 +8687,23 @@
         <v>-0.3</v>
       </c>
       <c r="W24" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
         <v>67</v>
@@ -8376,10 +8727,10 @@
         <v>54</v>
       </c>
       <c r="I26" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" t="s">
         <v>119</v>
-      </c>
-      <c r="J26" t="s">
-        <v>118</v>
       </c>
       <c r="K26" t="s">
         <v>73</v>
@@ -8391,25 +8742,25 @@
         <v>67</v>
       </c>
       <c r="N26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P26" t="s">
         <v>53</v>
       </c>
       <c r="Q26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R26" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="S26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T26" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="U26" t="s">
         <v>54</v>
@@ -8418,33 +8769,33 @@
         <v>-2.55</v>
       </c>
       <c r="W26" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G27" t="s">
         <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I27" t="s">
         <v>88</v>
@@ -8453,7 +8804,7 @@
         <v>66</v>
       </c>
       <c r="K27" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s">
         <v>95</v>
@@ -8465,13 +8816,13 @@
         <v>44</v>
       </c>
       <c r="O27" t="s">
+        <v>120</v>
+      </c>
+      <c r="P27" t="s">
         <v>119</v>
       </c>
-      <c r="P27" t="s">
-        <v>118</v>
-      </c>
       <c r="Q27" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="R27" t="s">
         <v>66</v>
@@ -8489,43 +8840,103 @@
         <v>3.4</v>
       </c>
       <c r="W27" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>161</v>
+      </c>
+      <c r="B28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" t="s">
+        <v>74</v>
+      </c>
+      <c r="M28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" t="s">
+        <v>103</v>
+      </c>
+      <c r="O28" t="s">
+        <v>119</v>
+      </c>
+      <c r="P28" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>120</v>
+      </c>
+      <c r="R28" t="s">
+        <v>215</v>
+      </c>
+      <c r="S28" t="s">
+        <v>54</v>
+      </c>
+      <c r="T28" t="s">
+        <v>54</v>
+      </c>
+      <c r="U28" t="s">
+        <v>73</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="W28" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
         <v>73</v>
@@ -8549,16 +8960,16 @@
         <v>103</v>
       </c>
       <c r="L30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N30" t="s">
         <v>87</v>
       </c>
       <c r="O30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P30" t="s">
         <v>103</v>
@@ -8582,23 +8993,83 @@
         <v>5.45</v>
       </c>
       <c r="W30" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>169</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" t="s">
+        <v>73</v>
+      </c>
+      <c r="J31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31" t="s">
+        <v>87</v>
+      </c>
+      <c r="M31" t="s">
+        <v>119</v>
+      </c>
+      <c r="N31" t="s">
+        <v>44</v>
+      </c>
+      <c r="O31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>53</v>
+      </c>
+      <c r="R31" t="s">
+        <v>120</v>
+      </c>
+      <c r="S31" t="s">
+        <v>67</v>
+      </c>
+      <c r="T31" t="s">
+        <v>120</v>
+      </c>
+      <c r="U31" t="s">
+        <v>120</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="W31" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s">
         <v>44</v>
@@ -8619,7 +9090,7 @@
         <v>66</v>
       </c>
       <c r="H32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I32" t="s">
         <v>44</v>
@@ -8652,24 +9123,24 @@
         <v>53</v>
       </c>
       <c r="S32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T32" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="U32" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="V32">
         <v>-1.55</v>
       </c>
       <c r="W32" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
@@ -8681,7 +9152,7 @@
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F33" t="s">
         <v>66</v>
@@ -8729,68 +9200,68 @@
         <v>73</v>
       </c>
       <c r="U33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V33">
         <v>4.35</v>
       </c>
       <c r="W33" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="V37">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="V38">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -8811,40 +9282,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="G1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="H1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="I1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="J1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="K1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="L1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="M1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -8852,16 +9323,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -8885,7 +9356,7 @@
         <v>-43.3</v>
       </c>
       <c r="M2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -8926,7 +9397,7 @@
         <v>2.7</v>
       </c>
       <c r="M3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -8946,16 +9417,16 @@
         <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="H4" t="s">
         <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="J4" t="s">
         <v>73</v>
@@ -8967,7 +9438,7 @@
         <v>-15.8</v>
       </c>
       <c r="M4" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -8987,7 +9458,7 @@
         <v>103</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G5" t="s">
         <v>104</v>
@@ -9008,7 +9479,7 @@
         <v>-2.3</v>
       </c>
       <c r="M5" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -9016,19 +9487,19 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -9037,19 +9508,19 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="J6" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="L6">
         <v>-2.9</v>
       </c>
       <c r="M6" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -9090,7 +9561,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="M7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -9107,10 +9578,10 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
         <v>88</v>
@@ -9131,7 +9602,7 @@
         <v>3.7</v>
       </c>
       <c r="M8" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -9177,7 +9648,7 @@
         <v>-14.7</v>
       </c>
       <c r="M10" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -9194,7 +9665,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
         <v>54</v>
@@ -9209,7 +9680,7 @@
         <v>87</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -9218,33 +9689,33 @@
         <v>12.5</v>
       </c>
       <c r="M11" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D12" t="s">
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="H12" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="I12" t="s">
         <v>87</v>
@@ -9259,21 +9730,21 @@
         <v>-7.3</v>
       </c>
       <c r="M12" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
         <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
         <v>53</v>
@@ -9294,18 +9765,18 @@
         <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="L13">
         <v>23.6</v>
       </c>
       <c r="M13" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
@@ -9317,10 +9788,10 @@
         <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G14" t="s">
         <v>87</v>
@@ -9332,30 +9803,30 @@
         <v>53</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="L14">
         <v>-6</v>
       </c>
       <c r="M14" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E15" t="s">
         <v>73</v>
@@ -9364,7 +9835,7 @@
         <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="H15" t="s">
         <v>53</v>
@@ -9373,26 +9844,26 @@
         <v>73</v>
       </c>
       <c r="J15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L15">
         <v>-2.9</v>
       </c>
       <c r="M15" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -9404,7 +9875,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F17" t="s">
         <v>73</v>
@@ -9422,27 +9893,27 @@
         <v>53</v>
       </c>
       <c r="K17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17">
         <v>-2.3</v>
       </c>
       <c r="M17" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
         <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
         <v>87</v>
@@ -9457,7 +9928,7 @@
         <v>53</v>
       </c>
       <c r="I18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J18" t="s">
         <v>53</v>
@@ -9469,12 +9940,12 @@
         <v>2.2</v>
       </c>
       <c r="M18" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
@@ -9510,53 +9981,53 @@
         <v>-0.3</v>
       </c>
       <c r="M19" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E20" t="s">
         <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="G20" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H20" t="s">
         <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20">
         <v>-3</v>
       </c>
       <c r="M20" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -9586,59 +10057,59 @@
         <v>53</v>
       </c>
       <c r="K21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L21">
         <v>-4.8</v>
       </c>
       <c r="M21" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D22" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E22" t="s">
         <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="G22" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H22" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="I22" t="s">
         <v>77</v>
       </c>
       <c r="J22" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="K22" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L22">
         <v>6.4</v>
       </c>
       <c r="M22" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
         <v>73</v>
@@ -9647,7 +10118,7 @@
         <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
         <v>44</v>
@@ -9656,7 +10127,7 @@
         <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H23" t="s">
         <v>104</v>
@@ -9674,12 +10145,12 @@
         <v>3.2</v>
       </c>
       <c r="M23" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -9703,7 +10174,7 @@
         <v>104</v>
       </c>
       <c r="I24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J24" t="s">
         <v>54</v>
@@ -9715,15 +10186,15 @@
         <v>-6.8</v>
       </c>
       <c r="M24" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
         <v>53</v>
@@ -9756,12 +10227,12 @@
         <v>5.2</v>
       </c>
       <c r="M25" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
@@ -9785,7 +10256,7 @@
         <v>36</v>
       </c>
       <c r="I26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J26" t="s">
         <v>36</v>
@@ -9797,12 +10268,12 @@
         <v>-7.3</v>
       </c>
       <c r="M26" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
         <v>95</v>
@@ -9811,10 +10282,10 @@
         <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F27" t="s">
         <v>73</v>
@@ -9826,24 +10297,24 @@
         <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L27">
         <v>-2.8</v>
       </c>
       <c r="M27" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B28" t="s">
         <v>74</v>
@@ -9858,7 +10329,7 @@
         <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G28" t="s">
         <v>53</v>
@@ -9867,7 +10338,7 @@
         <v>95</v>
       </c>
       <c r="I28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J28" t="s">
         <v>103</v>
@@ -9879,18 +10350,18 @@
         <v>6.7</v>
       </c>
       <c r="M28" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B29" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
         <v>103</v>
@@ -9920,21 +10391,21 @@
         <v>4.1</v>
       </c>
       <c r="M29" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
         <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
         <v>67</v>
@@ -9955,18 +10426,18 @@
         <v>66</v>
       </c>
       <c r="K30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L30">
         <v>17.2</v>
       </c>
       <c r="M30" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -9987,7 +10458,7 @@
         <v>42</v>
       </c>
       <c r="H31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I31" t="s">
         <v>74</v>
@@ -9996,24 +10467,24 @@
         <v>103</v>
       </c>
       <c r="K31" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="L31">
         <v>-5.3</v>
       </c>
       <c r="M31" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s">
         <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>
@@ -10022,10 +10493,10 @@
         <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H32" t="s">
         <v>45</v>
@@ -10043,18 +10514,18 @@
         <v>-16.3</v>
       </c>
       <c r="M32" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B33" t="s">
         <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
         <v>87</v>
@@ -10069,7 +10540,7 @@
         <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I33" t="s">
         <v>67</v>
@@ -10078,18 +10549,18 @@
         <v>104</v>
       </c>
       <c r="K33" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="L33">
         <v>3.2</v>
       </c>
       <c r="M33" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s">
         <v>104</v>
@@ -10104,7 +10575,7 @@
         <v>73</v>
       </c>
       <c r="F34" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="G34" t="s">
         <v>67</v>
@@ -10113,7 +10584,7 @@
         <v>103</v>
       </c>
       <c r="I34" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="J34" t="s">
         <v>104</v>
@@ -10125,20 +10596,20 @@
         <v>0.8</v>
       </c>
       <c r="M34" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B36" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C36" t="s">
         <v>66</v>
@@ -10159,7 +10630,7 @@
         <v>66</v>
       </c>
       <c r="I36" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="J36" t="s">
         <v>104</v>
@@ -10171,12 +10642,12 @@
         <v>-14.8</v>
       </c>
       <c r="M36" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -10185,10 +10656,10 @@
         <v>104</v>
       </c>
       <c r="D37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" t="s">
         <v>119</v>
-      </c>
-      <c r="E37" t="s">
-        <v>118</v>
       </c>
       <c r="F37" t="s">
         <v>44</v>
@@ -10200,7 +10671,7 @@
         <v>104</v>
       </c>
       <c r="I37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J37" t="s">
         <v>53</v>
@@ -10212,12 +10683,12 @@
         <v>-11.8</v>
       </c>
       <c r="M37" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
@@ -10247,13 +10718,13 @@
         <v>53</v>
       </c>
       <c r="K38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L38">
         <v>9.699999999999999</v>
       </c>
       <c r="M38" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -10274,40 +10745,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="G1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="H1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="I1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="J1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="K1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="L1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="M1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -10324,22 +10795,22 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="G2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="H2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="I2" t="s">
         <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="K2" t="s">
         <v>78</v>
@@ -10348,7 +10819,7 @@
         <v>-33.4</v>
       </c>
       <c r="M2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -10371,10 +10842,10 @@
         <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
@@ -10389,7 +10860,7 @@
         <v>-10.3</v>
       </c>
       <c r="M3" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -10397,13 +10868,13 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
         <v>119</v>
       </c>
-      <c r="C4" t="s">
-        <v>118</v>
-      </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
         <v>67</v>
@@ -10418,10 +10889,10 @@
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J4" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="K4" t="s">
         <v>66</v>
@@ -10430,7 +10901,7 @@
         <v>-0.9</v>
       </c>
       <c r="M4" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -10444,13 +10915,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G5" t="s">
         <v>104</v>
@@ -10471,7 +10942,7 @@
         <v>3.7</v>
       </c>
       <c r="M5" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -10479,40 +10950,40 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H6" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="I6" t="s">
         <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="K6" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="L6">
         <v>3.5</v>
       </c>
       <c r="M6" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -10526,19 +10997,19 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
         <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="H7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I7" t="s">
         <v>87</v>
@@ -10553,7 +11024,7 @@
         <v>-3.3</v>
       </c>
       <c r="M7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -10579,7 +11050,7 @@
         <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -10588,13 +11059,13 @@
         <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="L8">
         <v>-2.4</v>
       </c>
       <c r="M8" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -10610,13 +11081,13 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -10625,10 +11096,10 @@
         <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
         <v>45</v>
@@ -10640,7 +11111,7 @@
         <v>-18.8</v>
       </c>
       <c r="M10" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -10654,7 +11125,7 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
@@ -10663,7 +11134,7 @@
         <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
@@ -10672,7 +11143,7 @@
         <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -10681,62 +11152,62 @@
         <v>7.6</v>
       </c>
       <c r="M11" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F12" t="s">
         <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I12" t="s">
         <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L12">
         <v>-4.9</v>
       </c>
       <c r="M12" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
         <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E13" t="s">
         <v>103</v>
@@ -10748,13 +11219,13 @@
         <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s">
         <v>73</v>
@@ -10763,18 +11234,18 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D14" t="s">
         <v>104</v>
@@ -10783,7 +11254,7 @@
         <v>103</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G14" t="s">
         <v>44</v>
@@ -10798,36 +11269,36 @@
         <v>66</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L14">
         <v>-17.8</v>
       </c>
       <c r="M14" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F15" t="s">
         <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="H15" t="s">
         <v>54</v>
@@ -10839,23 +11310,23 @@
         <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L15">
         <v>-1.4</v>
       </c>
       <c r="M15" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
         <v>104</v>
@@ -10864,7 +11335,7 @@
         <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
         <v>54</v>
@@ -10891,27 +11362,27 @@
         <v>-3.8</v>
       </c>
       <c r="M17" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
         <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G18" t="s">
         <v>44</v>
@@ -10920,7 +11391,7 @@
         <v>67</v>
       </c>
       <c r="I18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J18" t="s">
         <v>53</v>
@@ -10932,18 +11403,18 @@
         <v>3.2</v>
       </c>
       <c r="M18" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
         <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D19" t="s">
         <v>104</v>
@@ -10952,7 +11423,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
@@ -10973,36 +11444,36 @@
         <v>-1.8</v>
       </c>
       <c r="M19" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
         <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G20" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" t="s">
         <v>113</v>
       </c>
-      <c r="H20" t="s">
-        <v>112</v>
-      </c>
       <c r="I20" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -11014,15 +11485,15 @@
         <v>-2.1</v>
       </c>
       <c r="M20" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
@@ -11043,7 +11514,7 @@
         <v>67</v>
       </c>
       <c r="I21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J21" t="s">
         <v>54</v>
@@ -11055,12 +11526,12 @@
         <v>4.7</v>
       </c>
       <c r="M21" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
         <v>95</v>
@@ -11069,39 +11540,39 @@
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="E22" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G22" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H22" t="s">
         <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J22" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="K22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L22">
         <v>5.3</v>
       </c>
       <c r="M22" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
         <v>104</v>
@@ -11122,7 +11593,7 @@
         <v>67</v>
       </c>
       <c r="H23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I23" t="s">
         <v>73</v>
@@ -11131,18 +11602,18 @@
         <v>67</v>
       </c>
       <c r="K23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L23">
         <v>10.7</v>
       </c>
       <c r="M23" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
@@ -11151,22 +11622,22 @@
         <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E24" t="s">
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J24" t="s">
         <v>54</v>
@@ -11178,12 +11649,12 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="M24" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
         <v>73</v>
@@ -11192,22 +11663,22 @@
         <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H25" t="s">
         <v>103</v>
       </c>
       <c r="I25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J25" t="s">
         <v>95</v>
@@ -11219,12 +11690,12 @@
         <v>2.2</v>
       </c>
       <c r="M25" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
@@ -11236,10 +11707,10 @@
         <v>73</v>
       </c>
       <c r="E26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" t="s">
         <v>119</v>
-      </c>
-      <c r="F26" t="s">
-        <v>118</v>
       </c>
       <c r="G26" t="s">
         <v>53</v>
@@ -11248,7 +11719,7 @@
         <v>54</v>
       </c>
       <c r="I26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J26" t="s">
         <v>45</v>
@@ -11260,12 +11731,12 @@
         <v>-4.8</v>
       </c>
       <c r="M26" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
         <v>73</v>
@@ -11301,12 +11772,12 @@
         <v>-11.3</v>
       </c>
       <c r="M27" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
@@ -11315,7 +11786,7 @@
         <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E28" t="s">
         <v>103</v>
@@ -11342,15 +11813,15 @@
         <v>7.2</v>
       </c>
       <c r="M28" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -11359,7 +11830,7 @@
         <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
         <v>104</v>
@@ -11383,53 +11854,53 @@
         <v>1.2</v>
       </c>
       <c r="M29" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
         <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H30" t="s">
         <v>53</v>
       </c>
       <c r="I30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J30" t="s">
         <v>95</v>
       </c>
       <c r="K30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L30">
         <v>27.2</v>
       </c>
       <c r="M30" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -11441,7 +11912,7 @@
         <v>74</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s">
         <v>73</v>
@@ -11456,7 +11927,7 @@
         <v>67</v>
       </c>
       <c r="J31" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="K31" t="s">
         <v>104</v>
@@ -11465,30 +11936,30 @@
         <v>11.2</v>
       </c>
       <c r="M31" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D32" t="s">
         <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F32" t="s">
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="H32" t="s">
         <v>104</v>
@@ -11506,12 +11977,12 @@
         <v>-21</v>
       </c>
       <c r="M32" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B33" t="s">
         <v>95</v>
@@ -11529,10 +12000,10 @@
         <v>73</v>
       </c>
       <c r="G33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I33" t="s">
         <v>44</v>
@@ -11541,18 +12012,18 @@
         <v>73</v>
       </c>
       <c r="K33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L33">
         <v>4.2</v>
       </c>
       <c r="M33" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s">
         <v>104</v>
@@ -11582,23 +12053,23 @@
         <v>104</v>
       </c>
       <c r="K34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L34">
         <v>2.2</v>
       </c>
       <c r="M34" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B36" t="s">
         <v>104</v>
@@ -11619,10 +12090,10 @@
         <v>73</v>
       </c>
       <c r="H36" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I36" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="J36" t="s">
         <v>88</v>
@@ -11634,18 +12105,18 @@
         <v>-13.3</v>
       </c>
       <c r="M36" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B37" t="s">
         <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
         <v>54</v>
@@ -11669,18 +12140,18 @@
         <v>104</v>
       </c>
       <c r="K37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L37">
         <v>-9.800000000000001</v>
       </c>
       <c r="M37" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -11695,7 +12166,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="G38" t="s">
         <v>104</v>
@@ -11710,13 +12181,13 @@
         <v>74</v>
       </c>
       <c r="K38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L38">
         <v>6.5</v>
       </c>
       <c r="M38" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -11737,40 +12208,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="G1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="H1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="I1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="J1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="K1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="L1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="M1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -11778,7 +12249,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>81</v>
@@ -11787,7 +12258,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
         <v>89</v>
@@ -11799,19 +12270,19 @@
         <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="J2" t="s">
         <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L2">
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -11825,10 +12296,10 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -11840,7 +12311,7 @@
         <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="J3" t="s">
         <v>103</v>
@@ -11852,7 +12323,7 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -11870,40 +12341,40 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" t="s">
+        <v>250</v>
+      </c>
+      <c r="H6" t="s">
+        <v>247</v>
+      </c>
+      <c r="I6" t="s">
+        <v>248</v>
+      </c>
+      <c r="J6" t="s">
         <v>236</v>
       </c>
-      <c r="F6" t="s">
-        <v>242</v>
-      </c>
-      <c r="G6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H6" t="s">
-        <v>240</v>
-      </c>
-      <c r="I6" t="s">
-        <v>241</v>
-      </c>
-      <c r="J6" t="s">
-        <v>229</v>
-      </c>
       <c r="K6" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="L6">
         <v>4.1</v>
       </c>
       <c r="M6" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -11914,7 +12385,7 @@
         <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
@@ -11923,16 +12394,16 @@
         <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H7" t="s">
         <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J7" t="s">
         <v>74</v>
@@ -11944,7 +12415,7 @@
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -11961,7 +12432,7 @@
         <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
         <v>88</v>
@@ -11985,7 +12456,7 @@
         <v>3.2</v>
       </c>
       <c r="M8" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -12002,16 +12473,52 @@
       <c r="A11" t="s">
         <v>105</v>
       </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11">
+        <v>14.9</v>
+      </c>
+      <c r="M11" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
         <v>67</v>
@@ -12020,7 +12527,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
@@ -12041,18 +12548,18 @@
         <v>4.7</v>
       </c>
       <c r="M12" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -12061,19 +12568,19 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G13" t="s">
         <v>103</v>
       </c>
       <c r="H13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I13" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
         <v>87</v>
@@ -12082,12 +12589,12 @@
         <v>5.9</v>
       </c>
       <c r="M13" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
@@ -12096,7 +12603,7 @@
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
         <v>66</v>
@@ -12108,27 +12615,27 @@
         <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I14" t="s">
         <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L14">
         <v>-1.3</v>
       </c>
       <c r="M14" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -12137,7 +12644,7 @@
         <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
         <v>87</v>
@@ -12164,17 +12671,17 @@
         <v>8.199999999999999</v>
       </c>
       <c r="M15" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
@@ -12210,12 +12717,12 @@
         <v>-3.8</v>
       </c>
       <c r="M17" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -12230,7 +12737,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
         <v>67</v>
@@ -12239,7 +12746,7 @@
         <v>53</v>
       </c>
       <c r="I18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J18" t="s">
         <v>73</v>
@@ -12251,20 +12758,20 @@
         <v>3.7</v>
       </c>
       <c r="M18" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
         <v>87</v>
@@ -12285,7 +12792,7 @@
         <v>74</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -12297,12 +12804,12 @@
         <v>-4.1</v>
       </c>
       <c r="M20" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
@@ -12317,7 +12824,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G21" t="s">
         <v>44</v>
@@ -12332,23 +12839,59 @@
         <v>53</v>
       </c>
       <c r="K21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L21">
         <v>-2.8</v>
       </c>
       <c r="M21" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E22" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s">
+        <v>247</v>
+      </c>
+      <c r="I22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22">
+        <v>10.7</v>
+      </c>
+      <c r="M22" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
         <v>95</v>
@@ -12366,13 +12909,13 @@
         <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H23" t="s">
         <v>104</v>
       </c>
       <c r="I23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J23" t="s">
         <v>67</v>
@@ -12384,12 +12927,12 @@
         <v>0.7</v>
       </c>
       <c r="M23" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
         <v>74</v>
@@ -12398,7 +12941,7 @@
         <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E24" t="s">
         <v>44</v>
@@ -12410,7 +12953,7 @@
         <v>103</v>
       </c>
       <c r="H24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I24" t="s">
         <v>53</v>
@@ -12419,23 +12962,23 @@
         <v>73</v>
       </c>
       <c r="K24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L24">
         <v>-0.8</v>
       </c>
       <c r="M24" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
@@ -12444,25 +12987,25 @@
         <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
         <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H26" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J26" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s">
         <v>54</v>
@@ -12471,12 +13014,12 @@
         <v>-2.3</v>
       </c>
       <c r="M26" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
         <v>95</v>
@@ -12488,13 +13031,13 @@
         <v>44</v>
       </c>
       <c r="E27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" t="s">
         <v>119</v>
       </c>
-      <c r="F27" t="s">
-        <v>118</v>
-      </c>
       <c r="G27" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="H27" t="s">
         <v>66</v>
@@ -12512,34 +13055,70 @@
         <v>6.5</v>
       </c>
       <c r="M27" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>161</v>
+      </c>
+      <c r="B28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28">
+        <v>5.1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
         <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F30" t="s">
         <v>103</v>
@@ -12563,17 +13142,53 @@
         <v>7.2</v>
       </c>
       <c r="M30" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>169</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31" t="s">
+        <v>120</v>
+      </c>
+      <c r="L31">
+        <v>3.7</v>
+      </c>
+      <c r="M31" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s">
         <v>44</v>
@@ -12594,7 +13209,7 @@
         <v>66</v>
       </c>
       <c r="H32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I32" t="s">
         <v>44</v>
@@ -12609,12 +13224,12 @@
         <v>0.2</v>
       </c>
       <c r="M32" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
@@ -12626,7 +13241,7 @@
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F33" t="s">
         <v>66</v>
@@ -12650,32 +13265,32 @@
         <v>2.7</v>
       </c>
       <c r="M33" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -12696,40 +13311,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="G1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="H1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="I1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="J1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="K1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="L1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="M1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -12746,13 +13361,13 @@
         <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
@@ -12761,7 +13376,7 @@
         <v>73</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K2" t="s">
         <v>44</v>
@@ -12770,7 +13385,7 @@
         <v>23.3</v>
       </c>
       <c r="M2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -12790,7 +13405,7 @@
         <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
@@ -12811,7 +13426,7 @@
         <v>4.6</v>
       </c>
       <c r="M3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -12832,28 +13447,28 @@
         <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F6" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="G6" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="H6" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="I6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J6" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="K6" t="s">
         <v>44</v>
@@ -12862,7 +13477,7 @@
         <v>-0.9</v>
       </c>
       <c r="M6" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -12879,7 +13494,7 @@
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -12888,13 +13503,13 @@
         <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="I7" t="s">
         <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K7" t="s">
         <v>44</v>
@@ -12903,7 +13518,7 @@
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -12911,7 +13526,7 @@
         <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -12938,13 +13553,13 @@
         <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="L8">
         <v>-0.9</v>
       </c>
       <c r="M8" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -12961,19 +13576,55 @@
       <c r="A11" t="s">
         <v>105</v>
       </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11">
+        <v>4.3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E12" t="s">
         <v>42</v>
@@ -12982,16 +13633,16 @@
         <v>42</v>
       </c>
       <c r="G12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" t="s">
         <v>119</v>
       </c>
-      <c r="H12" t="s">
-        <v>118</v>
-      </c>
       <c r="I12" t="s">
         <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="K12" t="s">
         <v>74</v>
@@ -13000,18 +13651,18 @@
         <v>7.3</v>
       </c>
       <c r="M12" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
         <v>67</v>
@@ -13029,10 +13680,10 @@
         <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s">
         <v>87</v>
@@ -13041,18 +13692,18 @@
         <v>4.6</v>
       </c>
       <c r="M13" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
@@ -13076,18 +13727,18 @@
         <v>53</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L14">
         <v>-1.3</v>
       </c>
       <c r="M14" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
@@ -13114,7 +13765,7 @@
         <v>87</v>
       </c>
       <c r="J15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K15" t="s">
         <v>66</v>
@@ -13123,26 +13774,26 @@
         <v>7.2</v>
       </c>
       <c r="M15" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
         <v>67</v>
@@ -13160,7 +13811,7 @@
         <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" t="s">
         <v>104</v>
@@ -13169,15 +13820,15 @@
         <v>-0.8</v>
       </c>
       <c r="M17" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
         <v>67</v>
@@ -13189,7 +13840,7 @@
         <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
         <v>44</v>
@@ -13198,7 +13849,7 @@
         <v>54</v>
       </c>
       <c r="I18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J18" t="s">
         <v>53</v>
@@ -13210,17 +13861,17 @@
         <v>3.7</v>
       </c>
       <c r="M18" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
@@ -13232,13 +13883,13 @@
         <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F20" t="s">
         <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H20" t="s">
         <v>54</v>
@@ -13250,21 +13901,21 @@
         <v>53</v>
       </c>
       <c r="K20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L20">
         <v>-2.7</v>
       </c>
       <c r="M20" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
         <v>67</v>
@@ -13276,7 +13927,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G21" t="s">
         <v>87</v>
@@ -13285,7 +13936,7 @@
         <v>73</v>
       </c>
       <c r="I21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J21" t="s">
         <v>53</v>
@@ -13297,17 +13948,53 @@
         <v>-0.3</v>
       </c>
       <c r="M21" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>253</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s">
+        <v>218</v>
+      </c>
+      <c r="J22" t="s">
+        <v>226</v>
+      </c>
+      <c r="K22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22">
+        <v>11.9</v>
+      </c>
+      <c r="M22" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
         <v>104</v>
@@ -13316,19 +14003,19 @@
         <v>87</v>
       </c>
       <c r="D23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" t="s">
         <v>119</v>
       </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" t="s">
-        <v>118</v>
-      </c>
       <c r="H23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I23" t="s">
         <v>73</v>
@@ -13337,18 +14024,18 @@
         <v>67</v>
       </c>
       <c r="K23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L23">
         <v>4.2</v>
       </c>
       <c r="M23" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
         <v>103</v>
@@ -13369,10 +14056,10 @@
         <v>103</v>
       </c>
       <c r="H24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" t="s">
         <v>119</v>
-      </c>
-      <c r="I24" t="s">
-        <v>118</v>
       </c>
       <c r="J24" t="s">
         <v>54</v>
@@ -13384,17 +14071,17 @@
         <v>0.2</v>
       </c>
       <c r="M24" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
         <v>67</v>
@@ -13418,10 +14105,10 @@
         <v>54</v>
       </c>
       <c r="I26" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" t="s">
         <v>119</v>
-      </c>
-      <c r="J26" t="s">
-        <v>118</v>
       </c>
       <c r="K26" t="s">
         <v>73</v>
@@ -13430,33 +14117,33 @@
         <v>-2.8</v>
       </c>
       <c r="M26" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G27" t="s">
         <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I27" t="s">
         <v>88</v>
@@ -13465,37 +14152,73 @@
         <v>66</v>
       </c>
       <c r="K27" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="L27">
         <v>0.3</v>
       </c>
       <c r="M27" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>161</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" t="s">
+        <v>215</v>
+      </c>
+      <c r="I28" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28">
+        <v>4.7</v>
+      </c>
+      <c r="M28" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
         <v>73</v>
@@ -13522,17 +14245,53 @@
         <v>3.7</v>
       </c>
       <c r="M30" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>169</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" t="s">
+        <v>73</v>
+      </c>
+      <c r="J31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31">
+        <v>2.2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s">
         <v>44</v>
@@ -13556,24 +14315,24 @@
         <v>53</v>
       </c>
       <c r="I32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J32" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="K32" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="L32">
         <v>-3.3</v>
       </c>
       <c r="M32" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
@@ -13603,38 +14362,38 @@
         <v>73</v>
       </c>
       <c r="K33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L33">
         <v>6</v>
       </c>
       <c r="M33" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -13655,13 +14414,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -13758,10 +14517,19 @@
       <c r="A11" t="s">
         <v>105</v>
       </c>
+      <c r="B11">
+        <v>0.3431671477636953</v>
+      </c>
+      <c r="C11">
+        <v>0.0652046783625731</v>
+      </c>
+      <c r="D11">
+        <v>0.5735555555555556</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B12">
         <v>0.7663492063492063</v>
@@ -13775,7 +14543,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13">
         <v>0.643546776724134</v>
@@ -13789,7 +14557,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14">
         <v>0.4808080808080808</v>
@@ -13803,7 +14571,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15">
         <v>0.5508259856085942</v>
@@ -13817,12 +14585,12 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17">
         <v>0.396218487394958</v>
@@ -13836,7 +14604,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18">
         <v>0.1736111111111111</v>
@@ -13850,12 +14618,12 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20">
         <v>0.4095238095238096</v>
@@ -13869,7 +14637,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21">
         <v>0.6859010270774977</v>
@@ -13883,12 +14651,21 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="B22">
+        <v>0.5424747474747476</v>
+      </c>
+      <c r="C22">
+        <v>0.3583333333333333</v>
+      </c>
+      <c r="D22">
+        <v>0.6702515167031295</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B23">
         <v>0.2095238095238095</v>
@@ -13902,7 +14679,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B24">
         <v>0.6093137254901961</v>
@@ -13916,12 +14693,12 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B26">
         <v>0.5286195286195287</v>
@@ -13935,7 +14712,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B27">
         <v>0.4158040050370579</v>
@@ -13949,17 +14726,26 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>161</v>
+      </c>
+      <c r="B28">
+        <v>0.6245476745476746</v>
+      </c>
+      <c r="C28">
+        <v>0.2645021645021645</v>
+      </c>
+      <c r="D28">
+        <v>0.4797979797979798</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B30">
         <v>0.5411457911457911</v>
@@ -13973,12 +14759,21 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>169</v>
+      </c>
+      <c r="B31">
+        <v>0.466924066924067</v>
+      </c>
+      <c r="C31">
+        <v>0.3511695906432749</v>
+      </c>
+      <c r="D31">
+        <v>0.5249750249750249</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B32">
         <v>0.6107855107855109</v>
@@ -13992,7 +14787,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B33">
         <v>0.4871273291925465</v>
@@ -14006,27 +14801,27 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -14047,13 +14842,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -14150,10 +14945,19 @@
       <c r="A11" t="s">
         <v>105</v>
       </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>4.2</v>
+      </c>
+      <c r="D11">
+        <v>23.2</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B12">
         <v>-14</v>
@@ -14167,7 +14971,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13">
         <v>-8.800000000000001</v>
@@ -14181,7 +14985,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14">
         <v>-12.8</v>
@@ -14195,7 +14999,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15">
         <v>-10.8</v>
@@ -14209,12 +15013,12 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17">
         <v>-15.8</v>
@@ -14228,7 +15032,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18">
         <v>-10.8</v>
@@ -14242,12 +15046,12 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20">
         <v>-18.4</v>
@@ -14261,7 +15065,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21">
         <v>-14.8</v>
@@ -14275,12 +15079,21 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="B22">
+        <v>-11.2</v>
+      </c>
+      <c r="C22">
+        <v>3.1</v>
+      </c>
+      <c r="D22">
+        <v>44.8</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B23">
         <v>0.2</v>
@@ -14294,7 +15107,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B24">
         <v>-17.8</v>
@@ -14308,12 +15121,12 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B26">
         <v>-18.8</v>
@@ -14327,7 +15140,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B27">
         <v>-3.4</v>
@@ -14341,17 +15154,26 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>161</v>
+      </c>
+      <c r="B28">
+        <v>-12.8</v>
+      </c>
+      <c r="C28">
+        <v>1.9</v>
+      </c>
+      <c r="D28">
+        <v>27.8</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B30">
         <v>-8.800000000000001</v>
@@ -14365,12 +15187,21 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>169</v>
+      </c>
+      <c r="B31">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="C31">
+        <v>2.5</v>
+      </c>
+      <c r="D31">
+        <v>18.8</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B32">
         <v>-20.8</v>
@@ -14384,7 +15215,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B33">
         <v>-9.199999999999999</v>
@@ -14398,27 +15229,27 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4109" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4168" uniqueCount="260">
   <si>
     <t>ID</t>
   </si>
@@ -571,6 +571,12 @@
   </si>
   <si>
     <t>kiupel@msu.edu</t>
+  </si>
+  <si>
+    <t>struggles with lymphocytes and fibroblasts, especially in infiltrative tumors with lots of inflammation</t>
+  </si>
+  <si>
+    <t>I think identifying the percentage of neoplastic cells is of little diagnostic value, identifying neoplastic cells from non-neoplastic cells or identifying neoplastic cells in vessels would be very helpful, eg mammary inflammatory carcinoma or general lymphatic invasion in mammary/breast carcinomas</t>
   </si>
   <si>
     <t>mccowan@unimelb.edu.au</t>
@@ -4690,12 +4696,63 @@
         <v>41</v>
       </c>
       <c r="V37" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="W37" t="s">
+        <v>53</v>
+      </c>
+      <c r="X37" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B38" t="s">
         <v>49</v>
@@ -4736,13 +4793,13 @@
     </row>
     <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B39" t="s">
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D39" t="s">
         <v>72</v>
@@ -4820,70 +4877,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="R1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="S1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="T1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="U1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="V1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="W1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -4891,10 +4948,10 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
@@ -4915,16 +4972,16 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K2" t="s">
         <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N2" t="s">
         <v>78</v>
@@ -4933,19 +4990,19 @@
         <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="R2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="S2" t="s">
         <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="U2" t="s">
         <v>68</v>
@@ -4954,7 +5011,7 @@
         <v>-38.35</v>
       </c>
       <c r="W2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -5007,7 +5064,7 @@
         <v>67</v>
       </c>
       <c r="Q3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="R3" t="s">
         <v>120</v>
@@ -5025,7 +5082,7 @@
         <v>-3.8</v>
       </c>
       <c r="W3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -5057,7 +5114,7 @@
         <v>119</v>
       </c>
       <c r="J4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K4" t="s">
         <v>66</v>
@@ -5078,13 +5135,13 @@
         <v>120</v>
       </c>
       <c r="Q4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="R4" t="s">
         <v>53</v>
       </c>
       <c r="S4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="T4" t="s">
         <v>73</v>
@@ -5096,7 +5153,7 @@
         <v>-8.35</v>
       </c>
       <c r="W4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -5167,7 +5224,7 @@
         <v>0.7</v>
       </c>
       <c r="W5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -5175,19 +5232,19 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -5196,25 +5253,25 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J6" t="s">
         <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L6" t="s">
         <v>110</v>
       </c>
       <c r="M6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N6" t="s">
         <v>145</v>
       </c>
       <c r="O6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P6" t="s">
         <v>111</v>
@@ -5229,16 +5286,16 @@
         <v>73</v>
       </c>
       <c r="T6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="U6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="V6">
         <v>0.3</v>
       </c>
       <c r="W6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -5261,10 +5318,10 @@
         <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I7" t="s">
         <v>87</v>
@@ -5309,7 +5366,7 @@
         <v>-6.3</v>
       </c>
       <c r="W7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -5335,7 +5392,7 @@
         <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -5344,7 +5401,7 @@
         <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L8" t="s">
         <v>67</v>
@@ -5380,7 +5437,7 @@
         <v>0.65</v>
       </c>
       <c r="W8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -5391,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -5402,13 +5459,13 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -5462,7 +5519,7 @@
         <v>-16.75</v>
       </c>
       <c r="W10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -5485,7 +5542,7 @@
         <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
@@ -5533,7 +5590,7 @@
         <v>10.05</v>
       </c>
       <c r="W11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -5544,22 +5601,22 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D12" t="s">
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I12" t="s">
         <v>87</v>
@@ -5577,7 +5634,7 @@
         <v>57</v>
       </c>
       <c r="N12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O12" t="s">
         <v>142</v>
@@ -5586,7 +5643,7 @@
         <v>78</v>
       </c>
       <c r="Q12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R12" t="s">
         <v>111</v>
@@ -5598,13 +5655,13 @@
         <v>143</v>
       </c>
       <c r="U12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="V12">
         <v>-6.1</v>
       </c>
       <c r="W12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -5639,7 +5696,7 @@
         <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L13" t="s">
         <v>119</v>
@@ -5648,7 +5705,7 @@
         <v>103</v>
       </c>
       <c r="N13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O13" t="s">
         <v>103</v>
@@ -5675,7 +5732,7 @@
         <v>11.8</v>
       </c>
       <c r="W13" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -5686,7 +5743,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
         <v>104</v>
@@ -5740,13 +5797,13 @@
         <v>120</v>
       </c>
       <c r="U14" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="V14">
         <v>-11.9</v>
       </c>
       <c r="W14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -5763,13 +5820,13 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F15" t="s">
         <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H15" t="s">
         <v>54</v>
@@ -5790,7 +5847,7 @@
         <v>120</v>
       </c>
       <c r="N15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O15" t="s">
         <v>73</v>
@@ -5799,7 +5856,7 @@
         <v>74</v>
       </c>
       <c r="Q15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R15" t="s">
         <v>53</v>
@@ -5817,7 +5874,7 @@
         <v>-2.15</v>
       </c>
       <c r="W15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -5828,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -5845,7 +5902,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F17" t="s">
         <v>73</v>
@@ -5899,7 +5956,7 @@
         <v>-3.05</v>
       </c>
       <c r="W17" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -5970,7 +6027,7 @@
         <v>2.7</v>
       </c>
       <c r="W18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -5981,7 +6038,7 @@
         <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D19" t="s">
         <v>104</v>
@@ -5990,7 +6047,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
@@ -6041,7 +6098,7 @@
         <v>-1.05</v>
       </c>
       <c r="W19" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -6061,16 +6118,16 @@
         <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G20" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H20" t="s">
         <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J20" t="s">
         <v>120</v>
@@ -6082,7 +6139,7 @@
         <v>42</v>
       </c>
       <c r="M20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N20" t="s">
         <v>119</v>
@@ -6091,7 +6148,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q20" t="s">
         <v>114</v>
@@ -6100,7 +6157,7 @@
         <v>113</v>
       </c>
       <c r="S20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="T20" t="s">
         <v>53</v>
@@ -6112,7 +6169,7 @@
         <v>-2.55</v>
       </c>
       <c r="W20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -6183,7 +6240,7 @@
         <v>-0.05</v>
       </c>
       <c r="W21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -6197,25 +6254,25 @@
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E22" t="s">
         <v>146</v>
       </c>
       <c r="F22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H22" t="s">
         <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K22" t="s">
         <v>142</v>
@@ -6224,37 +6281,37 @@
         <v>144</v>
       </c>
       <c r="M22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N22" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O22" t="s">
         <v>74</v>
       </c>
       <c r="P22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="R22" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="S22" t="s">
         <v>77</v>
       </c>
       <c r="T22" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="U22" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="V22">
         <v>5.85</v>
       </c>
       <c r="W22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -6325,7 +6382,7 @@
         <v>6.95</v>
       </c>
       <c r="W23" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -6375,13 +6432,13 @@
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q24" t="s">
         <v>45</v>
       </c>
       <c r="R24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="S24" t="s">
         <v>120</v>
@@ -6396,7 +6453,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="W24" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -6467,7 +6524,7 @@
         <v>3.7</v>
       </c>
       <c r="W25" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -6538,7 +6595,7 @@
         <v>-6.05</v>
       </c>
       <c r="W26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -6585,7 +6642,7 @@
         <v>120</v>
       </c>
       <c r="O27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P27" t="s">
         <v>73</v>
@@ -6609,7 +6666,7 @@
         <v>-7.05</v>
       </c>
       <c r="W27" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -6653,7 +6710,7 @@
         <v>87</v>
       </c>
       <c r="N28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O28" t="s">
         <v>103</v>
@@ -6680,7 +6737,7 @@
         <v>6.95</v>
       </c>
       <c r="W28" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -6688,7 +6745,7 @@
         <v>164</v>
       </c>
       <c r="B29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C29" t="s">
         <v>114</v>
@@ -6751,7 +6808,7 @@
         <v>2.65</v>
       </c>
       <c r="W29" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -6822,7 +6879,7 @@
         <v>22.2</v>
       </c>
       <c r="W30" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -6854,7 +6911,7 @@
         <v>67</v>
       </c>
       <c r="J31" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K31" t="s">
         <v>104</v>
@@ -6887,13 +6944,13 @@
         <v>103</v>
       </c>
       <c r="U31" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V31">
         <v>2.95</v>
       </c>
       <c r="W31" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -6904,7 +6961,7 @@
         <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>
@@ -6934,19 +6991,19 @@
         <v>113</v>
       </c>
       <c r="M32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N32" t="s">
         <v>74</v>
       </c>
       <c r="O32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P32" t="s">
         <v>37</v>
       </c>
       <c r="Q32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="R32" t="s">
         <v>104</v>
@@ -6964,7 +7021,7 @@
         <v>-18.65</v>
       </c>
       <c r="W32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -6999,7 +7056,7 @@
         <v>104</v>
       </c>
       <c r="K33" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L33" t="s">
         <v>95</v>
@@ -7035,7 +7092,7 @@
         <v>3.7</v>
       </c>
       <c r="W33" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -7085,7 +7142,7 @@
         <v>73</v>
       </c>
       <c r="P34" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q34" t="s">
         <v>67</v>
@@ -7094,7 +7151,7 @@
         <v>103</v>
       </c>
       <c r="S34" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="T34" t="s">
         <v>104</v>
@@ -7106,7 +7163,7 @@
         <v>1.5</v>
       </c>
       <c r="W34" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -7117,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -7125,7 +7182,7 @@
         <v>182</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C36" t="s">
         <v>66</v>
@@ -7146,7 +7203,7 @@
         <v>66</v>
       </c>
       <c r="I36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J36" t="s">
         <v>104</v>
@@ -7173,10 +7230,10 @@
         <v>73</v>
       </c>
       <c r="R36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="S36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="T36" t="s">
         <v>88</v>
@@ -7188,12 +7245,12 @@
         <v>-14.05</v>
       </c>
       <c r="W36" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -7259,12 +7316,12 @@
         <v>-10.8</v>
       </c>
       <c r="W37" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -7279,7 +7336,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G38" t="s">
         <v>104</v>
@@ -7330,7 +7387,7 @@
         <v>8.1</v>
       </c>
       <c r="W38" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -7351,70 +7408,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="R1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="S1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="T1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="U1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="V1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="W1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -7443,7 +7500,7 @@
         <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J2" t="s">
         <v>114</v>
@@ -7455,10 +7512,10 @@
         <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O2" t="s">
         <v>67</v>
@@ -7470,7 +7527,7 @@
         <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S2" t="s">
         <v>73</v>
@@ -7485,7 +7542,7 @@
         <v>14.65</v>
       </c>
       <c r="W2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -7514,7 +7571,7 @@
         <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J3" t="s">
         <v>103</v>
@@ -7535,7 +7592,7 @@
         <v>96</v>
       </c>
       <c r="P3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q3" t="s">
         <v>42</v>
@@ -7556,7 +7613,7 @@
         <v>5.05</v>
       </c>
       <c r="W3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -7567,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -7578,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -7586,61 +7643,61 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" t="s">
+        <v>252</v>
+      </c>
+      <c r="H6" t="s">
         <v>249</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>250</v>
       </c>
-      <c r="H6" t="s">
-        <v>247</v>
-      </c>
-      <c r="I6" t="s">
-        <v>248</v>
-      </c>
       <c r="J6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L6" t="s">
         <v>89</v>
       </c>
       <c r="M6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N6" t="s">
         <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q6" t="s">
+        <v>251</v>
+      </c>
+      <c r="R6" t="s">
         <v>249</v>
-      </c>
-      <c r="R6" t="s">
-        <v>247</v>
       </c>
       <c r="S6" t="s">
         <v>142</v>
       </c>
       <c r="T6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="U6" t="s">
         <v>44</v>
@@ -7649,7 +7706,7 @@
         <v>1.6</v>
       </c>
       <c r="W6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -7666,7 +7723,7 @@
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -7675,13 +7732,13 @@
         <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I7" t="s">
         <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K7" t="s">
         <v>44</v>
@@ -7690,7 +7747,7 @@
         <v>95</v>
       </c>
       <c r="M7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N7" t="s">
         <v>54</v>
@@ -7720,7 +7777,7 @@
         <v>0.5</v>
       </c>
       <c r="W7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -7755,7 +7812,7 @@
         <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L8" t="s">
         <v>67</v>
@@ -7791,7 +7848,7 @@
         <v>1.15</v>
       </c>
       <c r="W8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -7802,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -7813,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -7824,10 +7881,10 @@
         <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E11" t="s">
         <v>79</v>
@@ -7872,7 +7929,7 @@
         <v>42</v>
       </c>
       <c r="S11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="T11" t="s">
         <v>73</v>
@@ -7884,7 +7941,7 @@
         <v>9.6</v>
       </c>
       <c r="W11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -7904,7 +7961,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
@@ -7925,10 +7982,10 @@
         <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N12" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O12" t="s">
         <v>42</v>
@@ -7946,7 +8003,7 @@
         <v>44</v>
       </c>
       <c r="T12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="U12" t="s">
         <v>74</v>
@@ -7955,7 +8012,7 @@
         <v>6</v>
       </c>
       <c r="W12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -7966,7 +8023,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -7975,7 +8032,7 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G13" t="s">
         <v>103</v>
@@ -7984,7 +8041,7 @@
         <v>120</v>
       </c>
       <c r="I13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J13" t="s">
         <v>120</v>
@@ -8014,7 +8071,7 @@
         <v>53</v>
       </c>
       <c r="S13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="T13" t="s">
         <v>119</v>
@@ -8026,7 +8083,7 @@
         <v>5.25</v>
       </c>
       <c r="W13" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -8097,7 +8154,7 @@
         <v>-1.3</v>
       </c>
       <c r="W14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -8168,7 +8225,7 @@
         <v>7.7</v>
       </c>
       <c r="W15" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -8179,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -8250,7 +8307,7 @@
         <v>-2.3</v>
       </c>
       <c r="W17" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -8321,7 +8378,7 @@
         <v>3.7</v>
       </c>
       <c r="W18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -8332,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -8361,7 +8418,7 @@
         <v>74</v>
       </c>
       <c r="I20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -8379,7 +8436,7 @@
         <v>104</v>
       </c>
       <c r="O20" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P20" t="s">
         <v>104</v>
@@ -8403,7 +8460,7 @@
         <v>-3.4</v>
       </c>
       <c r="W20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -8474,7 +8531,7 @@
         <v>-1.55</v>
       </c>
       <c r="W21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -8494,7 +8551,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G22" t="s">
         <v>77</v>
@@ -8503,10 +8560,10 @@
         <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s">
         <v>77</v>
@@ -8515,28 +8572,28 @@
         <v>40</v>
       </c>
       <c r="M22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N22" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P22" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q22" t="s">
         <v>78</v>
       </c>
       <c r="R22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="S22" t="s">
         <v>66</v>
       </c>
       <c r="T22" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="U22" t="s">
         <v>145</v>
@@ -8545,7 +8602,7 @@
         <v>11.3</v>
       </c>
       <c r="W22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -8616,7 +8673,7 @@
         <v>2.45</v>
       </c>
       <c r="W23" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -8687,7 +8744,7 @@
         <v>-0.3</v>
       </c>
       <c r="W24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -8698,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -8754,13 +8811,13 @@
         <v>120</v>
       </c>
       <c r="R26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="S26" t="s">
         <v>120</v>
       </c>
       <c r="T26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="U26" t="s">
         <v>54</v>
@@ -8769,7 +8826,7 @@
         <v>-2.55</v>
       </c>
       <c r="W26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -8780,7 +8837,7 @@
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D27" t="s">
         <v>119</v>
@@ -8795,7 +8852,7 @@
         <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I27" t="s">
         <v>88</v>
@@ -8804,7 +8861,7 @@
         <v>66</v>
       </c>
       <c r="K27" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s">
         <v>95</v>
@@ -8822,7 +8879,7 @@
         <v>119</v>
       </c>
       <c r="Q27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="R27" t="s">
         <v>66</v>
@@ -8840,7 +8897,7 @@
         <v>3.4</v>
       </c>
       <c r="W27" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -8896,7 +8953,7 @@
         <v>120</v>
       </c>
       <c r="R28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="S28" t="s">
         <v>54</v>
@@ -8911,7 +8968,7 @@
         <v>4.9</v>
       </c>
       <c r="W28" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -8922,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -8993,7 +9050,7 @@
         <v>5.45</v>
       </c>
       <c r="W30" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -9013,7 +9070,7 @@
         <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G31" t="s">
         <v>53</v>
@@ -9064,7 +9121,7 @@
         <v>2.95</v>
       </c>
       <c r="W31" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -9126,16 +9183,16 @@
         <v>113</v>
       </c>
       <c r="T32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="U32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V32">
         <v>-1.55</v>
       </c>
       <c r="W32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -9206,7 +9263,7 @@
         <v>4.35</v>
       </c>
       <c r="W33" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -9217,7 +9274,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -9228,40 +9285,100 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
         <v>182</v>
       </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" t="s">
+        <v>103</v>
+      </c>
+      <c r="K36" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" t="s">
+        <v>119</v>
+      </c>
+      <c r="M36" t="s">
+        <v>88</v>
+      </c>
+      <c r="N36" t="s">
+        <v>73</v>
+      </c>
+      <c r="O36" t="s">
+        <v>54</v>
+      </c>
+      <c r="P36" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>73</v>
+      </c>
+      <c r="R36" t="s">
+        <v>119</v>
+      </c>
+      <c r="S36" t="s">
+        <v>104</v>
+      </c>
+      <c r="T36" t="s">
+        <v>120</v>
+      </c>
+      <c r="U36" t="s">
+        <v>45</v>
+      </c>
       <c r="V36">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="W36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="V37">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="V38">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -9282,40 +9399,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -9323,16 +9440,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -9356,7 +9473,7 @@
         <v>-43.3</v>
       </c>
       <c r="M2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -9397,7 +9514,7 @@
         <v>2.7</v>
       </c>
       <c r="M3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9420,13 +9537,13 @@
         <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H4" t="s">
         <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J4" t="s">
         <v>73</v>
@@ -9438,7 +9555,7 @@
         <v>-15.8</v>
       </c>
       <c r="M4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -9479,7 +9596,7 @@
         <v>-2.3</v>
       </c>
       <c r="M5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -9487,19 +9604,19 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -9508,19 +9625,19 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J6" t="s">
         <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L6">
         <v>-2.9</v>
       </c>
       <c r="M6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -9561,7 +9678,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="M7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -9602,7 +9719,7 @@
         <v>3.7</v>
       </c>
       <c r="M8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -9648,7 +9765,7 @@
         <v>-14.7</v>
       </c>
       <c r="M10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -9689,7 +9806,7 @@
         <v>12.5</v>
       </c>
       <c r="M11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -9700,22 +9817,22 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D12" t="s">
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I12" t="s">
         <v>87</v>
@@ -9730,7 +9847,7 @@
         <v>-7.3</v>
       </c>
       <c r="M12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -9765,13 +9882,13 @@
         <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L13">
         <v>23.6</v>
       </c>
       <c r="M13" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -9806,13 +9923,13 @@
         <v>120</v>
       </c>
       <c r="K14" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L14">
         <v>-6</v>
       </c>
       <c r="M14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -9826,7 +9943,7 @@
         <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E15" t="s">
         <v>73</v>
@@ -9835,7 +9952,7 @@
         <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H15" t="s">
         <v>53</v>
@@ -9853,7 +9970,7 @@
         <v>-2.9</v>
       </c>
       <c r="M15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -9875,7 +9992,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F17" t="s">
         <v>73</v>
@@ -9899,7 +10016,7 @@
         <v>-2.3</v>
       </c>
       <c r="M17" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -9940,7 +10057,7 @@
         <v>2.2</v>
       </c>
       <c r="M18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -9981,7 +10098,7 @@
         <v>-0.3</v>
       </c>
       <c r="M19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -10001,16 +10118,16 @@
         <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G20" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H20" t="s">
         <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J20" t="s">
         <v>120</v>
@@ -10022,7 +10139,7 @@
         <v>-3</v>
       </c>
       <c r="M20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -10063,7 +10180,7 @@
         <v>-4.8</v>
       </c>
       <c r="M21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -10074,37 +10191,37 @@
         <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D22" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E22" t="s">
         <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H22" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I22" t="s">
         <v>77</v>
       </c>
       <c r="J22" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K22" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L22">
         <v>6.4</v>
       </c>
       <c r="M22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -10145,7 +10262,7 @@
         <v>3.2</v>
       </c>
       <c r="M23" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -10186,7 +10303,7 @@
         <v>-6.8</v>
       </c>
       <c r="M24" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -10227,7 +10344,7 @@
         <v>5.2</v>
       </c>
       <c r="M25" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -10268,7 +10385,7 @@
         <v>-7.3</v>
       </c>
       <c r="M26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -10285,7 +10402,7 @@
         <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F27" t="s">
         <v>73</v>
@@ -10309,7 +10426,7 @@
         <v>-2.8</v>
       </c>
       <c r="M27" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -10350,7 +10467,7 @@
         <v>6.7</v>
       </c>
       <c r="M28" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -10358,7 +10475,7 @@
         <v>164</v>
       </c>
       <c r="B29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C29" t="s">
         <v>114</v>
@@ -10391,7 +10508,7 @@
         <v>4.1</v>
       </c>
       <c r="M29" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -10432,7 +10549,7 @@
         <v>17.2</v>
       </c>
       <c r="M30" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -10467,13 +10584,13 @@
         <v>103</v>
       </c>
       <c r="K31" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L31">
         <v>-5.3</v>
       </c>
       <c r="M31" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -10484,7 +10601,7 @@
         <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>
@@ -10514,7 +10631,7 @@
         <v>-16.3</v>
       </c>
       <c r="M32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -10549,13 +10666,13 @@
         <v>104</v>
       </c>
       <c r="K33" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L33">
         <v>3.2</v>
       </c>
       <c r="M33" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -10575,7 +10692,7 @@
         <v>73</v>
       </c>
       <c r="F34" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G34" t="s">
         <v>67</v>
@@ -10584,7 +10701,7 @@
         <v>103</v>
       </c>
       <c r="I34" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J34" t="s">
         <v>104</v>
@@ -10596,7 +10713,7 @@
         <v>0.8</v>
       </c>
       <c r="M34" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -10609,7 +10726,7 @@
         <v>182</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C36" t="s">
         <v>66</v>
@@ -10630,7 +10747,7 @@
         <v>66</v>
       </c>
       <c r="I36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J36" t="s">
         <v>104</v>
@@ -10642,12 +10759,12 @@
         <v>-14.8</v>
       </c>
       <c r="M36" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -10683,12 +10800,12 @@
         <v>-11.8</v>
       </c>
       <c r="M37" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
@@ -10724,7 +10841,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M38" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -10745,40 +10862,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -10795,22 +10912,22 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I2" t="s">
         <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K2" t="s">
         <v>78</v>
@@ -10819,7 +10936,7 @@
         <v>-33.4</v>
       </c>
       <c r="M2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -10842,7 +10959,7 @@
         <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H3" t="s">
         <v>120</v>
@@ -10860,7 +10977,7 @@
         <v>-10.3</v>
       </c>
       <c r="M3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -10892,7 +11009,7 @@
         <v>119</v>
       </c>
       <c r="J4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K4" t="s">
         <v>66</v>
@@ -10901,7 +11018,7 @@
         <v>-0.9</v>
       </c>
       <c r="M4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -10942,7 +11059,7 @@
         <v>3.7</v>
       </c>
       <c r="M5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -10953,13 +11070,13 @@
         <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
         <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F6" t="s">
         <v>111</v>
@@ -10974,16 +11091,16 @@
         <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L6">
         <v>3.5</v>
       </c>
       <c r="M6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -11006,10 +11123,10 @@
         <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I7" t="s">
         <v>87</v>
@@ -11024,7 +11141,7 @@
         <v>-3.3</v>
       </c>
       <c r="M7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -11050,7 +11167,7 @@
         <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -11059,13 +11176,13 @@
         <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L8">
         <v>-2.4</v>
       </c>
       <c r="M8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -11081,13 +11198,13 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -11111,7 +11228,7 @@
         <v>-18.8</v>
       </c>
       <c r="M10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -11134,7 +11251,7 @@
         <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
@@ -11152,7 +11269,7 @@
         <v>7.6</v>
       </c>
       <c r="M11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -11166,7 +11283,7 @@
         <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E12" t="s">
         <v>142</v>
@@ -11175,7 +11292,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H12" t="s">
         <v>111</v>
@@ -11187,13 +11304,13 @@
         <v>143</v>
       </c>
       <c r="K12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L12">
         <v>-4.9</v>
       </c>
       <c r="M12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -11207,7 +11324,7 @@
         <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E13" t="s">
         <v>103</v>
@@ -11234,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -11245,7 +11362,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
         <v>104</v>
@@ -11275,7 +11392,7 @@
         <v>-17.8</v>
       </c>
       <c r="M14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -11292,13 +11409,13 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F15" t="s">
         <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H15" t="s">
         <v>54</v>
@@ -11316,7 +11433,7 @@
         <v>-1.4</v>
       </c>
       <c r="M15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -11362,7 +11479,7 @@
         <v>-3.8</v>
       </c>
       <c r="M17" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -11403,7 +11520,7 @@
         <v>3.2</v>
       </c>
       <c r="M18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -11414,7 +11531,7 @@
         <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D19" t="s">
         <v>104</v>
@@ -11423,7 +11540,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
@@ -11444,7 +11561,7 @@
         <v>-1.8</v>
       </c>
       <c r="M19" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -11455,7 +11572,7 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D20" t="s">
         <v>119</v>
@@ -11464,7 +11581,7 @@
         <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G20" t="s">
         <v>114</v>
@@ -11473,7 +11590,7 @@
         <v>113</v>
       </c>
       <c r="I20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -11485,7 +11602,7 @@
         <v>-2.1</v>
       </c>
       <c r="M20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -11526,7 +11643,7 @@
         <v>4.7</v>
       </c>
       <c r="M21" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -11540,25 +11657,25 @@
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E22" t="s">
         <v>146</v>
       </c>
       <c r="F22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H22" t="s">
         <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K22" t="s">
         <v>142</v>
@@ -11567,7 +11684,7 @@
         <v>5.3</v>
       </c>
       <c r="M22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -11608,7 +11725,7 @@
         <v>10.7</v>
       </c>
       <c r="M23" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -11628,13 +11745,13 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I24" t="s">
         <v>120</v>
@@ -11649,7 +11766,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="M24" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -11690,7 +11807,7 @@
         <v>2.2</v>
       </c>
       <c r="M25" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -11731,7 +11848,7 @@
         <v>-4.8</v>
       </c>
       <c r="M26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -11772,7 +11889,7 @@
         <v>-11.3</v>
       </c>
       <c r="M27" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -11786,7 +11903,7 @@
         <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E28" t="s">
         <v>103</v>
@@ -11813,7 +11930,7 @@
         <v>7.2</v>
       </c>
       <c r="M28" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -11854,7 +11971,7 @@
         <v>1.2</v>
       </c>
       <c r="M29" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -11895,7 +12012,7 @@
         <v>27.2</v>
       </c>
       <c r="M30" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -11927,7 +12044,7 @@
         <v>67</v>
       </c>
       <c r="J31" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K31" t="s">
         <v>104</v>
@@ -11936,7 +12053,7 @@
         <v>11.2</v>
       </c>
       <c r="M31" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -11947,19 +12064,19 @@
         <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D32" t="s">
         <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F32" t="s">
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H32" t="s">
         <v>104</v>
@@ -11977,7 +12094,7 @@
         <v>-21</v>
       </c>
       <c r="M32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -12018,7 +12135,7 @@
         <v>4.2</v>
       </c>
       <c r="M33" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -12059,7 +12176,7 @@
         <v>2.2</v>
       </c>
       <c r="M34" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -12090,10 +12207,10 @@
         <v>73</v>
       </c>
       <c r="H36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J36" t="s">
         <v>88</v>
@@ -12105,12 +12222,12 @@
         <v>-13.3</v>
       </c>
       <c r="M36" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B37" t="s">
         <v>104</v>
@@ -12146,12 +12263,12 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="M37" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -12166,7 +12283,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G38" t="s">
         <v>104</v>
@@ -12187,7 +12304,7 @@
         <v>6.5</v>
       </c>
       <c r="M38" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -12208,40 +12325,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -12270,19 +12387,19 @@
         <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J2" t="s">
         <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L2">
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -12311,7 +12428,7 @@
         <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J3" t="s">
         <v>103</v>
@@ -12323,7 +12440,7 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -12341,40 +12458,40 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" t="s">
+        <v>252</v>
+      </c>
+      <c r="H6" t="s">
         <v>249</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>250</v>
       </c>
-      <c r="H6" t="s">
-        <v>247</v>
-      </c>
-      <c r="I6" t="s">
-        <v>248</v>
-      </c>
       <c r="J6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L6">
         <v>4.1</v>
       </c>
       <c r="M6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -12385,7 +12502,7 @@
         <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
@@ -12415,7 +12532,7 @@
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -12456,7 +12573,7 @@
         <v>3.2</v>
       </c>
       <c r="M8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -12495,7 +12612,7 @@
         <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J11" t="s">
         <v>73</v>
@@ -12507,7 +12624,7 @@
         <v>14.9</v>
       </c>
       <c r="M11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -12527,7 +12644,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
@@ -12548,7 +12665,7 @@
         <v>4.7</v>
       </c>
       <c r="M12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -12559,7 +12676,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -12568,7 +12685,7 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G13" t="s">
         <v>103</v>
@@ -12577,7 +12694,7 @@
         <v>120</v>
       </c>
       <c r="I13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J13" t="s">
         <v>120</v>
@@ -12589,7 +12706,7 @@
         <v>5.9</v>
       </c>
       <c r="M13" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -12630,7 +12747,7 @@
         <v>-1.3</v>
       </c>
       <c r="M14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -12671,7 +12788,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="M15" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -12717,7 +12834,7 @@
         <v>-3.8</v>
       </c>
       <c r="M17" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -12758,7 +12875,7 @@
         <v>3.7</v>
       </c>
       <c r="M18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -12792,7 +12909,7 @@
         <v>74</v>
       </c>
       <c r="I20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -12804,7 +12921,7 @@
         <v>-4.1</v>
       </c>
       <c r="M20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -12845,7 +12962,7 @@
         <v>-2.8</v>
       </c>
       <c r="M21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -12856,28 +12973,28 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D22" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
         <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I22" t="s">
         <v>66</v>
       </c>
       <c r="J22" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K22" t="s">
         <v>145</v>
@@ -12886,7 +13003,7 @@
         <v>10.7</v>
       </c>
       <c r="M22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -12927,7 +13044,7 @@
         <v>0.7</v>
       </c>
       <c r="M23" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -12968,7 +13085,7 @@
         <v>-0.8</v>
       </c>
       <c r="M24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -12999,13 +13116,13 @@
         <v>120</v>
       </c>
       <c r="H26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I26" t="s">
         <v>120</v>
       </c>
       <c r="J26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K26" t="s">
         <v>54</v>
@@ -13014,7 +13131,7 @@
         <v>-2.3</v>
       </c>
       <c r="M26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -13037,7 +13154,7 @@
         <v>119</v>
       </c>
       <c r="G27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H27" t="s">
         <v>66</v>
@@ -13055,7 +13172,7 @@
         <v>6.5</v>
       </c>
       <c r="M27" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -13096,7 +13213,7 @@
         <v>5.1</v>
       </c>
       <c r="M28" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -13142,7 +13259,7 @@
         <v>7.2</v>
       </c>
       <c r="M30" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -13183,7 +13300,7 @@
         <v>3.7</v>
       </c>
       <c r="M31" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -13224,7 +13341,7 @@
         <v>0.2</v>
       </c>
       <c r="M32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -13265,7 +13382,7 @@
         <v>2.7</v>
       </c>
       <c r="M33" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -13282,15 +13399,51 @@
       <c r="A36" t="s">
         <v>182</v>
       </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" t="s">
+        <v>103</v>
+      </c>
+      <c r="K36" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36">
+        <v>-1.8</v>
+      </c>
+      <c r="M36" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -13311,40 +13464,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -13361,13 +13514,13 @@
         <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
@@ -13385,7 +13538,7 @@
         <v>23.3</v>
       </c>
       <c r="M2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -13405,7 +13558,7 @@
         <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
@@ -13426,7 +13579,7 @@
         <v>4.6</v>
       </c>
       <c r="M3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -13447,28 +13600,28 @@
         <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G6" t="s">
+        <v>251</v>
+      </c>
+      <c r="H6" t="s">
         <v>249</v>
-      </c>
-      <c r="H6" t="s">
-        <v>247</v>
       </c>
       <c r="I6" t="s">
         <v>142</v>
       </c>
       <c r="J6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K6" t="s">
         <v>44</v>
@@ -13477,7 +13630,7 @@
         <v>-0.9</v>
       </c>
       <c r="M6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -13494,7 +13647,7 @@
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -13503,13 +13656,13 @@
         <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I7" t="s">
         <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K7" t="s">
         <v>44</v>
@@ -13518,7 +13671,7 @@
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -13553,13 +13706,13 @@
         <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L8">
         <v>-0.9</v>
       </c>
       <c r="M8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -13580,10 +13733,10 @@
         <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E11" t="s">
         <v>79</v>
@@ -13610,7 +13763,7 @@
         <v>4.3</v>
       </c>
       <c r="M11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -13621,10 +13774,10 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D12" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E12" t="s">
         <v>42</v>
@@ -13642,7 +13795,7 @@
         <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K12" t="s">
         <v>74</v>
@@ -13651,7 +13804,7 @@
         <v>7.3</v>
       </c>
       <c r="M12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -13680,7 +13833,7 @@
         <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J13" t="s">
         <v>119</v>
@@ -13692,7 +13845,7 @@
         <v>4.6</v>
       </c>
       <c r="M13" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -13733,7 +13886,7 @@
         <v>-1.3</v>
       </c>
       <c r="M14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -13774,7 +13927,7 @@
         <v>7.2</v>
       </c>
       <c r="M15" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -13820,7 +13973,7 @@
         <v>-0.8</v>
       </c>
       <c r="M17" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -13861,7 +14014,7 @@
         <v>3.7</v>
       </c>
       <c r="M18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -13883,7 +14036,7 @@
         <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F20" t="s">
         <v>104</v>
@@ -13907,7 +14060,7 @@
         <v>-2.7</v>
       </c>
       <c r="M20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -13948,7 +14101,7 @@
         <v>-0.3</v>
       </c>
       <c r="M21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -13968,7 +14121,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G22" t="s">
         <v>77</v>
@@ -13977,10 +14130,10 @@
         <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s">
         <v>77</v>
@@ -13989,7 +14142,7 @@
         <v>11.9</v>
       </c>
       <c r="M22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -14030,7 +14183,7 @@
         <v>4.2</v>
       </c>
       <c r="M23" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -14071,7 +14224,7 @@
         <v>0.2</v>
       </c>
       <c r="M24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -14117,7 +14270,7 @@
         <v>-2.8</v>
       </c>
       <c r="M26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -14128,7 +14281,7 @@
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D27" t="s">
         <v>119</v>
@@ -14143,7 +14296,7 @@
         <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I27" t="s">
         <v>88</v>
@@ -14152,13 +14305,13 @@
         <v>66</v>
       </c>
       <c r="K27" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L27">
         <v>0.3</v>
       </c>
       <c r="M27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -14184,7 +14337,7 @@
         <v>120</v>
       </c>
       <c r="H28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I28" t="s">
         <v>54</v>
@@ -14199,7 +14352,7 @@
         <v>4.7</v>
       </c>
       <c r="M28" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -14245,7 +14398,7 @@
         <v>3.7</v>
       </c>
       <c r="M30" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -14265,7 +14418,7 @@
         <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G31" t="s">
         <v>53</v>
@@ -14286,7 +14439,7 @@
         <v>2.2</v>
       </c>
       <c r="M31" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -14318,16 +14471,16 @@
         <v>113</v>
       </c>
       <c r="J32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L32">
         <v>-3.3</v>
       </c>
       <c r="M32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -14368,7 +14521,7 @@
         <v>6</v>
       </c>
       <c r="M33" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -14385,15 +14538,51 @@
       <c r="A36" t="s">
         <v>182</v>
       </c>
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" t="s">
+        <v>104</v>
+      </c>
+      <c r="J36" t="s">
+        <v>120</v>
+      </c>
+      <c r="K36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L36">
+        <v>-1.8</v>
+      </c>
+      <c r="M36" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -14414,13 +14603,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -14813,15 +15002,24 @@
       <c r="A36" t="s">
         <v>182</v>
       </c>
+      <c r="B36">
+        <v>0.29410972469796</v>
+      </c>
+      <c r="C36">
+        <v>0.2748917748917749</v>
+      </c>
+      <c r="D36">
+        <v>0.4882575757575758</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -14842,13 +15040,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -15241,15 +15439,24 @@
       <c r="A36" t="s">
         <v>182</v>
       </c>
+      <c r="B36">
+        <v>-7.8</v>
+      </c>
+      <c r="C36">
+        <v>-3.5</v>
+      </c>
+      <c r="D36">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4168" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4227" uniqueCount="262">
   <si>
     <t>ID</t>
   </si>
@@ -586,6 +586,12 @@
   </si>
   <si>
     <t>11,12,10,13,19,14,18,15,17,16,21,22,20,23,29,24,28,25,27,26</t>
+  </si>
+  <si>
+    <t>This is my first time using something like this</t>
+  </si>
+  <si>
+    <t>AI tool needs to get better recognizing individual tumor cell nuclei when tumor cell density is high. It seemed that in some slides AI tool mixed up tumor cells with lymphocytes.</t>
   </si>
   <si>
     <t>slide1</t>
@@ -4856,7 +4862,58 @@
         <v>36</v>
       </c>
       <c r="V39" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="W39" t="s">
+        <v>53</v>
+      </c>
+      <c r="X39" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4877,70 +4934,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="R1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="S1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="T1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="U1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="V1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="W1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -4948,10 +5005,10 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
@@ -4972,16 +5029,16 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N2" t="s">
         <v>78</v>
@@ -4990,28 +5047,28 @@
         <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="R2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="S2" t="s">
         <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="U2" t="s">
         <v>68</v>
       </c>
       <c r="V2">
-        <v>-38.35</v>
+        <v>-35.45</v>
       </c>
       <c r="W2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -5064,7 +5121,7 @@
         <v>67</v>
       </c>
       <c r="Q3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="R3" t="s">
         <v>120</v>
@@ -5082,7 +5139,7 @@
         <v>-3.8</v>
       </c>
       <c r="W3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -5114,7 +5171,7 @@
         <v>119</v>
       </c>
       <c r="J4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K4" t="s">
         <v>66</v>
@@ -5135,13 +5192,13 @@
         <v>120</v>
       </c>
       <c r="Q4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="R4" t="s">
         <v>53</v>
       </c>
       <c r="S4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="T4" t="s">
         <v>73</v>
@@ -5153,7 +5210,7 @@
         <v>-8.35</v>
       </c>
       <c r="W4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -5224,7 +5281,7 @@
         <v>0.7</v>
       </c>
       <c r="W5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -5232,19 +5289,19 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -5253,25 +5310,25 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J6" t="s">
         <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L6" t="s">
         <v>110</v>
       </c>
       <c r="M6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N6" t="s">
         <v>145</v>
       </c>
       <c r="O6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P6" t="s">
         <v>111</v>
@@ -5286,16 +5343,16 @@
         <v>73</v>
       </c>
       <c r="T6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="V6">
         <v>0.3</v>
       </c>
       <c r="W6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -5318,10 +5375,10 @@
         <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I7" t="s">
         <v>87</v>
@@ -5366,7 +5423,7 @@
         <v>-6.3</v>
       </c>
       <c r="W7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -5392,7 +5449,7 @@
         <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -5401,7 +5458,7 @@
         <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L8" t="s">
         <v>67</v>
@@ -5437,7 +5494,7 @@
         <v>0.65</v>
       </c>
       <c r="W8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -5448,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -5459,13 +5516,13 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -5519,7 +5576,7 @@
         <v>-16.75</v>
       </c>
       <c r="W10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -5542,7 +5599,7 @@
         <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
@@ -5590,7 +5647,7 @@
         <v>10.05</v>
       </c>
       <c r="W11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -5601,22 +5658,22 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D12" t="s">
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I12" t="s">
         <v>87</v>
@@ -5634,7 +5691,7 @@
         <v>57</v>
       </c>
       <c r="N12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O12" t="s">
         <v>142</v>
@@ -5643,7 +5700,7 @@
         <v>78</v>
       </c>
       <c r="Q12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="R12" t="s">
         <v>111</v>
@@ -5655,13 +5712,13 @@
         <v>143</v>
       </c>
       <c r="U12" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="V12">
         <v>-6.1</v>
       </c>
       <c r="W12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -5696,7 +5753,7 @@
         <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L13" t="s">
         <v>119</v>
@@ -5705,7 +5762,7 @@
         <v>103</v>
       </c>
       <c r="N13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O13" t="s">
         <v>103</v>
@@ -5732,7 +5789,7 @@
         <v>11.8</v>
       </c>
       <c r="W13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -5743,7 +5800,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
         <v>104</v>
@@ -5797,13 +5854,13 @@
         <v>120</v>
       </c>
       <c r="U14" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="V14">
         <v>-11.9</v>
       </c>
       <c r="W14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -5820,13 +5877,13 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F15" t="s">
         <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H15" t="s">
         <v>54</v>
@@ -5847,7 +5904,7 @@
         <v>120</v>
       </c>
       <c r="N15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O15" t="s">
         <v>73</v>
@@ -5856,7 +5913,7 @@
         <v>74</v>
       </c>
       <c r="Q15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R15" t="s">
         <v>53</v>
@@ -5874,7 +5931,7 @@
         <v>-2.15</v>
       </c>
       <c r="W15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -5885,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -5902,7 +5959,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F17" t="s">
         <v>73</v>
@@ -5956,7 +6013,7 @@
         <v>-3.05</v>
       </c>
       <c r="W17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -6027,7 +6084,7 @@
         <v>2.7</v>
       </c>
       <c r="W18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -6038,7 +6095,7 @@
         <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D19" t="s">
         <v>104</v>
@@ -6047,7 +6104,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
@@ -6098,7 +6155,7 @@
         <v>-1.05</v>
       </c>
       <c r="W19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -6118,16 +6175,16 @@
         <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G20" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H20" t="s">
         <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J20" t="s">
         <v>120</v>
@@ -6139,7 +6196,7 @@
         <v>42</v>
       </c>
       <c r="M20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N20" t="s">
         <v>119</v>
@@ -6148,7 +6205,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q20" t="s">
         <v>114</v>
@@ -6157,7 +6214,7 @@
         <v>113</v>
       </c>
       <c r="S20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="T20" t="s">
         <v>53</v>
@@ -6169,7 +6226,7 @@
         <v>-2.55</v>
       </c>
       <c r="W20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -6240,7 +6297,7 @@
         <v>-0.05</v>
       </c>
       <c r="W21" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -6254,25 +6311,25 @@
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E22" t="s">
         <v>146</v>
       </c>
       <c r="F22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H22" t="s">
         <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K22" t="s">
         <v>142</v>
@@ -6281,37 +6338,37 @@
         <v>144</v>
       </c>
       <c r="M22" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O22" t="s">
         <v>74</v>
       </c>
       <c r="P22" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q22" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="R22" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="S22" t="s">
         <v>77</v>
       </c>
       <c r="T22" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="U22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="V22">
         <v>5.85</v>
       </c>
       <c r="W22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -6382,7 +6439,7 @@
         <v>6.95</v>
       </c>
       <c r="W23" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -6432,13 +6489,13 @@
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q24" t="s">
         <v>45</v>
       </c>
       <c r="R24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="S24" t="s">
         <v>120</v>
@@ -6453,7 +6510,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="W24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -6524,7 +6581,7 @@
         <v>3.7</v>
       </c>
       <c r="W25" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -6595,7 +6652,7 @@
         <v>-6.05</v>
       </c>
       <c r="W26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -6642,7 +6699,7 @@
         <v>120</v>
       </c>
       <c r="O27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P27" t="s">
         <v>73</v>
@@ -6666,7 +6723,7 @@
         <v>-7.05</v>
       </c>
       <c r="W27" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -6710,7 +6767,7 @@
         <v>87</v>
       </c>
       <c r="N28" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O28" t="s">
         <v>103</v>
@@ -6737,7 +6794,7 @@
         <v>6.95</v>
       </c>
       <c r="W28" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -6745,7 +6802,7 @@
         <v>164</v>
       </c>
       <c r="B29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C29" t="s">
         <v>114</v>
@@ -6808,7 +6865,7 @@
         <v>2.65</v>
       </c>
       <c r="W29" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -6879,7 +6936,7 @@
         <v>22.2</v>
       </c>
       <c r="W30" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -6911,7 +6968,7 @@
         <v>67</v>
       </c>
       <c r="J31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K31" t="s">
         <v>104</v>
@@ -6944,13 +7001,13 @@
         <v>103</v>
       </c>
       <c r="U31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="V31">
         <v>2.95</v>
       </c>
       <c r="W31" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -6961,7 +7018,7 @@
         <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>
@@ -6991,19 +7048,19 @@
         <v>113</v>
       </c>
       <c r="M32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N32" t="s">
         <v>74</v>
       </c>
       <c r="O32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P32" t="s">
         <v>37</v>
       </c>
       <c r="Q32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="R32" t="s">
         <v>104</v>
@@ -7021,7 +7078,7 @@
         <v>-18.65</v>
       </c>
       <c r="W32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -7056,7 +7113,7 @@
         <v>104</v>
       </c>
       <c r="K33" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L33" t="s">
         <v>95</v>
@@ -7092,7 +7149,7 @@
         <v>3.7</v>
       </c>
       <c r="W33" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -7142,7 +7199,7 @@
         <v>73</v>
       </c>
       <c r="P34" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q34" t="s">
         <v>67</v>
@@ -7151,7 +7208,7 @@
         <v>103</v>
       </c>
       <c r="S34" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="T34" t="s">
         <v>104</v>
@@ -7163,7 +7220,7 @@
         <v>1.5</v>
       </c>
       <c r="W34" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -7174,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -7182,7 +7239,7 @@
         <v>182</v>
       </c>
       <c r="B36" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C36" t="s">
         <v>66</v>
@@ -7203,7 +7260,7 @@
         <v>66</v>
       </c>
       <c r="I36" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J36" t="s">
         <v>104</v>
@@ -7230,10 +7287,10 @@
         <v>73</v>
       </c>
       <c r="R36" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="S36" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="T36" t="s">
         <v>88</v>
@@ -7245,7 +7302,7 @@
         <v>-14.05</v>
       </c>
       <c r="W36" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -7316,7 +7373,7 @@
         <v>-10.8</v>
       </c>
       <c r="W37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -7336,7 +7393,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G38" t="s">
         <v>104</v>
@@ -7387,7 +7444,7 @@
         <v>8.1</v>
       </c>
       <c r="W38" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -7408,70 +7465,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="R1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="S1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="T1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="U1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="V1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="W1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -7500,7 +7557,7 @@
         <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J2" t="s">
         <v>114</v>
@@ -7512,10 +7569,10 @@
         <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O2" t="s">
         <v>67</v>
@@ -7527,7 +7584,7 @@
         <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="S2" t="s">
         <v>73</v>
@@ -7542,7 +7599,7 @@
         <v>14.65</v>
       </c>
       <c r="W2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -7571,7 +7628,7 @@
         <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J3" t="s">
         <v>103</v>
@@ -7592,7 +7649,7 @@
         <v>96</v>
       </c>
       <c r="P3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q3" t="s">
         <v>42</v>
@@ -7613,7 +7670,7 @@
         <v>5.05</v>
       </c>
       <c r="W3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -7624,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -7635,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -7643,61 +7700,61 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H6" t="s">
         <v>251</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>252</v>
       </c>
-      <c r="H6" t="s">
-        <v>249</v>
-      </c>
-      <c r="I6" t="s">
-        <v>250</v>
-      </c>
       <c r="J6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L6" t="s">
         <v>89</v>
       </c>
       <c r="M6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N6" t="s">
         <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q6" t="s">
+        <v>253</v>
+      </c>
+      <c r="R6" t="s">
         <v>251</v>
-      </c>
-      <c r="R6" t="s">
-        <v>249</v>
       </c>
       <c r="S6" t="s">
         <v>142</v>
       </c>
       <c r="T6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="U6" t="s">
         <v>44</v>
@@ -7706,7 +7763,7 @@
         <v>1.6</v>
       </c>
       <c r="W6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -7723,7 +7780,7 @@
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -7732,13 +7789,13 @@
         <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I7" t="s">
         <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K7" t="s">
         <v>44</v>
@@ -7747,7 +7804,7 @@
         <v>95</v>
       </c>
       <c r="M7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N7" t="s">
         <v>54</v>
@@ -7777,7 +7834,7 @@
         <v>0.5</v>
       </c>
       <c r="W7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -7812,7 +7869,7 @@
         <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L8" t="s">
         <v>67</v>
@@ -7848,7 +7905,7 @@
         <v>1.15</v>
       </c>
       <c r="W8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -7859,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -7870,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -7881,10 +7938,10 @@
         <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E11" t="s">
         <v>79</v>
@@ -7929,7 +7986,7 @@
         <v>42</v>
       </c>
       <c r="S11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="T11" t="s">
         <v>73</v>
@@ -7941,7 +7998,7 @@
         <v>9.6</v>
       </c>
       <c r="W11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -7961,7 +8018,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
@@ -7982,10 +8039,10 @@
         <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O12" t="s">
         <v>42</v>
@@ -8003,7 +8060,7 @@
         <v>44</v>
       </c>
       <c r="T12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="U12" t="s">
         <v>74</v>
@@ -8012,7 +8069,7 @@
         <v>6</v>
       </c>
       <c r="W12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -8023,7 +8080,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -8032,7 +8089,7 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G13" t="s">
         <v>103</v>
@@ -8041,7 +8098,7 @@
         <v>120</v>
       </c>
       <c r="I13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J13" t="s">
         <v>120</v>
@@ -8071,7 +8128,7 @@
         <v>53</v>
       </c>
       <c r="S13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="T13" t="s">
         <v>119</v>
@@ -8083,7 +8140,7 @@
         <v>5.25</v>
       </c>
       <c r="W13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -8154,7 +8211,7 @@
         <v>-1.3</v>
       </c>
       <c r="W14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -8225,7 +8282,7 @@
         <v>7.7</v>
       </c>
       <c r="W15" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -8236,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -8307,7 +8364,7 @@
         <v>-2.3</v>
       </c>
       <c r="W17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -8378,7 +8435,7 @@
         <v>3.7</v>
       </c>
       <c r="W18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -8389,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -8418,7 +8475,7 @@
         <v>74</v>
       </c>
       <c r="I20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -8436,7 +8493,7 @@
         <v>104</v>
       </c>
       <c r="O20" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P20" t="s">
         <v>104</v>
@@ -8460,7 +8517,7 @@
         <v>-3.4</v>
       </c>
       <c r="W20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -8531,7 +8588,7 @@
         <v>-1.55</v>
       </c>
       <c r="W21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -8551,7 +8608,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G22" t="s">
         <v>77</v>
@@ -8560,10 +8617,10 @@
         <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K22" t="s">
         <v>77</v>
@@ -8572,28 +8629,28 @@
         <v>40</v>
       </c>
       <c r="M22" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N22" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P22" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q22" t="s">
         <v>78</v>
       </c>
       <c r="R22" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S22" t="s">
         <v>66</v>
       </c>
       <c r="T22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="U22" t="s">
         <v>145</v>
@@ -8602,7 +8659,7 @@
         <v>11.3</v>
       </c>
       <c r="W22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -8673,7 +8730,7 @@
         <v>2.45</v>
       </c>
       <c r="W23" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -8744,7 +8801,7 @@
         <v>-0.3</v>
       </c>
       <c r="W24" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -8755,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -8811,13 +8868,13 @@
         <v>120</v>
       </c>
       <c r="R26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="S26" t="s">
         <v>120</v>
       </c>
       <c r="T26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="U26" t="s">
         <v>54</v>
@@ -8826,7 +8883,7 @@
         <v>-2.55</v>
       </c>
       <c r="W26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -8837,7 +8894,7 @@
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D27" t="s">
         <v>119</v>
@@ -8852,7 +8909,7 @@
         <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I27" t="s">
         <v>88</v>
@@ -8861,7 +8918,7 @@
         <v>66</v>
       </c>
       <c r="K27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s">
         <v>95</v>
@@ -8879,7 +8936,7 @@
         <v>119</v>
       </c>
       <c r="Q27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="R27" t="s">
         <v>66</v>
@@ -8897,7 +8954,7 @@
         <v>3.4</v>
       </c>
       <c r="W27" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -8953,7 +9010,7 @@
         <v>120</v>
       </c>
       <c r="R28" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="S28" t="s">
         <v>54</v>
@@ -8968,7 +9025,7 @@
         <v>4.9</v>
       </c>
       <c r="W28" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -8979,7 +9036,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -9050,7 +9107,7 @@
         <v>5.45</v>
       </c>
       <c r="W30" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -9070,7 +9127,7 @@
         <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G31" t="s">
         <v>53</v>
@@ -9121,7 +9178,7 @@
         <v>2.95</v>
       </c>
       <c r="W31" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -9183,16 +9240,16 @@
         <v>113</v>
       </c>
       <c r="T32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="U32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="V32">
         <v>-1.55</v>
       </c>
       <c r="W32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -9263,7 +9320,7 @@
         <v>4.35</v>
       </c>
       <c r="W33" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -9274,7 +9331,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -9285,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -9356,7 +9413,7 @@
         <v>-1.8</v>
       </c>
       <c r="W36" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -9367,18 +9424,78 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
         <v>186</v>
       </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" t="s">
+        <v>44</v>
+      </c>
+      <c r="K38" t="s">
+        <v>120</v>
+      </c>
+      <c r="L38" t="s">
+        <v>95</v>
+      </c>
+      <c r="M38" t="s">
+        <v>54</v>
+      </c>
+      <c r="N38" t="s">
+        <v>120</v>
+      </c>
+      <c r="O38" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>104</v>
+      </c>
+      <c r="R38" t="s">
+        <v>87</v>
+      </c>
+      <c r="S38" t="s">
+        <v>104</v>
+      </c>
+      <c r="T38" t="s">
+        <v>120</v>
+      </c>
+      <c r="U38" t="s">
+        <v>53</v>
+      </c>
       <c r="V38">
-        <v>0</v>
+        <v>6.95</v>
       </c>
       <c r="W38" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -9399,40 +9516,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -9440,16 +9557,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -9473,7 +9590,7 @@
         <v>-43.3</v>
       </c>
       <c r="M2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -9514,7 +9631,7 @@
         <v>2.7</v>
       </c>
       <c r="M3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9537,13 +9654,13 @@
         <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H4" t="s">
         <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J4" t="s">
         <v>73</v>
@@ -9555,7 +9672,7 @@
         <v>-15.8</v>
       </c>
       <c r="M4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -9596,7 +9713,7 @@
         <v>-2.3</v>
       </c>
       <c r="M5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -9604,19 +9721,19 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -9625,19 +9742,19 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J6" t="s">
         <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L6">
         <v>-2.9</v>
       </c>
       <c r="M6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -9678,7 +9795,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="M7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -9719,7 +9836,7 @@
         <v>3.7</v>
       </c>
       <c r="M8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -9765,7 +9882,7 @@
         <v>-14.7</v>
       </c>
       <c r="M10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -9806,7 +9923,7 @@
         <v>12.5</v>
       </c>
       <c r="M11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -9817,22 +9934,22 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D12" t="s">
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I12" t="s">
         <v>87</v>
@@ -9847,7 +9964,7 @@
         <v>-7.3</v>
       </c>
       <c r="M12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -9882,13 +9999,13 @@
         <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L13">
         <v>23.6</v>
       </c>
       <c r="M13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -9923,13 +10040,13 @@
         <v>120</v>
       </c>
       <c r="K14" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L14">
         <v>-6</v>
       </c>
       <c r="M14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -9943,7 +10060,7 @@
         <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E15" t="s">
         <v>73</v>
@@ -9952,7 +10069,7 @@
         <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H15" t="s">
         <v>53</v>
@@ -9970,7 +10087,7 @@
         <v>-2.9</v>
       </c>
       <c r="M15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -9992,7 +10109,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F17" t="s">
         <v>73</v>
@@ -10016,7 +10133,7 @@
         <v>-2.3</v>
       </c>
       <c r="M17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -10057,7 +10174,7 @@
         <v>2.2</v>
       </c>
       <c r="M18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -10098,7 +10215,7 @@
         <v>-0.3</v>
       </c>
       <c r="M19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -10118,16 +10235,16 @@
         <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G20" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H20" t="s">
         <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J20" t="s">
         <v>120</v>
@@ -10139,7 +10256,7 @@
         <v>-3</v>
       </c>
       <c r="M20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -10180,7 +10297,7 @@
         <v>-4.8</v>
       </c>
       <c r="M21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -10191,37 +10308,37 @@
         <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E22" t="s">
         <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G22" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H22" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I22" t="s">
         <v>77</v>
       </c>
       <c r="J22" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L22">
         <v>6.4</v>
       </c>
       <c r="M22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -10262,7 +10379,7 @@
         <v>3.2</v>
       </c>
       <c r="M23" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -10303,7 +10420,7 @@
         <v>-6.8</v>
       </c>
       <c r="M24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -10344,7 +10461,7 @@
         <v>5.2</v>
       </c>
       <c r="M25" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -10385,7 +10502,7 @@
         <v>-7.3</v>
       </c>
       <c r="M26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -10402,7 +10519,7 @@
         <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F27" t="s">
         <v>73</v>
@@ -10426,7 +10543,7 @@
         <v>-2.8</v>
       </c>
       <c r="M27" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -10467,7 +10584,7 @@
         <v>6.7</v>
       </c>
       <c r="M28" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -10475,7 +10592,7 @@
         <v>164</v>
       </c>
       <c r="B29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C29" t="s">
         <v>114</v>
@@ -10508,7 +10625,7 @@
         <v>4.1</v>
       </c>
       <c r="M29" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -10549,7 +10666,7 @@
         <v>17.2</v>
       </c>
       <c r="M30" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -10584,13 +10701,13 @@
         <v>103</v>
       </c>
       <c r="K31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L31">
         <v>-5.3</v>
       </c>
       <c r="M31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -10601,7 +10718,7 @@
         <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>
@@ -10631,7 +10748,7 @@
         <v>-16.3</v>
       </c>
       <c r="M32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -10666,13 +10783,13 @@
         <v>104</v>
       </c>
       <c r="K33" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L33">
         <v>3.2</v>
       </c>
       <c r="M33" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -10692,7 +10809,7 @@
         <v>73</v>
       </c>
       <c r="F34" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G34" t="s">
         <v>67</v>
@@ -10701,7 +10818,7 @@
         <v>103</v>
       </c>
       <c r="I34" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J34" t="s">
         <v>104</v>
@@ -10713,7 +10830,7 @@
         <v>0.8</v>
       </c>
       <c r="M34" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -10726,7 +10843,7 @@
         <v>182</v>
       </c>
       <c r="B36" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C36" t="s">
         <v>66</v>
@@ -10747,7 +10864,7 @@
         <v>66</v>
       </c>
       <c r="I36" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J36" t="s">
         <v>104</v>
@@ -10759,7 +10876,7 @@
         <v>-14.8</v>
       </c>
       <c r="M36" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -10800,7 +10917,7 @@
         <v>-11.8</v>
       </c>
       <c r="M37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -10841,7 +10958,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M38" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -10862,40 +10979,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -10903,7 +11020,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
@@ -10912,31 +11029,31 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I2" t="s">
         <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K2" t="s">
         <v>78</v>
       </c>
       <c r="L2">
-        <v>-33.4</v>
+        <v>-27.6</v>
       </c>
       <c r="M2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -10959,7 +11076,7 @@
         <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H3" t="s">
         <v>120</v>
@@ -10977,7 +11094,7 @@
         <v>-10.3</v>
       </c>
       <c r="M3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -11009,7 +11126,7 @@
         <v>119</v>
       </c>
       <c r="J4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K4" t="s">
         <v>66</v>
@@ -11018,7 +11135,7 @@
         <v>-0.9</v>
       </c>
       <c r="M4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -11059,7 +11176,7 @@
         <v>3.7</v>
       </c>
       <c r="M5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -11070,13 +11187,13 @@
         <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D6" t="s">
         <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F6" t="s">
         <v>111</v>
@@ -11091,16 +11208,16 @@
         <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L6">
         <v>3.5</v>
       </c>
       <c r="M6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -11123,10 +11240,10 @@
         <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I7" t="s">
         <v>87</v>
@@ -11141,7 +11258,7 @@
         <v>-3.3</v>
       </c>
       <c r="M7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -11167,7 +11284,7 @@
         <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -11176,13 +11293,13 @@
         <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L8">
         <v>-2.4</v>
       </c>
       <c r="M8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -11198,13 +11315,13 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -11228,7 +11345,7 @@
         <v>-18.8</v>
       </c>
       <c r="M10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -11251,7 +11368,7 @@
         <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
@@ -11269,7 +11386,7 @@
         <v>7.6</v>
       </c>
       <c r="M11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -11283,7 +11400,7 @@
         <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E12" t="s">
         <v>142</v>
@@ -11292,7 +11409,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H12" t="s">
         <v>111</v>
@@ -11304,13 +11421,13 @@
         <v>143</v>
       </c>
       <c r="K12" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L12">
         <v>-4.9</v>
       </c>
       <c r="M12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -11324,7 +11441,7 @@
         <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E13" t="s">
         <v>103</v>
@@ -11351,7 +11468,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -11362,7 +11479,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
         <v>104</v>
@@ -11392,7 +11509,7 @@
         <v>-17.8</v>
       </c>
       <c r="M14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -11409,13 +11526,13 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F15" t="s">
         <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H15" t="s">
         <v>54</v>
@@ -11433,7 +11550,7 @@
         <v>-1.4</v>
       </c>
       <c r="M15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -11479,7 +11596,7 @@
         <v>-3.8</v>
       </c>
       <c r="M17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -11520,7 +11637,7 @@
         <v>3.2</v>
       </c>
       <c r="M18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -11531,7 +11648,7 @@
         <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D19" t="s">
         <v>104</v>
@@ -11540,7 +11657,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
@@ -11561,7 +11678,7 @@
         <v>-1.8</v>
       </c>
       <c r="M19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -11572,7 +11689,7 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D20" t="s">
         <v>119</v>
@@ -11581,7 +11698,7 @@
         <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G20" t="s">
         <v>114</v>
@@ -11590,7 +11707,7 @@
         <v>113</v>
       </c>
       <c r="I20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -11602,7 +11719,7 @@
         <v>-2.1</v>
       </c>
       <c r="M20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -11643,7 +11760,7 @@
         <v>4.7</v>
       </c>
       <c r="M21" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -11657,25 +11774,25 @@
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E22" t="s">
         <v>146</v>
       </c>
       <c r="F22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H22" t="s">
         <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K22" t="s">
         <v>142</v>
@@ -11684,7 +11801,7 @@
         <v>5.3</v>
       </c>
       <c r="M22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -11725,7 +11842,7 @@
         <v>10.7</v>
       </c>
       <c r="M23" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -11745,13 +11862,13 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I24" t="s">
         <v>120</v>
@@ -11766,7 +11883,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="M24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -11807,7 +11924,7 @@
         <v>2.2</v>
       </c>
       <c r="M25" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -11848,7 +11965,7 @@
         <v>-4.8</v>
       </c>
       <c r="M26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -11889,7 +12006,7 @@
         <v>-11.3</v>
       </c>
       <c r="M27" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -11903,7 +12020,7 @@
         <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E28" t="s">
         <v>103</v>
@@ -11930,7 +12047,7 @@
         <v>7.2</v>
       </c>
       <c r="M28" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -11971,7 +12088,7 @@
         <v>1.2</v>
       </c>
       <c r="M29" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -12012,7 +12129,7 @@
         <v>27.2</v>
       </c>
       <c r="M30" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -12044,7 +12161,7 @@
         <v>67</v>
       </c>
       <c r="J31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K31" t="s">
         <v>104</v>
@@ -12053,7 +12170,7 @@
         <v>11.2</v>
       </c>
       <c r="M31" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -12064,19 +12181,19 @@
         <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D32" t="s">
         <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F32" t="s">
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H32" t="s">
         <v>104</v>
@@ -12094,7 +12211,7 @@
         <v>-21</v>
       </c>
       <c r="M32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -12135,7 +12252,7 @@
         <v>4.2</v>
       </c>
       <c r="M33" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -12176,7 +12293,7 @@
         <v>2.2</v>
       </c>
       <c r="M34" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -12207,10 +12324,10 @@
         <v>73</v>
       </c>
       <c r="H36" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I36" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J36" t="s">
         <v>88</v>
@@ -12222,7 +12339,7 @@
         <v>-13.3</v>
       </c>
       <c r="M36" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -12263,7 +12380,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="M37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -12283,7 +12400,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G38" t="s">
         <v>104</v>
@@ -12304,7 +12421,7 @@
         <v>6.5</v>
       </c>
       <c r="M38" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -12325,40 +12442,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -12387,19 +12504,19 @@
         <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J2" t="s">
         <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L2">
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -12428,7 +12545,7 @@
         <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J3" t="s">
         <v>103</v>
@@ -12440,7 +12557,7 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -12458,40 +12575,40 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H6" t="s">
         <v>251</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>252</v>
       </c>
-      <c r="H6" t="s">
-        <v>249</v>
-      </c>
-      <c r="I6" t="s">
-        <v>250</v>
-      </c>
       <c r="J6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L6">
         <v>4.1</v>
       </c>
       <c r="M6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -12502,7 +12619,7 @@
         <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
@@ -12532,7 +12649,7 @@
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -12573,7 +12690,7 @@
         <v>3.2</v>
       </c>
       <c r="M8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -12612,7 +12729,7 @@
         <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J11" t="s">
         <v>73</v>
@@ -12624,7 +12741,7 @@
         <v>14.9</v>
       </c>
       <c r="M11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -12644,7 +12761,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
@@ -12665,7 +12782,7 @@
         <v>4.7</v>
       </c>
       <c r="M12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -12676,7 +12793,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -12685,7 +12802,7 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G13" t="s">
         <v>103</v>
@@ -12694,7 +12811,7 @@
         <v>120</v>
       </c>
       <c r="I13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J13" t="s">
         <v>120</v>
@@ -12706,7 +12823,7 @@
         <v>5.9</v>
       </c>
       <c r="M13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -12747,7 +12864,7 @@
         <v>-1.3</v>
       </c>
       <c r="M14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -12788,7 +12905,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="M15" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -12834,7 +12951,7 @@
         <v>-3.8</v>
       </c>
       <c r="M17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -12875,7 +12992,7 @@
         <v>3.7</v>
       </c>
       <c r="M18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -12909,7 +13026,7 @@
         <v>74</v>
       </c>
       <c r="I20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -12921,7 +13038,7 @@
         <v>-4.1</v>
       </c>
       <c r="M20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -12962,7 +13079,7 @@
         <v>-2.8</v>
       </c>
       <c r="M21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -12973,28 +13090,28 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D22" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G22" t="s">
         <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I22" t="s">
         <v>66</v>
       </c>
       <c r="J22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s">
         <v>145</v>
@@ -13003,7 +13120,7 @@
         <v>10.7</v>
       </c>
       <c r="M22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -13044,7 +13161,7 @@
         <v>0.7</v>
       </c>
       <c r="M23" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -13085,7 +13202,7 @@
         <v>-0.8</v>
       </c>
       <c r="M24" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -13116,13 +13233,13 @@
         <v>120</v>
       </c>
       <c r="H26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I26" t="s">
         <v>120</v>
       </c>
       <c r="J26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s">
         <v>54</v>
@@ -13131,7 +13248,7 @@
         <v>-2.3</v>
       </c>
       <c r="M26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -13154,7 +13271,7 @@
         <v>119</v>
       </c>
       <c r="G27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H27" t="s">
         <v>66</v>
@@ -13172,7 +13289,7 @@
         <v>6.5</v>
       </c>
       <c r="M27" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -13213,7 +13330,7 @@
         <v>5.1</v>
       </c>
       <c r="M28" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -13259,7 +13376,7 @@
         <v>7.2</v>
       </c>
       <c r="M30" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -13300,7 +13417,7 @@
         <v>3.7</v>
       </c>
       <c r="M31" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -13341,7 +13458,7 @@
         <v>0.2</v>
       </c>
       <c r="M32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -13382,7 +13499,7 @@
         <v>2.7</v>
       </c>
       <c r="M33" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -13433,7 +13550,7 @@
         <v>-1.8</v>
       </c>
       <c r="M36" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -13444,6 +13561,42 @@
     <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>186</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" t="s">
+        <v>87</v>
+      </c>
+      <c r="I38" t="s">
+        <v>104</v>
+      </c>
+      <c r="J38" t="s">
+        <v>120</v>
+      </c>
+      <c r="K38" t="s">
+        <v>53</v>
+      </c>
+      <c r="L38">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="M38" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -13464,40 +13617,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -13514,13 +13667,13 @@
         <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
@@ -13538,7 +13691,7 @@
         <v>23.3</v>
       </c>
       <c r="M2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -13558,7 +13711,7 @@
         <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
@@ -13579,7 +13732,7 @@
         <v>4.6</v>
       </c>
       <c r="M3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -13600,28 +13753,28 @@
         <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" t="s">
         <v>251</v>
-      </c>
-      <c r="H6" t="s">
-        <v>249</v>
       </c>
       <c r="I6" t="s">
         <v>142</v>
       </c>
       <c r="J6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K6" t="s">
         <v>44</v>
@@ -13630,7 +13783,7 @@
         <v>-0.9</v>
       </c>
       <c r="M6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -13647,7 +13800,7 @@
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -13656,13 +13809,13 @@
         <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I7" t="s">
         <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K7" t="s">
         <v>44</v>
@@ -13671,7 +13824,7 @@
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -13706,13 +13859,13 @@
         <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L8">
         <v>-0.9</v>
       </c>
       <c r="M8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -13733,10 +13886,10 @@
         <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E11" t="s">
         <v>79</v>
@@ -13763,7 +13916,7 @@
         <v>4.3</v>
       </c>
       <c r="M11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -13774,10 +13927,10 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E12" t="s">
         <v>42</v>
@@ -13795,7 +13948,7 @@
         <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K12" t="s">
         <v>74</v>
@@ -13804,7 +13957,7 @@
         <v>7.3</v>
       </c>
       <c r="M12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -13833,7 +13986,7 @@
         <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J13" t="s">
         <v>119</v>
@@ -13845,7 +13998,7 @@
         <v>4.6</v>
       </c>
       <c r="M13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -13886,7 +14039,7 @@
         <v>-1.3</v>
       </c>
       <c r="M14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -13927,7 +14080,7 @@
         <v>7.2</v>
       </c>
       <c r="M15" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -13973,7 +14126,7 @@
         <v>-0.8</v>
       </c>
       <c r="M17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -14014,7 +14167,7 @@
         <v>3.7</v>
       </c>
       <c r="M18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -14036,7 +14189,7 @@
         <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F20" t="s">
         <v>104</v>
@@ -14060,7 +14213,7 @@
         <v>-2.7</v>
       </c>
       <c r="M20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -14101,7 +14254,7 @@
         <v>-0.3</v>
       </c>
       <c r="M21" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -14121,7 +14274,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G22" t="s">
         <v>77</v>
@@ -14130,10 +14283,10 @@
         <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K22" t="s">
         <v>77</v>
@@ -14142,7 +14295,7 @@
         <v>11.9</v>
       </c>
       <c r="M22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -14183,7 +14336,7 @@
         <v>4.2</v>
       </c>
       <c r="M23" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -14224,7 +14377,7 @@
         <v>0.2</v>
       </c>
       <c r="M24" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -14270,7 +14423,7 @@
         <v>-2.8</v>
       </c>
       <c r="M26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -14281,7 +14434,7 @@
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D27" t="s">
         <v>119</v>
@@ -14296,7 +14449,7 @@
         <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I27" t="s">
         <v>88</v>
@@ -14305,13 +14458,13 @@
         <v>66</v>
       </c>
       <c r="K27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L27">
         <v>0.3</v>
       </c>
       <c r="M27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -14337,7 +14490,7 @@
         <v>120</v>
       </c>
       <c r="H28" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I28" t="s">
         <v>54</v>
@@ -14352,7 +14505,7 @@
         <v>4.7</v>
       </c>
       <c r="M28" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -14398,7 +14551,7 @@
         <v>3.7</v>
       </c>
       <c r="M30" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -14418,7 +14571,7 @@
         <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G31" t="s">
         <v>53</v>
@@ -14439,7 +14592,7 @@
         <v>2.2</v>
       </c>
       <c r="M31" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -14471,16 +14624,16 @@
         <v>113</v>
       </c>
       <c r="J32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L32">
         <v>-3.3</v>
       </c>
       <c r="M32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -14521,7 +14674,7 @@
         <v>6</v>
       </c>
       <c r="M33" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -14572,7 +14725,7 @@
         <v>-1.8</v>
       </c>
       <c r="M36" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -14583,6 +14736,42 @@
     <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>186</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" t="s">
+        <v>44</v>
+      </c>
+      <c r="K38" t="s">
+        <v>120</v>
+      </c>
+      <c r="L38">
+        <v>4.7</v>
+      </c>
+      <c r="M38" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -14603,13 +14792,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -15020,6 +15209,15 @@
     <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>186</v>
+      </c>
+      <c r="B38">
+        <v>0.3615384615384615</v>
+      </c>
+      <c r="C38">
+        <v>0.3246031746031746</v>
+      </c>
+      <c r="D38">
+        <v>0.4153846153846154</v>
       </c>
     </row>
   </sheetData>
@@ -15040,13 +15238,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -15457,6 +15655,15 @@
     <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>186</v>
+      </c>
+      <c r="B38">
+        <v>-0.8</v>
+      </c>
+      <c r="C38">
+        <v>2.5</v>
+      </c>
+      <c r="D38">
+        <v>18.8</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4227" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4345" uniqueCount="264">
   <si>
     <t>ID</t>
   </si>
@@ -562,6 +562,12 @@
   </si>
   <si>
     <t>10,11,19,12,18,13,17,14,16,15,20,21,29,22,28,23,27,24,26,25</t>
+  </si>
+  <si>
+    <t>Several limitations: mixed tumors, in which also the spindle-shaped cells are tumoral, and epithelial/mesenchymal differentiation is difficult. Also the macrophage cell population is hard to be differentiated in some cases from neoplastic cells in the 10-second timeframe.</t>
+  </si>
+  <si>
+    <t>No. I was happy with the interface.</t>
   </si>
   <si>
     <t>daniel.righter@usda.gov</t>
@@ -3654,7 +3660,58 @@
         <v>57</v>
       </c>
       <c r="V26" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="W26" t="s">
+        <v>53</v>
+      </c>
+      <c r="X26" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:39">
@@ -4623,23 +4680,74 @@
         <v>41</v>
       </c>
       <c r="V35" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="W35" t="s">
+        <v>54</v>
+      </c>
+      <c r="X35" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B36" t="s">
         <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>
@@ -4750,21 +4858,21 @@
         <v>41</v>
       </c>
       <c r="AL37" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AM37" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s">
         <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D38" t="s">
         <v>72</v>
@@ -4799,13 +4907,13 @@
     </row>
     <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B39" t="s">
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D39" t="s">
         <v>72</v>
@@ -4910,10 +5018,10 @@
         <v>41</v>
       </c>
       <c r="AL39" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AM39" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4934,70 +5042,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="R1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="S1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="T1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="U1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="V1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="W1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -5005,10 +5113,10 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
@@ -5029,16 +5137,16 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K2" t="s">
         <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N2" t="s">
         <v>78</v>
@@ -5047,19 +5155,19 @@
         <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="S2" t="s">
         <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="U2" t="s">
         <v>68</v>
@@ -5068,7 +5176,7 @@
         <v>-35.45</v>
       </c>
       <c r="W2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -5121,7 +5229,7 @@
         <v>67</v>
       </c>
       <c r="Q3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="R3" t="s">
         <v>120</v>
@@ -5139,7 +5247,7 @@
         <v>-3.8</v>
       </c>
       <c r="W3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -5171,7 +5279,7 @@
         <v>119</v>
       </c>
       <c r="J4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K4" t="s">
         <v>66</v>
@@ -5192,13 +5300,13 @@
         <v>120</v>
       </c>
       <c r="Q4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="R4" t="s">
         <v>53</v>
       </c>
       <c r="S4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="T4" t="s">
         <v>73</v>
@@ -5210,7 +5318,7 @@
         <v>-8.35</v>
       </c>
       <c r="W4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -5281,7 +5389,7 @@
         <v>0.7</v>
       </c>
       <c r="W5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -5289,19 +5397,19 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -5310,25 +5418,25 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J6" t="s">
         <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L6" t="s">
         <v>110</v>
       </c>
       <c r="M6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N6" t="s">
         <v>145</v>
       </c>
       <c r="O6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P6" t="s">
         <v>111</v>
@@ -5343,16 +5451,16 @@
         <v>73</v>
       </c>
       <c r="T6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="U6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="V6">
         <v>0.3</v>
       </c>
       <c r="W6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -5375,10 +5483,10 @@
         <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I7" t="s">
         <v>87</v>
@@ -5423,7 +5531,7 @@
         <v>-6.3</v>
       </c>
       <c r="W7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -5449,7 +5557,7 @@
         <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -5458,7 +5566,7 @@
         <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L8" t="s">
         <v>67</v>
@@ -5494,7 +5602,7 @@
         <v>0.65</v>
       </c>
       <c r="W8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -5505,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -5516,13 +5624,13 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -5576,7 +5684,7 @@
         <v>-16.75</v>
       </c>
       <c r="W10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -5599,7 +5707,7 @@
         <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
@@ -5647,7 +5755,7 @@
         <v>10.05</v>
       </c>
       <c r="W11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -5658,22 +5766,22 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D12" t="s">
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H12" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I12" t="s">
         <v>87</v>
@@ -5691,7 +5799,7 @@
         <v>57</v>
       </c>
       <c r="N12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O12" t="s">
         <v>142</v>
@@ -5700,7 +5808,7 @@
         <v>78</v>
       </c>
       <c r="Q12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="R12" t="s">
         <v>111</v>
@@ -5712,13 +5820,13 @@
         <v>143</v>
       </c>
       <c r="U12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="V12">
         <v>-6.1</v>
       </c>
       <c r="W12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -5753,7 +5861,7 @@
         <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L13" t="s">
         <v>119</v>
@@ -5762,7 +5870,7 @@
         <v>103</v>
       </c>
       <c r="N13" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O13" t="s">
         <v>103</v>
@@ -5789,7 +5897,7 @@
         <v>11.8</v>
       </c>
       <c r="W13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -5800,7 +5908,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s">
         <v>104</v>
@@ -5854,13 +5962,13 @@
         <v>120</v>
       </c>
       <c r="U14" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="V14">
         <v>-11.9</v>
       </c>
       <c r="W14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -5877,13 +5985,13 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F15" t="s">
         <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H15" t="s">
         <v>54</v>
@@ -5904,7 +6012,7 @@
         <v>120</v>
       </c>
       <c r="N15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O15" t="s">
         <v>73</v>
@@ -5913,7 +6021,7 @@
         <v>74</v>
       </c>
       <c r="Q15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="R15" t="s">
         <v>53</v>
@@ -5931,7 +6039,7 @@
         <v>-2.15</v>
       </c>
       <c r="W15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -5942,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -5959,7 +6067,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F17" t="s">
         <v>73</v>
@@ -6013,7 +6121,7 @@
         <v>-3.05</v>
       </c>
       <c r="W17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -6084,7 +6192,7 @@
         <v>2.7</v>
       </c>
       <c r="W18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -6095,7 +6203,7 @@
         <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D19" t="s">
         <v>104</v>
@@ -6104,7 +6212,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
@@ -6155,7 +6263,7 @@
         <v>-1.05</v>
       </c>
       <c r="W19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -6175,16 +6283,16 @@
         <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H20" t="s">
         <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J20" t="s">
         <v>120</v>
@@ -6196,7 +6304,7 @@
         <v>42</v>
       </c>
       <c r="M20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N20" t="s">
         <v>119</v>
@@ -6205,7 +6313,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q20" t="s">
         <v>114</v>
@@ -6214,7 +6322,7 @@
         <v>113</v>
       </c>
       <c r="S20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="T20" t="s">
         <v>53</v>
@@ -6226,7 +6334,7 @@
         <v>-2.55</v>
       </c>
       <c r="W20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -6297,7 +6405,7 @@
         <v>-0.05</v>
       </c>
       <c r="W21" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -6311,25 +6419,25 @@
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E22" t="s">
         <v>146</v>
       </c>
       <c r="F22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H22" t="s">
         <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J22" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K22" t="s">
         <v>142</v>
@@ -6338,37 +6446,37 @@
         <v>144</v>
       </c>
       <c r="M22" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s">
         <v>74</v>
       </c>
       <c r="P22" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="R22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="S22" t="s">
         <v>77</v>
       </c>
       <c r="T22" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="U22" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="V22">
         <v>5.85</v>
       </c>
       <c r="W22" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -6439,7 +6547,7 @@
         <v>6.95</v>
       </c>
       <c r="W23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -6489,13 +6597,13 @@
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q24" t="s">
         <v>45</v>
       </c>
       <c r="R24" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="S24" t="s">
         <v>120</v>
@@ -6510,7 +6618,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="W24" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -6581,7 +6689,7 @@
         <v>3.7</v>
       </c>
       <c r="W25" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -6652,7 +6760,7 @@
         <v>-6.05</v>
       </c>
       <c r="W26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -6699,7 +6807,7 @@
         <v>120</v>
       </c>
       <c r="O27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P27" t="s">
         <v>73</v>
@@ -6723,7 +6831,7 @@
         <v>-7.05</v>
       </c>
       <c r="W27" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -6767,7 +6875,7 @@
         <v>87</v>
       </c>
       <c r="N28" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O28" t="s">
         <v>103</v>
@@ -6794,7 +6902,7 @@
         <v>6.95</v>
       </c>
       <c r="W28" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -6802,7 +6910,7 @@
         <v>164</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C29" t="s">
         <v>114</v>
@@ -6865,7 +6973,7 @@
         <v>2.65</v>
       </c>
       <c r="W29" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -6936,7 +7044,7 @@
         <v>22.2</v>
       </c>
       <c r="W30" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -6968,7 +7076,7 @@
         <v>67</v>
       </c>
       <c r="J31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K31" t="s">
         <v>104</v>
@@ -7001,13 +7109,13 @@
         <v>103</v>
       </c>
       <c r="U31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="V31">
         <v>2.95</v>
       </c>
       <c r="W31" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -7018,7 +7126,7 @@
         <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>
@@ -7048,19 +7156,19 @@
         <v>113</v>
       </c>
       <c r="M32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N32" t="s">
         <v>74</v>
       </c>
       <c r="O32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P32" t="s">
         <v>37</v>
       </c>
       <c r="Q32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="R32" t="s">
         <v>104</v>
@@ -7078,7 +7186,7 @@
         <v>-18.65</v>
       </c>
       <c r="W32" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -7113,7 +7221,7 @@
         <v>104</v>
       </c>
       <c r="K33" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L33" t="s">
         <v>95</v>
@@ -7149,7 +7257,7 @@
         <v>3.7</v>
       </c>
       <c r="W33" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -7199,7 +7307,7 @@
         <v>73</v>
       </c>
       <c r="P34" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q34" t="s">
         <v>67</v>
@@ -7208,7 +7316,7 @@
         <v>103</v>
       </c>
       <c r="S34" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="T34" t="s">
         <v>104</v>
@@ -7220,26 +7328,26 @@
         <v>1.5</v>
       </c>
       <c r="W34" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C36" t="s">
         <v>66</v>
@@ -7260,7 +7368,7 @@
         <v>66</v>
       </c>
       <c r="I36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J36" t="s">
         <v>104</v>
@@ -7287,10 +7395,10 @@
         <v>73</v>
       </c>
       <c r="R36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="S36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="T36" t="s">
         <v>88</v>
@@ -7302,12 +7410,12 @@
         <v>-14.05</v>
       </c>
       <c r="W36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -7373,12 +7481,12 @@
         <v>-10.8</v>
       </c>
       <c r="W37" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -7393,7 +7501,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G38" t="s">
         <v>104</v>
@@ -7444,7 +7552,7 @@
         <v>8.1</v>
       </c>
       <c r="W38" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -7465,70 +7573,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="R1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="S1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="T1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="U1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="V1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="W1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -7557,7 +7665,7 @@
         <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J2" t="s">
         <v>114</v>
@@ -7569,10 +7677,10 @@
         <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O2" t="s">
         <v>67</v>
@@ -7584,7 +7692,7 @@
         <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="S2" t="s">
         <v>73</v>
@@ -7599,7 +7707,7 @@
         <v>14.65</v>
       </c>
       <c r="W2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -7628,7 +7736,7 @@
         <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J3" t="s">
         <v>103</v>
@@ -7649,7 +7757,7 @@
         <v>96</v>
       </c>
       <c r="P3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q3" t="s">
         <v>42</v>
@@ -7670,7 +7778,7 @@
         <v>5.05</v>
       </c>
       <c r="W3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -7681,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -7692,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -7700,61 +7808,61 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H6" t="s">
         <v>253</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>254</v>
       </c>
-      <c r="H6" t="s">
-        <v>251</v>
-      </c>
-      <c r="I6" t="s">
-        <v>252</v>
-      </c>
       <c r="J6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L6" t="s">
         <v>89</v>
       </c>
       <c r="M6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N6" t="s">
         <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q6" t="s">
+        <v>255</v>
+      </c>
+      <c r="R6" t="s">
         <v>253</v>
-      </c>
-      <c r="R6" t="s">
-        <v>251</v>
       </c>
       <c r="S6" t="s">
         <v>142</v>
       </c>
       <c r="T6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="U6" t="s">
         <v>44</v>
@@ -7763,7 +7871,7 @@
         <v>1.6</v>
       </c>
       <c r="W6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -7780,7 +7888,7 @@
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -7789,13 +7897,13 @@
         <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I7" t="s">
         <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K7" t="s">
         <v>44</v>
@@ -7804,7 +7912,7 @@
         <v>95</v>
       </c>
       <c r="M7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N7" t="s">
         <v>54</v>
@@ -7834,7 +7942,7 @@
         <v>0.5</v>
       </c>
       <c r="W7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -7869,7 +7977,7 @@
         <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L8" t="s">
         <v>67</v>
@@ -7905,7 +8013,7 @@
         <v>1.15</v>
       </c>
       <c r="W8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -7916,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -7927,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -7938,10 +8046,10 @@
         <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E11" t="s">
         <v>79</v>
@@ -7986,7 +8094,7 @@
         <v>42</v>
       </c>
       <c r="S11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="T11" t="s">
         <v>73</v>
@@ -7998,7 +8106,7 @@
         <v>9.6</v>
       </c>
       <c r="W11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -8018,7 +8126,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
@@ -8039,10 +8147,10 @@
         <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N12" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O12" t="s">
         <v>42</v>
@@ -8060,7 +8168,7 @@
         <v>44</v>
       </c>
       <c r="T12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="U12" t="s">
         <v>74</v>
@@ -8069,7 +8177,7 @@
         <v>6</v>
       </c>
       <c r="W12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -8080,7 +8188,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -8089,7 +8197,7 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G13" t="s">
         <v>103</v>
@@ -8098,7 +8206,7 @@
         <v>120</v>
       </c>
       <c r="I13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J13" t="s">
         <v>120</v>
@@ -8128,7 +8236,7 @@
         <v>53</v>
       </c>
       <c r="S13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="T13" t="s">
         <v>119</v>
@@ -8140,7 +8248,7 @@
         <v>5.25</v>
       </c>
       <c r="W13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -8211,7 +8319,7 @@
         <v>-1.3</v>
       </c>
       <c r="W14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -8282,7 +8390,7 @@
         <v>7.7</v>
       </c>
       <c r="W15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -8293,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -8364,7 +8472,7 @@
         <v>-2.3</v>
       </c>
       <c r="W17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -8435,7 +8543,7 @@
         <v>3.7</v>
       </c>
       <c r="W18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -8446,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -8475,7 +8583,7 @@
         <v>74</v>
       </c>
       <c r="I20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -8493,7 +8601,7 @@
         <v>104</v>
       </c>
       <c r="O20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P20" t="s">
         <v>104</v>
@@ -8517,7 +8625,7 @@
         <v>-3.4</v>
       </c>
       <c r="W20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -8588,7 +8696,7 @@
         <v>-1.55</v>
       </c>
       <c r="W21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -8608,7 +8716,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G22" t="s">
         <v>77</v>
@@ -8617,10 +8725,10 @@
         <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J22" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K22" t="s">
         <v>77</v>
@@ -8629,28 +8737,28 @@
         <v>40</v>
       </c>
       <c r="M22" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N22" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P22" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q22" t="s">
         <v>78</v>
       </c>
       <c r="R22" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="S22" t="s">
         <v>66</v>
       </c>
       <c r="T22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U22" t="s">
         <v>145</v>
@@ -8659,7 +8767,7 @@
         <v>11.3</v>
       </c>
       <c r="W22" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -8730,7 +8838,7 @@
         <v>2.45</v>
       </c>
       <c r="W23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -8801,18 +8909,78 @@
         <v>-0.3</v>
       </c>
       <c r="W24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>154</v>
       </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" t="s">
+        <v>73</v>
+      </c>
+      <c r="N25" t="s">
+        <v>53</v>
+      </c>
+      <c r="O25" t="s">
+        <v>44</v>
+      </c>
+      <c r="P25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>73</v>
+      </c>
+      <c r="R25" t="s">
+        <v>104</v>
+      </c>
+      <c r="S25" t="s">
+        <v>44</v>
+      </c>
+      <c r="T25" t="s">
+        <v>44</v>
+      </c>
+      <c r="U25" t="s">
+        <v>53</v>
+      </c>
       <c r="V25">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="W25" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -8868,13 +9036,13 @@
         <v>120</v>
       </c>
       <c r="R26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="S26" t="s">
         <v>120</v>
       </c>
       <c r="T26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="U26" t="s">
         <v>54</v>
@@ -8883,7 +9051,7 @@
         <v>-2.55</v>
       </c>
       <c r="W26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -8894,7 +9062,7 @@
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D27" t="s">
         <v>119</v>
@@ -8909,7 +9077,7 @@
         <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I27" t="s">
         <v>88</v>
@@ -8918,7 +9086,7 @@
         <v>66</v>
       </c>
       <c r="K27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s">
         <v>95</v>
@@ -8936,7 +9104,7 @@
         <v>119</v>
       </c>
       <c r="Q27" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="R27" t="s">
         <v>66</v>
@@ -8954,7 +9122,7 @@
         <v>3.4</v>
       </c>
       <c r="W27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -9010,7 +9178,7 @@
         <v>120</v>
       </c>
       <c r="R28" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="S28" t="s">
         <v>54</v>
@@ -9025,7 +9193,7 @@
         <v>4.9</v>
       </c>
       <c r="W28" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -9036,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -9107,7 +9275,7 @@
         <v>5.45</v>
       </c>
       <c r="W30" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -9127,7 +9295,7 @@
         <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G31" t="s">
         <v>53</v>
@@ -9178,7 +9346,7 @@
         <v>2.95</v>
       </c>
       <c r="W31" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -9240,16 +9408,16 @@
         <v>113</v>
       </c>
       <c r="T32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="U32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="V32">
         <v>-1.55</v>
       </c>
       <c r="W32" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -9320,34 +9488,94 @@
         <v>4.35</v>
       </c>
       <c r="W33" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
         <v>178</v>
       </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34" t="s">
+        <v>104</v>
+      </c>
+      <c r="M34" t="s">
+        <v>73</v>
+      </c>
+      <c r="N34" t="s">
+        <v>44</v>
+      </c>
+      <c r="O34" t="s">
+        <v>120</v>
+      </c>
+      <c r="P34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>67</v>
+      </c>
+      <c r="R34" t="s">
+        <v>119</v>
+      </c>
+      <c r="S34" t="s">
+        <v>45</v>
+      </c>
+      <c r="T34" t="s">
+        <v>53</v>
+      </c>
+      <c r="U34" t="s">
+        <v>45</v>
+      </c>
       <c r="V34">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="W34" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s">
         <v>66</v>
@@ -9413,23 +9641,23 @@
         <v>-1.8</v>
       </c>
       <c r="W36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V37">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -9438,7 +9666,7 @@
         <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E38" t="s">
         <v>74</v>
@@ -9495,7 +9723,7 @@
         <v>6.95</v>
       </c>
       <c r="W38" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -9516,40 +9744,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -9557,16 +9785,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -9590,7 +9818,7 @@
         <v>-43.3</v>
       </c>
       <c r="M2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -9631,7 +9859,7 @@
         <v>2.7</v>
       </c>
       <c r="M3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9654,13 +9882,13 @@
         <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H4" t="s">
         <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J4" t="s">
         <v>73</v>
@@ -9672,7 +9900,7 @@
         <v>-15.8</v>
       </c>
       <c r="M4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -9713,7 +9941,7 @@
         <v>-2.3</v>
       </c>
       <c r="M5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -9721,19 +9949,19 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -9742,19 +9970,19 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J6" t="s">
         <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L6">
         <v>-2.9</v>
       </c>
       <c r="M6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -9795,7 +10023,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="M7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -9836,7 +10064,7 @@
         <v>3.7</v>
       </c>
       <c r="M8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -9882,7 +10110,7 @@
         <v>-14.7</v>
       </c>
       <c r="M10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -9923,7 +10151,7 @@
         <v>12.5</v>
       </c>
       <c r="M11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -9934,22 +10162,22 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D12" t="s">
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H12" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I12" t="s">
         <v>87</v>
@@ -9964,7 +10192,7 @@
         <v>-7.3</v>
       </c>
       <c r="M12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -9999,13 +10227,13 @@
         <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L13">
         <v>23.6</v>
       </c>
       <c r="M13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -10040,13 +10268,13 @@
         <v>120</v>
       </c>
       <c r="K14" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L14">
         <v>-6</v>
       </c>
       <c r="M14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -10060,7 +10288,7 @@
         <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E15" t="s">
         <v>73</v>
@@ -10069,7 +10297,7 @@
         <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H15" t="s">
         <v>53</v>
@@ -10087,7 +10315,7 @@
         <v>-2.9</v>
       </c>
       <c r="M15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -10109,7 +10337,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F17" t="s">
         <v>73</v>
@@ -10133,7 +10361,7 @@
         <v>-2.3</v>
       </c>
       <c r="M17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -10174,7 +10402,7 @@
         <v>2.2</v>
       </c>
       <c r="M18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -10215,7 +10443,7 @@
         <v>-0.3</v>
       </c>
       <c r="M19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -10235,16 +10463,16 @@
         <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H20" t="s">
         <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J20" t="s">
         <v>120</v>
@@ -10256,7 +10484,7 @@
         <v>-3</v>
       </c>
       <c r="M20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -10297,7 +10525,7 @@
         <v>-4.8</v>
       </c>
       <c r="M21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -10308,37 +10536,37 @@
         <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E22" t="s">
         <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I22" t="s">
         <v>77</v>
       </c>
       <c r="J22" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K22" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L22">
         <v>6.4</v>
       </c>
       <c r="M22" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -10379,7 +10607,7 @@
         <v>3.2</v>
       </c>
       <c r="M23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -10420,7 +10648,7 @@
         <v>-6.8</v>
       </c>
       <c r="M24" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -10461,7 +10689,7 @@
         <v>5.2</v>
       </c>
       <c r="M25" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -10502,7 +10730,7 @@
         <v>-7.3</v>
       </c>
       <c r="M26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -10519,7 +10747,7 @@
         <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F27" t="s">
         <v>73</v>
@@ -10543,7 +10771,7 @@
         <v>-2.8</v>
       </c>
       <c r="M27" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -10584,7 +10812,7 @@
         <v>6.7</v>
       </c>
       <c r="M28" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -10592,7 +10820,7 @@
         <v>164</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C29" t="s">
         <v>114</v>
@@ -10625,7 +10853,7 @@
         <v>4.1</v>
       </c>
       <c r="M29" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -10666,7 +10894,7 @@
         <v>17.2</v>
       </c>
       <c r="M30" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -10701,13 +10929,13 @@
         <v>103</v>
       </c>
       <c r="K31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L31">
         <v>-5.3</v>
       </c>
       <c r="M31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -10718,7 +10946,7 @@
         <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>
@@ -10748,7 +10976,7 @@
         <v>-16.3</v>
       </c>
       <c r="M32" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -10783,13 +11011,13 @@
         <v>104</v>
       </c>
       <c r="K33" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L33">
         <v>3.2</v>
       </c>
       <c r="M33" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -10809,7 +11037,7 @@
         <v>73</v>
       </c>
       <c r="F34" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G34" t="s">
         <v>67</v>
@@ -10818,7 +11046,7 @@
         <v>103</v>
       </c>
       <c r="I34" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J34" t="s">
         <v>104</v>
@@ -10830,20 +11058,20 @@
         <v>0.8</v>
       </c>
       <c r="M34" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C36" t="s">
         <v>66</v>
@@ -10864,7 +11092,7 @@
         <v>66</v>
       </c>
       <c r="I36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J36" t="s">
         <v>104</v>
@@ -10876,12 +11104,12 @@
         <v>-14.8</v>
       </c>
       <c r="M36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -10917,12 +11145,12 @@
         <v>-11.8</v>
       </c>
       <c r="M37" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
@@ -10958,7 +11186,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M38" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -10979,40 +11207,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -11029,22 +11257,22 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I2" t="s">
         <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K2" t="s">
         <v>78</v>
@@ -11053,7 +11281,7 @@
         <v>-27.6</v>
       </c>
       <c r="M2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -11076,7 +11304,7 @@
         <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H3" t="s">
         <v>120</v>
@@ -11094,7 +11322,7 @@
         <v>-10.3</v>
       </c>
       <c r="M3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -11126,7 +11354,7 @@
         <v>119</v>
       </c>
       <c r="J4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K4" t="s">
         <v>66</v>
@@ -11135,7 +11363,7 @@
         <v>-0.9</v>
       </c>
       <c r="M4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -11176,7 +11404,7 @@
         <v>3.7</v>
       </c>
       <c r="M5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -11187,13 +11415,13 @@
         <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
         <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F6" t="s">
         <v>111</v>
@@ -11208,16 +11436,16 @@
         <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L6">
         <v>3.5</v>
       </c>
       <c r="M6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -11240,10 +11468,10 @@
         <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I7" t="s">
         <v>87</v>
@@ -11258,7 +11486,7 @@
         <v>-3.3</v>
       </c>
       <c r="M7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -11284,7 +11512,7 @@
         <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -11293,13 +11521,13 @@
         <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L8">
         <v>-2.4</v>
       </c>
       <c r="M8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -11315,13 +11543,13 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -11345,7 +11573,7 @@
         <v>-18.8</v>
       </c>
       <c r="M10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -11368,7 +11596,7 @@
         <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
@@ -11386,7 +11614,7 @@
         <v>7.6</v>
       </c>
       <c r="M11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -11400,7 +11628,7 @@
         <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E12" t="s">
         <v>142</v>
@@ -11409,7 +11637,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H12" t="s">
         <v>111</v>
@@ -11421,13 +11649,13 @@
         <v>143</v>
       </c>
       <c r="K12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L12">
         <v>-4.9</v>
       </c>
       <c r="M12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -11441,7 +11669,7 @@
         <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E13" t="s">
         <v>103</v>
@@ -11468,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -11479,7 +11707,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s">
         <v>104</v>
@@ -11509,7 +11737,7 @@
         <v>-17.8</v>
       </c>
       <c r="M14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -11526,13 +11754,13 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F15" t="s">
         <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H15" t="s">
         <v>54</v>
@@ -11550,7 +11778,7 @@
         <v>-1.4</v>
       </c>
       <c r="M15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -11596,7 +11824,7 @@
         <v>-3.8</v>
       </c>
       <c r="M17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -11637,7 +11865,7 @@
         <v>3.2</v>
       </c>
       <c r="M18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -11648,7 +11876,7 @@
         <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D19" t="s">
         <v>104</v>
@@ -11657,7 +11885,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
@@ -11678,7 +11906,7 @@
         <v>-1.8</v>
       </c>
       <c r="M19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -11689,7 +11917,7 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D20" t="s">
         <v>119</v>
@@ -11698,7 +11926,7 @@
         <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G20" t="s">
         <v>114</v>
@@ -11707,7 +11935,7 @@
         <v>113</v>
       </c>
       <c r="I20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -11719,7 +11947,7 @@
         <v>-2.1</v>
       </c>
       <c r="M20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -11760,7 +11988,7 @@
         <v>4.7</v>
       </c>
       <c r="M21" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -11774,25 +12002,25 @@
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E22" t="s">
         <v>146</v>
       </c>
       <c r="F22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H22" t="s">
         <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J22" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K22" t="s">
         <v>142</v>
@@ -11801,7 +12029,7 @@
         <v>5.3</v>
       </c>
       <c r="M22" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -11842,7 +12070,7 @@
         <v>10.7</v>
       </c>
       <c r="M23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -11862,13 +12090,13 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I24" t="s">
         <v>120</v>
@@ -11883,7 +12111,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="M24" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -11924,7 +12152,7 @@
         <v>2.2</v>
       </c>
       <c r="M25" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -11965,7 +12193,7 @@
         <v>-4.8</v>
       </c>
       <c r="M26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -12006,7 +12234,7 @@
         <v>-11.3</v>
       </c>
       <c r="M27" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -12020,7 +12248,7 @@
         <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E28" t="s">
         <v>103</v>
@@ -12047,7 +12275,7 @@
         <v>7.2</v>
       </c>
       <c r="M28" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -12088,7 +12316,7 @@
         <v>1.2</v>
       </c>
       <c r="M29" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -12129,7 +12357,7 @@
         <v>27.2</v>
       </c>
       <c r="M30" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -12161,7 +12389,7 @@
         <v>67</v>
       </c>
       <c r="J31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K31" t="s">
         <v>104</v>
@@ -12170,7 +12398,7 @@
         <v>11.2</v>
       </c>
       <c r="M31" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -12181,19 +12409,19 @@
         <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D32" t="s">
         <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F32" t="s">
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H32" t="s">
         <v>104</v>
@@ -12211,7 +12439,7 @@
         <v>-21</v>
       </c>
       <c r="M32" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -12252,7 +12480,7 @@
         <v>4.2</v>
       </c>
       <c r="M33" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -12293,17 +12521,17 @@
         <v>2.2</v>
       </c>
       <c r="M34" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s">
         <v>104</v>
@@ -12324,10 +12552,10 @@
         <v>73</v>
       </c>
       <c r="H36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J36" t="s">
         <v>88</v>
@@ -12339,12 +12567,12 @@
         <v>-13.3</v>
       </c>
       <c r="M36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s">
         <v>104</v>
@@ -12380,12 +12608,12 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="M37" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -12400,7 +12628,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G38" t="s">
         <v>104</v>
@@ -12421,7 +12649,7 @@
         <v>6.5</v>
       </c>
       <c r="M38" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -12442,40 +12670,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -12504,19 +12732,19 @@
         <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J2" t="s">
         <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L2">
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -12545,7 +12773,7 @@
         <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J3" t="s">
         <v>103</v>
@@ -12557,7 +12785,7 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -12575,40 +12803,40 @@
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H6" t="s">
         <v>253</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>254</v>
       </c>
-      <c r="H6" t="s">
-        <v>251</v>
-      </c>
-      <c r="I6" t="s">
-        <v>252</v>
-      </c>
       <c r="J6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L6">
         <v>4.1</v>
       </c>
       <c r="M6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -12619,7 +12847,7 @@
         <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
@@ -12649,7 +12877,7 @@
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -12690,7 +12918,7 @@
         <v>3.2</v>
       </c>
       <c r="M8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -12729,7 +12957,7 @@
         <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J11" t="s">
         <v>73</v>
@@ -12741,7 +12969,7 @@
         <v>14.9</v>
       </c>
       <c r="M11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -12761,7 +12989,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
@@ -12782,7 +13010,7 @@
         <v>4.7</v>
       </c>
       <c r="M12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -12793,7 +13021,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -12802,7 +13030,7 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G13" t="s">
         <v>103</v>
@@ -12811,7 +13039,7 @@
         <v>120</v>
       </c>
       <c r="I13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J13" t="s">
         <v>120</v>
@@ -12823,7 +13051,7 @@
         <v>5.9</v>
       </c>
       <c r="M13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -12864,7 +13092,7 @@
         <v>-1.3</v>
       </c>
       <c r="M14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -12905,7 +13133,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="M15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -12951,7 +13179,7 @@
         <v>-3.8</v>
       </c>
       <c r="M17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -12992,7 +13220,7 @@
         <v>3.7</v>
       </c>
       <c r="M18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -13026,7 +13254,7 @@
         <v>74</v>
       </c>
       <c r="I20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -13038,7 +13266,7 @@
         <v>-4.1</v>
       </c>
       <c r="M20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -13079,7 +13307,7 @@
         <v>-2.8</v>
       </c>
       <c r="M21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -13090,28 +13318,28 @@
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D22" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
         <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I22" t="s">
         <v>66</v>
       </c>
       <c r="J22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K22" t="s">
         <v>145</v>
@@ -13120,7 +13348,7 @@
         <v>10.7</v>
       </c>
       <c r="M22" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -13161,7 +13389,7 @@
         <v>0.7</v>
       </c>
       <c r="M23" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -13202,13 +13430,49 @@
         <v>-0.8</v>
       </c>
       <c r="M24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>154</v>
       </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25">
+        <v>2.2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
@@ -13233,13 +13497,13 @@
         <v>120</v>
       </c>
       <c r="H26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I26" t="s">
         <v>120</v>
       </c>
       <c r="J26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s">
         <v>54</v>
@@ -13248,7 +13512,7 @@
         <v>-2.3</v>
       </c>
       <c r="M26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -13271,7 +13535,7 @@
         <v>119</v>
       </c>
       <c r="G27" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H27" t="s">
         <v>66</v>
@@ -13289,7 +13553,7 @@
         <v>6.5</v>
       </c>
       <c r="M27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -13330,7 +13594,7 @@
         <v>5.1</v>
       </c>
       <c r="M28" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -13376,7 +13640,7 @@
         <v>7.2</v>
       </c>
       <c r="M30" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -13417,7 +13681,7 @@
         <v>3.7</v>
       </c>
       <c r="M31" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -13458,7 +13722,7 @@
         <v>0.2</v>
       </c>
       <c r="M32" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -13499,22 +13763,58 @@
         <v>2.7</v>
       </c>
       <c r="M33" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>178</v>
       </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" t="s">
+        <v>119</v>
+      </c>
+      <c r="I34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" t="s">
+        <v>53</v>
+      </c>
+      <c r="K34" t="s">
+        <v>45</v>
+      </c>
+      <c r="L34">
+        <v>1.2</v>
+      </c>
+      <c r="M34" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s">
         <v>66</v>
@@ -13550,17 +13850,17 @@
         <v>-1.8</v>
       </c>
       <c r="M36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s">
         <v>95</v>
@@ -13596,7 +13896,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M38" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -13617,40 +13917,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -13667,13 +13967,13 @@
         <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
@@ -13691,7 +13991,7 @@
         <v>23.3</v>
       </c>
       <c r="M2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -13711,7 +14011,7 @@
         <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
@@ -13732,7 +14032,7 @@
         <v>4.6</v>
       </c>
       <c r="M3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -13753,28 +14053,28 @@
         <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H6" t="s">
         <v>253</v>
-      </c>
-      <c r="H6" t="s">
-        <v>251</v>
       </c>
       <c r="I6" t="s">
         <v>142</v>
       </c>
       <c r="J6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K6" t="s">
         <v>44</v>
@@ -13783,7 +14083,7 @@
         <v>-0.9</v>
       </c>
       <c r="M6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -13800,7 +14100,7 @@
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -13809,13 +14109,13 @@
         <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I7" t="s">
         <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K7" t="s">
         <v>44</v>
@@ -13824,7 +14124,7 @@
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -13859,13 +14159,13 @@
         <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L8">
         <v>-0.9</v>
       </c>
       <c r="M8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -13886,10 +14186,10 @@
         <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E11" t="s">
         <v>79</v>
@@ -13916,7 +14216,7 @@
         <v>4.3</v>
       </c>
       <c r="M11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -13927,10 +14227,10 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D12" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E12" t="s">
         <v>42</v>
@@ -13948,7 +14248,7 @@
         <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K12" t="s">
         <v>74</v>
@@ -13957,7 +14257,7 @@
         <v>7.3</v>
       </c>
       <c r="M12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -13986,7 +14286,7 @@
         <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J13" t="s">
         <v>119</v>
@@ -13998,7 +14298,7 @@
         <v>4.6</v>
       </c>
       <c r="M13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -14039,7 +14339,7 @@
         <v>-1.3</v>
       </c>
       <c r="M14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -14080,7 +14380,7 @@
         <v>7.2</v>
       </c>
       <c r="M15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -14126,7 +14426,7 @@
         <v>-0.8</v>
       </c>
       <c r="M17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -14167,7 +14467,7 @@
         <v>3.7</v>
       </c>
       <c r="M18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -14189,7 +14489,7 @@
         <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F20" t="s">
         <v>104</v>
@@ -14213,7 +14513,7 @@
         <v>-2.7</v>
       </c>
       <c r="M20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -14254,7 +14554,7 @@
         <v>-0.3</v>
       </c>
       <c r="M21" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -14274,7 +14574,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G22" t="s">
         <v>77</v>
@@ -14283,10 +14583,10 @@
         <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J22" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K22" t="s">
         <v>77</v>
@@ -14295,7 +14595,7 @@
         <v>11.9</v>
       </c>
       <c r="M22" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -14336,7 +14636,7 @@
         <v>4.2</v>
       </c>
       <c r="M23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -14377,13 +14677,49 @@
         <v>0.2</v>
       </c>
       <c r="M24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>154</v>
       </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25">
+        <v>7.2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
@@ -14423,7 +14759,7 @@
         <v>-2.8</v>
       </c>
       <c r="M26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -14434,7 +14770,7 @@
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D27" t="s">
         <v>119</v>
@@ -14449,7 +14785,7 @@
         <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I27" t="s">
         <v>88</v>
@@ -14458,13 +14794,13 @@
         <v>66</v>
       </c>
       <c r="K27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L27">
         <v>0.3</v>
       </c>
       <c r="M27" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -14490,7 +14826,7 @@
         <v>120</v>
       </c>
       <c r="H28" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I28" t="s">
         <v>54</v>
@@ -14505,7 +14841,7 @@
         <v>4.7</v>
       </c>
       <c r="M28" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -14551,7 +14887,7 @@
         <v>3.7</v>
       </c>
       <c r="M30" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -14571,7 +14907,7 @@
         <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G31" t="s">
         <v>53</v>
@@ -14592,7 +14928,7 @@
         <v>2.2</v>
       </c>
       <c r="M31" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -14624,16 +14960,16 @@
         <v>113</v>
       </c>
       <c r="J32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L32">
         <v>-3.3</v>
       </c>
       <c r="M32" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -14674,22 +15010,58 @@
         <v>6</v>
       </c>
       <c r="M33" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>178</v>
       </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34">
+        <v>6.2</v>
+      </c>
+      <c r="M34" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s">
         <v>119</v>
@@ -14725,17 +15097,17 @@
         <v>-1.8</v>
       </c>
       <c r="M36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -14744,7 +15116,7 @@
         <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E38" t="s">
         <v>74</v>
@@ -14771,7 +15143,7 @@
         <v>4.7</v>
       </c>
       <c r="M38" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -14792,13 +15164,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -15073,6 +15445,15 @@
       <c r="A25" t="s">
         <v>154</v>
       </c>
+      <c r="B25">
+        <v>0.7261113886113886</v>
+      </c>
+      <c r="C25">
+        <v>0.273188784395681</v>
+      </c>
+      <c r="D25">
+        <v>0.372943722943723</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
@@ -15181,15 +15562,24 @@
       <c r="A34" t="s">
         <v>178</v>
       </c>
+      <c r="B34">
+        <v>0.3471603867830283</v>
+      </c>
+      <c r="C34">
+        <v>0.15</v>
+      </c>
+      <c r="D34">
+        <v>0.4286935286935288</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B36">
         <v>0.29410972469796</v>
@@ -15203,12 +15593,12 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B38">
         <v>0.3615384615384615</v>
@@ -15238,13 +15628,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -15519,6 +15909,15 @@
       <c r="A25" t="s">
         <v>154</v>
       </c>
+      <c r="B25">
+        <v>-2.8</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>17.8</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
@@ -15627,15 +16026,24 @@
       <c r="A34" t="s">
         <v>178</v>
       </c>
+      <c r="B34">
+        <v>0.2</v>
+      </c>
+      <c r="C34">
+        <v>3.5</v>
+      </c>
+      <c r="D34">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B36">
         <v>-7.8</v>
@@ -15649,12 +16057,12 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B38">
         <v>-0.8</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -7565,6 +7565,9 @@
         <v>0.7625893947322518</v>
       </c>
       <c r="C2">
+        <v>0.7693792266704504</v>
+      </c>
+      <c r="D2">
         <v>0.7467845964390863</v>
       </c>
     </row>
@@ -7576,6 +7579,9 @@
         <v>0.6640692640692641</v>
       </c>
       <c r="C3">
+        <v>0.693611111111111</v>
+      </c>
+      <c r="D3">
         <v>0.7923063973063973</v>
       </c>
     </row>
@@ -7597,6 +7603,9 @@
         <v>0.4028588516746412</v>
       </c>
       <c r="C6">
+        <v>0.6655635491249302</v>
+      </c>
+      <c r="D6">
         <v>0.3666045066045066</v>
       </c>
     </row>
@@ -7608,6 +7617,9 @@
         <v>0.5944372294372294</v>
       </c>
       <c r="C7">
+        <v>0.792237615472532</v>
+      </c>
+      <c r="D7">
         <v>0.571764705882353</v>
       </c>
     </row>
@@ -7619,6 +7631,9 @@
         <v>0.4277777777777778</v>
       </c>
       <c r="C8">
+        <v>0.5941849816849818</v>
+      </c>
+      <c r="D8">
         <v>0.3751871657754011</v>
       </c>
     </row>
@@ -7640,6 +7655,9 @@
         <v>0.3431671477636953</v>
       </c>
       <c r="C11">
+        <v>0.4964860066833751</v>
+      </c>
+      <c r="D11">
         <v>0.5735555555555556</v>
       </c>
     </row>
@@ -7651,6 +7669,9 @@
         <v>0.7663492063492063</v>
       </c>
       <c r="C12">
+        <v>0.7151013403072899</v>
+      </c>
+      <c r="D12">
         <v>0.6917847857549568</v>
       </c>
     </row>
@@ -7662,6 +7683,9 @@
         <v>0.643546776724134</v>
       </c>
       <c r="C13">
+        <v>0.5171918135954647</v>
+      </c>
+      <c r="D13">
         <v>0.4251282051282051</v>
       </c>
     </row>
@@ -7673,6 +7697,9 @@
         <v>0.4808080808080808</v>
       </c>
       <c r="C14">
+        <v>0.5618455698890481</v>
+      </c>
+      <c r="D14">
         <v>0.3639153439153439</v>
       </c>
     </row>
@@ -7684,6 +7711,9 @@
         <v>0.5508259856085942</v>
       </c>
       <c r="C15">
+        <v>0.6269702998151274</v>
+      </c>
+      <c r="D15">
         <v>0.4480105401844533</v>
       </c>
     </row>
@@ -7692,7 +7722,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -7700,10 +7730,13 @@
         <v>0.396218487394958</v>
       </c>
       <c r="C17">
+        <v>0.5235421441303794</v>
+      </c>
+      <c r="D17">
         <v>0.2665597147950089</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -7711,15 +7744,18 @@
         <v>0.1736111111111111</v>
       </c>
       <c r="C18">
+        <v>0.4021555914509206</v>
+      </c>
+      <c r="D18">
         <v>0.5181818181818182</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>136</v>
       </c>
@@ -7727,10 +7763,13 @@
         <v>0.4095238095238096</v>
       </c>
       <c r="C20">
+        <v>0.369168375484165</v>
+      </c>
+      <c r="D20">
         <v>0.3399589266155531</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -7738,10 +7777,13 @@
         <v>0.6859010270774977</v>
       </c>
       <c r="C21">
+        <v>0.470565953654189</v>
+      </c>
+      <c r="D21">
         <v>0.2355555555555556</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>141</v>
       </c>
@@ -7749,10 +7791,13 @@
         <v>0.5424747474747476</v>
       </c>
       <c r="C22">
+        <v>0.5580952380952381</v>
+      </c>
+      <c r="D22">
         <v>0.6702515167031295</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>150</v>
       </c>
@@ -7760,10 +7805,13 @@
         <v>0.2095238095238095</v>
       </c>
       <c r="C23">
+        <v>0.298675666001943</v>
+      </c>
+      <c r="D23">
         <v>0.2307692307692308</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>154</v>
       </c>
@@ -7771,10 +7819,13 @@
         <v>0.6093137254901961</v>
       </c>
       <c r="C24">
+        <v>0.7308428209993675</v>
+      </c>
+      <c r="D24">
         <v>0.5953571428571429</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>155</v>
       </c>
@@ -7782,10 +7833,13 @@
         <v>0.7261113886113886</v>
       </c>
       <c r="C25">
+        <v>0.5849260078891974</v>
+      </c>
+      <c r="D25">
         <v>0.372943722943723</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>156</v>
       </c>
@@ -7793,10 +7847,13 @@
         <v>0.7286195286195286</v>
       </c>
       <c r="C26">
+        <v>0.360676532769556</v>
+      </c>
+      <c r="D26">
         <v>0.4222222222222222</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>159</v>
       </c>
@@ -7804,10 +7861,13 @@
         <v>0.4158040050370579</v>
       </c>
       <c r="C27">
+        <v>0.5469614847663629</v>
+      </c>
+      <c r="D27">
         <v>0.518082788671024</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -7815,15 +7875,18 @@
         <v>0.6245476745476746</v>
       </c>
       <c r="C28">
+        <v>0.6783882053618895</v>
+      </c>
+      <c r="D28">
         <v>0.4797979797979798</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>166</v>
       </c>
@@ -7831,10 +7894,13 @@
         <v>0.5411457911457911</v>
       </c>
       <c r="C30">
+        <v>0.4147537286779833</v>
+      </c>
+      <c r="D30">
         <v>0.4965008675534991</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>170</v>
       </c>
@@ -7842,10 +7908,13 @@
         <v>0.466924066924067</v>
       </c>
       <c r="C31">
+        <v>0.6114339153959347</v>
+      </c>
+      <c r="D31">
         <v>0.5249750249750249</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -7853,10 +7922,13 @@
         <v>0.6107855107855109</v>
       </c>
       <c r="C32">
+        <v>0.7565099294553818</v>
+      </c>
+      <c r="D32">
         <v>0.5104440011460885</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>176</v>
       </c>
@@ -7864,10 +7936,13 @@
         <v>0.4871273291925465</v>
       </c>
       <c r="C33">
+        <v>0.6544337606837607</v>
+      </c>
+      <c r="D33">
         <v>0.3458333333333333</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>179</v>
       </c>
@@ -7875,15 +7950,18 @@
         <v>0.3471603867830283</v>
       </c>
       <c r="C34">
+        <v>0.4689436785672204</v>
+      </c>
+      <c r="D34">
         <v>0.4286935286935288</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>185</v>
       </c>
@@ -7891,15 +7969,18 @@
         <v>0.29410972469796</v>
       </c>
       <c r="C36">
+        <v>0.5710833284362697</v>
+      </c>
+      <c r="D36">
         <v>0.4882575757575758</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>189</v>
       </c>
@@ -7907,10 +7988,13 @@
         <v>0.3615384615384615</v>
       </c>
       <c r="C38">
+        <v>0.5157004830917875</v>
+      </c>
+      <c r="D38">
         <v>0.4153846153846154</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>193</v>
       </c>
@@ -7947,10 +8031,13 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="C2">
-        <v>44.6</v>
+        <v>5.3</v>
+      </c>
+      <c r="D2">
+        <v>43.8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7958,9 +8045,12 @@
         <v>49</v>
       </c>
       <c r="B3">
-        <v>14.8</v>
+        <v>-14.8</v>
       </c>
       <c r="C3">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
         <v>33.2</v>
       </c>
     </row>
@@ -7979,9 +8069,12 @@
         <v>76</v>
       </c>
       <c r="B6">
-        <v>8.6</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="C6">
+        <v>2.3</v>
+      </c>
+      <c r="D6">
         <v>10</v>
       </c>
     </row>
@@ -7990,10 +8083,13 @@
         <v>85</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>-8.4</v>
       </c>
       <c r="C7">
-        <v>16.2</v>
+        <v>-1.1</v>
+      </c>
+      <c r="D7">
+        <v>12.6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8001,10 +8097,13 @@
         <v>93</v>
       </c>
       <c r="B8">
-        <v>15.8</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="C8">
-        <v>14.6</v>
+        <v>2.3</v>
+      </c>
+      <c r="D8">
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8022,10 +8121,13 @@
         <v>106</v>
       </c>
       <c r="B11">
-        <v>18.6</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>5.1</v>
+      </c>
+      <c r="D11">
+        <v>23.2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8033,9 +8135,12 @@
         <v>110</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="C12">
+        <v>1.6</v>
+      </c>
+      <c r="D12">
         <v>34.8</v>
       </c>
     </row>
@@ -8044,9 +8149,12 @@
         <v>113</v>
       </c>
       <c r="B13">
-        <v>8.800000000000001</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
         <v>15.8</v>
       </c>
     </row>
@@ -8055,10 +8163,13 @@
         <v>117</v>
       </c>
       <c r="B14">
-        <v>12.8</v>
+        <v>-12.8</v>
       </c>
       <c r="C14">
-        <v>18.2</v>
+        <v>-5.1</v>
+      </c>
+      <c r="D14">
+        <v>17.8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8066,10 +8177,13 @@
         <v>123</v>
       </c>
       <c r="B15">
-        <v>10.8</v>
+        <v>-10.8</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>5.9</v>
+      </c>
+      <c r="D15">
+        <v>29.8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8077,225 +8191,279 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>128</v>
       </c>
       <c r="B17">
-        <v>15.8</v>
+        <v>-15.8</v>
       </c>
       <c r="C17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-1.6</v>
+      </c>
+      <c r="D17">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>131</v>
       </c>
       <c r="B18">
-        <v>11.2</v>
+        <v>-10.8</v>
       </c>
       <c r="C18">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>2.9</v>
+      </c>
+      <c r="D18">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>136</v>
       </c>
       <c r="B20">
-        <v>18.4</v>
+        <v>-18.4</v>
       </c>
       <c r="C20">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>1.5</v>
+      </c>
+      <c r="D20">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>138</v>
       </c>
       <c r="B21">
-        <v>14.8</v>
+        <v>-14.8</v>
       </c>
       <c r="C21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.9</v>
+      </c>
+      <c r="D21">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>141</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>-11.2</v>
       </c>
       <c r="C22">
+        <v>5.8</v>
+      </c>
+      <c r="D22">
         <v>44.8</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>150</v>
       </c>
       <c r="B23">
-        <v>11.8</v>
+        <v>0.2</v>
       </c>
       <c r="C23">
-        <v>18.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-4.1</v>
+      </c>
+      <c r="D23">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>154</v>
       </c>
       <c r="B24">
-        <v>17.8</v>
+        <v>-17.8</v>
       </c>
       <c r="C24">
+        <v>-1.1</v>
+      </c>
+      <c r="D24">
         <v>18.8</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>155</v>
       </c>
       <c r="B25">
-        <v>18.8</v>
+        <v>-2.8</v>
       </c>
       <c r="C25">
+        <v>1.9</v>
+      </c>
+      <c r="D25">
         <v>17.8</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>156</v>
       </c>
       <c r="B26">
-        <v>18.8</v>
+        <v>-18.8</v>
       </c>
       <c r="C26">
+        <v>-2.6</v>
+      </c>
+      <c r="D26">
         <v>13.8</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>159</v>
       </c>
       <c r="B27">
-        <v>10.6</v>
+        <v>-3.4</v>
       </c>
       <c r="C27">
+        <v>0.1</v>
+      </c>
+      <c r="D27">
         <v>16.8</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>162</v>
       </c>
       <c r="B28">
-        <v>14.8</v>
+        <v>-12.8</v>
       </c>
       <c r="C28">
+        <v>2.3</v>
+      </c>
+      <c r="D28">
         <v>27.8</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>166</v>
       </c>
       <c r="B30">
-        <v>17.2</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="C30">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>10.4</v>
+      </c>
+      <c r="D30">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>170</v>
       </c>
       <c r="B31">
-        <v>9.800000000000001</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="C31">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>1.4</v>
+      </c>
+      <c r="D31">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>174</v>
       </c>
       <c r="B32">
-        <v>20.8</v>
+        <v>-20.8</v>
       </c>
       <c r="C32">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.9</v>
+      </c>
+      <c r="D32">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>176</v>
       </c>
       <c r="B33">
-        <v>12.8</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="C33">
+        <v>3.9</v>
+      </c>
+      <c r="D33">
         <v>18.8</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>179</v>
       </c>
       <c r="B34">
+        <v>0.2</v>
+      </c>
+      <c r="C34">
+        <v>1.4</v>
+      </c>
+      <c r="D34">
         <v>11.8</v>
       </c>
-      <c r="C34">
-        <v>17.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>185</v>
       </c>
       <c r="B36">
-        <v>9.800000000000001</v>
+        <v>-7.8</v>
       </c>
       <c r="C36">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-6.1</v>
+      </c>
+      <c r="D36">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>189</v>
       </c>
       <c r="B38">
-        <v>14.8</v>
+        <v>-0.8</v>
       </c>
       <c r="C38">
+        <v>4.9</v>
+      </c>
+      <c r="D38">
         <v>18.8</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>193</v>
       </c>
@@ -8335,6 +8503,9 @@
         <v>21.8</v>
       </c>
       <c r="C2">
+        <v>17.3</v>
+      </c>
+      <c r="D2">
         <v>13.8</v>
       </c>
     </row>
@@ -8346,6 +8517,9 @@
         <v>3.6</v>
       </c>
       <c r="C3">
+        <v>2.9</v>
+      </c>
+      <c r="D3">
         <v>6.4</v>
       </c>
     </row>
@@ -8367,6 +8541,9 @@
         <v>13</v>
       </c>
       <c r="C6">
+        <v>4.7</v>
+      </c>
+      <c r="D6">
         <v>29.6</v>
       </c>
     </row>
@@ -8378,6 +8555,9 @@
         <v>10</v>
       </c>
       <c r="C7">
+        <v>4.9</v>
+      </c>
+      <c r="D7">
         <v>29</v>
       </c>
     </row>
@@ -8389,6 +8569,9 @@
         <v>9</v>
       </c>
       <c r="C8">
+        <v>4.9</v>
+      </c>
+      <c r="D8">
         <v>29.8</v>
       </c>
     </row>
@@ -8410,6 +8593,9 @@
         <v>23.4</v>
       </c>
       <c r="C11">
+        <v>5.9</v>
+      </c>
+      <c r="D11">
         <v>20.8</v>
       </c>
     </row>
@@ -8421,6 +8607,9 @@
         <v>4.4</v>
       </c>
       <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
         <v>9.199999999999999</v>
       </c>
     </row>
@@ -8432,6 +8621,9 @@
         <v>8.800000000000001</v>
       </c>
       <c r="C13">
+        <v>7.8</v>
+      </c>
+      <c r="D13">
         <v>23.8</v>
       </c>
     </row>
@@ -8443,6 +8635,9 @@
         <v>7.6</v>
       </c>
       <c r="C14">
+        <v>13.3</v>
+      </c>
+      <c r="D14">
         <v>23.8</v>
       </c>
     </row>
@@ -8454,6 +8649,9 @@
         <v>7.6</v>
       </c>
       <c r="C15">
+        <v>6.7</v>
+      </c>
+      <c r="D15">
         <v>16.2</v>
       </c>
     </row>
@@ -8462,7 +8660,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -8470,10 +8668,13 @@
         <v>6.6</v>
       </c>
       <c r="C17">
+        <v>6.8</v>
+      </c>
+      <c r="D17">
         <v>29.8</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -8481,15 +8682,18 @@
         <v>10.4</v>
       </c>
       <c r="C18">
+        <v>8.1</v>
+      </c>
+      <c r="D18">
         <v>26.2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>136</v>
       </c>
@@ -8497,10 +8701,13 @@
         <v>6</v>
       </c>
       <c r="C20">
+        <v>8.9</v>
+      </c>
+      <c r="D20">
         <v>37.8</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -8508,10 +8715,13 @@
         <v>5.6</v>
       </c>
       <c r="C21">
+        <v>5.5</v>
+      </c>
+      <c r="D21">
         <v>32.8</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>141</v>
       </c>
@@ -8519,10 +8729,13 @@
         <v>7.6</v>
       </c>
       <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
         <v>8.4</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>150</v>
       </c>
@@ -8530,10 +8743,13 @@
         <v>18.6</v>
       </c>
       <c r="C23">
+        <v>10.1</v>
+      </c>
+      <c r="D23">
         <v>24.2</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>154</v>
       </c>
@@ -8541,10 +8757,13 @@
         <v>2.6</v>
       </c>
       <c r="C24">
+        <v>2.9</v>
+      </c>
+      <c r="D24">
         <v>20.8</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>155</v>
       </c>
@@ -8552,10 +8771,13 @@
         <v>14.8</v>
       </c>
       <c r="C25">
+        <v>14.1</v>
+      </c>
+      <c r="D25">
         <v>23.8</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>156</v>
       </c>
@@ -8563,10 +8785,13 @@
         <v>6.4</v>
       </c>
       <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
         <v>25.8</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>159</v>
       </c>
@@ -8574,10 +8799,13 @@
         <v>17</v>
       </c>
       <c r="C27">
+        <v>11.7</v>
+      </c>
+      <c r="D27">
         <v>22.8</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -8585,15 +8813,18 @@
         <v>9.6</v>
       </c>
       <c r="C28">
+        <v>3.3</v>
+      </c>
+      <c r="D28">
         <v>14.2</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>166</v>
       </c>
@@ -8601,10 +8832,13 @@
         <v>18.4</v>
       </c>
       <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30">
         <v>29.8</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>170</v>
       </c>
@@ -8612,10 +8846,13 @@
         <v>7.8</v>
       </c>
       <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
         <v>20.8</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -8623,10 +8860,13 @@
         <v>5.6</v>
       </c>
       <c r="C32">
+        <v>6.3</v>
+      </c>
+      <c r="D32">
         <v>29.2</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>176</v>
       </c>
@@ -8634,10 +8874,13 @@
         <v>10</v>
       </c>
       <c r="C33">
+        <v>3.1</v>
+      </c>
+      <c r="D33">
         <v>25.2</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>179</v>
       </c>
@@ -8645,15 +8888,18 @@
         <v>22.6</v>
       </c>
       <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
         <v>34.2</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>185</v>
       </c>
@@ -8661,15 +8907,18 @@
         <v>14.6</v>
       </c>
       <c r="C36">
+        <v>10.3</v>
+      </c>
+      <c r="D36">
         <v>26.8</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>189</v>
       </c>
@@ -8677,10 +8926,13 @@
         <v>19.6</v>
       </c>
       <c r="C38">
+        <v>5.9</v>
+      </c>
+      <c r="D38">
         <v>29.2</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>193</v>
       </c>
@@ -8720,15 +8972,21 @@
         <v>-32</v>
       </c>
       <c r="C2">
+        <v>-51.8</v>
+      </c>
+      <c r="D2">
         <v>-8.199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="C3">
-        <v>44.6</v>
+        <v>5.3</v>
+      </c>
+      <c r="D3">
+        <v>43.8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8739,14 +8997,20 @@
         <v>-3.8</v>
       </c>
       <c r="C4">
+        <v>-10.1</v>
+      </c>
+      <c r="D4">
         <v>8.800000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5">
-        <v>14.8</v>
+        <v>-14.8</v>
       </c>
       <c r="C5">
+        <v>0.9</v>
+      </c>
+      <c r="D5">
         <v>33.2</v>
       </c>
     </row>
@@ -8768,14 +9032,20 @@
         <v>2.6</v>
       </c>
       <c r="C10">
+        <v>-2.5</v>
+      </c>
+      <c r="D10">
         <v>3.6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11">
-        <v>8.6</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="C11">
+        <v>2.3</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
     </row>
@@ -8787,15 +9057,21 @@
         <v>-17.8</v>
       </c>
       <c r="C12">
+        <v>-5.1</v>
+      </c>
+      <c r="D12">
         <v>2.8</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13">
-        <v>10</v>
+        <v>-8.4</v>
       </c>
       <c r="C13">
-        <v>16.2</v>
+        <v>-1.1</v>
+      </c>
+      <c r="D13">
+        <v>12.6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8806,15 +9082,21 @@
         <v>-0.8</v>
       </c>
       <c r="C14">
+        <v>-4.2</v>
+      </c>
+      <c r="D14">
         <v>11.8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15">
-        <v>15.8</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="C15">
-        <v>14.6</v>
+        <v>2.3</v>
+      </c>
+      <c r="D15">
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8822,12 +9104,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -8835,18 +9117,24 @@
         <v>1.6</v>
       </c>
       <c r="C20">
+        <v>3.1</v>
+      </c>
+      <c r="D20">
         <v>32.4</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="B21">
-        <v>18.6</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>5.1</v>
+      </c>
+      <c r="D21">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>110</v>
       </c>
@@ -8854,18 +9142,24 @@
         <v>-2.8</v>
       </c>
       <c r="C22">
+        <v>-13.4</v>
+      </c>
+      <c r="D22">
         <v>5.2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="B23">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="C23">
+        <v>1.6</v>
+      </c>
+      <c r="D23">
         <v>34.8</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -8873,18 +9167,24 @@
         <v>11.2</v>
       </c>
       <c r="C24">
+        <v>7.1</v>
+      </c>
+      <c r="D24">
         <v>21.8</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="B25">
-        <v>8.800000000000001</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
         <v>15.8</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -8892,18 +9192,24 @@
         <v>-13.8</v>
       </c>
       <c r="C26">
+        <v>-18.3</v>
+      </c>
+      <c r="D26">
         <v>2.8</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="B27">
-        <v>12.8</v>
+        <v>-12.8</v>
       </c>
       <c r="C27">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>-5.1</v>
+      </c>
+      <c r="D27">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -8911,23 +9217,29 @@
         <v>-3.8</v>
       </c>
       <c r="C28">
+        <v>-5.3</v>
+      </c>
+      <c r="D28">
         <v>5.8</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="B29">
-        <v>10.8</v>
+        <v>-10.8</v>
       </c>
       <c r="C29">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>5.9</v>
+      </c>
+      <c r="D29">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -8935,18 +9247,24 @@
         <v>-10.8</v>
       </c>
       <c r="C32">
+        <v>-1.6</v>
+      </c>
+      <c r="D32">
         <v>1.8</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="B33">
-        <v>15.8</v>
+        <v>-15.8</v>
       </c>
       <c r="C33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-1.6</v>
+      </c>
+      <c r="D33">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -8954,23 +9272,29 @@
         <v>-6.8</v>
       </c>
       <c r="C34">
+        <v>1.9</v>
+      </c>
+      <c r="D34">
         <v>13.8</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="B35">
-        <v>11.2</v>
+        <v>-10.8</v>
       </c>
       <c r="C35">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>2.9</v>
+      </c>
+      <c r="D35">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>136</v>
       </c>
@@ -8978,18 +9302,24 @@
         <v>-20.4</v>
       </c>
       <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
         <v>6.2</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="B39">
-        <v>18.4</v>
+        <v>-18.4</v>
       </c>
       <c r="C39">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>1.5</v>
+      </c>
+      <c r="D39">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>138</v>
       </c>
@@ -8997,18 +9327,24 @@
         <v>-2.8</v>
       </c>
       <c r="C40">
+        <v>3.4</v>
+      </c>
+      <c r="D40">
         <v>-4.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="B41">
-        <v>14.8</v>
+        <v>-14.8</v>
       </c>
       <c r="C41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.9</v>
+      </c>
+      <c r="D41">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>141</v>
       </c>
@@ -9016,18 +9352,24 @@
         <v>-11</v>
       </c>
       <c r="C42">
+        <v>4.1</v>
+      </c>
+      <c r="D42">
         <v>26.2</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="B43">
-        <v>14</v>
+        <v>-11.2</v>
       </c>
       <c r="C43">
+        <v>5.8</v>
+      </c>
+      <c r="D43">
         <v>44.8</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>150</v>
       </c>
@@ -9035,18 +9377,24 @@
         <v>3.2</v>
       </c>
       <c r="C44">
+        <v>4.4</v>
+      </c>
+      <c r="D44">
         <v>15.8</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="B45">
-        <v>11.8</v>
+        <v>0.2</v>
       </c>
       <c r="C45">
-        <v>18.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-4.1</v>
+      </c>
+      <c r="D45">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>154</v>
       </c>
@@ -9054,18 +9402,24 @@
         <v>-19.8</v>
       </c>
       <c r="C46">
+        <v>-11.6</v>
+      </c>
+      <c r="D46">
         <v>9.800000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="B47">
-        <v>17.8</v>
+        <v>-17.8</v>
       </c>
       <c r="C47">
+        <v>-1.1</v>
+      </c>
+      <c r="D47">
         <v>18.8</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>155</v>
       </c>
@@ -9073,18 +9427,24 @@
         <v>3.2</v>
       </c>
       <c r="C48">
+        <v>-0.1</v>
+      </c>
+      <c r="D48">
         <v>11.8</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="B49">
-        <v>18.8</v>
+        <v>-2.8</v>
       </c>
       <c r="C49">
+        <v>1.9</v>
+      </c>
+      <c r="D49">
         <v>17.8</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>156</v>
       </c>
@@ -9092,18 +9452,24 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="C50">
+        <v>-8.6</v>
+      </c>
+      <c r="D50">
         <v>1.8</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="B51">
-        <v>18.8</v>
+        <v>-18.8</v>
       </c>
       <c r="C51">
+        <v>-2.6</v>
+      </c>
+      <c r="D51">
         <v>13.8</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>159</v>
       </c>
@@ -9111,18 +9477,24 @@
         <v>0.2</v>
       </c>
       <c r="C52">
+        <v>-19.1</v>
+      </c>
+      <c r="D52">
         <v>9.800000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="B53">
-        <v>10.6</v>
+        <v>-3.4</v>
       </c>
       <c r="C53">
+        <v>0.1</v>
+      </c>
+      <c r="D53">
         <v>16.8</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>162</v>
       </c>
@@ -9130,23 +9502,29 @@
         <v>3.2</v>
       </c>
       <c r="C54">
+        <v>2.9</v>
+      </c>
+      <c r="D54">
         <v>18.8</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="B55">
-        <v>14.8</v>
+        <v>-12.8</v>
       </c>
       <c r="C55">
+        <v>2.3</v>
+      </c>
+      <c r="D55">
         <v>27.8</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>166</v>
       </c>
@@ -9154,18 +9532,24 @@
         <v>22.2</v>
       </c>
       <c r="C58">
+        <v>22.9</v>
+      </c>
+      <c r="D58">
         <v>20.8</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="B59">
-        <v>17.2</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="C59">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>10.4</v>
+      </c>
+      <c r="D59">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>170</v>
       </c>
@@ -9173,18 +9557,24 @@
         <v>-4.8</v>
       </c>
       <c r="C60">
+        <v>1.9</v>
+      </c>
+      <c r="D60">
         <v>12.8</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="B61">
-        <v>9.800000000000001</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="C61">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>1.4</v>
+      </c>
+      <c r="D61">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>174</v>
       </c>
@@ -9192,18 +9582,24 @@
         <v>-30.8</v>
       </c>
       <c r="C62">
+        <v>-20.1</v>
+      </c>
+      <c r="D62">
         <v>-3.6</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4">
       <c r="B63">
-        <v>20.8</v>
+        <v>-20.8</v>
       </c>
       <c r="C63">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.9</v>
+      </c>
+      <c r="D63">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>176</v>
       </c>
@@ -9211,18 +9607,24 @@
         <v>1.2</v>
       </c>
       <c r="C64">
+        <v>-1.1</v>
+      </c>
+      <c r="D64">
         <v>15.8</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="B65">
-        <v>12.8</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="C65">
+        <v>3.9</v>
+      </c>
+      <c r="D65">
         <v>18.8</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>179</v>
       </c>
@@ -9230,23 +9632,29 @@
         <v>-3.8</v>
       </c>
       <c r="C66">
+        <v>2.3</v>
+      </c>
+      <c r="D66">
         <v>5.2</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="B67">
+        <v>0.2</v>
+      </c>
+      <c r="C67">
+        <v>1.4</v>
+      </c>
+      <c r="D67">
         <v>11.8</v>
       </c>
-      <c r="C67">
-        <v>17.4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>185</v>
       </c>
@@ -9254,23 +9662,29 @@
         <v>-15.8</v>
       </c>
       <c r="C70">
+        <v>-19.1</v>
+      </c>
+      <c r="D70">
         <v>-2.2</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="B71">
-        <v>9.800000000000001</v>
+        <v>-7.8</v>
       </c>
       <c r="C71">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-6.1</v>
+      </c>
+      <c r="D71">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>189</v>
       </c>
@@ -9278,18 +9692,24 @@
         <v>2.2</v>
       </c>
       <c r="C74">
+        <v>4.7</v>
+      </c>
+      <c r="D74">
         <v>20.8</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="B75">
-        <v>14.8</v>
+        <v>-0.8</v>
       </c>
       <c r="C75">
+        <v>4.9</v>
+      </c>
+      <c r="D75">
         <v>18.8</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>193</v>
       </c>
